--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1270,7 +1270,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="J39" t="n">
         <v>70.5</v>
@@ -1420,7 +1420,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J45" t="n">
         <v>71.8</v>
@@ -1720,7 +1720,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J57" t="n">
         <v>73.6</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="H212"/>
       <c r="I212" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="J212" t="n">
         <v>99.1</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="H220"/>
       <c r="I220" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="J220" t="n">
         <v>100</v>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="H246"/>
       <c r="I246" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="J246" t="n">
         <v>100.4</v>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="H273"/>
       <c r="I273" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J273" t="n">
         <v>100.8</v>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H288"/>
       <c r="I288" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J288" t="n">
         <v>100.8</v>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="H289"/>
       <c r="I289" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J289" t="n">
         <v>100.7</v>
@@ -9503,7 +9503,7 @@
         <v>2010800</v>
       </c>
       <c r="I314" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J314" t="n">
         <v>101</v>
@@ -9542,7 +9542,7 @@
         <v>1912700</v>
       </c>
       <c r="I315" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="J315" t="n">
         <v>101.3</v>
@@ -9659,7 +9659,7 @@
         <v>2072100</v>
       </c>
       <c r="I318" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="J318" t="n">
         <v>103</v>
@@ -10010,7 +10010,7 @@
         <v>2274800</v>
       </c>
       <c r="I327" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J327" t="n">
         <v>107.1</v>
@@ -10283,7 +10283,7 @@
         <v>2396000</v>
       </c>
       <c r="I334" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J334" t="n">
         <v>113.6</v>
@@ -10611,7 +10611,7 @@
         <v>2426200</v>
       </c>
       <c r="I342" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J342" t="n">
         <v>117.5</v>
@@ -10775,7 +10775,7 @@
         <v>2457100</v>
       </c>
       <c r="I346" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J346" t="n">
         <v>119.3</v>
@@ -10980,7 +10980,7 @@
         <v>2441300</v>
       </c>
       <c r="I351" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J351" t="n">
         <v>118.5</v>
@@ -11030,7 +11030,7 @@
         <v>116</v>
       </c>
       <c r="L352" t="n">
-        <v>254.356</v>
+        <v>261.118</v>
       </c>
       <c r="M352" t="n">
         <v>19176653</v>
@@ -11141,10 +11141,10 @@
         <v>156520</v>
       </c>
       <c r="H355" t="n">
-        <v>2511600</v>
+        <v>2513500</v>
       </c>
       <c r="I355" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J355" t="n">
         <v>120.2</v>
@@ -11182,10 +11182,10 @@
         <v>156314</v>
       </c>
       <c r="H356" t="n">
-        <v>2491800</v>
+        <v>2502400</v>
       </c>
       <c r="I356" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J356" t="n">
         <v>120.4</v>
@@ -11205,24 +11205,28 @@
         <v>45505</v>
       </c>
       <c r="B357" t="n">
-        <v>104.4</v>
+        <v>105.1</v>
       </c>
       <c r="C357" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="D357" t="n">
         <v>361129</v>
       </c>
-      <c r="E357"/>
+      <c r="E357" t="n">
+        <v>7220293001.08</v>
+      </c>
       <c r="F357" t="n">
-        <v>149.6</v>
+        <v>149.1</v>
       </c>
       <c r="G357" t="n">
         <v>157644</v>
       </c>
-      <c r="H357"/>
+      <c r="H357" t="n">
+        <v>2516700</v>
+      </c>
       <c r="I357" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J357" t="n">
         <v>120.5</v>
@@ -11231,7 +11235,7 @@
         <v>118</v>
       </c>
       <c r="L357" t="n">
-        <v>234.33</v>
+        <v>234.088</v>
       </c>
       <c r="M357" t="n">
         <v>17305382</v>
@@ -11241,17 +11245,29 @@
       <c r="A358" s="1" t="n">
         <v>45536</v>
       </c>
-      <c r="B358"/>
-      <c r="C358"/>
-      <c r="D358"/>
-      <c r="E358"/>
-      <c r="F358"/>
+      <c r="B358" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="D358" t="n">
+        <v>3413659</v>
+      </c>
+      <c r="E358" t="n">
+        <v>7053563544.44</v>
+      </c>
+      <c r="F358" t="n">
+        <v>169.9</v>
+      </c>
       <c r="G358" t="n">
         <v>157622</v>
       </c>
-      <c r="H358"/>
+      <c r="H358" t="n">
+        <v>2485800</v>
+      </c>
       <c r="I358" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J358" t="n">
         <v>119.3</v>
@@ -11263,6 +11279,35 @@
       <c r="M358" t="n">
         <v>22244276</v>
       </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B359" t="n">
+        <v>96.9</v>
+      </c>
+      <c r="C359" t="n">
+        <v>105.2</v>
+      </c>
+      <c r="D359" t="n">
+        <v>380458</v>
+      </c>
+      <c r="E359"/>
+      <c r="F359"/>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="K359" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="L359"/>
+      <c r="M359"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1270,7 +1270,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
         <v>70.5</v>
@@ -1570,7 +1570,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="J51" t="n">
         <v>72.1</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="H101"/>
       <c r="I101" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J101" t="n">
         <v>87.5</v>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H190"/>
       <c r="I190" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="J190" t="n">
         <v>96.2</v>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="J196" t="n">
         <v>97.3</v>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="H212"/>
       <c r="I212" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="J212" t="n">
         <v>99.1</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="H214"/>
       <c r="I214" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="J214" t="n">
         <v>99.9</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="H220"/>
       <c r="I220" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="J220" t="n">
         <v>100</v>
@@ -7337,7 +7337,7 @@
       </c>
       <c r="H250"/>
       <c r="I250" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="J250" t="n">
         <v>100.3</v>
@@ -8591,7 +8591,7 @@
       </c>
       <c r="H288"/>
       <c r="I288" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J288" t="n">
         <v>100.8</v>
@@ -8624,7 +8624,7 @@
       </c>
       <c r="H289"/>
       <c r="I289" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J289" t="n">
         <v>100.7</v>
@@ -9854,7 +9854,7 @@
         <v>2249200</v>
       </c>
       <c r="I323" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J323" t="n">
         <v>105.4</v>
@@ -10939,7 +10939,7 @@
         <v>2448100</v>
       </c>
       <c r="I350" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J350" t="n">
         <v>117.2</v>
@@ -11293,7 +11293,9 @@
       <c r="D359" t="n">
         <v>380458</v>
       </c>
-      <c r="E359"/>
+      <c r="E359" t="n">
+        <v>7180670898.57</v>
+      </c>
       <c r="F359"/>
       <c r="G359"/>
       <c r="H359"/>
@@ -11309,6 +11311,25 @@
       <c r="L359"/>
       <c r="M359"/>
     </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+      <c r="E360"/>
+      <c r="F360"/>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J360"/>
+      <c r="K360"/>
+      <c r="L360"/>
+      <c r="M360"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -2817,7 +2817,7 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>46951</v>
+        <v>39435</v>
       </c>
       <c r="H98"/>
       <c r="I98" t="n">
@@ -2846,7 +2846,7 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>47991</v>
+        <v>39242</v>
       </c>
       <c r="H99"/>
       <c r="I99" t="n">
@@ -2875,7 +2875,7 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>47910</v>
+        <v>38676</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="n">
@@ -2904,7 +2904,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>48492</v>
+        <v>39316</v>
       </c>
       <c r="H101"/>
       <c r="I101" t="n">
@@ -2933,7 +2933,7 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>49085</v>
+        <v>39633</v>
       </c>
       <c r="H102"/>
       <c r="I102" t="n">
@@ -2962,7 +2962,7 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>49097</v>
+        <v>40163</v>
       </c>
       <c r="H103"/>
       <c r="I103" t="n">
@@ -2991,7 +2991,7 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>49648</v>
+        <v>41105</v>
       </c>
       <c r="H104"/>
       <c r="I104" t="n">
@@ -3020,7 +3020,7 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>50504</v>
+        <v>41845</v>
       </c>
       <c r="H105"/>
       <c r="I105" t="n">
@@ -3049,7 +3049,7 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>50835</v>
+        <v>42200</v>
       </c>
       <c r="H106"/>
       <c r="I106" t="n">
@@ -3078,7 +3078,7 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>51394</v>
+        <v>42904</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
@@ -3107,7 +3107,7 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>51570</v>
+        <v>42761</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
@@ -3136,7 +3136,7 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>51851</v>
+        <v>42996</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
@@ -3165,7 +3165,7 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>52676</v>
+        <v>43272</v>
       </c>
       <c r="H110"/>
       <c r="I110" t="n">
@@ -3194,7 +3194,7 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>54138</v>
+        <v>42474</v>
       </c>
       <c r="H111"/>
       <c r="I111" t="n">
@@ -3223,7 +3223,7 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>54327</v>
+        <v>42432</v>
       </c>
       <c r="H112"/>
       <c r="I112" t="n">
@@ -3252,7 +3252,7 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>55229</v>
+        <v>43186</v>
       </c>
       <c r="H113"/>
       <c r="I113" t="n">
@@ -3281,7 +3281,7 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>55725</v>
+        <v>43941</v>
       </c>
       <c r="H114"/>
       <c r="I114" t="n">
@@ -3310,7 +3310,7 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>56173</v>
+        <v>44833</v>
       </c>
       <c r="H115"/>
       <c r="I115" t="n">
@@ -3339,7 +3339,7 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>57499</v>
+        <v>45597</v>
       </c>
       <c r="H116"/>
       <c r="I116" t="n">
@@ -3368,7 +3368,7 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>58836</v>
+        <v>46893</v>
       </c>
       <c r="H117"/>
       <c r="I117" t="n">
@@ -3397,7 +3397,7 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>58477</v>
+        <v>46535</v>
       </c>
       <c r="H118"/>
       <c r="I118" t="n">
@@ -3426,7 +3426,7 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>57138</v>
+        <v>46411</v>
       </c>
       <c r="H119"/>
       <c r="I119" t="n">
@@ -3455,7 +3455,7 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>56781</v>
+        <v>45878</v>
       </c>
       <c r="H120"/>
       <c r="I120" t="n">
@@ -3484,7 +3484,7 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>58546</v>
+        <v>48682</v>
       </c>
       <c r="H121"/>
       <c r="I121" t="n">
@@ -3513,7 +3513,7 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>58674</v>
+        <v>48660</v>
       </c>
       <c r="H122"/>
       <c r="I122" t="n">
@@ -3542,7 +3542,7 @@
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>59489</v>
+        <v>48999</v>
       </c>
       <c r="H123"/>
       <c r="I123" t="n">
@@ -3571,7 +3571,7 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>58791</v>
+        <v>48269</v>
       </c>
       <c r="H124"/>
       <c r="I124" t="n">
@@ -3600,7 +3600,7 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>59875</v>
+        <v>49117</v>
       </c>
       <c r="H125"/>
       <c r="I125" t="n">
@@ -3629,7 +3629,7 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>60190</v>
+        <v>49964</v>
       </c>
       <c r="H126"/>
       <c r="I126" t="n">
@@ -3658,7 +3658,7 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>61612</v>
+        <v>51147</v>
       </c>
       <c r="H127"/>
       <c r="I127" t="n">
@@ -3687,7 +3687,7 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>62760</v>
+        <v>51929</v>
       </c>
       <c r="H128"/>
       <c r="I128" t="n">
@@ -3716,7 +3716,7 @@
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>63822</v>
+        <v>53219</v>
       </c>
       <c r="H129"/>
       <c r="I129" t="n">
@@ -3745,7 +3745,7 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>64683</v>
+        <v>53534</v>
       </c>
       <c r="H130"/>
       <c r="I130" t="n">
@@ -3774,7 +3774,7 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>66134</v>
+        <v>54812</v>
       </c>
       <c r="H131"/>
       <c r="I131" t="n">
@@ -3803,7 +3803,7 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>65505</v>
+        <v>54350</v>
       </c>
       <c r="H132"/>
       <c r="I132" t="n">
@@ -3832,7 +3832,7 @@
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>68112</v>
+        <v>56698</v>
       </c>
       <c r="H133"/>
       <c r="I133" t="n">
@@ -3861,7 +3861,7 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>67564</v>
+        <v>56637</v>
       </c>
       <c r="H134"/>
       <c r="I134" t="n">
@@ -3890,7 +3890,7 @@
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>68460</v>
+        <v>57256</v>
       </c>
       <c r="H135"/>
       <c r="I135" t="n">
@@ -3919,7 +3919,7 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>69212</v>
+        <v>57826</v>
       </c>
       <c r="H136"/>
       <c r="I136" t="n">
@@ -3948,7 +3948,7 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>70560</v>
+        <v>58810</v>
       </c>
       <c r="H137"/>
       <c r="I137" t="n">
@@ -3977,7 +3977,7 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>69998</v>
+        <v>59567</v>
       </c>
       <c r="H138"/>
       <c r="I138" t="n">
@@ -4006,7 +4006,7 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>71599</v>
+        <v>60493</v>
       </c>
       <c r="H139"/>
       <c r="I139" t="n">
@@ -4035,7 +4035,7 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>72442</v>
+        <v>60288</v>
       </c>
       <c r="H140"/>
       <c r="I140" t="n">
@@ -4064,7 +4064,7 @@
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>74253</v>
+        <v>61758</v>
       </c>
       <c r="H141"/>
       <c r="I141" t="n">
@@ -4093,7 +4093,7 @@
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>75852</v>
+        <v>62755</v>
       </c>
       <c r="H142"/>
       <c r="I142" t="n">
@@ -4122,7 +4122,7 @@
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>77656</v>
+        <v>64102</v>
       </c>
       <c r="H143"/>
       <c r="I143" t="n">
@@ -4151,7 +4151,7 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>76580</v>
+        <v>63724</v>
       </c>
       <c r="H144"/>
       <c r="I144" t="n">
@@ -4180,7 +4180,7 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>78857</v>
+        <v>65638</v>
       </c>
       <c r="H145"/>
       <c r="I145" t="n">
@@ -4209,7 +4209,7 @@
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>77399</v>
+        <v>64111</v>
       </c>
       <c r="H146"/>
       <c r="I146" t="n">
@@ -4238,7 +4238,7 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>78286</v>
+        <v>64145</v>
       </c>
       <c r="H147"/>
       <c r="I147" t="n">
@@ -4267,7 +4267,7 @@
       <c r="E148"/>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>77833</v>
+        <v>63006</v>
       </c>
       <c r="H148"/>
       <c r="I148" t="n">
@@ -4296,7 +4296,7 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>80350</v>
+        <v>63779</v>
       </c>
       <c r="H149"/>
       <c r="I149" t="n">
@@ -4325,7 +4325,7 @@
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>81110</v>
+        <v>63031</v>
       </c>
       <c r="H150"/>
       <c r="I150" t="n">
@@ -4354,7 +4354,7 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>81239</v>
+        <v>62630</v>
       </c>
       <c r="H151"/>
       <c r="I151" t="n">
@@ -4383,7 +4383,7 @@
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>81592</v>
+        <v>64177</v>
       </c>
       <c r="H152"/>
       <c r="I152" t="n">
@@ -4412,7 +4412,7 @@
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>82337</v>
+        <v>65115</v>
       </c>
       <c r="H153"/>
       <c r="I153" t="n">
@@ -4441,7 +4441,7 @@
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>82268</v>
+        <v>64898</v>
       </c>
       <c r="H154"/>
       <c r="I154" t="n">
@@ -4470,7 +4470,7 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>81901</v>
+        <v>64741</v>
       </c>
       <c r="H155"/>
       <c r="I155" t="n">
@@ -4499,7 +4499,7 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>81057</v>
+        <v>63675</v>
       </c>
       <c r="H156"/>
       <c r="I156" t="n">
@@ -4528,7 +4528,7 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>82213</v>
+        <v>65234</v>
       </c>
       <c r="H157"/>
       <c r="I157" t="n">
@@ -4557,7 +4557,7 @@
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>82380</v>
+        <v>64145</v>
       </c>
       <c r="H158"/>
       <c r="I158" t="n">
@@ -4586,7 +4586,7 @@
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>82582</v>
+        <v>63424</v>
       </c>
       <c r="H159"/>
       <c r="I159" t="n">
@@ -4615,7 +4615,7 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>82813</v>
+        <v>64040</v>
       </c>
       <c r="H160"/>
       <c r="I160" t="n">
@@ -4644,7 +4644,7 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>83431</v>
+        <v>64158</v>
       </c>
       <c r="H161"/>
       <c r="I161" t="n">
@@ -4673,7 +4673,7 @@
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>83626</v>
+        <v>64410</v>
       </c>
       <c r="H162"/>
       <c r="I162" t="n">
@@ -4702,7 +4702,7 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>83762</v>
+        <v>65143</v>
       </c>
       <c r="H163"/>
       <c r="I163" t="n">
@@ -4731,7 +4731,7 @@
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>84144</v>
+        <v>65500</v>
       </c>
       <c r="H164"/>
       <c r="I164" t="n">
@@ -4760,7 +4760,7 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>84754</v>
+        <v>65877</v>
       </c>
       <c r="H165"/>
       <c r="I165" t="n">
@@ -4789,7 +4789,7 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>82637</v>
+        <v>63939</v>
       </c>
       <c r="H166"/>
       <c r="I166" t="n">
@@ -4818,7 +4818,7 @@
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>84806</v>
+        <v>66068</v>
       </c>
       <c r="H167"/>
       <c r="I167" t="n">
@@ -4847,7 +4847,7 @@
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>83289</v>
+        <v>64396</v>
       </c>
       <c r="H168"/>
       <c r="I168" t="n">
@@ -4876,7 +4876,7 @@
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>84868</v>
+        <v>66828</v>
       </c>
       <c r="H169"/>
       <c r="I169" t="n">
@@ -4905,7 +4905,7 @@
       <c r="E170"/>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>97282</v>
+        <v>66680</v>
       </c>
       <c r="H170"/>
       <c r="I170" t="n">
@@ -4934,7 +4934,7 @@
       <c r="E171"/>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>97605</v>
+        <v>66544</v>
       </c>
       <c r="H171"/>
       <c r="I171" t="n">
@@ -4963,7 +4963,7 @@
       <c r="E172"/>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>97564</v>
+        <v>66165</v>
       </c>
       <c r="H172"/>
       <c r="I172" t="n">
@@ -4992,7 +4992,7 @@
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>98553</v>
+        <v>66794</v>
       </c>
       <c r="H173"/>
       <c r="I173" t="n">
@@ -5021,7 +5021,7 @@
       <c r="E174"/>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>99045</v>
+        <v>67564</v>
       </c>
       <c r="H174"/>
       <c r="I174" t="n">
@@ -5050,7 +5050,7 @@
       <c r="E175"/>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>98990</v>
+        <v>66998</v>
       </c>
       <c r="H175"/>
       <c r="I175" t="n">
@@ -5079,7 +5079,7 @@
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>99470</v>
+        <v>67612</v>
       </c>
       <c r="H176"/>
       <c r="I176" t="n">
@@ -5108,7 +5108,7 @@
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>100131</v>
+        <v>68963</v>
       </c>
       <c r="H177"/>
       <c r="I177" t="n">
@@ -5137,7 +5137,7 @@
       <c r="E178"/>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>98994</v>
+        <v>68694</v>
       </c>
       <c r="H178"/>
       <c r="I178" t="n">
@@ -5166,7 +5166,7 @@
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>99655</v>
+        <v>68742</v>
       </c>
       <c r="H179"/>
       <c r="I179" t="n">
@@ -5195,7 +5195,7 @@
       <c r="E180"/>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>99339</v>
+        <v>68687</v>
       </c>
       <c r="H180"/>
       <c r="I180" t="n">
@@ -5224,7 +5224,7 @@
       <c r="E181"/>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>100213</v>
+        <v>69435</v>
       </c>
       <c r="H181"/>
       <c r="I181" t="n">
@@ -5253,7 +5253,7 @@
       <c r="E182"/>
       <c r="F182"/>
       <c r="G182" t="n">
-        <v>100504</v>
+        <v>69093</v>
       </c>
       <c r="H182"/>
       <c r="I182" t="n">
@@ -5282,7 +5282,7 @@
       <c r="E183"/>
       <c r="F183"/>
       <c r="G183" t="n">
-        <v>100536</v>
+        <v>68475</v>
       </c>
       <c r="H183"/>
       <c r="I183" t="n">
@@ -5311,7 +5311,7 @@
       <c r="E184"/>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>99405</v>
+        <v>65995</v>
       </c>
       <c r="H184"/>
       <c r="I184" t="n">
@@ -5340,7 +5340,7 @@
       <c r="E185"/>
       <c r="F185"/>
       <c r="G185" t="n">
-        <v>99967</v>
+        <v>66273</v>
       </c>
       <c r="H185"/>
       <c r="I185" t="n">
@@ -5369,7 +5369,7 @@
       <c r="E186"/>
       <c r="F186"/>
       <c r="G186" t="n">
-        <v>99296</v>
+        <v>65889</v>
       </c>
       <c r="H186"/>
       <c r="I186" t="n">
@@ -5398,7 +5398,7 @@
       <c r="E187"/>
       <c r="F187"/>
       <c r="G187" t="n">
-        <v>98631</v>
+        <v>66411</v>
       </c>
       <c r="H187"/>
       <c r="I187" t="n">
@@ -5427,7 +5427,7 @@
       <c r="E188"/>
       <c r="F188"/>
       <c r="G188" t="n">
-        <v>98664</v>
+        <v>66004</v>
       </c>
       <c r="H188"/>
       <c r="I188" t="n">
@@ -5456,7 +5456,7 @@
       <c r="E189"/>
       <c r="F189"/>
       <c r="G189" t="n">
-        <v>97989</v>
+        <v>65952</v>
       </c>
       <c r="H189"/>
       <c r="I189" t="n">
@@ -5485,7 +5485,7 @@
       <c r="E190"/>
       <c r="F190"/>
       <c r="G190" t="n">
-        <v>97731</v>
+        <v>65064</v>
       </c>
       <c r="H190"/>
       <c r="I190" t="n">
@@ -5514,7 +5514,7 @@
       <c r="E191"/>
       <c r="F191"/>
       <c r="G191" t="n">
-        <v>97598</v>
+        <v>65194</v>
       </c>
       <c r="H191"/>
       <c r="I191" t="n">
@@ -5543,7 +5543,7 @@
       <c r="E192"/>
       <c r="F192"/>
       <c r="G192" t="n">
-        <v>95181</v>
+        <v>62862</v>
       </c>
       <c r="H192"/>
       <c r="I192" t="n">
@@ -5572,7 +5572,7 @@
       <c r="E193"/>
       <c r="F193"/>
       <c r="G193" t="n">
-        <v>95759</v>
+        <v>63494</v>
       </c>
       <c r="H193"/>
       <c r="I193" t="n">
@@ -5601,7 +5601,7 @@
       <c r="E194"/>
       <c r="F194"/>
       <c r="G194" t="n">
-        <v>95097</v>
+        <v>62679</v>
       </c>
       <c r="H194"/>
       <c r="I194" t="n">
@@ -5630,7 +5630,7 @@
       <c r="E195"/>
       <c r="F195"/>
       <c r="G195" t="n">
-        <v>94444</v>
+        <v>61649</v>
       </c>
       <c r="H195"/>
       <c r="I195" t="n">
@@ -5659,7 +5659,7 @@
       <c r="E196"/>
       <c r="F196"/>
       <c r="G196" t="n">
-        <v>94022</v>
+        <v>61316</v>
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
@@ -5688,7 +5688,7 @@
       <c r="E197"/>
       <c r="F197"/>
       <c r="G197" t="n">
-        <v>94024</v>
+        <v>61361</v>
       </c>
       <c r="H197"/>
       <c r="I197" t="n">
@@ -5717,7 +5717,7 @@
       <c r="E198"/>
       <c r="F198"/>
       <c r="G198" t="n">
-        <v>93264</v>
+        <v>61135</v>
       </c>
       <c r="H198"/>
       <c r="I198" t="n">
@@ -5746,7 +5746,7 @@
       <c r="E199"/>
       <c r="F199"/>
       <c r="G199" t="n">
-        <v>93232</v>
+        <v>61112</v>
       </c>
       <c r="H199"/>
       <c r="I199" t="n">
@@ -5775,7 +5775,7 @@
       <c r="E200"/>
       <c r="F200"/>
       <c r="G200" t="n">
-        <v>92787</v>
+        <v>60790</v>
       </c>
       <c r="H200"/>
       <c r="I200" t="n">
@@ -5804,7 +5804,7 @@
       <c r="E201"/>
       <c r="F201"/>
       <c r="G201" t="n">
-        <v>92253</v>
+        <v>61385</v>
       </c>
       <c r="H201"/>
       <c r="I201" t="n">
@@ -5833,7 +5833,7 @@
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202" t="n">
-        <v>92676</v>
+        <v>61595</v>
       </c>
       <c r="H202"/>
       <c r="I202" t="n">
@@ -5862,7 +5862,7 @@
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203" t="n">
-        <v>92764</v>
+        <v>62017</v>
       </c>
       <c r="H203"/>
       <c r="I203" t="n">
@@ -5891,7 +5891,7 @@
       <c r="E204"/>
       <c r="F204"/>
       <c r="G204" t="n">
-        <v>91284</v>
+        <v>61910</v>
       </c>
       <c r="H204"/>
       <c r="I204" t="n">
@@ -5920,7 +5920,7 @@
       <c r="E205"/>
       <c r="F205"/>
       <c r="G205" t="n">
-        <v>91642</v>
+        <v>61232</v>
       </c>
       <c r="H205"/>
       <c r="I205" t="n">
@@ -5951,7 +5951,7 @@
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206" t="n">
-        <v>91529</v>
+        <v>60904</v>
       </c>
       <c r="H206"/>
       <c r="I206" t="n">
@@ -5982,7 +5982,7 @@
       <c r="E207"/>
       <c r="F207"/>
       <c r="G207" t="n">
-        <v>91455</v>
+        <v>60827</v>
       </c>
       <c r="H207"/>
       <c r="I207" t="n">
@@ -6013,7 +6013,7 @@
       <c r="E208"/>
       <c r="F208"/>
       <c r="G208" t="n">
-        <v>92291</v>
+        <v>61131</v>
       </c>
       <c r="H208"/>
       <c r="I208" t="n">
@@ -6044,7 +6044,7 @@
       <c r="E209"/>
       <c r="F209"/>
       <c r="G209" t="n">
-        <v>92144</v>
+        <v>61668</v>
       </c>
       <c r="H209"/>
       <c r="I209" t="n">
@@ -6075,7 +6075,7 @@
       <c r="E210"/>
       <c r="F210"/>
       <c r="G210" t="n">
-        <v>92199</v>
+        <v>61872</v>
       </c>
       <c r="H210"/>
       <c r="I210" t="n">
@@ -6106,7 +6106,7 @@
       <c r="E211"/>
       <c r="F211"/>
       <c r="G211" t="n">
-        <v>92247</v>
+        <v>62102</v>
       </c>
       <c r="H211"/>
       <c r="I211" t="n">
@@ -6137,7 +6137,7 @@
       <c r="E212"/>
       <c r="F212"/>
       <c r="G212" t="n">
-        <v>91981</v>
+        <v>62620</v>
       </c>
       <c r="H212"/>
       <c r="I212" t="n">
@@ -6168,7 +6168,7 @@
       <c r="E213"/>
       <c r="F213"/>
       <c r="G213" t="n">
-        <v>92187</v>
+        <v>62269</v>
       </c>
       <c r="H213"/>
       <c r="I213" t="n">
@@ -6199,7 +6199,7 @@
       <c r="E214"/>
       <c r="F214"/>
       <c r="G214" t="n">
-        <v>92576</v>
+        <v>62185</v>
       </c>
       <c r="H214"/>
       <c r="I214" t="n">
@@ -6230,7 +6230,7 @@
       <c r="E215"/>
       <c r="F215"/>
       <c r="G215" t="n">
-        <v>92484</v>
+        <v>63056</v>
       </c>
       <c r="H215"/>
       <c r="I215" t="n">
@@ -6261,7 +6261,7 @@
       <c r="E216"/>
       <c r="F216"/>
       <c r="G216" t="n">
-        <v>92151</v>
+        <v>62081</v>
       </c>
       <c r="H216"/>
       <c r="I216" t="n">
@@ -6292,7 +6292,7 @@
       <c r="E217"/>
       <c r="F217"/>
       <c r="G217" t="n">
-        <v>92276</v>
+        <v>63136</v>
       </c>
       <c r="H217"/>
       <c r="I217" t="n">
@@ -6323,7 +6323,7 @@
       <c r="E218"/>
       <c r="F218"/>
       <c r="G218" t="n">
-        <v>92339</v>
+        <v>62747</v>
       </c>
       <c r="H218"/>
       <c r="I218" t="n">
@@ -6354,7 +6354,7 @@
       <c r="E219"/>
       <c r="F219"/>
       <c r="G219" t="n">
-        <v>92351</v>
+        <v>62018</v>
       </c>
       <c r="H219"/>
       <c r="I219" t="n">
@@ -6385,7 +6385,7 @@
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220" t="n">
-        <v>92529</v>
+        <v>61950</v>
       </c>
       <c r="H220"/>
       <c r="I220" t="n">
@@ -6416,7 +6416,7 @@
       <c r="E221"/>
       <c r="F221"/>
       <c r="G221" t="n">
-        <v>91875</v>
+        <v>61680</v>
       </c>
       <c r="H221"/>
       <c r="I221" t="n">
@@ -6447,7 +6447,7 @@
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" t="n">
-        <v>91733</v>
+        <v>61059</v>
       </c>
       <c r="H222"/>
       <c r="I222" t="n">
@@ -6478,7 +6478,7 @@
       <c r="E223"/>
       <c r="F223"/>
       <c r="G223" t="n">
-        <v>91581</v>
+        <v>60841</v>
       </c>
       <c r="H223"/>
       <c r="I223" t="n">
@@ -6509,7 +6509,7 @@
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" t="n">
-        <v>91270</v>
+        <v>60817</v>
       </c>
       <c r="H224"/>
       <c r="I224" t="n">
@@ -6540,7 +6540,7 @@
       <c r="E225"/>
       <c r="F225"/>
       <c r="G225" t="n">
-        <v>91478</v>
+        <v>60779</v>
       </c>
       <c r="H225"/>
       <c r="I225" t="n">
@@ -6571,7 +6571,7 @@
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" t="n">
-        <v>91496</v>
+        <v>60796</v>
       </c>
       <c r="H226"/>
       <c r="I226" t="n">
@@ -6602,7 +6602,7 @@
       <c r="E227"/>
       <c r="F227"/>
       <c r="G227" t="n">
-        <v>91788</v>
+        <v>60954</v>
       </c>
       <c r="H227"/>
       <c r="I227" t="n">
@@ -6633,7 +6633,7 @@
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" t="n">
-        <v>91246</v>
+        <v>60093</v>
       </c>
       <c r="H228"/>
       <c r="I228" t="n">
@@ -6664,7 +6664,7 @@
       <c r="E229"/>
       <c r="F229"/>
       <c r="G229" t="n">
-        <v>91268</v>
+        <v>61291</v>
       </c>
       <c r="H229"/>
       <c r="I229" t="n">
@@ -6695,7 +6695,7 @@
       <c r="E230"/>
       <c r="F230"/>
       <c r="G230" t="n">
-        <v>91676</v>
+        <v>60762</v>
       </c>
       <c r="H230"/>
       <c r="I230" t="n">
@@ -6726,7 +6726,7 @@
       <c r="E231"/>
       <c r="F231"/>
       <c r="G231" t="n">
-        <v>91458</v>
+        <v>60760</v>
       </c>
       <c r="H231"/>
       <c r="I231" t="n">
@@ -6757,7 +6757,7 @@
       <c r="E232"/>
       <c r="F232"/>
       <c r="G232" t="n">
-        <v>91401</v>
+        <v>59616</v>
       </c>
       <c r="H232"/>
       <c r="I232" t="n">
@@ -6788,7 +6788,7 @@
       <c r="E233"/>
       <c r="F233"/>
       <c r="G233" t="n">
-        <v>91539</v>
+        <v>59939</v>
       </c>
       <c r="H233"/>
       <c r="I233" t="n">
@@ -6819,7 +6819,7 @@
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234" t="n">
-        <v>91466</v>
+        <v>60197</v>
       </c>
       <c r="H234"/>
       <c r="I234" t="n">
@@ -6850,7 +6850,7 @@
       <c r="E235"/>
       <c r="F235"/>
       <c r="G235" t="n">
-        <v>91450</v>
+        <v>60836</v>
       </c>
       <c r="H235"/>
       <c r="I235" t="n">
@@ -6881,7 +6881,7 @@
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236" t="n">
-        <v>91444</v>
+        <v>60466</v>
       </c>
       <c r="H236"/>
       <c r="I236" t="n">
@@ -6912,7 +6912,7 @@
       <c r="E237"/>
       <c r="F237"/>
       <c r="G237" t="n">
-        <v>91845</v>
+        <v>60528</v>
       </c>
       <c r="H237"/>
       <c r="I237" t="n">
@@ -6943,7 +6943,7 @@
       <c r="E238"/>
       <c r="F238"/>
       <c r="G238" t="n">
-        <v>91761</v>
+        <v>60344</v>
       </c>
       <c r="H238"/>
       <c r="I238" t="n">
@@ -6974,7 +6974,7 @@
       <c r="E239"/>
       <c r="F239"/>
       <c r="G239" t="n">
-        <v>92537</v>
+        <v>61493</v>
       </c>
       <c r="H239"/>
       <c r="I239" t="n">
@@ -7005,7 +7005,7 @@
       <c r="E240"/>
       <c r="F240"/>
       <c r="G240" t="n">
-        <v>91823</v>
+        <v>60481</v>
       </c>
       <c r="H240"/>
       <c r="I240" t="n">
@@ -7036,7 +7036,7 @@
       <c r="E241"/>
       <c r="F241"/>
       <c r="G241" t="n">
-        <v>91690</v>
+        <v>61800</v>
       </c>
       <c r="H241"/>
       <c r="I241" t="n">
@@ -7069,7 +7069,7 @@
         <v>89.8</v>
       </c>
       <c r="G242" t="n">
-        <v>92104</v>
+        <v>60876</v>
       </c>
       <c r="H242"/>
       <c r="I242" t="n">
@@ -7102,7 +7102,7 @@
         <v>87</v>
       </c>
       <c r="G243" t="n">
-        <v>92529</v>
+        <v>59836</v>
       </c>
       <c r="H243"/>
       <c r="I243" t="n">
@@ -7135,7 +7135,7 @@
         <v>100.4</v>
       </c>
       <c r="G244" t="n">
-        <v>92479</v>
+        <v>59539</v>
       </c>
       <c r="H244"/>
       <c r="I244" t="n">
@@ -7168,7 +7168,7 @@
         <v>95.8</v>
       </c>
       <c r="G245" t="n">
-        <v>93277</v>
+        <v>59750</v>
       </c>
       <c r="H245"/>
       <c r="I245" t="n">
@@ -7201,7 +7201,7 @@
         <v>93.4</v>
       </c>
       <c r="G246" t="n">
-        <v>93629</v>
+        <v>59660</v>
       </c>
       <c r="H246"/>
       <c r="I246" t="n">
@@ -7234,7 +7234,7 @@
         <v>102.3</v>
       </c>
       <c r="G247" t="n">
-        <v>93370</v>
+        <v>60554</v>
       </c>
       <c r="H247"/>
       <c r="I247" t="n">
@@ -7267,7 +7267,7 @@
         <v>102.6</v>
       </c>
       <c r="G248" t="n">
-        <v>94082</v>
+        <v>60560</v>
       </c>
       <c r="H248"/>
       <c r="I248" t="n">
@@ -7300,7 +7300,7 @@
         <v>97.9</v>
       </c>
       <c r="G249" t="n">
-        <v>93911</v>
+        <v>61599</v>
       </c>
       <c r="H249"/>
       <c r="I249" t="n">
@@ -7333,7 +7333,7 @@
         <v>106</v>
       </c>
       <c r="G250" t="n">
-        <v>94130</v>
+        <v>60419</v>
       </c>
       <c r="H250"/>
       <c r="I250" t="n">
@@ -7366,7 +7366,7 @@
         <v>103.9</v>
       </c>
       <c r="G251" t="n">
-        <v>95197</v>
+        <v>61141</v>
       </c>
       <c r="H251"/>
       <c r="I251" t="n">
@@ -7399,7 +7399,7 @@
         <v>105.1</v>
       </c>
       <c r="G252" t="n">
-        <v>94564</v>
+        <v>59327</v>
       </c>
       <c r="H252"/>
       <c r="I252" t="n">
@@ -7432,7 +7432,7 @@
         <v>115.8</v>
       </c>
       <c r="G253" t="n">
-        <v>95025</v>
+        <v>60314</v>
       </c>
       <c r="H253"/>
       <c r="I253" t="n">
@@ -7465,7 +7465,7 @@
         <v>95.2</v>
       </c>
       <c r="G254" t="n">
-        <v>95658</v>
+        <v>59329</v>
       </c>
       <c r="H254"/>
       <c r="I254" t="n">
@@ -7498,7 +7498,7 @@
         <v>94.2</v>
       </c>
       <c r="G255" t="n">
-        <v>95248</v>
+        <v>59685</v>
       </c>
       <c r="H255"/>
       <c r="I255" t="n">
@@ -7531,7 +7531,7 @@
         <v>109.2</v>
       </c>
       <c r="G256" t="n">
-        <v>95441</v>
+        <v>59495</v>
       </c>
       <c r="H256"/>
       <c r="I256" t="n">
@@ -7564,7 +7564,7 @@
         <v>98.4</v>
       </c>
       <c r="G257" t="n">
-        <v>96079</v>
+        <v>59428</v>
       </c>
       <c r="H257"/>
       <c r="I257" t="n">
@@ -7597,7 +7597,7 @@
         <v>101.8</v>
       </c>
       <c r="G258" t="n">
-        <v>95884</v>
+        <v>60462</v>
       </c>
       <c r="H258"/>
       <c r="I258" t="n">
@@ -7630,7 +7630,7 @@
         <v>107.2</v>
       </c>
       <c r="G259" t="n">
-        <v>96345</v>
+        <v>59265</v>
       </c>
       <c r="H259"/>
       <c r="I259" t="n">
@@ -7663,7 +7663,7 @@
         <v>102</v>
       </c>
       <c r="G260" t="n">
-        <v>96862</v>
+        <v>58827</v>
       </c>
       <c r="H260"/>
       <c r="I260" t="n">
@@ -7696,7 +7696,7 @@
         <v>100.3</v>
       </c>
       <c r="G261" t="n">
-        <v>96357</v>
+        <v>59694</v>
       </c>
       <c r="H261"/>
       <c r="I261" t="n">
@@ -7729,7 +7729,7 @@
         <v>106.8</v>
       </c>
       <c r="G262" t="n">
-        <v>96994</v>
+        <v>58151</v>
       </c>
       <c r="H262"/>
       <c r="I262" t="n">
@@ -7762,7 +7762,7 @@
         <v>104.4</v>
       </c>
       <c r="G263" t="n">
-        <v>97636</v>
+        <v>58372</v>
       </c>
       <c r="H263"/>
       <c r="I263" t="n">
@@ -7795,7 +7795,7 @@
         <v>108.9</v>
       </c>
       <c r="G264" t="n">
-        <v>96609</v>
+        <v>58107</v>
       </c>
       <c r="H264"/>
       <c r="I264" t="n">
@@ -7828,7 +7828,7 @@
         <v>121.9</v>
       </c>
       <c r="G265" t="n">
-        <v>97454</v>
+        <v>59763</v>
       </c>
       <c r="H265"/>
       <c r="I265" t="n">
@@ -7861,7 +7861,7 @@
         <v>97</v>
       </c>
       <c r="G266" t="n">
-        <v>97618</v>
+        <v>58377</v>
       </c>
       <c r="H266"/>
       <c r="I266" t="n">
@@ -7894,7 +7894,7 @@
         <v>96.8</v>
       </c>
       <c r="G267" t="n">
-        <v>97846</v>
+        <v>58499</v>
       </c>
       <c r="H267"/>
       <c r="I267" t="n">
@@ -7927,7 +7927,7 @@
         <v>107</v>
       </c>
       <c r="G268" t="n">
-        <v>98415</v>
+        <v>58076</v>
       </c>
       <c r="H268"/>
       <c r="I268" t="n">
@@ -7960,7 +7960,7 @@
         <v>103.1</v>
       </c>
       <c r="G269" t="n">
-        <v>99413</v>
+        <v>58505</v>
       </c>
       <c r="H269"/>
       <c r="I269" t="n">
@@ -7993,7 +7993,7 @@
         <v>106</v>
       </c>
       <c r="G270" t="n">
-        <v>98882</v>
+        <v>58403</v>
       </c>
       <c r="H270"/>
       <c r="I270" t="n">
@@ -8026,7 +8026,7 @@
         <v>110.2</v>
       </c>
       <c r="G271" t="n">
-        <v>99847</v>
+        <v>58677</v>
       </c>
       <c r="H271"/>
       <c r="I271" t="n">
@@ -8059,7 +8059,7 @@
         <v>106.6</v>
       </c>
       <c r="G272" t="n">
-        <v>99890</v>
+        <v>58888</v>
       </c>
       <c r="H272"/>
       <c r="I272" t="n">
@@ -8092,7 +8092,7 @@
         <v>104.3</v>
       </c>
       <c r="G273" t="n">
-        <v>100250</v>
+        <v>60279</v>
       </c>
       <c r="H273"/>
       <c r="I273" t="n">
@@ -8125,7 +8125,7 @@
         <v>105.2</v>
       </c>
       <c r="G274" t="n">
-        <v>101142</v>
+        <v>60004</v>
       </c>
       <c r="H274"/>
       <c r="I274" t="n">
@@ -8158,7 +8158,7 @@
         <v>106.5</v>
       </c>
       <c r="G275" t="n">
-        <v>101156</v>
+        <v>62161</v>
       </c>
       <c r="H275"/>
       <c r="I275" t="n">
@@ -8191,7 +8191,7 @@
         <v>110.5</v>
       </c>
       <c r="G276" t="n">
-        <v>100672</v>
+        <v>60656</v>
       </c>
       <c r="H276"/>
       <c r="I276" t="n">
@@ -8224,7 +8224,7 @@
         <v>122.1</v>
       </c>
       <c r="G277" t="n">
-        <v>100318</v>
+        <v>61938</v>
       </c>
       <c r="H277"/>
       <c r="I277" t="n">
@@ -8257,7 +8257,7 @@
         <v>103</v>
       </c>
       <c r="G278" t="n">
-        <v>100380</v>
+        <v>61137</v>
       </c>
       <c r="H278"/>
       <c r="I278" t="n">
@@ -8290,7 +8290,7 @@
         <v>95.8</v>
       </c>
       <c r="G279" t="n">
-        <v>100502</v>
+        <v>61046</v>
       </c>
       <c r="H279"/>
       <c r="I279" t="n">
@@ -8323,7 +8323,7 @@
         <v>108.1</v>
       </c>
       <c r="G280" t="n">
-        <v>101486</v>
+        <v>60274</v>
       </c>
       <c r="H280"/>
       <c r="I280" t="n">
@@ -8356,7 +8356,7 @@
         <v>109.5</v>
       </c>
       <c r="G281" t="n">
-        <v>101876</v>
+        <v>60851</v>
       </c>
       <c r="H281"/>
       <c r="I281" t="n">
@@ -8389,7 +8389,7 @@
         <v>112.9</v>
       </c>
       <c r="G282" t="n">
-        <v>101967</v>
+        <v>60917</v>
       </c>
       <c r="H282"/>
       <c r="I282" t="n">
@@ -8422,7 +8422,7 @@
         <v>113.9</v>
       </c>
       <c r="G283" t="n">
-        <v>102749</v>
+        <v>61719</v>
       </c>
       <c r="H283"/>
       <c r="I283" t="n">
@@ -8455,7 +8455,7 @@
         <v>111.8</v>
       </c>
       <c r="G284" t="n">
-        <v>102683</v>
+        <v>62659</v>
       </c>
       <c r="H284"/>
       <c r="I284" t="n">
@@ -8488,7 +8488,7 @@
         <v>107.6</v>
       </c>
       <c r="G285" t="n">
-        <v>103131</v>
+        <v>63512</v>
       </c>
       <c r="H285"/>
       <c r="I285" t="n">
@@ -8521,7 +8521,7 @@
         <v>117.7</v>
       </c>
       <c r="G286" t="n">
-        <v>103855</v>
+        <v>62084</v>
       </c>
       <c r="H286"/>
       <c r="I286" t="n">
@@ -8554,7 +8554,7 @@
         <v>119.6</v>
       </c>
       <c r="G287" t="n">
-        <v>104085</v>
+        <v>63598</v>
       </c>
       <c r="H287"/>
       <c r="I287" t="n">
@@ -8587,7 +8587,7 @@
         <v>122</v>
       </c>
       <c r="G288" t="n">
-        <v>104127</v>
+        <v>62794</v>
       </c>
       <c r="H288"/>
       <c r="I288" t="n">
@@ -8620,7 +8620,7 @@
         <v>127.7</v>
       </c>
       <c r="G289" t="n">
-        <v>104689</v>
+        <v>62848</v>
       </c>
       <c r="H289"/>
       <c r="I289" t="n">
@@ -8653,7 +8653,7 @@
         <v>110.8</v>
       </c>
       <c r="G290" t="n">
-        <v>105050</v>
+        <v>61680</v>
       </c>
       <c r="H290" t="n">
         <v>2105500</v>
@@ -8688,7 +8688,7 @@
         <v>105.5</v>
       </c>
       <c r="G291" t="n">
-        <v>105463</v>
+        <v>61838</v>
       </c>
       <c r="H291" t="n">
         <v>2095500</v>
@@ -8723,7 +8723,7 @@
         <v>115.9</v>
       </c>
       <c r="G292" t="n">
-        <v>106518</v>
+        <v>61154</v>
       </c>
       <c r="H292" t="n">
         <v>2120300</v>
@@ -8758,7 +8758,7 @@
         <v>116.3</v>
       </c>
       <c r="G293" t="n">
-        <v>106952</v>
+        <v>62918</v>
       </c>
       <c r="H293" t="n">
         <v>2123000</v>
@@ -8793,7 +8793,7 @@
         <v>116.1</v>
       </c>
       <c r="G294" t="n">
-        <v>107753</v>
+        <v>62453</v>
       </c>
       <c r="H294" t="n">
         <v>2157300</v>
@@ -8828,7 +8828,7 @@
         <v>125.2</v>
       </c>
       <c r="G295" t="n">
-        <v>108512</v>
+        <v>63180</v>
       </c>
       <c r="H295" t="n">
         <v>2176100</v>
@@ -8863,7 +8863,7 @@
         <v>120.3</v>
       </c>
       <c r="G296" t="n">
-        <v>108978</v>
+        <v>64671</v>
       </c>
       <c r="H296" t="n">
         <v>2165600</v>
@@ -8898,7 +8898,7 @@
         <v>113.7</v>
       </c>
       <c r="G297" t="n">
-        <v>109657</v>
+        <v>65294</v>
       </c>
       <c r="H297" t="n">
         <v>2186500</v>
@@ -8933,7 +8933,7 @@
         <v>124</v>
       </c>
       <c r="G298" t="n">
-        <v>109672</v>
+        <v>65007</v>
       </c>
       <c r="H298" t="n">
         <v>2176800</v>
@@ -8968,7 +8968,7 @@
         <v>119.3</v>
       </c>
       <c r="G299" t="n">
-        <v>110746</v>
+        <v>66751</v>
       </c>
       <c r="H299" t="n">
         <v>2172000</v>
@@ -9003,7 +9003,7 @@
         <v>117.2</v>
       </c>
       <c r="G300" t="n">
-        <v>110708</v>
+        <v>67158</v>
       </c>
       <c r="H300" t="n">
         <v>2183800</v>
@@ -9038,7 +9038,7 @@
         <v>136.3</v>
       </c>
       <c r="G301" t="n">
-        <v>110977</v>
+        <v>67944</v>
       </c>
       <c r="H301" t="n">
         <v>2185200</v>
@@ -9073,7 +9073,7 @@
         <v>108.8</v>
       </c>
       <c r="G302" t="n">
-        <v>111901</v>
+        <v>66807</v>
       </c>
       <c r="H302" t="n">
         <v>2183100</v>
@@ -9108,7 +9108,7 @@
         <v>104.8</v>
       </c>
       <c r="G303" t="n">
-        <v>112485</v>
+        <v>66471</v>
       </c>
       <c r="H303" t="n">
         <v>2171000</v>
@@ -9143,7 +9143,7 @@
         <v>116.1</v>
       </c>
       <c r="G304" t="n">
-        <v>113338</v>
+        <v>67010</v>
       </c>
       <c r="H304" t="n">
         <v>2187000</v>
@@ -9178,7 +9178,7 @@
         <v>86.8</v>
       </c>
       <c r="G305" t="n">
-        <v>116304</v>
+        <v>68205</v>
       </c>
       <c r="H305" t="n">
         <v>1893600</v>
@@ -9213,7 +9213,7 @@
         <v>89.2</v>
       </c>
       <c r="G306" t="n">
-        <v>117947</v>
+        <v>68022</v>
       </c>
       <c r="H306" t="n">
         <v>1869100</v>
@@ -9248,7 +9248,7 @@
         <v>113.1</v>
       </c>
       <c r="G307" t="n">
-        <v>118698</v>
+        <v>68770</v>
       </c>
       <c r="H307" t="n">
         <v>1954500</v>
@@ -9283,7 +9283,7 @@
         <v>103.7</v>
       </c>
       <c r="G308" t="n">
-        <v>120657</v>
+        <v>70016</v>
       </c>
       <c r="H308" t="n">
         <v>2048300</v>
@@ -9318,7 +9318,7 @@
         <v>99.8</v>
       </c>
       <c r="G309" t="n">
-        <v>120887</v>
+        <v>70997</v>
       </c>
       <c r="H309" t="n">
         <v>2093900</v>
@@ -9353,7 +9353,7 @@
         <v>117.8</v>
       </c>
       <c r="G310" t="n">
-        <v>121572</v>
+        <v>71241</v>
       </c>
       <c r="H310" t="n">
         <v>2091600</v>
@@ -9388,7 +9388,7 @@
         <v>106.5</v>
       </c>
       <c r="G311" t="n">
-        <v>123306</v>
+        <v>72619</v>
       </c>
       <c r="H311" t="n">
         <v>2087200</v>
@@ -9423,7 +9423,7 @@
         <v>105.4</v>
       </c>
       <c r="G312" t="n">
-        <v>123895</v>
+        <v>72851</v>
       </c>
       <c r="H312" t="n">
         <v>2021800</v>
@@ -9458,7 +9458,7 @@
         <v>135.7</v>
       </c>
       <c r="G313" t="n">
-        <v>129291</v>
+        <v>69483</v>
       </c>
       <c r="H313" t="n">
         <v>2086400</v>
@@ -9497,7 +9497,7 @@
         <v>99</v>
       </c>
       <c r="G314" t="n">
-        <v>131232</v>
+        <v>66781</v>
       </c>
       <c r="H314" t="n">
         <v>2010800</v>
@@ -9536,7 +9536,7 @@
         <v>99.1</v>
       </c>
       <c r="G315" t="n">
-        <v>132634</v>
+        <v>66084</v>
       </c>
       <c r="H315" t="n">
         <v>1912700</v>
@@ -9575,7 +9575,7 @@
         <v>118.4</v>
       </c>
       <c r="G316" t="n">
-        <v>133418</v>
+        <v>66903</v>
       </c>
       <c r="H316" t="n">
         <v>1944200</v>
@@ -9614,7 +9614,7 @@
         <v>104.8</v>
       </c>
       <c r="G317" t="n">
-        <v>135596</v>
+        <v>67698</v>
       </c>
       <c r="H317" t="n">
         <v>1979800</v>
@@ -9653,7 +9653,7 @@
         <v>106.7</v>
       </c>
       <c r="G318" t="n">
-        <v>136346</v>
+        <v>68271</v>
       </c>
       <c r="H318" t="n">
         <v>2072100</v>
@@ -9692,7 +9692,7 @@
         <v>131.7</v>
       </c>
       <c r="G319" t="n">
-        <v>136830</v>
+        <v>69776</v>
       </c>
       <c r="H319" t="n">
         <v>2156400</v>
@@ -9731,7 +9731,7 @@
         <v>114.8</v>
       </c>
       <c r="G320" t="n">
-        <v>138683</v>
+        <v>70135</v>
       </c>
       <c r="H320" t="n">
         <v>2191400</v>
@@ -9770,7 +9770,7 @@
         <v>115.2</v>
       </c>
       <c r="G321" t="n">
-        <v>138241</v>
+        <v>69705</v>
       </c>
       <c r="H321" t="n">
         <v>2211000</v>
@@ -9809,7 +9809,7 @@
         <v>133.5</v>
       </c>
       <c r="G322" t="n">
-        <v>139350</v>
+        <v>68306</v>
       </c>
       <c r="H322" t="n">
         <v>2233200</v>
@@ -9848,7 +9848,7 @@
         <v>121.7</v>
       </c>
       <c r="G323" t="n">
-        <v>140499</v>
+        <v>68674</v>
       </c>
       <c r="H323" t="n">
         <v>2249200</v>
@@ -9887,7 +9887,7 @@
         <v>126.7</v>
       </c>
       <c r="G324" t="n">
-        <v>139125</v>
+        <v>69003</v>
       </c>
       <c r="H324" t="n">
         <v>2262000</v>
@@ -9926,7 +9926,7 @@
         <v>152.1</v>
       </c>
       <c r="G325" t="n">
-        <v>140237</v>
+        <v>71852</v>
       </c>
       <c r="H325" t="n">
         <v>2270800</v>
@@ -9965,7 +9965,7 @@
         <v>111.9</v>
       </c>
       <c r="G326" t="n">
-        <v>140995</v>
+        <v>70351</v>
       </c>
       <c r="H326" t="n">
         <v>2271900</v>
@@ -10004,7 +10004,7 @@
         <v>117.6</v>
       </c>
       <c r="G327" t="n">
-        <v>141446</v>
+        <v>69008</v>
       </c>
       <c r="H327" t="n">
         <v>2274800</v>
@@ -10043,7 +10043,7 @@
         <v>146.6</v>
       </c>
       <c r="G328" t="n">
-        <v>142345</v>
+        <v>68376</v>
       </c>
       <c r="H328" t="n">
         <v>2305800</v>
@@ -10082,7 +10082,7 @@
         <v>125.6</v>
       </c>
       <c r="G329" t="n">
-        <v>143454</v>
+        <v>70320</v>
       </c>
       <c r="H329" t="n">
         <v>2328300</v>
@@ -10121,7 +10121,7 @@
         <v>129.4</v>
       </c>
       <c r="G330" t="n">
-        <v>143306</v>
+        <v>69988</v>
       </c>
       <c r="H330" t="n">
         <v>2352500</v>
@@ -10160,7 +10160,7 @@
         <v>155.5</v>
       </c>
       <c r="G331" t="n">
-        <v>144646</v>
+        <v>71215</v>
       </c>
       <c r="H331" t="n">
         <v>2380300</v>
@@ -10199,7 +10199,7 @@
         <v>133</v>
       </c>
       <c r="G332" t="n">
-        <v>146245</v>
+        <v>69842</v>
       </c>
       <c r="H332" t="n">
         <v>2376900</v>
@@ -10238,7 +10238,7 @@
         <v>133.8</v>
       </c>
       <c r="G333" t="n">
-        <v>145972</v>
+        <v>71386</v>
       </c>
       <c r="H333" t="n">
         <v>2381100</v>
@@ -10277,7 +10277,7 @@
         <v>151.3</v>
       </c>
       <c r="G334" t="n">
-        <v>147174</v>
+        <v>69692</v>
       </c>
       <c r="H334" t="n">
         <v>2396000</v>
@@ -10318,7 +10318,7 @@
         <v>131.9</v>
       </c>
       <c r="G335" t="n">
-        <v>148677</v>
+        <v>72046</v>
       </c>
       <c r="H335" t="n">
         <v>2386800</v>
@@ -10359,7 +10359,7 @@
         <v>135.5</v>
       </c>
       <c r="G336" t="n">
-        <v>146914</v>
+        <v>71857</v>
       </c>
       <c r="H336" t="n">
         <v>2405800</v>
@@ -10400,7 +10400,7 @@
         <v>159.9</v>
       </c>
       <c r="G337" t="n">
-        <v>148028</v>
+        <v>74572</v>
       </c>
       <c r="H337" t="n">
         <v>2406400</v>
@@ -10441,7 +10441,7 @@
         <v>126</v>
       </c>
       <c r="G338" t="n">
-        <v>148151</v>
+        <v>73691</v>
       </c>
       <c r="H338" t="n">
         <v>2388600</v>
@@ -10482,7 +10482,7 @@
         <v>123.7</v>
       </c>
       <c r="G339" t="n">
-        <v>148350</v>
+        <v>74799</v>
       </c>
       <c r="H339" t="n">
         <v>2382400</v>
@@ -10523,7 +10523,7 @@
         <v>147.7</v>
       </c>
       <c r="G340" t="n">
-        <v>150236</v>
+        <v>70161</v>
       </c>
       <c r="H340" t="n">
         <v>2408900</v>
@@ -10564,7 +10564,7 @@
         <v>131</v>
       </c>
       <c r="G341" t="n">
-        <v>151243</v>
+        <v>72573</v>
       </c>
       <c r="H341" t="n">
         <v>2412300</v>
@@ -10605,7 +10605,7 @@
         <v>134.8</v>
       </c>
       <c r="G342" t="n">
-        <v>150560</v>
+        <v>72564</v>
       </c>
       <c r="H342" t="n">
         <v>2426200</v>
@@ -10646,7 +10646,7 @@
         <v>156.5</v>
       </c>
       <c r="G343" t="n">
-        <v>151628</v>
+        <v>71466</v>
       </c>
       <c r="H343" t="n">
         <v>2451700</v>
@@ -10687,7 +10687,7 @@
         <v>135.7</v>
       </c>
       <c r="G344" t="n">
-        <v>151583</v>
+        <v>74111</v>
       </c>
       <c r="H344" t="n">
         <v>2438800</v>
@@ -10728,7 +10728,7 @@
         <v>138.1</v>
       </c>
       <c r="G345" t="n">
-        <v>152032</v>
+        <v>73446</v>
       </c>
       <c r="H345" t="n">
         <v>2446600</v>
@@ -10769,7 +10769,7 @@
         <v>155.8</v>
       </c>
       <c r="G346" t="n">
-        <v>152773</v>
+        <v>71442</v>
       </c>
       <c r="H346" t="n">
         <v>2457100</v>
@@ -10810,7 +10810,7 @@
         <v>147.4</v>
       </c>
       <c r="G347" t="n">
-        <v>152734</v>
+        <v>76542</v>
       </c>
       <c r="H347" t="n">
         <v>2449000</v>
@@ -10851,7 +10851,7 @@
         <v>138.2</v>
       </c>
       <c r="G348" t="n">
-        <v>151468</v>
+        <v>75622</v>
       </c>
       <c r="H348" t="n">
         <v>2459300</v>
@@ -10892,7 +10892,7 @@
         <v>169.9</v>
       </c>
       <c r="G349" t="n">
-        <v>152416</v>
+        <v>75752</v>
       </c>
       <c r="H349" t="n">
         <v>2459700</v>
@@ -10933,7 +10933,7 @@
         <v>137.8</v>
       </c>
       <c r="G350" t="n">
-        <v>152283</v>
+        <v>77324</v>
       </c>
       <c r="H350" t="n">
         <v>2448100</v>
@@ -10974,7 +10974,7 @@
         <v>138.2</v>
       </c>
       <c r="G351" t="n">
-        <v>153437</v>
+        <v>75547</v>
       </c>
       <c r="H351" t="n">
         <v>2441300</v>
@@ -11015,7 +11015,7 @@
         <v>159.3</v>
       </c>
       <c r="G352" t="n">
-        <v>154487</v>
+        <v>74152</v>
       </c>
       <c r="H352" t="n">
         <v>2468000</v>
@@ -11056,7 +11056,7 @@
         <v>148.6</v>
       </c>
       <c r="G353" t="n">
-        <v>154387</v>
+        <v>78354</v>
       </c>
       <c r="H353" t="n">
         <v>2468200</v>
@@ -11097,7 +11097,7 @@
         <v>147</v>
       </c>
       <c r="G354" t="n">
-        <v>155469</v>
+        <v>78268</v>
       </c>
       <c r="H354" t="n">
         <v>2494600</v>
@@ -11138,7 +11138,7 @@
         <v>171.1</v>
       </c>
       <c r="G355" t="n">
-        <v>156520</v>
+        <v>77322</v>
       </c>
       <c r="H355" t="n">
         <v>2513500</v>
@@ -11179,7 +11179,7 @@
         <v>152</v>
       </c>
       <c r="G356" t="n">
-        <v>156314</v>
+        <v>81628</v>
       </c>
       <c r="H356" t="n">
         <v>2502400</v>
@@ -11220,10 +11220,10 @@
         <v>149.1</v>
       </c>
       <c r="G357" t="n">
-        <v>157644</v>
+        <v>80931</v>
       </c>
       <c r="H357" t="n">
-        <v>2516700</v>
+        <v>2519900</v>
       </c>
       <c r="I357" t="n">
         <v>4.1</v>
@@ -11261,10 +11261,10 @@
         <v>169.9</v>
       </c>
       <c r="G358" t="n">
-        <v>157622</v>
+        <v>80367</v>
       </c>
       <c r="H358" t="n">
-        <v>2485800</v>
+        <v>2495500</v>
       </c>
       <c r="I358" t="n">
         <v>4.1</v>
@@ -11297,8 +11297,12 @@
         <v>7180670898.57</v>
       </c>
       <c r="F359"/>
-      <c r="G359"/>
-      <c r="H359"/>
+      <c r="G359" t="n">
+        <v>85186</v>
+      </c>
+      <c r="H359" t="n">
+        <v>2494100</v>
+      </c>
       <c r="I359" t="n">
         <v>4.2</v>
       </c>
@@ -11317,7 +11321,9 @@
       </c>
       <c r="B360"/>
       <c r="C360"/>
-      <c r="D360"/>
+      <c r="D360" t="n">
+        <v>3095000</v>
+      </c>
       <c r="E360"/>
       <c r="F360"/>
       <c r="G360"/>
@@ -11325,8 +11331,12 @@
       <c r="I360" t="n">
         <v>4.1</v>
       </c>
-      <c r="J360"/>
-      <c r="K360"/>
+      <c r="J360" t="n">
+        <v>119</v>
+      </c>
+      <c r="K360" t="n">
+        <v>116.4</v>
+      </c>
       <c r="L360"/>
       <c r="M360"/>
     </row>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -2817,7 +2817,7 @@
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>39435</v>
+        <v>46951</v>
       </c>
       <c r="H98"/>
       <c r="I98" t="n">
@@ -2846,7 +2846,7 @@
       <c r="E99"/>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>39242</v>
+        <v>47991</v>
       </c>
       <c r="H99"/>
       <c r="I99" t="n">
@@ -2875,7 +2875,7 @@
       <c r="E100"/>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>38676</v>
+        <v>47910</v>
       </c>
       <c r="H100"/>
       <c r="I100" t="n">
@@ -2904,7 +2904,7 @@
       <c r="E101"/>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>39316</v>
+        <v>48492</v>
       </c>
       <c r="H101"/>
       <c r="I101" t="n">
@@ -2933,7 +2933,7 @@
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>39633</v>
+        <v>49085</v>
       </c>
       <c r="H102"/>
       <c r="I102" t="n">
@@ -2962,7 +2962,7 @@
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>40163</v>
+        <v>49097</v>
       </c>
       <c r="H103"/>
       <c r="I103" t="n">
@@ -2991,7 +2991,7 @@
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>41105</v>
+        <v>49648</v>
       </c>
       <c r="H104"/>
       <c r="I104" t="n">
@@ -3020,7 +3020,7 @@
       <c r="E105"/>
       <c r="F105"/>
       <c r="G105" t="n">
-        <v>41845</v>
+        <v>50504</v>
       </c>
       <c r="H105"/>
       <c r="I105" t="n">
@@ -3049,7 +3049,7 @@
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>42200</v>
+        <v>50835</v>
       </c>
       <c r="H106"/>
       <c r="I106" t="n">
@@ -3078,7 +3078,7 @@
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>42904</v>
+        <v>51394</v>
       </c>
       <c r="H107"/>
       <c r="I107" t="n">
@@ -3107,7 +3107,7 @@
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>42761</v>
+        <v>51570</v>
       </c>
       <c r="H108"/>
       <c r="I108" t="n">
@@ -3136,7 +3136,7 @@
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>42996</v>
+        <v>51851</v>
       </c>
       <c r="H109"/>
       <c r="I109" t="n">
@@ -3165,7 +3165,7 @@
       <c r="E110"/>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>43272</v>
+        <v>52676</v>
       </c>
       <c r="H110"/>
       <c r="I110" t="n">
@@ -3194,7 +3194,7 @@
       <c r="E111"/>
       <c r="F111"/>
       <c r="G111" t="n">
-        <v>42474</v>
+        <v>54138</v>
       </c>
       <c r="H111"/>
       <c r="I111" t="n">
@@ -3223,7 +3223,7 @@
       <c r="E112"/>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>42432</v>
+        <v>54327</v>
       </c>
       <c r="H112"/>
       <c r="I112" t="n">
@@ -3252,7 +3252,7 @@
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>43186</v>
+        <v>55229</v>
       </c>
       <c r="H113"/>
       <c r="I113" t="n">
@@ -3281,7 +3281,7 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>43941</v>
+        <v>55725</v>
       </c>
       <c r="H114"/>
       <c r="I114" t="n">
@@ -3310,7 +3310,7 @@
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>44833</v>
+        <v>56173</v>
       </c>
       <c r="H115"/>
       <c r="I115" t="n">
@@ -3339,7 +3339,7 @@
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>45597</v>
+        <v>57499</v>
       </c>
       <c r="H116"/>
       <c r="I116" t="n">
@@ -3368,7 +3368,7 @@
       <c r="E117"/>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>46893</v>
+        <v>58836</v>
       </c>
       <c r="H117"/>
       <c r="I117" t="n">
@@ -3397,7 +3397,7 @@
       <c r="E118"/>
       <c r="F118"/>
       <c r="G118" t="n">
-        <v>46535</v>
+        <v>58477</v>
       </c>
       <c r="H118"/>
       <c r="I118" t="n">
@@ -3426,7 +3426,7 @@
       <c r="E119"/>
       <c r="F119"/>
       <c r="G119" t="n">
-        <v>46411</v>
+        <v>57138</v>
       </c>
       <c r="H119"/>
       <c r="I119" t="n">
@@ -3455,7 +3455,7 @@
       <c r="E120"/>
       <c r="F120"/>
       <c r="G120" t="n">
-        <v>45878</v>
+        <v>56781</v>
       </c>
       <c r="H120"/>
       <c r="I120" t="n">
@@ -3484,7 +3484,7 @@
       <c r="E121"/>
       <c r="F121"/>
       <c r="G121" t="n">
-        <v>48682</v>
+        <v>58546</v>
       </c>
       <c r="H121"/>
       <c r="I121" t="n">
@@ -3513,7 +3513,7 @@
       <c r="E122"/>
       <c r="F122"/>
       <c r="G122" t="n">
-        <v>48660</v>
+        <v>58674</v>
       </c>
       <c r="H122"/>
       <c r="I122" t="n">
@@ -3542,7 +3542,7 @@
       <c r="E123"/>
       <c r="F123"/>
       <c r="G123" t="n">
-        <v>48999</v>
+        <v>59489</v>
       </c>
       <c r="H123"/>
       <c r="I123" t="n">
@@ -3571,7 +3571,7 @@
       <c r="E124"/>
       <c r="F124"/>
       <c r="G124" t="n">
-        <v>48269</v>
+        <v>58791</v>
       </c>
       <c r="H124"/>
       <c r="I124" t="n">
@@ -3600,7 +3600,7 @@
       <c r="E125"/>
       <c r="F125"/>
       <c r="G125" t="n">
-        <v>49117</v>
+        <v>59875</v>
       </c>
       <c r="H125"/>
       <c r="I125" t="n">
@@ -3629,7 +3629,7 @@
       <c r="E126"/>
       <c r="F126"/>
       <c r="G126" t="n">
-        <v>49964</v>
+        <v>60190</v>
       </c>
       <c r="H126"/>
       <c r="I126" t="n">
@@ -3658,7 +3658,7 @@
       <c r="E127"/>
       <c r="F127"/>
       <c r="G127" t="n">
-        <v>51147</v>
+        <v>61612</v>
       </c>
       <c r="H127"/>
       <c r="I127" t="n">
@@ -3687,7 +3687,7 @@
       <c r="E128"/>
       <c r="F128"/>
       <c r="G128" t="n">
-        <v>51929</v>
+        <v>62760</v>
       </c>
       <c r="H128"/>
       <c r="I128" t="n">
@@ -3716,7 +3716,7 @@
       <c r="E129"/>
       <c r="F129"/>
       <c r="G129" t="n">
-        <v>53219</v>
+        <v>63822</v>
       </c>
       <c r="H129"/>
       <c r="I129" t="n">
@@ -3745,7 +3745,7 @@
       <c r="E130"/>
       <c r="F130"/>
       <c r="G130" t="n">
-        <v>53534</v>
+        <v>64683</v>
       </c>
       <c r="H130"/>
       <c r="I130" t="n">
@@ -3774,7 +3774,7 @@
       <c r="E131"/>
       <c r="F131"/>
       <c r="G131" t="n">
-        <v>54812</v>
+        <v>66134</v>
       </c>
       <c r="H131"/>
       <c r="I131" t="n">
@@ -3803,7 +3803,7 @@
       <c r="E132"/>
       <c r="F132"/>
       <c r="G132" t="n">
-        <v>54350</v>
+        <v>65505</v>
       </c>
       <c r="H132"/>
       <c r="I132" t="n">
@@ -3832,7 +3832,7 @@
       <c r="E133"/>
       <c r="F133"/>
       <c r="G133" t="n">
-        <v>56698</v>
+        <v>68112</v>
       </c>
       <c r="H133"/>
       <c r="I133" t="n">
@@ -3861,7 +3861,7 @@
       <c r="E134"/>
       <c r="F134"/>
       <c r="G134" t="n">
-        <v>56637</v>
+        <v>67564</v>
       </c>
       <c r="H134"/>
       <c r="I134" t="n">
@@ -3890,7 +3890,7 @@
       <c r="E135"/>
       <c r="F135"/>
       <c r="G135" t="n">
-        <v>57256</v>
+        <v>68460</v>
       </c>
       <c r="H135"/>
       <c r="I135" t="n">
@@ -3919,7 +3919,7 @@
       <c r="E136"/>
       <c r="F136"/>
       <c r="G136" t="n">
-        <v>57826</v>
+        <v>69212</v>
       </c>
       <c r="H136"/>
       <c r="I136" t="n">
@@ -3948,7 +3948,7 @@
       <c r="E137"/>
       <c r="F137"/>
       <c r="G137" t="n">
-        <v>58810</v>
+        <v>70560</v>
       </c>
       <c r="H137"/>
       <c r="I137" t="n">
@@ -3977,7 +3977,7 @@
       <c r="E138"/>
       <c r="F138"/>
       <c r="G138" t="n">
-        <v>59567</v>
+        <v>69998</v>
       </c>
       <c r="H138"/>
       <c r="I138" t="n">
@@ -4006,7 +4006,7 @@
       <c r="E139"/>
       <c r="F139"/>
       <c r="G139" t="n">
-        <v>60493</v>
+        <v>71599</v>
       </c>
       <c r="H139"/>
       <c r="I139" t="n">
@@ -4035,7 +4035,7 @@
       <c r="E140"/>
       <c r="F140"/>
       <c r="G140" t="n">
-        <v>60288</v>
+        <v>72442</v>
       </c>
       <c r="H140"/>
       <c r="I140" t="n">
@@ -4064,7 +4064,7 @@
       <c r="E141"/>
       <c r="F141"/>
       <c r="G141" t="n">
-        <v>61758</v>
+        <v>74253</v>
       </c>
       <c r="H141"/>
       <c r="I141" t="n">
@@ -4093,7 +4093,7 @@
       <c r="E142"/>
       <c r="F142"/>
       <c r="G142" t="n">
-        <v>62755</v>
+        <v>75852</v>
       </c>
       <c r="H142"/>
       <c r="I142" t="n">
@@ -4122,7 +4122,7 @@
       <c r="E143"/>
       <c r="F143"/>
       <c r="G143" t="n">
-        <v>64102</v>
+        <v>77656</v>
       </c>
       <c r="H143"/>
       <c r="I143" t="n">
@@ -4151,7 +4151,7 @@
       <c r="E144"/>
       <c r="F144"/>
       <c r="G144" t="n">
-        <v>63724</v>
+        <v>76580</v>
       </c>
       <c r="H144"/>
       <c r="I144" t="n">
@@ -4180,7 +4180,7 @@
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145" t="n">
-        <v>65638</v>
+        <v>78857</v>
       </c>
       <c r="H145"/>
       <c r="I145" t="n">
@@ -4209,7 +4209,7 @@
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146" t="n">
-        <v>64111</v>
+        <v>77399</v>
       </c>
       <c r="H146"/>
       <c r="I146" t="n">
@@ -4238,7 +4238,7 @@
       <c r="E147"/>
       <c r="F147"/>
       <c r="G147" t="n">
-        <v>64145</v>
+        <v>78286</v>
       </c>
       <c r="H147"/>
       <c r="I147" t="n">
@@ -4267,7 +4267,7 @@
       <c r="E148"/>
       <c r="F148"/>
       <c r="G148" t="n">
-        <v>63006</v>
+        <v>77833</v>
       </c>
       <c r="H148"/>
       <c r="I148" t="n">
@@ -4296,7 +4296,7 @@
       <c r="E149"/>
       <c r="F149"/>
       <c r="G149" t="n">
-        <v>63779</v>
+        <v>80350</v>
       </c>
       <c r="H149"/>
       <c r="I149" t="n">
@@ -4325,7 +4325,7 @@
       <c r="E150"/>
       <c r="F150"/>
       <c r="G150" t="n">
-        <v>63031</v>
+        <v>81110</v>
       </c>
       <c r="H150"/>
       <c r="I150" t="n">
@@ -4354,7 +4354,7 @@
       <c r="E151"/>
       <c r="F151"/>
       <c r="G151" t="n">
-        <v>62630</v>
+        <v>81239</v>
       </c>
       <c r="H151"/>
       <c r="I151" t="n">
@@ -4383,7 +4383,7 @@
       <c r="E152"/>
       <c r="F152"/>
       <c r="G152" t="n">
-        <v>64177</v>
+        <v>81592</v>
       </c>
       <c r="H152"/>
       <c r="I152" t="n">
@@ -4412,7 +4412,7 @@
       <c r="E153"/>
       <c r="F153"/>
       <c r="G153" t="n">
-        <v>65115</v>
+        <v>82337</v>
       </c>
       <c r="H153"/>
       <c r="I153" t="n">
@@ -4441,7 +4441,7 @@
       <c r="E154"/>
       <c r="F154"/>
       <c r="G154" t="n">
-        <v>64898</v>
+        <v>82268</v>
       </c>
       <c r="H154"/>
       <c r="I154" t="n">
@@ -4470,7 +4470,7 @@
       <c r="E155"/>
       <c r="F155"/>
       <c r="G155" t="n">
-        <v>64741</v>
+        <v>81901</v>
       </c>
       <c r="H155"/>
       <c r="I155" t="n">
@@ -4499,7 +4499,7 @@
       <c r="E156"/>
       <c r="F156"/>
       <c r="G156" t="n">
-        <v>63675</v>
+        <v>81057</v>
       </c>
       <c r="H156"/>
       <c r="I156" t="n">
@@ -4528,7 +4528,7 @@
       <c r="E157"/>
       <c r="F157"/>
       <c r="G157" t="n">
-        <v>65234</v>
+        <v>82213</v>
       </c>
       <c r="H157"/>
       <c r="I157" t="n">
@@ -4557,7 +4557,7 @@
       <c r="E158"/>
       <c r="F158"/>
       <c r="G158" t="n">
-        <v>64145</v>
+        <v>82380</v>
       </c>
       <c r="H158"/>
       <c r="I158" t="n">
@@ -4586,7 +4586,7 @@
       <c r="E159"/>
       <c r="F159"/>
       <c r="G159" t="n">
-        <v>63424</v>
+        <v>82582</v>
       </c>
       <c r="H159"/>
       <c r="I159" t="n">
@@ -4615,7 +4615,7 @@
       <c r="E160"/>
       <c r="F160"/>
       <c r="G160" t="n">
-        <v>64040</v>
+        <v>82813</v>
       </c>
       <c r="H160"/>
       <c r="I160" t="n">
@@ -4644,7 +4644,7 @@
       <c r="E161"/>
       <c r="F161"/>
       <c r="G161" t="n">
-        <v>64158</v>
+        <v>83431</v>
       </c>
       <c r="H161"/>
       <c r="I161" t="n">
@@ -4673,7 +4673,7 @@
       <c r="E162"/>
       <c r="F162"/>
       <c r="G162" t="n">
-        <v>64410</v>
+        <v>83626</v>
       </c>
       <c r="H162"/>
       <c r="I162" t="n">
@@ -4702,7 +4702,7 @@
       <c r="E163"/>
       <c r="F163"/>
       <c r="G163" t="n">
-        <v>65143</v>
+        <v>83762</v>
       </c>
       <c r="H163"/>
       <c r="I163" t="n">
@@ -4731,7 +4731,7 @@
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="n">
-        <v>65500</v>
+        <v>84144</v>
       </c>
       <c r="H164"/>
       <c r="I164" t="n">
@@ -4760,7 +4760,7 @@
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="n">
-        <v>65877</v>
+        <v>84754</v>
       </c>
       <c r="H165"/>
       <c r="I165" t="n">
@@ -4789,7 +4789,7 @@
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="n">
-        <v>63939</v>
+        <v>82637</v>
       </c>
       <c r="H166"/>
       <c r="I166" t="n">
@@ -4818,7 +4818,7 @@
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="n">
-        <v>66068</v>
+        <v>84806</v>
       </c>
       <c r="H167"/>
       <c r="I167" t="n">
@@ -4847,7 +4847,7 @@
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" t="n">
-        <v>64396</v>
+        <v>83289</v>
       </c>
       <c r="H168"/>
       <c r="I168" t="n">
@@ -4876,7 +4876,7 @@
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="n">
-        <v>66828</v>
+        <v>84868</v>
       </c>
       <c r="H169"/>
       <c r="I169" t="n">
@@ -4905,7 +4905,7 @@
       <c r="E170"/>
       <c r="F170"/>
       <c r="G170" t="n">
-        <v>66680</v>
+        <v>97282</v>
       </c>
       <c r="H170"/>
       <c r="I170" t="n">
@@ -4934,7 +4934,7 @@
       <c r="E171"/>
       <c r="F171"/>
       <c r="G171" t="n">
-        <v>66544</v>
+        <v>97605</v>
       </c>
       <c r="H171"/>
       <c r="I171" t="n">
@@ -4963,7 +4963,7 @@
       <c r="E172"/>
       <c r="F172"/>
       <c r="G172" t="n">
-        <v>66165</v>
+        <v>97564</v>
       </c>
       <c r="H172"/>
       <c r="I172" t="n">
@@ -4992,7 +4992,7 @@
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173" t="n">
-        <v>66794</v>
+        <v>98553</v>
       </c>
       <c r="H173"/>
       <c r="I173" t="n">
@@ -5021,7 +5021,7 @@
       <c r="E174"/>
       <c r="F174"/>
       <c r="G174" t="n">
-        <v>67564</v>
+        <v>99045</v>
       </c>
       <c r="H174"/>
       <c r="I174" t="n">
@@ -5050,7 +5050,7 @@
       <c r="E175"/>
       <c r="F175"/>
       <c r="G175" t="n">
-        <v>66998</v>
+        <v>98990</v>
       </c>
       <c r="H175"/>
       <c r="I175" t="n">
@@ -5079,7 +5079,7 @@
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176" t="n">
-        <v>67612</v>
+        <v>99470</v>
       </c>
       <c r="H176"/>
       <c r="I176" t="n">
@@ -5108,7 +5108,7 @@
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177" t="n">
-        <v>68963</v>
+        <v>100131</v>
       </c>
       <c r="H177"/>
       <c r="I177" t="n">
@@ -5137,7 +5137,7 @@
       <c r="E178"/>
       <c r="F178"/>
       <c r="G178" t="n">
-        <v>68694</v>
+        <v>98994</v>
       </c>
       <c r="H178"/>
       <c r="I178" t="n">
@@ -5166,7 +5166,7 @@
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179" t="n">
-        <v>68742</v>
+        <v>99655</v>
       </c>
       <c r="H179"/>
       <c r="I179" t="n">
@@ -5195,7 +5195,7 @@
       <c r="E180"/>
       <c r="F180"/>
       <c r="G180" t="n">
-        <v>68687</v>
+        <v>99339</v>
       </c>
       <c r="H180"/>
       <c r="I180" t="n">
@@ -5224,7 +5224,7 @@
       <c r="E181"/>
       <c r="F181"/>
       <c r="G181" t="n">
-        <v>69435</v>
+        <v>100213</v>
       </c>
       <c r="H181"/>
       <c r="I181" t="n">
@@ -5253,7 +5253,7 @@
       <c r="E182"/>
       <c r="F182"/>
       <c r="G182" t="n">
-        <v>69093</v>
+        <v>100504</v>
       </c>
       <c r="H182"/>
       <c r="I182" t="n">
@@ -5282,7 +5282,7 @@
       <c r="E183"/>
       <c r="F183"/>
       <c r="G183" t="n">
-        <v>68475</v>
+        <v>100536</v>
       </c>
       <c r="H183"/>
       <c r="I183" t="n">
@@ -5311,7 +5311,7 @@
       <c r="E184"/>
       <c r="F184"/>
       <c r="G184" t="n">
-        <v>65995</v>
+        <v>99405</v>
       </c>
       <c r="H184"/>
       <c r="I184" t="n">
@@ -5340,7 +5340,7 @@
       <c r="E185"/>
       <c r="F185"/>
       <c r="G185" t="n">
-        <v>66273</v>
+        <v>99967</v>
       </c>
       <c r="H185"/>
       <c r="I185" t="n">
@@ -5369,7 +5369,7 @@
       <c r="E186"/>
       <c r="F186"/>
       <c r="G186" t="n">
-        <v>65889</v>
+        <v>99296</v>
       </c>
       <c r="H186"/>
       <c r="I186" t="n">
@@ -5398,7 +5398,7 @@
       <c r="E187"/>
       <c r="F187"/>
       <c r="G187" t="n">
-        <v>66411</v>
+        <v>98631</v>
       </c>
       <c r="H187"/>
       <c r="I187" t="n">
@@ -5427,7 +5427,7 @@
       <c r="E188"/>
       <c r="F188"/>
       <c r="G188" t="n">
-        <v>66004</v>
+        <v>98664</v>
       </c>
       <c r="H188"/>
       <c r="I188" t="n">
@@ -5456,7 +5456,7 @@
       <c r="E189"/>
       <c r="F189"/>
       <c r="G189" t="n">
-        <v>65952</v>
+        <v>97989</v>
       </c>
       <c r="H189"/>
       <c r="I189" t="n">
@@ -5485,7 +5485,7 @@
       <c r="E190"/>
       <c r="F190"/>
       <c r="G190" t="n">
-        <v>65064</v>
+        <v>97731</v>
       </c>
       <c r="H190"/>
       <c r="I190" t="n">
@@ -5514,7 +5514,7 @@
       <c r="E191"/>
       <c r="F191"/>
       <c r="G191" t="n">
-        <v>65194</v>
+        <v>97598</v>
       </c>
       <c r="H191"/>
       <c r="I191" t="n">
@@ -5543,7 +5543,7 @@
       <c r="E192"/>
       <c r="F192"/>
       <c r="G192" t="n">
-        <v>62862</v>
+        <v>95181</v>
       </c>
       <c r="H192"/>
       <c r="I192" t="n">
@@ -5572,7 +5572,7 @@
       <c r="E193"/>
       <c r="F193"/>
       <c r="G193" t="n">
-        <v>63494</v>
+        <v>95759</v>
       </c>
       <c r="H193"/>
       <c r="I193" t="n">
@@ -5601,7 +5601,7 @@
       <c r="E194"/>
       <c r="F194"/>
       <c r="G194" t="n">
-        <v>62679</v>
+        <v>95097</v>
       </c>
       <c r="H194"/>
       <c r="I194" t="n">
@@ -5630,7 +5630,7 @@
       <c r="E195"/>
       <c r="F195"/>
       <c r="G195" t="n">
-        <v>61649</v>
+        <v>94444</v>
       </c>
       <c r="H195"/>
       <c r="I195" t="n">
@@ -5659,7 +5659,7 @@
       <c r="E196"/>
       <c r="F196"/>
       <c r="G196" t="n">
-        <v>61316</v>
+        <v>94022</v>
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
@@ -5688,7 +5688,7 @@
       <c r="E197"/>
       <c r="F197"/>
       <c r="G197" t="n">
-        <v>61361</v>
+        <v>94024</v>
       </c>
       <c r="H197"/>
       <c r="I197" t="n">
@@ -5717,7 +5717,7 @@
       <c r="E198"/>
       <c r="F198"/>
       <c r="G198" t="n">
-        <v>61135</v>
+        <v>93264</v>
       </c>
       <c r="H198"/>
       <c r="I198" t="n">
@@ -5746,7 +5746,7 @@
       <c r="E199"/>
       <c r="F199"/>
       <c r="G199" t="n">
-        <v>61112</v>
+        <v>93232</v>
       </c>
       <c r="H199"/>
       <c r="I199" t="n">
@@ -5775,7 +5775,7 @@
       <c r="E200"/>
       <c r="F200"/>
       <c r="G200" t="n">
-        <v>60790</v>
+        <v>92787</v>
       </c>
       <c r="H200"/>
       <c r="I200" t="n">
@@ -5804,7 +5804,7 @@
       <c r="E201"/>
       <c r="F201"/>
       <c r="G201" t="n">
-        <v>61385</v>
+        <v>92253</v>
       </c>
       <c r="H201"/>
       <c r="I201" t="n">
@@ -5833,7 +5833,7 @@
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202" t="n">
-        <v>61595</v>
+        <v>92676</v>
       </c>
       <c r="H202"/>
       <c r="I202" t="n">
@@ -5862,7 +5862,7 @@
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203" t="n">
-        <v>62017</v>
+        <v>92764</v>
       </c>
       <c r="H203"/>
       <c r="I203" t="n">
@@ -5891,7 +5891,7 @@
       <c r="E204"/>
       <c r="F204"/>
       <c r="G204" t="n">
-        <v>61910</v>
+        <v>91284</v>
       </c>
       <c r="H204"/>
       <c r="I204" t="n">
@@ -5920,7 +5920,7 @@
       <c r="E205"/>
       <c r="F205"/>
       <c r="G205" t="n">
-        <v>61232</v>
+        <v>91642</v>
       </c>
       <c r="H205"/>
       <c r="I205" t="n">
@@ -5951,7 +5951,7 @@
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206" t="n">
-        <v>60904</v>
+        <v>91529</v>
       </c>
       <c r="H206"/>
       <c r="I206" t="n">
@@ -5982,7 +5982,7 @@
       <c r="E207"/>
       <c r="F207"/>
       <c r="G207" t="n">
-        <v>60827</v>
+        <v>91455</v>
       </c>
       <c r="H207"/>
       <c r="I207" t="n">
@@ -6013,7 +6013,7 @@
       <c r="E208"/>
       <c r="F208"/>
       <c r="G208" t="n">
-        <v>61131</v>
+        <v>92291</v>
       </c>
       <c r="H208"/>
       <c r="I208" t="n">
@@ -6044,7 +6044,7 @@
       <c r="E209"/>
       <c r="F209"/>
       <c r="G209" t="n">
-        <v>61668</v>
+        <v>92144</v>
       </c>
       <c r="H209"/>
       <c r="I209" t="n">
@@ -6075,7 +6075,7 @@
       <c r="E210"/>
       <c r="F210"/>
       <c r="G210" t="n">
-        <v>61872</v>
+        <v>92199</v>
       </c>
       <c r="H210"/>
       <c r="I210" t="n">
@@ -6106,7 +6106,7 @@
       <c r="E211"/>
       <c r="F211"/>
       <c r="G211" t="n">
-        <v>62102</v>
+        <v>92247</v>
       </c>
       <c r="H211"/>
       <c r="I211" t="n">
@@ -6137,7 +6137,7 @@
       <c r="E212"/>
       <c r="F212"/>
       <c r="G212" t="n">
-        <v>62620</v>
+        <v>91981</v>
       </c>
       <c r="H212"/>
       <c r="I212" t="n">
@@ -6168,7 +6168,7 @@
       <c r="E213"/>
       <c r="F213"/>
       <c r="G213" t="n">
-        <v>62269</v>
+        <v>92187</v>
       </c>
       <c r="H213"/>
       <c r="I213" t="n">
@@ -6199,7 +6199,7 @@
       <c r="E214"/>
       <c r="F214"/>
       <c r="G214" t="n">
-        <v>62185</v>
+        <v>92576</v>
       </c>
       <c r="H214"/>
       <c r="I214" t="n">
@@ -6230,7 +6230,7 @@
       <c r="E215"/>
       <c r="F215"/>
       <c r="G215" t="n">
-        <v>63056</v>
+        <v>92484</v>
       </c>
       <c r="H215"/>
       <c r="I215" t="n">
@@ -6261,7 +6261,7 @@
       <c r="E216"/>
       <c r="F216"/>
       <c r="G216" t="n">
-        <v>62081</v>
+        <v>92151</v>
       </c>
       <c r="H216"/>
       <c r="I216" t="n">
@@ -6292,7 +6292,7 @@
       <c r="E217"/>
       <c r="F217"/>
       <c r="G217" t="n">
-        <v>63136</v>
+        <v>92276</v>
       </c>
       <c r="H217"/>
       <c r="I217" t="n">
@@ -6323,7 +6323,7 @@
       <c r="E218"/>
       <c r="F218"/>
       <c r="G218" t="n">
-        <v>62747</v>
+        <v>92339</v>
       </c>
       <c r="H218"/>
       <c r="I218" t="n">
@@ -6354,7 +6354,7 @@
       <c r="E219"/>
       <c r="F219"/>
       <c r="G219" t="n">
-        <v>62018</v>
+        <v>92351</v>
       </c>
       <c r="H219"/>
       <c r="I219" t="n">
@@ -6385,7 +6385,7 @@
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220" t="n">
-        <v>61950</v>
+        <v>92529</v>
       </c>
       <c r="H220"/>
       <c r="I220" t="n">
@@ -6416,7 +6416,7 @@
       <c r="E221"/>
       <c r="F221"/>
       <c r="G221" t="n">
-        <v>61680</v>
+        <v>91875</v>
       </c>
       <c r="H221"/>
       <c r="I221" t="n">
@@ -6447,7 +6447,7 @@
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" t="n">
-        <v>61059</v>
+        <v>91733</v>
       </c>
       <c r="H222"/>
       <c r="I222" t="n">
@@ -6478,7 +6478,7 @@
       <c r="E223"/>
       <c r="F223"/>
       <c r="G223" t="n">
-        <v>60841</v>
+        <v>91581</v>
       </c>
       <c r="H223"/>
       <c r="I223" t="n">
@@ -6509,7 +6509,7 @@
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" t="n">
-        <v>60817</v>
+        <v>91270</v>
       </c>
       <c r="H224"/>
       <c r="I224" t="n">
@@ -6540,7 +6540,7 @@
       <c r="E225"/>
       <c r="F225"/>
       <c r="G225" t="n">
-        <v>60779</v>
+        <v>91478</v>
       </c>
       <c r="H225"/>
       <c r="I225" t="n">
@@ -6571,7 +6571,7 @@
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" t="n">
-        <v>60796</v>
+        <v>91496</v>
       </c>
       <c r="H226"/>
       <c r="I226" t="n">
@@ -6602,7 +6602,7 @@
       <c r="E227"/>
       <c r="F227"/>
       <c r="G227" t="n">
-        <v>60954</v>
+        <v>91788</v>
       </c>
       <c r="H227"/>
       <c r="I227" t="n">
@@ -6633,7 +6633,7 @@
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" t="n">
-        <v>60093</v>
+        <v>91246</v>
       </c>
       <c r="H228"/>
       <c r="I228" t="n">
@@ -6664,7 +6664,7 @@
       <c r="E229"/>
       <c r="F229"/>
       <c r="G229" t="n">
-        <v>61291</v>
+        <v>91268</v>
       </c>
       <c r="H229"/>
       <c r="I229" t="n">
@@ -6695,7 +6695,7 @@
       <c r="E230"/>
       <c r="F230"/>
       <c r="G230" t="n">
-        <v>60762</v>
+        <v>91676</v>
       </c>
       <c r="H230"/>
       <c r="I230" t="n">
@@ -6726,7 +6726,7 @@
       <c r="E231"/>
       <c r="F231"/>
       <c r="G231" t="n">
-        <v>60760</v>
+        <v>91458</v>
       </c>
       <c r="H231"/>
       <c r="I231" t="n">
@@ -6757,7 +6757,7 @@
       <c r="E232"/>
       <c r="F232"/>
       <c r="G232" t="n">
-        <v>59616</v>
+        <v>91401</v>
       </c>
       <c r="H232"/>
       <c r="I232" t="n">
@@ -6788,7 +6788,7 @@
       <c r="E233"/>
       <c r="F233"/>
       <c r="G233" t="n">
-        <v>59939</v>
+        <v>91539</v>
       </c>
       <c r="H233"/>
       <c r="I233" t="n">
@@ -6819,7 +6819,7 @@
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234" t="n">
-        <v>60197</v>
+        <v>91466</v>
       </c>
       <c r="H234"/>
       <c r="I234" t="n">
@@ -6850,7 +6850,7 @@
       <c r="E235"/>
       <c r="F235"/>
       <c r="G235" t="n">
-        <v>60836</v>
+        <v>91450</v>
       </c>
       <c r="H235"/>
       <c r="I235" t="n">
@@ -6881,7 +6881,7 @@
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236" t="n">
-        <v>60466</v>
+        <v>91444</v>
       </c>
       <c r="H236"/>
       <c r="I236" t="n">
@@ -6912,7 +6912,7 @@
       <c r="E237"/>
       <c r="F237"/>
       <c r="G237" t="n">
-        <v>60528</v>
+        <v>91845</v>
       </c>
       <c r="H237"/>
       <c r="I237" t="n">
@@ -6943,7 +6943,7 @@
       <c r="E238"/>
       <c r="F238"/>
       <c r="G238" t="n">
-        <v>60344</v>
+        <v>91761</v>
       </c>
       <c r="H238"/>
       <c r="I238" t="n">
@@ -6974,7 +6974,7 @@
       <c r="E239"/>
       <c r="F239"/>
       <c r="G239" t="n">
-        <v>61493</v>
+        <v>92537</v>
       </c>
       <c r="H239"/>
       <c r="I239" t="n">
@@ -7005,7 +7005,7 @@
       <c r="E240"/>
       <c r="F240"/>
       <c r="G240" t="n">
-        <v>60481</v>
+        <v>91823</v>
       </c>
       <c r="H240"/>
       <c r="I240" t="n">
@@ -7036,7 +7036,7 @@
       <c r="E241"/>
       <c r="F241"/>
       <c r="G241" t="n">
-        <v>61800</v>
+        <v>91690</v>
       </c>
       <c r="H241"/>
       <c r="I241" t="n">
@@ -7069,7 +7069,7 @@
         <v>89.8</v>
       </c>
       <c r="G242" t="n">
-        <v>60876</v>
+        <v>92104</v>
       </c>
       <c r="H242"/>
       <c r="I242" t="n">
@@ -7102,7 +7102,7 @@
         <v>87</v>
       </c>
       <c r="G243" t="n">
-        <v>59836</v>
+        <v>92529</v>
       </c>
       <c r="H243"/>
       <c r="I243" t="n">
@@ -7135,7 +7135,7 @@
         <v>100.4</v>
       </c>
       <c r="G244" t="n">
-        <v>59539</v>
+        <v>92479</v>
       </c>
       <c r="H244"/>
       <c r="I244" t="n">
@@ -7168,7 +7168,7 @@
         <v>95.8</v>
       </c>
       <c r="G245" t="n">
-        <v>59750</v>
+        <v>93277</v>
       </c>
       <c r="H245"/>
       <c r="I245" t="n">
@@ -7201,7 +7201,7 @@
         <v>93.4</v>
       </c>
       <c r="G246" t="n">
-        <v>59660</v>
+        <v>93629</v>
       </c>
       <c r="H246"/>
       <c r="I246" t="n">
@@ -7234,7 +7234,7 @@
         <v>102.3</v>
       </c>
       <c r="G247" t="n">
-        <v>60554</v>
+        <v>93370</v>
       </c>
       <c r="H247"/>
       <c r="I247" t="n">
@@ -7267,7 +7267,7 @@
         <v>102.6</v>
       </c>
       <c r="G248" t="n">
-        <v>60560</v>
+        <v>94082</v>
       </c>
       <c r="H248"/>
       <c r="I248" t="n">
@@ -7300,7 +7300,7 @@
         <v>97.9</v>
       </c>
       <c r="G249" t="n">
-        <v>61599</v>
+        <v>93911</v>
       </c>
       <c r="H249"/>
       <c r="I249" t="n">
@@ -7333,7 +7333,7 @@
         <v>106</v>
       </c>
       <c r="G250" t="n">
-        <v>60419</v>
+        <v>94130</v>
       </c>
       <c r="H250"/>
       <c r="I250" t="n">
@@ -7366,7 +7366,7 @@
         <v>103.9</v>
       </c>
       <c r="G251" t="n">
-        <v>61141</v>
+        <v>95197</v>
       </c>
       <c r="H251"/>
       <c r="I251" t="n">
@@ -7399,7 +7399,7 @@
         <v>105.1</v>
       </c>
       <c r="G252" t="n">
-        <v>59327</v>
+        <v>94564</v>
       </c>
       <c r="H252"/>
       <c r="I252" t="n">
@@ -7432,7 +7432,7 @@
         <v>115.8</v>
       </c>
       <c r="G253" t="n">
-        <v>60314</v>
+        <v>95025</v>
       </c>
       <c r="H253"/>
       <c r="I253" t="n">
@@ -7465,7 +7465,7 @@
         <v>95.2</v>
       </c>
       <c r="G254" t="n">
-        <v>59329</v>
+        <v>95658</v>
       </c>
       <c r="H254"/>
       <c r="I254" t="n">
@@ -7498,7 +7498,7 @@
         <v>94.2</v>
       </c>
       <c r="G255" t="n">
-        <v>59685</v>
+        <v>95248</v>
       </c>
       <c r="H255"/>
       <c r="I255" t="n">
@@ -7531,7 +7531,7 @@
         <v>109.2</v>
       </c>
       <c r="G256" t="n">
-        <v>59495</v>
+        <v>95441</v>
       </c>
       <c r="H256"/>
       <c r="I256" t="n">
@@ -7564,7 +7564,7 @@
         <v>98.4</v>
       </c>
       <c r="G257" t="n">
-        <v>59428</v>
+        <v>96079</v>
       </c>
       <c r="H257"/>
       <c r="I257" t="n">
@@ -7597,7 +7597,7 @@
         <v>101.8</v>
       </c>
       <c r="G258" t="n">
-        <v>60462</v>
+        <v>95884</v>
       </c>
       <c r="H258"/>
       <c r="I258" t="n">
@@ -7630,7 +7630,7 @@
         <v>107.2</v>
       </c>
       <c r="G259" t="n">
-        <v>59265</v>
+        <v>96345</v>
       </c>
       <c r="H259"/>
       <c r="I259" t="n">
@@ -7663,7 +7663,7 @@
         <v>102</v>
       </c>
       <c r="G260" t="n">
-        <v>58827</v>
+        <v>96862</v>
       </c>
       <c r="H260"/>
       <c r="I260" t="n">
@@ -7696,7 +7696,7 @@
         <v>100.3</v>
       </c>
       <c r="G261" t="n">
-        <v>59694</v>
+        <v>96357</v>
       </c>
       <c r="H261"/>
       <c r="I261" t="n">
@@ -7729,7 +7729,7 @@
         <v>106.8</v>
       </c>
       <c r="G262" t="n">
-        <v>58151</v>
+        <v>96994</v>
       </c>
       <c r="H262"/>
       <c r="I262" t="n">
@@ -7762,7 +7762,7 @@
         <v>104.4</v>
       </c>
       <c r="G263" t="n">
-        <v>58372</v>
+        <v>97636</v>
       </c>
       <c r="H263"/>
       <c r="I263" t="n">
@@ -7795,7 +7795,7 @@
         <v>108.9</v>
       </c>
       <c r="G264" t="n">
-        <v>58107</v>
+        <v>96609</v>
       </c>
       <c r="H264"/>
       <c r="I264" t="n">
@@ -7828,7 +7828,7 @@
         <v>121.9</v>
       </c>
       <c r="G265" t="n">
-        <v>59763</v>
+        <v>97454</v>
       </c>
       <c r="H265"/>
       <c r="I265" t="n">
@@ -7861,7 +7861,7 @@
         <v>97</v>
       </c>
       <c r="G266" t="n">
-        <v>58377</v>
+        <v>97618</v>
       </c>
       <c r="H266"/>
       <c r="I266" t="n">
@@ -7894,7 +7894,7 @@
         <v>96.8</v>
       </c>
       <c r="G267" t="n">
-        <v>58499</v>
+        <v>97846</v>
       </c>
       <c r="H267"/>
       <c r="I267" t="n">
@@ -7927,7 +7927,7 @@
         <v>107</v>
       </c>
       <c r="G268" t="n">
-        <v>58076</v>
+        <v>98415</v>
       </c>
       <c r="H268"/>
       <c r="I268" t="n">
@@ -7960,7 +7960,7 @@
         <v>103.1</v>
       </c>
       <c r="G269" t="n">
-        <v>58505</v>
+        <v>99413</v>
       </c>
       <c r="H269"/>
       <c r="I269" t="n">
@@ -7993,7 +7993,7 @@
         <v>106</v>
       </c>
       <c r="G270" t="n">
-        <v>58403</v>
+        <v>98882</v>
       </c>
       <c r="H270"/>
       <c r="I270" t="n">
@@ -8026,7 +8026,7 @@
         <v>110.2</v>
       </c>
       <c r="G271" t="n">
-        <v>58677</v>
+        <v>99847</v>
       </c>
       <c r="H271"/>
       <c r="I271" t="n">
@@ -8059,7 +8059,7 @@
         <v>106.6</v>
       </c>
       <c r="G272" t="n">
-        <v>58888</v>
+        <v>99890</v>
       </c>
       <c r="H272"/>
       <c r="I272" t="n">
@@ -8092,7 +8092,7 @@
         <v>104.3</v>
       </c>
       <c r="G273" t="n">
-        <v>60279</v>
+        <v>100250</v>
       </c>
       <c r="H273"/>
       <c r="I273" t="n">
@@ -8125,7 +8125,7 @@
         <v>105.2</v>
       </c>
       <c r="G274" t="n">
-        <v>60004</v>
+        <v>101142</v>
       </c>
       <c r="H274"/>
       <c r="I274" t="n">
@@ -8158,7 +8158,7 @@
         <v>106.5</v>
       </c>
       <c r="G275" t="n">
-        <v>62161</v>
+        <v>101156</v>
       </c>
       <c r="H275"/>
       <c r="I275" t="n">
@@ -8191,7 +8191,7 @@
         <v>110.5</v>
       </c>
       <c r="G276" t="n">
-        <v>60656</v>
+        <v>100672</v>
       </c>
       <c r="H276"/>
       <c r="I276" t="n">
@@ -8224,7 +8224,7 @@
         <v>122.1</v>
       </c>
       <c r="G277" t="n">
-        <v>61938</v>
+        <v>100318</v>
       </c>
       <c r="H277"/>
       <c r="I277" t="n">
@@ -8257,7 +8257,7 @@
         <v>103</v>
       </c>
       <c r="G278" t="n">
-        <v>61137</v>
+        <v>100380</v>
       </c>
       <c r="H278"/>
       <c r="I278" t="n">
@@ -8290,7 +8290,7 @@
         <v>95.8</v>
       </c>
       <c r="G279" t="n">
-        <v>61046</v>
+        <v>100502</v>
       </c>
       <c r="H279"/>
       <c r="I279" t="n">
@@ -8323,7 +8323,7 @@
         <v>108.1</v>
       </c>
       <c r="G280" t="n">
-        <v>60274</v>
+        <v>101486</v>
       </c>
       <c r="H280"/>
       <c r="I280" t="n">
@@ -8356,7 +8356,7 @@
         <v>109.5</v>
       </c>
       <c r="G281" t="n">
-        <v>60851</v>
+        <v>101876</v>
       </c>
       <c r="H281"/>
       <c r="I281" t="n">
@@ -8389,7 +8389,7 @@
         <v>112.9</v>
       </c>
       <c r="G282" t="n">
-        <v>60917</v>
+        <v>101967</v>
       </c>
       <c r="H282"/>
       <c r="I282" t="n">
@@ -8422,7 +8422,7 @@
         <v>113.9</v>
       </c>
       <c r="G283" t="n">
-        <v>61719</v>
+        <v>102749</v>
       </c>
       <c r="H283"/>
       <c r="I283" t="n">
@@ -8455,7 +8455,7 @@
         <v>111.8</v>
       </c>
       <c r="G284" t="n">
-        <v>62659</v>
+        <v>102683</v>
       </c>
       <c r="H284"/>
       <c r="I284" t="n">
@@ -8488,7 +8488,7 @@
         <v>107.6</v>
       </c>
       <c r="G285" t="n">
-        <v>63512</v>
+        <v>103131</v>
       </c>
       <c r="H285"/>
       <c r="I285" t="n">
@@ -8521,7 +8521,7 @@
         <v>117.7</v>
       </c>
       <c r="G286" t="n">
-        <v>62084</v>
+        <v>103855</v>
       </c>
       <c r="H286"/>
       <c r="I286" t="n">
@@ -8554,7 +8554,7 @@
         <v>119.6</v>
       </c>
       <c r="G287" t="n">
-        <v>63598</v>
+        <v>104085</v>
       </c>
       <c r="H287"/>
       <c r="I287" t="n">
@@ -8587,7 +8587,7 @@
         <v>122</v>
       </c>
       <c r="G288" t="n">
-        <v>62794</v>
+        <v>104127</v>
       </c>
       <c r="H288"/>
       <c r="I288" t="n">
@@ -8620,7 +8620,7 @@
         <v>127.7</v>
       </c>
       <c r="G289" t="n">
-        <v>62848</v>
+        <v>104689</v>
       </c>
       <c r="H289"/>
       <c r="I289" t="n">
@@ -8653,7 +8653,7 @@
         <v>110.8</v>
       </c>
       <c r="G290" t="n">
-        <v>61680</v>
+        <v>105050</v>
       </c>
       <c r="H290" t="n">
         <v>2105500</v>
@@ -8688,7 +8688,7 @@
         <v>105.5</v>
       </c>
       <c r="G291" t="n">
-        <v>61838</v>
+        <v>105463</v>
       </c>
       <c r="H291" t="n">
         <v>2095500</v>
@@ -8723,7 +8723,7 @@
         <v>115.9</v>
       </c>
       <c r="G292" t="n">
-        <v>61154</v>
+        <v>106518</v>
       </c>
       <c r="H292" t="n">
         <v>2120300</v>
@@ -8758,7 +8758,7 @@
         <v>116.3</v>
       </c>
       <c r="G293" t="n">
-        <v>62918</v>
+        <v>106952</v>
       </c>
       <c r="H293" t="n">
         <v>2123000</v>
@@ -8793,7 +8793,7 @@
         <v>116.1</v>
       </c>
       <c r="G294" t="n">
-        <v>62453</v>
+        <v>107753</v>
       </c>
       <c r="H294" t="n">
         <v>2157300</v>
@@ -8828,7 +8828,7 @@
         <v>125.2</v>
       </c>
       <c r="G295" t="n">
-        <v>63180</v>
+        <v>108512</v>
       </c>
       <c r="H295" t="n">
         <v>2176100</v>
@@ -8863,7 +8863,7 @@
         <v>120.3</v>
       </c>
       <c r="G296" t="n">
-        <v>64671</v>
+        <v>108978</v>
       </c>
       <c r="H296" t="n">
         <v>2165600</v>
@@ -8898,7 +8898,7 @@
         <v>113.7</v>
       </c>
       <c r="G297" t="n">
-        <v>65294</v>
+        <v>109657</v>
       </c>
       <c r="H297" t="n">
         <v>2186500</v>
@@ -8933,7 +8933,7 @@
         <v>124</v>
       </c>
       <c r="G298" t="n">
-        <v>65007</v>
+        <v>109672</v>
       </c>
       <c r="H298" t="n">
         <v>2176800</v>
@@ -8968,7 +8968,7 @@
         <v>119.3</v>
       </c>
       <c r="G299" t="n">
-        <v>66751</v>
+        <v>110746</v>
       </c>
       <c r="H299" t="n">
         <v>2172000</v>
@@ -9003,7 +9003,7 @@
         <v>117.2</v>
       </c>
       <c r="G300" t="n">
-        <v>67158</v>
+        <v>110708</v>
       </c>
       <c r="H300" t="n">
         <v>2183800</v>
@@ -9038,7 +9038,7 @@
         <v>136.3</v>
       </c>
       <c r="G301" t="n">
-        <v>67944</v>
+        <v>110977</v>
       </c>
       <c r="H301" t="n">
         <v>2185200</v>
@@ -9073,7 +9073,7 @@
         <v>108.8</v>
       </c>
       <c r="G302" t="n">
-        <v>66807</v>
+        <v>111901</v>
       </c>
       <c r="H302" t="n">
         <v>2183100</v>
@@ -9108,7 +9108,7 @@
         <v>104.8</v>
       </c>
       <c r="G303" t="n">
-        <v>66471</v>
+        <v>112485</v>
       </c>
       <c r="H303" t="n">
         <v>2171000</v>
@@ -9143,7 +9143,7 @@
         <v>116.1</v>
       </c>
       <c r="G304" t="n">
-        <v>67010</v>
+        <v>113338</v>
       </c>
       <c r="H304" t="n">
         <v>2187000</v>
@@ -9178,7 +9178,7 @@
         <v>86.8</v>
       </c>
       <c r="G305" t="n">
-        <v>68205</v>
+        <v>116304</v>
       </c>
       <c r="H305" t="n">
         <v>1893600</v>
@@ -9213,7 +9213,7 @@
         <v>89.2</v>
       </c>
       <c r="G306" t="n">
-        <v>68022</v>
+        <v>117947</v>
       </c>
       <c r="H306" t="n">
         <v>1869100</v>
@@ -9248,7 +9248,7 @@
         <v>113.1</v>
       </c>
       <c r="G307" t="n">
-        <v>68770</v>
+        <v>118698</v>
       </c>
       <c r="H307" t="n">
         <v>1954500</v>
@@ -9283,7 +9283,7 @@
         <v>103.7</v>
       </c>
       <c r="G308" t="n">
-        <v>70016</v>
+        <v>120657</v>
       </c>
       <c r="H308" t="n">
         <v>2048300</v>
@@ -9318,7 +9318,7 @@
         <v>99.8</v>
       </c>
       <c r="G309" t="n">
-        <v>70997</v>
+        <v>120887</v>
       </c>
       <c r="H309" t="n">
         <v>2093900</v>
@@ -9353,7 +9353,7 @@
         <v>117.8</v>
       </c>
       <c r="G310" t="n">
-        <v>71241</v>
+        <v>121572</v>
       </c>
       <c r="H310" t="n">
         <v>2091600</v>
@@ -9388,7 +9388,7 @@
         <v>106.5</v>
       </c>
       <c r="G311" t="n">
-        <v>72619</v>
+        <v>123306</v>
       </c>
       <c r="H311" t="n">
         <v>2087200</v>
@@ -9423,7 +9423,7 @@
         <v>105.4</v>
       </c>
       <c r="G312" t="n">
-        <v>72851</v>
+        <v>123895</v>
       </c>
       <c r="H312" t="n">
         <v>2021800</v>
@@ -9458,7 +9458,7 @@
         <v>135.7</v>
       </c>
       <c r="G313" t="n">
-        <v>69483</v>
+        <v>129291</v>
       </c>
       <c r="H313" t="n">
         <v>2086400</v>
@@ -9497,7 +9497,7 @@
         <v>99</v>
       </c>
       <c r="G314" t="n">
-        <v>66781</v>
+        <v>131232</v>
       </c>
       <c r="H314" t="n">
         <v>2010800</v>
@@ -9536,7 +9536,7 @@
         <v>99.1</v>
       </c>
       <c r="G315" t="n">
-        <v>66084</v>
+        <v>132634</v>
       </c>
       <c r="H315" t="n">
         <v>1912700</v>
@@ -9575,7 +9575,7 @@
         <v>118.4</v>
       </c>
       <c r="G316" t="n">
-        <v>66903</v>
+        <v>133418</v>
       </c>
       <c r="H316" t="n">
         <v>1944200</v>
@@ -9614,7 +9614,7 @@
         <v>104.8</v>
       </c>
       <c r="G317" t="n">
-        <v>67698</v>
+        <v>135596</v>
       </c>
       <c r="H317" t="n">
         <v>1979800</v>
@@ -9653,7 +9653,7 @@
         <v>106.7</v>
       </c>
       <c r="G318" t="n">
-        <v>68271</v>
+        <v>136346</v>
       </c>
       <c r="H318" t="n">
         <v>2072100</v>
@@ -9692,7 +9692,7 @@
         <v>131.7</v>
       </c>
       <c r="G319" t="n">
-        <v>69776</v>
+        <v>136830</v>
       </c>
       <c r="H319" t="n">
         <v>2156400</v>
@@ -9731,7 +9731,7 @@
         <v>114.8</v>
       </c>
       <c r="G320" t="n">
-        <v>70135</v>
+        <v>138683</v>
       </c>
       <c r="H320" t="n">
         <v>2191400</v>
@@ -9770,7 +9770,7 @@
         <v>115.2</v>
       </c>
       <c r="G321" t="n">
-        <v>69705</v>
+        <v>138241</v>
       </c>
       <c r="H321" t="n">
         <v>2211000</v>
@@ -9809,7 +9809,7 @@
         <v>133.5</v>
       </c>
       <c r="G322" t="n">
-        <v>68306</v>
+        <v>139350</v>
       </c>
       <c r="H322" t="n">
         <v>2233200</v>
@@ -9848,7 +9848,7 @@
         <v>121.7</v>
       </c>
       <c r="G323" t="n">
-        <v>68674</v>
+        <v>140499</v>
       </c>
       <c r="H323" t="n">
         <v>2249200</v>
@@ -9887,7 +9887,7 @@
         <v>126.7</v>
       </c>
       <c r="G324" t="n">
-        <v>69003</v>
+        <v>139125</v>
       </c>
       <c r="H324" t="n">
         <v>2262000</v>
@@ -9926,7 +9926,7 @@
         <v>152.1</v>
       </c>
       <c r="G325" t="n">
-        <v>71852</v>
+        <v>140237</v>
       </c>
       <c r="H325" t="n">
         <v>2270800</v>
@@ -9965,7 +9965,7 @@
         <v>111.9</v>
       </c>
       <c r="G326" t="n">
-        <v>70351</v>
+        <v>140995</v>
       </c>
       <c r="H326" t="n">
         <v>2271900</v>
@@ -10004,7 +10004,7 @@
         <v>117.6</v>
       </c>
       <c r="G327" t="n">
-        <v>69008</v>
+        <v>141446</v>
       </c>
       <c r="H327" t="n">
         <v>2274800</v>
@@ -10043,7 +10043,7 @@
         <v>146.6</v>
       </c>
       <c r="G328" t="n">
-        <v>68376</v>
+        <v>142345</v>
       </c>
       <c r="H328" t="n">
         <v>2305800</v>
@@ -10082,7 +10082,7 @@
         <v>125.6</v>
       </c>
       <c r="G329" t="n">
-        <v>70320</v>
+        <v>143454</v>
       </c>
       <c r="H329" t="n">
         <v>2328300</v>
@@ -10121,7 +10121,7 @@
         <v>129.4</v>
       </c>
       <c r="G330" t="n">
-        <v>69988</v>
+        <v>143306</v>
       </c>
       <c r="H330" t="n">
         <v>2352500</v>
@@ -10160,7 +10160,7 @@
         <v>155.5</v>
       </c>
       <c r="G331" t="n">
-        <v>71215</v>
+        <v>144646</v>
       </c>
       <c r="H331" t="n">
         <v>2380300</v>
@@ -10199,7 +10199,7 @@
         <v>133</v>
       </c>
       <c r="G332" t="n">
-        <v>69842</v>
+        <v>146245</v>
       </c>
       <c r="H332" t="n">
         <v>2376900</v>
@@ -10238,7 +10238,7 @@
         <v>133.8</v>
       </c>
       <c r="G333" t="n">
-        <v>71386</v>
+        <v>145972</v>
       </c>
       <c r="H333" t="n">
         <v>2381100</v>
@@ -10277,7 +10277,7 @@
         <v>151.3</v>
       </c>
       <c r="G334" t="n">
-        <v>69692</v>
+        <v>147174</v>
       </c>
       <c r="H334" t="n">
         <v>2396000</v>
@@ -10318,7 +10318,7 @@
         <v>131.9</v>
       </c>
       <c r="G335" t="n">
-        <v>72046</v>
+        <v>148677</v>
       </c>
       <c r="H335" t="n">
         <v>2386800</v>
@@ -10359,7 +10359,7 @@
         <v>135.5</v>
       </c>
       <c r="G336" t="n">
-        <v>71857</v>
+        <v>146914</v>
       </c>
       <c r="H336" t="n">
         <v>2405800</v>
@@ -10400,7 +10400,7 @@
         <v>159.9</v>
       </c>
       <c r="G337" t="n">
-        <v>74572</v>
+        <v>148028</v>
       </c>
       <c r="H337" t="n">
         <v>2406400</v>
@@ -10441,7 +10441,7 @@
         <v>126</v>
       </c>
       <c r="G338" t="n">
-        <v>73691</v>
+        <v>148151</v>
       </c>
       <c r="H338" t="n">
         <v>2388600</v>
@@ -10482,7 +10482,7 @@
         <v>123.7</v>
       </c>
       <c r="G339" t="n">
-        <v>74799</v>
+        <v>148350</v>
       </c>
       <c r="H339" t="n">
         <v>2382400</v>
@@ -10523,7 +10523,7 @@
         <v>147.7</v>
       </c>
       <c r="G340" t="n">
-        <v>70161</v>
+        <v>150236</v>
       </c>
       <c r="H340" t="n">
         <v>2408900</v>
@@ -10564,7 +10564,7 @@
         <v>131</v>
       </c>
       <c r="G341" t="n">
-        <v>72573</v>
+        <v>151243</v>
       </c>
       <c r="H341" t="n">
         <v>2412300</v>
@@ -10605,7 +10605,7 @@
         <v>134.8</v>
       </c>
       <c r="G342" t="n">
-        <v>72564</v>
+        <v>150560</v>
       </c>
       <c r="H342" t="n">
         <v>2426200</v>
@@ -10646,7 +10646,7 @@
         <v>156.5</v>
       </c>
       <c r="G343" t="n">
-        <v>71466</v>
+        <v>151628</v>
       </c>
       <c r="H343" t="n">
         <v>2451700</v>
@@ -10687,7 +10687,7 @@
         <v>135.7</v>
       </c>
       <c r="G344" t="n">
-        <v>74111</v>
+        <v>151583</v>
       </c>
       <c r="H344" t="n">
         <v>2438800</v>
@@ -10728,7 +10728,7 @@
         <v>138.1</v>
       </c>
       <c r="G345" t="n">
-        <v>73446</v>
+        <v>152032</v>
       </c>
       <c r="H345" t="n">
         <v>2446600</v>
@@ -10769,7 +10769,7 @@
         <v>155.8</v>
       </c>
       <c r="G346" t="n">
-        <v>71442</v>
+        <v>152773</v>
       </c>
       <c r="H346" t="n">
         <v>2457100</v>
@@ -10810,7 +10810,7 @@
         <v>147.4</v>
       </c>
       <c r="G347" t="n">
-        <v>76542</v>
+        <v>152734</v>
       </c>
       <c r="H347" t="n">
         <v>2449000</v>
@@ -10851,7 +10851,7 @@
         <v>138.2</v>
       </c>
       <c r="G348" t="n">
-        <v>75622</v>
+        <v>151468</v>
       </c>
       <c r="H348" t="n">
         <v>2459300</v>
@@ -10892,7 +10892,7 @@
         <v>169.9</v>
       </c>
       <c r="G349" t="n">
-        <v>75752</v>
+        <v>152416</v>
       </c>
       <c r="H349" t="n">
         <v>2459700</v>
@@ -10933,7 +10933,7 @@
         <v>137.8</v>
       </c>
       <c r="G350" t="n">
-        <v>77324</v>
+        <v>152283</v>
       </c>
       <c r="H350" t="n">
         <v>2448100</v>
@@ -10974,7 +10974,7 @@
         <v>138.2</v>
       </c>
       <c r="G351" t="n">
-        <v>75547</v>
+        <v>153437</v>
       </c>
       <c r="H351" t="n">
         <v>2441300</v>
@@ -11015,7 +11015,7 @@
         <v>159.3</v>
       </c>
       <c r="G352" t="n">
-        <v>74152</v>
+        <v>154487</v>
       </c>
       <c r="H352" t="n">
         <v>2468000</v>
@@ -11056,7 +11056,7 @@
         <v>148.6</v>
       </c>
       <c r="G353" t="n">
-        <v>78354</v>
+        <v>154387</v>
       </c>
       <c r="H353" t="n">
         <v>2468200</v>
@@ -11097,7 +11097,7 @@
         <v>147</v>
       </c>
       <c r="G354" t="n">
-        <v>78268</v>
+        <v>155469</v>
       </c>
       <c r="H354" t="n">
         <v>2494600</v>
@@ -11138,7 +11138,7 @@
         <v>171.1</v>
       </c>
       <c r="G355" t="n">
-        <v>77322</v>
+        <v>156520</v>
       </c>
       <c r="H355" t="n">
         <v>2513500</v>
@@ -11179,7 +11179,7 @@
         <v>152</v>
       </c>
       <c r="G356" t="n">
-        <v>81628</v>
+        <v>156314</v>
       </c>
       <c r="H356" t="n">
         <v>2502400</v>
@@ -11220,7 +11220,7 @@
         <v>149.1</v>
       </c>
       <c r="G357" t="n">
-        <v>80931</v>
+        <v>157644</v>
       </c>
       <c r="H357" t="n">
         <v>2519900</v>
@@ -11261,7 +11261,7 @@
         <v>169.9</v>
       </c>
       <c r="G358" t="n">
-        <v>80367</v>
+        <v>157622</v>
       </c>
       <c r="H358" t="n">
         <v>2495500</v>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="F359"/>
       <c r="G359" t="n">
-        <v>85186</v>
+        <v>161060</v>
       </c>
       <c r="H359" t="n">
         <v>2494100</v>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11071,10 +11071,10 @@
         <v>116.1</v>
       </c>
       <c r="L353" t="n">
-        <v>255.586</v>
+        <v>260.67</v>
       </c>
       <c r="M353" t="n">
-        <v>19578911</v>
+        <v>19413652</v>
       </c>
     </row>
     <row r="354">
@@ -11275,9 +11275,11 @@
       <c r="K358" t="n">
         <v>116.8</v>
       </c>
-      <c r="L358"/>
+      <c r="L358" t="n">
+        <v>299.573</v>
+      </c>
       <c r="M358" t="n">
-        <v>22244276</v>
+        <v>22479770</v>
       </c>
     </row>
     <row r="359">
@@ -11312,8 +11314,12 @@
       <c r="K359" t="n">
         <v>117.1</v>
       </c>
-      <c r="L359"/>
-      <c r="M359"/>
+      <c r="L359" t="n">
+        <v>284.407</v>
+      </c>
+      <c r="M359" t="n">
+        <v>21184173</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -431,7 +431,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>34700</v>
+        <v>-693576</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>34731</v>
+        <v>-693576</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34759</v>
+        <v>-693576</v>
       </c>
       <c r="B4"/>
       <c r="C4"/>
@@ -494,7 +494,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34790</v>
+        <v>-693576</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>34820</v>
+        <v>-693576</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -536,7 +536,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>34851</v>
+        <v>-693576</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34881</v>
+        <v>-693576</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>34912</v>
+        <v>-693576</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>34943</v>
+        <v>-693576</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>34973</v>
+        <v>-693576</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>35004</v>
+        <v>-693576</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -662,7 +662,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>35034</v>
+        <v>-693576</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>35065</v>
+        <v>-693576</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -706,7 +706,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>35096</v>
+        <v>-693576</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
@@ -729,7 +729,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>35125</v>
+        <v>-693576</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>35156</v>
+        <v>-693576</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -775,7 +775,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>35186</v>
+        <v>-693576</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -798,7 +798,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>35217</v>
+        <v>-693576</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -821,7 +821,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>35247</v>
+        <v>-693576</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -844,7 +844,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>35278</v>
+        <v>-693576</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
@@ -867,7 +867,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35309</v>
+        <v>-693576</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -890,7 +890,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>35339</v>
+        <v>-693576</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -913,7 +913,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35370</v>
+        <v>-693576</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>35400</v>
+        <v>-693576</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -959,7 +959,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>35431</v>
+        <v>-693576</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -982,7 +982,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>35462</v>
+        <v>-693576</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35490</v>
+        <v>-693576</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35521</v>
+        <v>-693576</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35551</v>
+        <v>-693576</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35582</v>
+        <v>-693576</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>35612</v>
+        <v>-693576</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>35643</v>
+        <v>-693576</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>35674</v>
+        <v>-693576</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -1166,7 +1166,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>35704</v>
+        <v>-693576</v>
       </c>
       <c r="B35"/>
       <c r="C35"/>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35735</v>
+        <v>-693576</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35765</v>
+        <v>-693576</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35796</v>
+        <v>-693576</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>35827</v>
+        <v>-693576</v>
       </c>
       <c r="B39"/>
       <c r="C39"/>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>35855</v>
+        <v>-693576</v>
       </c>
       <c r="B40"/>
       <c r="C40"/>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>35886</v>
+        <v>-693576</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>35916</v>
+        <v>-693576</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>35947</v>
+        <v>-693576</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>35977</v>
+        <v>-693576</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>36008</v>
+        <v>-693576</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>36039</v>
+        <v>-693576</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>36069</v>
+        <v>-693576</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>36100</v>
+        <v>-693576</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>36130</v>
+        <v>-693576</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>36161</v>
+        <v>-693576</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36192</v>
+        <v>-693576</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>36220</v>
+        <v>-693576</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>36251</v>
+        <v>-693576</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>36281</v>
+        <v>-693576</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>36312</v>
+        <v>-693576</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>36342</v>
+        <v>-693576</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>36373</v>
+        <v>-693576</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
@@ -1720,7 +1720,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J57" t="n">
         <v>73.6</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>36404</v>
+        <v>-693576</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>36434</v>
+        <v>-693576</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>36465</v>
+        <v>-693576</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>36495</v>
+        <v>-693576</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>36526</v>
+        <v>-693576</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>36557</v>
+        <v>-693576</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>36586</v>
+        <v>-693576</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>36617</v>
+        <v>-693576</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>36647</v>
+        <v>-693576</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>36678</v>
+        <v>-693576</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>36708</v>
+        <v>-693576</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>36739</v>
+        <v>-693576</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>36770</v>
+        <v>-693576</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>36800</v>
+        <v>-693576</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>36831</v>
+        <v>-693576</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -2132,7 +2132,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>36861</v>
+        <v>-693576</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>36892</v>
+        <v>-693576</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>36923</v>
+        <v>-693576</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>36951</v>
+        <v>-693576</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>36982</v>
+        <v>-693576</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>37012</v>
+        <v>-693576</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>37043</v>
+        <v>-693576</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>37073</v>
+        <v>-693576</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>37104</v>
+        <v>-693576</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>37135</v>
+        <v>-693576</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>37165</v>
+        <v>-693576</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>37196</v>
+        <v>-693576</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>37226</v>
+        <v>-693576</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>37257</v>
+        <v>-693576</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -2510,7 +2510,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>37288</v>
+        <v>-693576</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>37316</v>
+        <v>-693576</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>37347</v>
+        <v>-693576</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>37377</v>
+        <v>-693576</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>37408</v>
+        <v>-693576</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>37438</v>
+        <v>-693576</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>37469</v>
+        <v>-693576</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>37500</v>
+        <v>-693576</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>37530</v>
+        <v>-693576</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>37561</v>
+        <v>-693576</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>37591</v>
+        <v>-693576</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>37622</v>
+        <v>-693576</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -2836,7 +2836,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>37653</v>
+        <v>-693576</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>37681</v>
+        <v>-693576</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>37712</v>
+        <v>-693576</v>
       </c>
       <c r="B101"/>
       <c r="C101"/>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>37742</v>
+        <v>-693576</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>37773</v>
+        <v>-693576</v>
       </c>
       <c r="B103"/>
       <c r="C103"/>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>37803</v>
+        <v>-693576</v>
       </c>
       <c r="B104"/>
       <c r="C104"/>
@@ -3010,7 +3010,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>37834</v>
+        <v>-693576</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>37865</v>
+        <v>-693576</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
@@ -3068,7 +3068,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>37895</v>
+        <v>-693576</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>37926</v>
+        <v>-693576</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>37956</v>
+        <v>-693576</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>37987</v>
+        <v>-693576</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>38018</v>
+        <v>-693576</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -3213,7 +3213,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>38047</v>
+        <v>-693576</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>38078</v>
+        <v>-693576</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>38108</v>
+        <v>-693576</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>38139</v>
+        <v>-693576</v>
       </c>
       <c r="B115"/>
       <c r="C115"/>
@@ -3329,7 +3329,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>38169</v>
+        <v>-693576</v>
       </c>
       <c r="B116"/>
       <c r="C116"/>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>38200</v>
+        <v>-693576</v>
       </c>
       <c r="B117"/>
       <c r="C117"/>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>38231</v>
+        <v>-693576</v>
       </c>
       <c r="B118"/>
       <c r="C118"/>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>38261</v>
+        <v>-693576</v>
       </c>
       <c r="B119"/>
       <c r="C119"/>
@@ -3445,7 +3445,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>38292</v>
+        <v>-693576</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>38322</v>
+        <v>-693576</v>
       </c>
       <c r="B121"/>
       <c r="C121"/>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>38353</v>
+        <v>-693576</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>38384</v>
+        <v>-693576</v>
       </c>
       <c r="B123"/>
       <c r="C123"/>
@@ -3561,7 +3561,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>38412</v>
+        <v>-693576</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>38443</v>
+        <v>-693576</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>38473</v>
+        <v>-693576</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>38504</v>
+        <v>-693576</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>38534</v>
+        <v>-693576</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>38565</v>
+        <v>-693576</v>
       </c>
       <c r="B129"/>
       <c r="C129"/>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>38596</v>
+        <v>-693576</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -3764,7 +3764,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>38626</v>
+        <v>-693576</v>
       </c>
       <c r="B131"/>
       <c r="C131"/>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>38657</v>
+        <v>-693576</v>
       </c>
       <c r="B132"/>
       <c r="C132"/>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>38687</v>
+        <v>-693576</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>38718</v>
+        <v>-693576</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>38749</v>
+        <v>-693576</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>38777</v>
+        <v>-693576</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>38808</v>
+        <v>-693576</v>
       </c>
       <c r="B137"/>
       <c r="C137"/>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>38838</v>
+        <v>-693576</v>
       </c>
       <c r="B138"/>
       <c r="C138"/>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>38869</v>
+        <v>-693576</v>
       </c>
       <c r="B139"/>
       <c r="C139"/>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>38899</v>
+        <v>-693576</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
@@ -4054,7 +4054,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>38930</v>
+        <v>-693576</v>
       </c>
       <c r="B141"/>
       <c r="C141"/>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>38961</v>
+        <v>-693576</v>
       </c>
       <c r="B142"/>
       <c r="C142"/>
@@ -4112,7 +4112,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>38991</v>
+        <v>-693576</v>
       </c>
       <c r="B143"/>
       <c r="C143"/>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>39022</v>
+        <v>-693576</v>
       </c>
       <c r="B144"/>
       <c r="C144"/>
@@ -4170,7 +4170,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>39052</v>
+        <v>-693576</v>
       </c>
       <c r="B145"/>
       <c r="C145"/>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>39083</v>
+        <v>-693576</v>
       </c>
       <c r="B146"/>
       <c r="C146"/>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>39114</v>
+        <v>-693576</v>
       </c>
       <c r="B147"/>
       <c r="C147"/>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>39142</v>
+        <v>-693576</v>
       </c>
       <c r="B148"/>
       <c r="C148"/>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>39173</v>
+        <v>-693576</v>
       </c>
       <c r="B149"/>
       <c r="C149"/>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>39203</v>
+        <v>-693576</v>
       </c>
       <c r="B150"/>
       <c r="C150"/>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>39234</v>
+        <v>-693576</v>
       </c>
       <c r="B151"/>
       <c r="C151"/>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>39264</v>
+        <v>-693576</v>
       </c>
       <c r="B152"/>
       <c r="C152"/>
@@ -4402,7 +4402,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>39295</v>
+        <v>-693576</v>
       </c>
       <c r="B153"/>
       <c r="C153"/>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>39326</v>
+        <v>-693576</v>
       </c>
       <c r="B154"/>
       <c r="C154"/>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>39356</v>
+        <v>-693576</v>
       </c>
       <c r="B155"/>
       <c r="C155"/>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>39387</v>
+        <v>-693576</v>
       </c>
       <c r="B156"/>
       <c r="C156"/>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>39417</v>
+        <v>-693576</v>
       </c>
       <c r="B157"/>
       <c r="C157"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>39448</v>
+        <v>-693576</v>
       </c>
       <c r="B158"/>
       <c r="C158"/>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>39479</v>
+        <v>-693576</v>
       </c>
       <c r="B159"/>
       <c r="C159"/>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>39508</v>
+        <v>-693576</v>
       </c>
       <c r="B160"/>
       <c r="C160"/>
@@ -4634,7 +4634,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>39539</v>
+        <v>-693576</v>
       </c>
       <c r="B161"/>
       <c r="C161"/>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>39569</v>
+        <v>-693576</v>
       </c>
       <c r="B162"/>
       <c r="C162"/>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>39600</v>
+        <v>-693576</v>
       </c>
       <c r="B163"/>
       <c r="C163"/>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>39630</v>
+        <v>-693576</v>
       </c>
       <c r="B164"/>
       <c r="C164"/>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>39661</v>
+        <v>-693576</v>
       </c>
       <c r="B165"/>
       <c r="C165"/>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>39692</v>
+        <v>-693576</v>
       </c>
       <c r="B166"/>
       <c r="C166"/>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>39722</v>
+        <v>-693576</v>
       </c>
       <c r="B167"/>
       <c r="C167"/>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>39753</v>
+        <v>-693576</v>
       </c>
       <c r="B168"/>
       <c r="C168"/>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>39783</v>
+        <v>-693576</v>
       </c>
       <c r="B169"/>
       <c r="C169"/>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>39814</v>
+        <v>-693576</v>
       </c>
       <c r="B170"/>
       <c r="C170"/>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>39845</v>
+        <v>-693576</v>
       </c>
       <c r="B171"/>
       <c r="C171"/>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>39873</v>
+        <v>-693576</v>
       </c>
       <c r="B172"/>
       <c r="C172"/>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>39904</v>
+        <v>-693576</v>
       </c>
       <c r="B173"/>
       <c r="C173"/>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>39934</v>
+        <v>-693576</v>
       </c>
       <c r="B174"/>
       <c r="C174"/>
@@ -5040,7 +5040,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>39965</v>
+        <v>-693576</v>
       </c>
       <c r="B175"/>
       <c r="C175"/>
@@ -5069,7 +5069,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>39995</v>
+        <v>-693576</v>
       </c>
       <c r="B176"/>
       <c r="C176"/>
@@ -5098,7 +5098,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>40026</v>
+        <v>-693576</v>
       </c>
       <c r="B177"/>
       <c r="C177"/>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>40057</v>
+        <v>-693576</v>
       </c>
       <c r="B178"/>
       <c r="C178"/>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>40087</v>
+        <v>-693576</v>
       </c>
       <c r="B179"/>
       <c r="C179"/>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>40118</v>
+        <v>-693576</v>
       </c>
       <c r="B180"/>
       <c r="C180"/>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>40148</v>
+        <v>-693576</v>
       </c>
       <c r="B181"/>
       <c r="C181"/>
@@ -5243,7 +5243,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>40179</v>
+        <v>-693576</v>
       </c>
       <c r="B182"/>
       <c r="C182"/>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>40210</v>
+        <v>-693576</v>
       </c>
       <c r="B183"/>
       <c r="C183"/>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>40238</v>
+        <v>-693576</v>
       </c>
       <c r="B184"/>
       <c r="C184"/>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>40269</v>
+        <v>-693576</v>
       </c>
       <c r="B185"/>
       <c r="C185"/>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>40299</v>
+        <v>-693576</v>
       </c>
       <c r="B186"/>
       <c r="C186"/>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>40330</v>
+        <v>-693576</v>
       </c>
       <c r="B187"/>
       <c r="C187"/>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>40360</v>
+        <v>-693576</v>
       </c>
       <c r="B188"/>
       <c r="C188"/>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>40391</v>
+        <v>-693576</v>
       </c>
       <c r="B189"/>
       <c r="C189"/>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="J189" t="n">
         <v>96.4</v>
@@ -5475,7 +5475,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>40422</v>
+        <v>-693576</v>
       </c>
       <c r="B190"/>
       <c r="C190"/>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>40452</v>
+        <v>-693576</v>
       </c>
       <c r="B191"/>
       <c r="C191"/>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>40483</v>
+        <v>-693576</v>
       </c>
       <c r="B192"/>
       <c r="C192"/>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>40513</v>
+        <v>-693576</v>
       </c>
       <c r="B193"/>
       <c r="C193"/>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>40544</v>
+        <v>-693576</v>
       </c>
       <c r="B194"/>
       <c r="C194"/>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>40575</v>
+        <v>-693576</v>
       </c>
       <c r="B195"/>
       <c r="C195"/>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>40603</v>
+        <v>-693576</v>
       </c>
       <c r="B196"/>
       <c r="C196"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="J196" t="n">
         <v>97.3</v>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>40634</v>
+        <v>-693576</v>
       </c>
       <c r="B197"/>
       <c r="C197"/>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>40664</v>
+        <v>-693576</v>
       </c>
       <c r="B198"/>
       <c r="C198"/>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>40695</v>
+        <v>-693576</v>
       </c>
       <c r="B199"/>
       <c r="C199"/>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>40725</v>
+        <v>-693576</v>
       </c>
       <c r="B200"/>
       <c r="C200"/>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>40756</v>
+        <v>-693576</v>
       </c>
       <c r="B201"/>
       <c r="C201"/>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>40787</v>
+        <v>-693576</v>
       </c>
       <c r="B202"/>
       <c r="C202"/>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>40817</v>
+        <v>-693576</v>
       </c>
       <c r="B203"/>
       <c r="C203"/>
@@ -5881,7 +5881,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>40848</v>
+        <v>-693576</v>
       </c>
       <c r="B204"/>
       <c r="C204"/>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>40878</v>
+        <v>-693576</v>
       </c>
       <c r="B205"/>
       <c r="C205"/>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>40909</v>
+        <v>-693576</v>
       </c>
       <c r="B206"/>
       <c r="C206"/>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>40940</v>
+        <v>-693576</v>
       </c>
       <c r="B207"/>
       <c r="C207"/>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>40969</v>
+        <v>-693576</v>
       </c>
       <c r="B208"/>
       <c r="C208"/>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>41000</v>
+        <v>-693576</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>41030</v>
+        <v>-693576</v>
       </c>
       <c r="B210"/>
       <c r="C210"/>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>41061</v>
+        <v>-693576</v>
       </c>
       <c r="B211"/>
       <c r="C211"/>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>41091</v>
+        <v>-693576</v>
       </c>
       <c r="B212"/>
       <c r="C212"/>
@@ -6158,7 +6158,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>41122</v>
+        <v>-693576</v>
       </c>
       <c r="B213"/>
       <c r="C213"/>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>41153</v>
+        <v>-693576</v>
       </c>
       <c r="B214"/>
       <c r="C214"/>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>41183</v>
+        <v>-693576</v>
       </c>
       <c r="B215"/>
       <c r="C215"/>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>41214</v>
+        <v>-693576</v>
       </c>
       <c r="B216"/>
       <c r="C216"/>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>41244</v>
+        <v>-693576</v>
       </c>
       <c r="B217"/>
       <c r="C217"/>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>41275</v>
+        <v>-693576</v>
       </c>
       <c r="B218"/>
       <c r="C218"/>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>41306</v>
+        <v>-693576</v>
       </c>
       <c r="B219"/>
       <c r="C219"/>
@@ -6375,7 +6375,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>41334</v>
+        <v>-693576</v>
       </c>
       <c r="B220"/>
       <c r="C220"/>
@@ -6406,7 +6406,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>41365</v>
+        <v>-693576</v>
       </c>
       <c r="B221"/>
       <c r="C221"/>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>41395</v>
+        <v>-693576</v>
       </c>
       <c r="B222"/>
       <c r="C222"/>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>41426</v>
+        <v>-693576</v>
       </c>
       <c r="B223"/>
       <c r="C223"/>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>41456</v>
+        <v>-693576</v>
       </c>
       <c r="B224"/>
       <c r="C224"/>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>41487</v>
+        <v>-693576</v>
       </c>
       <c r="B225"/>
       <c r="C225"/>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>41518</v>
+        <v>-693576</v>
       </c>
       <c r="B226"/>
       <c r="C226"/>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>41548</v>
+        <v>-693576</v>
       </c>
       <c r="B227"/>
       <c r="C227"/>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>41579</v>
+        <v>-693576</v>
       </c>
       <c r="B228"/>
       <c r="C228"/>
@@ -6654,7 +6654,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>41609</v>
+        <v>-693576</v>
       </c>
       <c r="B229"/>
       <c r="C229"/>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>41640</v>
+        <v>-693576</v>
       </c>
       <c r="B230"/>
       <c r="C230"/>
@@ -6716,7 +6716,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>41671</v>
+        <v>-693576</v>
       </c>
       <c r="B231"/>
       <c r="C231"/>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>41699</v>
+        <v>-693576</v>
       </c>
       <c r="B232"/>
       <c r="C232"/>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>41730</v>
+        <v>-693576</v>
       </c>
       <c r="B233"/>
       <c r="C233"/>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>41760</v>
+        <v>-693576</v>
       </c>
       <c r="B234"/>
       <c r="C234"/>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>41791</v>
+        <v>-693576</v>
       </c>
       <c r="B235"/>
       <c r="C235"/>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>41821</v>
+        <v>-693576</v>
       </c>
       <c r="B236"/>
       <c r="C236"/>
@@ -6902,7 +6902,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>41852</v>
+        <v>-693576</v>
       </c>
       <c r="B237"/>
       <c r="C237"/>
@@ -6933,7 +6933,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>41883</v>
+        <v>-693576</v>
       </c>
       <c r="B238"/>
       <c r="C238"/>
@@ -6964,7 +6964,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>41913</v>
+        <v>-693576</v>
       </c>
       <c r="B239"/>
       <c r="C239"/>
@@ -6995,7 +6995,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>41944</v>
+        <v>-693576</v>
       </c>
       <c r="B240"/>
       <c r="C240"/>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>41974</v>
+        <v>-693576</v>
       </c>
       <c r="B241"/>
       <c r="C241"/>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>42005</v>
+        <v>-693576</v>
       </c>
       <c r="B242"/>
       <c r="C242"/>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>42036</v>
+        <v>-693576</v>
       </c>
       <c r="B243"/>
       <c r="C243"/>
@@ -7123,7 +7123,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>42064</v>
+        <v>-693576</v>
       </c>
       <c r="B244"/>
       <c r="C244"/>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>42095</v>
+        <v>-693576</v>
       </c>
       <c r="B245"/>
       <c r="C245"/>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>42125</v>
+        <v>-693576</v>
       </c>
       <c r="B246"/>
       <c r="C246"/>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>42156</v>
+        <v>-693576</v>
       </c>
       <c r="B247"/>
       <c r="C247"/>
@@ -7255,7 +7255,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>42186</v>
+        <v>-693576</v>
       </c>
       <c r="B248"/>
       <c r="C248"/>
@@ -7288,7 +7288,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>42217</v>
+        <v>-693576</v>
       </c>
       <c r="B249"/>
       <c r="C249"/>
@@ -7321,7 +7321,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>42248</v>
+        <v>-693576</v>
       </c>
       <c r="B250"/>
       <c r="C250"/>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>42278</v>
+        <v>-693576</v>
       </c>
       <c r="B251"/>
       <c r="C251"/>
@@ -7387,7 +7387,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>42309</v>
+        <v>-693576</v>
       </c>
       <c r="B252"/>
       <c r="C252"/>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>42339</v>
+        <v>-693576</v>
       </c>
       <c r="B253"/>
       <c r="C253"/>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>42370</v>
+        <v>-693576</v>
       </c>
       <c r="B254"/>
       <c r="C254"/>
@@ -7486,7 +7486,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>42401</v>
+        <v>-693576</v>
       </c>
       <c r="B255"/>
       <c r="C255"/>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>42430</v>
+        <v>-693576</v>
       </c>
       <c r="B256"/>
       <c r="C256"/>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>42461</v>
+        <v>-693576</v>
       </c>
       <c r="B257"/>
       <c r="C257"/>
@@ -7585,7 +7585,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>42491</v>
+        <v>-693576</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -7618,7 +7618,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>42522</v>
+        <v>-693576</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -7651,7 +7651,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>42552</v>
+        <v>-693576</v>
       </c>
       <c r="B260"/>
       <c r="C260"/>
@@ -7684,7 +7684,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>42583</v>
+        <v>-693576</v>
       </c>
       <c r="B261"/>
       <c r="C261"/>
@@ -7717,7 +7717,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>42614</v>
+        <v>-693576</v>
       </c>
       <c r="B262"/>
       <c r="C262"/>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>42644</v>
+        <v>-693576</v>
       </c>
       <c r="B263"/>
       <c r="C263"/>
@@ -7783,7 +7783,7 @@
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>42675</v>
+        <v>-693576</v>
       </c>
       <c r="B264"/>
       <c r="C264"/>
@@ -7816,7 +7816,7 @@
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>42705</v>
+        <v>-693576</v>
       </c>
       <c r="B265"/>
       <c r="C265"/>
@@ -7832,7 +7832,7 @@
       </c>
       <c r="H265"/>
       <c r="I265" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J265" t="n">
         <v>99.4</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>42736</v>
+        <v>-693576</v>
       </c>
       <c r="B266"/>
       <c r="C266"/>
@@ -7882,7 +7882,7 @@
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>42767</v>
+        <v>-693576</v>
       </c>
       <c r="B267"/>
       <c r="C267"/>
@@ -7915,7 +7915,7 @@
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>42795</v>
+        <v>-693576</v>
       </c>
       <c r="B268"/>
       <c r="C268"/>
@@ -7948,7 +7948,7 @@
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>42826</v>
+        <v>-693576</v>
       </c>
       <c r="B269"/>
       <c r="C269"/>
@@ -7981,7 +7981,7 @@
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>42856</v>
+        <v>-693576</v>
       </c>
       <c r="B270"/>
       <c r="C270"/>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>42887</v>
+        <v>-693576</v>
       </c>
       <c r="B271"/>
       <c r="C271"/>
@@ -8047,7 +8047,7 @@
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>42917</v>
+        <v>-693576</v>
       </c>
       <c r="B272"/>
       <c r="C272"/>
@@ -8080,7 +8080,7 @@
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>42948</v>
+        <v>-693576</v>
       </c>
       <c r="B273"/>
       <c r="C273"/>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>42979</v>
+        <v>-693576</v>
       </c>
       <c r="B274"/>
       <c r="C274"/>
@@ -8146,7 +8146,7 @@
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>43009</v>
+        <v>-693576</v>
       </c>
       <c r="B275"/>
       <c r="C275"/>
@@ -8179,7 +8179,7 @@
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>43040</v>
+        <v>-693576</v>
       </c>
       <c r="B276"/>
       <c r="C276"/>
@@ -8212,7 +8212,7 @@
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>43070</v>
+        <v>-693576</v>
       </c>
       <c r="B277"/>
       <c r="C277"/>
@@ -8245,7 +8245,7 @@
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>43101</v>
+        <v>-693576</v>
       </c>
       <c r="B278"/>
       <c r="C278"/>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>43132</v>
+        <v>-693576</v>
       </c>
       <c r="B279"/>
       <c r="C279"/>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="H279"/>
       <c r="I279" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J279" t="n">
         <v>100.1</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>43160</v>
+        <v>-693576</v>
       </c>
       <c r="B280"/>
       <c r="C280"/>
@@ -8344,7 +8344,7 @@
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>43191</v>
+        <v>-693576</v>
       </c>
       <c r="B281"/>
       <c r="C281"/>
@@ -8377,7 +8377,7 @@
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>43221</v>
+        <v>-693576</v>
       </c>
       <c r="B282"/>
       <c r="C282"/>
@@ -8410,7 +8410,7 @@
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>43252</v>
+        <v>-693576</v>
       </c>
       <c r="B283"/>
       <c r="C283"/>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>43282</v>
+        <v>-693576</v>
       </c>
       <c r="B284"/>
       <c r="C284"/>
@@ -8476,7 +8476,7 @@
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>43313</v>
+        <v>-693576</v>
       </c>
       <c r="B285"/>
       <c r="C285"/>
@@ -8509,7 +8509,7 @@
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>43344</v>
+        <v>-693576</v>
       </c>
       <c r="B286"/>
       <c r="C286"/>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>43374</v>
+        <v>-693576</v>
       </c>
       <c r="B287"/>
       <c r="C287"/>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>43405</v>
+        <v>-693576</v>
       </c>
       <c r="B288"/>
       <c r="C288"/>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>43435</v>
+        <v>-693576</v>
       </c>
       <c r="B289"/>
       <c r="C289"/>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>43466</v>
+        <v>-693576</v>
       </c>
       <c r="B290"/>
       <c r="C290"/>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>43497</v>
+        <v>-693576</v>
       </c>
       <c r="B291"/>
       <c r="C291"/>
@@ -8711,7 +8711,7 @@
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>43525</v>
+        <v>-693576</v>
       </c>
       <c r="B292"/>
       <c r="C292"/>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>43556</v>
+        <v>-693576</v>
       </c>
       <c r="B293"/>
       <c r="C293"/>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>43586</v>
+        <v>-693576</v>
       </c>
       <c r="B294"/>
       <c r="C294"/>
@@ -8816,7 +8816,7 @@
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>43617</v>
+        <v>-693576</v>
       </c>
       <c r="B295"/>
       <c r="C295"/>
@@ -8851,7 +8851,7 @@
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>43647</v>
+        <v>-693576</v>
       </c>
       <c r="B296"/>
       <c r="C296"/>
@@ -8886,7 +8886,7 @@
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>43678</v>
+        <v>-693576</v>
       </c>
       <c r="B297"/>
       <c r="C297"/>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>43709</v>
+        <v>-693576</v>
       </c>
       <c r="B298"/>
       <c r="C298"/>
@@ -8956,7 +8956,7 @@
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>43739</v>
+        <v>-693576</v>
       </c>
       <c r="B299"/>
       <c r="C299"/>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>43770</v>
+        <v>-693576</v>
       </c>
       <c r="B300"/>
       <c r="C300"/>
@@ -9026,7 +9026,7 @@
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>43800</v>
+        <v>-693576</v>
       </c>
       <c r="B301"/>
       <c r="C301"/>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>43831</v>
+        <v>-693576</v>
       </c>
       <c r="B302"/>
       <c r="C302"/>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>43862</v>
+        <v>-693576</v>
       </c>
       <c r="B303"/>
       <c r="C303"/>
@@ -9131,7 +9131,7 @@
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>43891</v>
+        <v>-693576</v>
       </c>
       <c r="B304"/>
       <c r="C304"/>
@@ -9166,7 +9166,7 @@
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>43922</v>
+        <v>-693576</v>
       </c>
       <c r="B305"/>
       <c r="C305"/>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>43952</v>
+        <v>-693576</v>
       </c>
       <c r="B306"/>
       <c r="C306"/>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>43983</v>
+        <v>-693576</v>
       </c>
       <c r="B307"/>
       <c r="C307"/>
@@ -9271,7 +9271,7 @@
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44013</v>
+        <v>-693576</v>
       </c>
       <c r="B308"/>
       <c r="C308"/>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44044</v>
+        <v>-693576</v>
       </c>
       <c r="B309"/>
       <c r="C309"/>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44075</v>
+        <v>-693576</v>
       </c>
       <c r="B310"/>
       <c r="C310"/>
@@ -9376,7 +9376,7 @@
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44105</v>
+        <v>-693576</v>
       </c>
       <c r="B311"/>
       <c r="C311"/>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44136</v>
+        <v>-693576</v>
       </c>
       <c r="B312"/>
       <c r="C312"/>
@@ -9446,7 +9446,7 @@
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44166</v>
+        <v>-693576</v>
       </c>
       <c r="B313"/>
       <c r="C313"/>
@@ -9481,7 +9481,7 @@
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44197</v>
+        <v>-693576</v>
       </c>
       <c r="B314" t="n">
         <v>87</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44228</v>
+        <v>-693576</v>
       </c>
       <c r="B315" t="n">
         <v>94.9</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44256</v>
+        <v>-693576</v>
       </c>
       <c r="B316" t="n">
         <v>89.5</v>
@@ -9581,7 +9581,7 @@
         <v>1944200</v>
       </c>
       <c r="I316" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J316" t="n">
         <v>102.2</v>
@@ -9598,7 +9598,7 @@
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44287</v>
+        <v>-693576</v>
       </c>
       <c r="B317" t="n">
         <v>85.8</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44317</v>
+        <v>-693576</v>
       </c>
       <c r="B318" t="n">
         <v>95.5</v>
@@ -9676,7 +9676,7 @@
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44348</v>
+        <v>-693576</v>
       </c>
       <c r="B319" t="n">
         <v>99.2</v>
@@ -9715,7 +9715,7 @@
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44378</v>
+        <v>-693576</v>
       </c>
       <c r="B320" t="n">
         <v>111.7</v>
@@ -9754,7 +9754,7 @@
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44409</v>
+        <v>-693576</v>
       </c>
       <c r="B321" t="n">
         <v>99.6</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44440</v>
+        <v>-693576</v>
       </c>
       <c r="B322" t="n">
         <v>99</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44470</v>
+        <v>-693576</v>
       </c>
       <c r="B323" t="n">
         <v>99.9</v>
@@ -9854,7 +9854,7 @@
         <v>2249200</v>
       </c>
       <c r="I323" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J323" t="n">
         <v>105.4</v>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44501</v>
+        <v>-693576</v>
       </c>
       <c r="B324" t="n">
         <v>115.2</v>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44531</v>
+        <v>-693576</v>
       </c>
       <c r="B325" t="n">
         <v>120.6</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44562</v>
+        <v>-693576</v>
       </c>
       <c r="B326" t="n">
         <v>105.9</v>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44593</v>
+        <v>-693576</v>
       </c>
       <c r="B327" t="n">
         <v>107.7</v>
@@ -10027,7 +10027,7 @@
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44621</v>
+        <v>-693576</v>
       </c>
       <c r="B328" t="n">
         <v>106.3</v>
@@ -10066,7 +10066,7 @@
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44652</v>
+        <v>-693576</v>
       </c>
       <c r="B329" t="n">
         <v>101.7</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44682</v>
+        <v>-693576</v>
       </c>
       <c r="B330" t="n">
         <v>104.7</v>
@@ -10144,7 +10144,7 @@
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44713</v>
+        <v>-693576</v>
       </c>
       <c r="B331" t="n">
         <v>102.6</v>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44743</v>
+        <v>-693576</v>
       </c>
       <c r="B332" t="n">
         <v>110</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44774</v>
+        <v>-693576</v>
       </c>
       <c r="B333" t="n">
         <v>102.2</v>
@@ -10261,7 +10261,7 @@
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44805</v>
+        <v>-693576</v>
       </c>
       <c r="B334" t="n">
         <v>101.3</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44835</v>
+        <v>-693576</v>
       </c>
       <c r="B335" t="n">
         <v>98.2</v>
@@ -10341,7 +10341,7 @@
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44866</v>
+        <v>-693576</v>
       </c>
       <c r="B336" t="n">
         <v>113.7</v>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44896</v>
+        <v>-693576</v>
       </c>
       <c r="B337" t="n">
         <v>131.3</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44927</v>
+        <v>-693576</v>
       </c>
       <c r="B338" t="n">
         <v>113.7</v>
@@ -10464,7 +10464,7 @@
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44958</v>
+        <v>-693576</v>
       </c>
       <c r="B339" t="n">
         <v>113.9</v>
@@ -10505,7 +10505,7 @@
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44986</v>
+        <v>-693576</v>
       </c>
       <c r="B340" t="n">
         <v>113.5</v>
@@ -10546,7 +10546,7 @@
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>45017</v>
+        <v>-693576</v>
       </c>
       <c r="B341" t="n">
         <v>107.8</v>
@@ -10587,7 +10587,7 @@
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>45047</v>
+        <v>-693576</v>
       </c>
       <c r="B342" t="n">
         <v>111.6</v>
@@ -10628,7 +10628,7 @@
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>45078</v>
+        <v>-693576</v>
       </c>
       <c r="B343" t="n">
         <v>108.2</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>45108</v>
+        <v>-693576</v>
       </c>
       <c r="B344" t="n">
         <v>114.9</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>45139</v>
+        <v>-693576</v>
       </c>
       <c r="B345" t="n">
         <v>107.7</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>45170</v>
+        <v>-693576</v>
       </c>
       <c r="B346" t="n">
         <v>102.9</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>45200</v>
+        <v>-693576</v>
       </c>
       <c r="B347" t="n">
         <v>97.1</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>45231</v>
+        <v>-693576</v>
       </c>
       <c r="B348" t="n">
         <v>118.2</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>45261</v>
+        <v>-693576</v>
       </c>
       <c r="B349" t="n">
         <v>133.9</v>
@@ -10898,7 +10898,7 @@
         <v>2459700</v>
       </c>
       <c r="I349" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J349" t="n">
         <v>118.9</v>
@@ -10915,7 +10915,7 @@
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>45292</v>
+        <v>-693576</v>
       </c>
       <c r="B350" t="n">
         <v>118.6</v>
@@ -10936,10 +10936,10 @@
         <v>152283</v>
       </c>
       <c r="H350" t="n">
-        <v>2448100</v>
+        <v>2448200</v>
       </c>
       <c r="I350" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J350" t="n">
         <v>117.2</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>45323</v>
+        <v>-693576</v>
       </c>
       <c r="B351" t="n">
         <v>115.2</v>
@@ -10977,10 +10977,10 @@
         <v>153437</v>
       </c>
       <c r="H351" t="n">
-        <v>2441300</v>
+        <v>2441400</v>
       </c>
       <c r="I351" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J351" t="n">
         <v>118.5</v>
@@ -10997,7 +10997,7 @@
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>45352</v>
+        <v>-693576</v>
       </c>
       <c r="B352" t="n">
         <v>116.1</v>
@@ -11018,7 +11018,7 @@
         <v>154487</v>
       </c>
       <c r="H352" t="n">
-        <v>2468000</v>
+        <v>2468100</v>
       </c>
       <c r="I352" t="n">
         <v>4.2</v>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>45383</v>
+        <v>-693576</v>
       </c>
       <c r="B353" t="n">
         <v>108.1</v>
@@ -11059,7 +11059,7 @@
         <v>154387</v>
       </c>
       <c r="H353" t="n">
-        <v>2468200</v>
+        <v>2468300</v>
       </c>
       <c r="I353" t="n">
         <v>4.4</v>
@@ -11079,7 +11079,7 @@
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>45413</v>
+        <v>-693576</v>
       </c>
       <c r="B354" t="n">
         <v>111.1</v>
@@ -11100,7 +11100,7 @@
         <v>155469</v>
       </c>
       <c r="H354" t="n">
-        <v>2494600</v>
+        <v>2494700</v>
       </c>
       <c r="I354" t="n">
         <v>4.4</v>
@@ -11112,15 +11112,15 @@
         <v>116.9</v>
       </c>
       <c r="L354" t="n">
-        <v>244.999</v>
+        <v>244.744</v>
       </c>
       <c r="M354" t="n">
-        <v>18019639</v>
+        <v>18038905</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>45444</v>
+        <v>-693576</v>
       </c>
       <c r="B355" t="n">
         <v>107.3</v>
@@ -11141,10 +11141,10 @@
         <v>156520</v>
       </c>
       <c r="H355" t="n">
-        <v>2513500</v>
+        <v>2513600</v>
       </c>
       <c r="I355" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J355" t="n">
         <v>120.2</v>
@@ -11161,7 +11161,7 @@
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>45474</v>
+        <v>-693576</v>
       </c>
       <c r="B356" t="n">
         <v>116.4</v>
@@ -11182,7 +11182,7 @@
         <v>156314</v>
       </c>
       <c r="H356" t="n">
-        <v>2502400</v>
+        <v>2502500</v>
       </c>
       <c r="I356" t="n">
         <v>4.5</v>
@@ -11202,7 +11202,7 @@
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>45505</v>
+        <v>-693576</v>
       </c>
       <c r="B357" t="n">
         <v>105.1</v>
@@ -11223,7 +11223,7 @@
         <v>157644</v>
       </c>
       <c r="H357" t="n">
-        <v>2519900</v>
+        <v>2520000</v>
       </c>
       <c r="I357" t="n">
         <v>4.1</v>
@@ -11243,7 +11243,7 @@
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>45536</v>
+        <v>-693576</v>
       </c>
       <c r="B358" t="n">
         <v>102.5</v>
@@ -11258,16 +11258,16 @@
         <v>7053563544.44</v>
       </c>
       <c r="F358" t="n">
-        <v>169.9</v>
+        <v>169.1</v>
       </c>
       <c r="G358" t="n">
         <v>157622</v>
       </c>
       <c r="H358" t="n">
-        <v>2495500</v>
+        <v>2498400</v>
       </c>
       <c r="I358" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J358" t="n">
         <v>119.3</v>
@@ -11284,13 +11284,13 @@
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>45566</v>
+        <v>-693576</v>
       </c>
       <c r="B359" t="n">
-        <v>96.9</v>
+        <v>97.3</v>
       </c>
       <c r="C359" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
       </c>
       <c r="D359" t="n">
         <v>380458</v>
@@ -11298,12 +11298,14 @@
       <c r="E359" t="n">
         <v>7180670898.57</v>
       </c>
-      <c r="F359"/>
+      <c r="F359" t="n">
+        <v>159.3</v>
+      </c>
       <c r="G359" t="n">
         <v>161060</v>
       </c>
       <c r="H359" t="n">
-        <v>2494100</v>
+        <v>2505600</v>
       </c>
       <c r="I359" t="n">
         <v>4.2</v>
@@ -11315,27 +11317,37 @@
         <v>117.1</v>
       </c>
       <c r="L359" t="n">
-        <v>284.407</v>
+        <v>286.286</v>
       </c>
       <c r="M359" t="n">
-        <v>21184173</v>
+        <v>21275826</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>45597</v>
-      </c>
-      <c r="B360"/>
-      <c r="C360"/>
+        <v>-693576</v>
+      </c>
+      <c r="B360" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="C360" t="n">
+        <v>131.5</v>
+      </c>
       <c r="D360" t="n">
-        <v>3095000</v>
-      </c>
-      <c r="E360"/>
-      <c r="F360"/>
+        <v>3095005</v>
+      </c>
+      <c r="E360" t="n">
+        <v>7610007605.46</v>
+      </c>
+      <c r="F360" t="n">
+        <v>157.6</v>
+      </c>
       <c r="G360"/>
-      <c r="H360"/>
+      <c r="H360" t="n">
+        <v>2517600</v>
+      </c>
       <c r="I360" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J360" t="n">
         <v>119</v>
@@ -11343,8 +11355,66 @@
       <c r="K360" t="n">
         <v>116.4</v>
       </c>
-      <c r="L360"/>
-      <c r="M360"/>
+      <c r="L360" t="n">
+        <v>270.954</v>
+      </c>
+      <c r="M360" t="n">
+        <v>20500005</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B361" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>166</v>
+      </c>
+      <c r="D361" t="n">
+        <v>419228</v>
+      </c>
+      <c r="E361" t="n">
+        <v>8472910204.12</v>
+      </c>
+      <c r="F361"/>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J361" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="K361" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="L361"/>
+      <c r="M361"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B362"/>
+      <c r="C362"/>
+      <c r="D362" t="n">
+        <v>4051134</v>
+      </c>
+      <c r="E362"/>
+      <c r="F362"/>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362" t="n">
+        <v>4</v>
+      </c>
+      <c r="J362" t="n">
+        <v>119</v>
+      </c>
+      <c r="K362"/>
+      <c r="L362"/>
+      <c r="M362"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11381,7 +11381,7 @@
         <v>8472910204.12</v>
       </c>
       <c r="F361" t="n">
-        <v>192.6</v>
+        <v>192.1</v>
       </c>
       <c r="G361" t="n">
         <v>161318</v>
@@ -11415,14 +11415,16 @@
       <c r="C362" t="n">
         <v>92.2</v>
       </c>
-      <c r="D362" t="n">
-        <v>4051134</v>
-      </c>
+      <c r="D362"/>
       <c r="E362" t="n">
         <v>7050495708.44</v>
       </c>
-      <c r="F362"/>
-      <c r="G362"/>
+      <c r="F362" t="n">
+        <v>150.4</v>
+      </c>
+      <c r="G362" t="n">
+        <v>163155</v>
+      </c>
       <c r="H362"/>
       <c r="I362" t="n">
         <v>4</v>
@@ -11442,9 +11444,7 @@
       </c>
       <c r="B363"/>
       <c r="C363"/>
-      <c r="D363" t="n">
-        <v>507747</v>
-      </c>
+      <c r="D363"/>
       <c r="E363"/>
       <c r="F363"/>
       <c r="G363"/>
@@ -11453,9 +11453,11 @@
         <v>3.9</v>
       </c>
       <c r="J363" t="n">
-        <v>120</v>
-      </c>
-      <c r="K363"/>
+        <v>120.2</v>
+      </c>
+      <c r="K363" t="n">
+        <v>117.4</v>
+      </c>
       <c r="L363"/>
       <c r="M363"/>
     </row>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11059,7 +11059,7 @@
         <v>154387</v>
       </c>
       <c r="H353" t="n">
-        <v>2468300</v>
+        <v>2468400</v>
       </c>
       <c r="I353" t="n">
         <v>4.4</v>
@@ -11100,7 +11100,7 @@
         <v>155469</v>
       </c>
       <c r="H354" t="n">
-        <v>2494700</v>
+        <v>2494800</v>
       </c>
       <c r="I354" t="n">
         <v>4.4</v>
@@ -11141,7 +11141,7 @@
         <v>156520</v>
       </c>
       <c r="H355" t="n">
-        <v>2513600</v>
+        <v>2513700</v>
       </c>
       <c r="I355" t="n">
         <v>4.3</v>
@@ -11182,7 +11182,7 @@
         <v>156314</v>
       </c>
       <c r="H356" t="n">
-        <v>2502500</v>
+        <v>2502600</v>
       </c>
       <c r="I356" t="n">
         <v>4.5</v>
@@ -11194,10 +11194,10 @@
         <v>117.7</v>
       </c>
       <c r="L356" t="n">
-        <v>240.363</v>
+        <v>243.504</v>
       </c>
       <c r="M356" t="n">
-        <v>17907122</v>
+        <v>18153055</v>
       </c>
     </row>
     <row r="357">
@@ -11346,7 +11346,7 @@
         <v>161527</v>
       </c>
       <c r="H360" t="n">
-        <v>2524800</v>
+        <v>2527200</v>
       </c>
       <c r="I360" t="n">
         <v>4.2</v>
@@ -11358,7 +11358,7 @@
         <v>116.4</v>
       </c>
       <c r="L360" t="n">
-        <v>279.132</v>
+        <v>278.983</v>
       </c>
       <c r="M360" t="n">
         <v>21114418</v>
@@ -11387,7 +11387,7 @@
         <v>161318</v>
       </c>
       <c r="H361" t="n">
-        <v>2517300</v>
+        <v>2524500</v>
       </c>
       <c r="I361" t="n">
         <v>4.4</v>
@@ -11399,10 +11399,10 @@
         <v>117.5</v>
       </c>
       <c r="L361" t="n">
-        <v>204.53</v>
+        <v>211.481</v>
       </c>
       <c r="M361" t="n">
-        <v>15497327</v>
+        <v>16147556</v>
       </c>
     </row>
     <row r="362">
@@ -11425,7 +11425,9 @@
       <c r="G362" t="n">
         <v>163155</v>
       </c>
-      <c r="H362"/>
+      <c r="H362" t="n">
+        <v>2503000</v>
+      </c>
       <c r="I362" t="n">
         <v>4</v>
       </c>
@@ -11436,7 +11438,9 @@
         <v>116.3</v>
       </c>
       <c r="L362"/>
-      <c r="M362"/>
+      <c r="M362" t="n">
+        <v>24246248</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11410,12 +11410,14 @@
         <v>-693576</v>
       </c>
       <c r="B362" t="n">
-        <v>118.1</v>
+        <v>118.9</v>
       </c>
       <c r="C362" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="D362"/>
+        <v>91.7</v>
+      </c>
+      <c r="D362" t="n">
+        <v>4051134</v>
+      </c>
       <c r="E362" t="n">
         <v>7050495708.44</v>
       </c>
@@ -11446,9 +11448,15 @@
       <c r="A363" s="1" t="n">
         <v>-693576</v>
       </c>
-      <c r="B363"/>
-      <c r="C363"/>
-      <c r="D363"/>
+      <c r="B363" t="n">
+        <v>117.6</v>
+      </c>
+      <c r="C363" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="D363" t="n">
+        <v>507747</v>
+      </c>
       <c r="E363"/>
       <c r="F363"/>
       <c r="G363"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11473,6 +11473,25 @@
       <c r="L363"/>
       <c r="M363"/>
     </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B364"/>
+      <c r="C364"/>
+      <c r="D364"/>
+      <c r="E364"/>
+      <c r="F364"/>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364" t="n">
+        <v>121</v>
+      </c>
+      <c r="K364"/>
+      <c r="L364"/>
+      <c r="M364"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="J196" t="n">
         <v>97.3</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="H279"/>
       <c r="I279" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="J279" t="n">
         <v>100.1</v>
@@ -11103,7 +11103,7 @@
         <v>2494800</v>
       </c>
       <c r="I354" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J354" t="n">
         <v>119.8</v>
@@ -11484,7 +11484,9 @@
       <c r="F364"/>
       <c r="G364"/>
       <c r="H364"/>
-      <c r="I364"/>
+      <c r="I364" t="n">
+        <v>4</v>
+      </c>
       <c r="J364" t="n">
         <v>121</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11479,7 +11479,9 @@
       </c>
       <c r="B364"/>
       <c r="C364"/>
-      <c r="D364"/>
+      <c r="D364" t="n">
+        <v>2886000</v>
+      </c>
       <c r="E364"/>
       <c r="F364"/>
       <c r="G364"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11457,7 +11457,9 @@
       <c r="D363" t="n">
         <v>507747</v>
       </c>
-      <c r="E363"/>
+      <c r="E363" t="n">
+        <v>6741686430.91</v>
+      </c>
       <c r="F363"/>
       <c r="G363"/>
       <c r="H363"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11494,7 +11494,9 @@
       <c r="J364" t="n">
         <v>121</v>
       </c>
-      <c r="K364"/>
+      <c r="K364" t="n">
+        <v>118.4</v>
+      </c>
       <c r="L364"/>
       <c r="M364"/>
     </row>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11461,7 +11461,9 @@
         <v>6741686430.91</v>
       </c>
       <c r="F363"/>
-      <c r="G363"/>
+      <c r="G363" t="n">
+        <v>163780</v>
+      </c>
       <c r="H363"/>
       <c r="I363" t="n">
         <v>3.9</v>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11235,10 +11235,10 @@
         <v>118</v>
       </c>
       <c r="L357" t="n">
-        <v>234.088</v>
+        <v>236.247</v>
       </c>
       <c r="M357" t="n">
-        <v>17305382</v>
+        <v>17360636</v>
       </c>
     </row>
     <row r="358">
@@ -11317,7 +11317,7 @@
         <v>117.1</v>
       </c>
       <c r="L359" t="n">
-        <v>286.286</v>
+        <v>284.675</v>
       </c>
       <c r="M359" t="n">
         <v>21275826</v>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="L362"/>
       <c r="M362" t="n">
-        <v>24246248</v>
+        <v>25772356</v>
       </c>
     </row>
     <row r="363">
@@ -11475,7 +11475,9 @@
         <v>117.4</v>
       </c>
       <c r="L363"/>
-      <c r="M363"/>
+      <c r="M363" t="n">
+        <v>24594572</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11387,7 +11387,7 @@
         <v>161318</v>
       </c>
       <c r="H361" t="n">
-        <v>2524500</v>
+        <v>2526100</v>
       </c>
       <c r="I361" t="n">
         <v>4.4</v>
@@ -11428,7 +11428,7 @@
         <v>163155</v>
       </c>
       <c r="H362" t="n">
-        <v>2503000</v>
+        <v>2512700</v>
       </c>
       <c r="I362" t="n">
         <v>4</v>
@@ -11464,7 +11464,9 @@
       <c r="G363" t="n">
         <v>163780</v>
       </c>
-      <c r="H363"/>
+      <c r="H363" t="n">
+        <v>2486900</v>
+      </c>
       <c r="I363" t="n">
         <v>3.9</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11452,7 +11452,7 @@
         <v>117.6</v>
       </c>
       <c r="C363" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="D363" t="n">
         <v>507747</v>
@@ -11485,8 +11485,12 @@
       <c r="A364" s="1" t="n">
         <v>-693576</v>
       </c>
-      <c r="B364"/>
-      <c r="C364"/>
+      <c r="B364" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>106.9</v>
+      </c>
       <c r="D364" t="n">
         <v>2886000</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1720,7 +1720,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J57" t="n">
         <v>73.6</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="J189" t="n">
         <v>96.4</v>
@@ -8294,7 +8294,7 @@
       </c>
       <c r="H279"/>
       <c r="I279" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J279" t="n">
         <v>100.1</v>
@@ -9503,7 +9503,7 @@
         <v>2010800</v>
       </c>
       <c r="I314" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="J314" t="n">
         <v>101</v>
@@ -9542,7 +9542,7 @@
         <v>1912700</v>
       </c>
       <c r="I315" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J315" t="n">
         <v>101.3</v>
@@ -9581,7 +9581,7 @@
         <v>1944200</v>
       </c>
       <c r="I316" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J316" t="n">
         <v>102.2</v>
@@ -10010,7 +10010,7 @@
         <v>2274800</v>
       </c>
       <c r="I327" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J327" t="n">
         <v>107.1</v>
@@ -10324,7 +10324,7 @@
         <v>2386800</v>
       </c>
       <c r="I335" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J335" t="n">
         <v>115.3</v>
@@ -10406,7 +10406,7 @@
         <v>2406400</v>
       </c>
       <c r="I337" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J337" t="n">
         <v>115.2</v>
@@ -10488,7 +10488,7 @@
         <v>2382400</v>
       </c>
       <c r="I339" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J339" t="n">
         <v>115.8</v>
@@ -10693,7 +10693,7 @@
         <v>2438800</v>
       </c>
       <c r="I344" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J344" t="n">
         <v>118.6</v>
@@ -10939,7 +10939,7 @@
         <v>2448300</v>
       </c>
       <c r="I350" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J350" t="n">
         <v>117.2</v>
@@ -10980,7 +10980,7 @@
         <v>2441400</v>
       </c>
       <c r="I351" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J351" t="n">
         <v>118.5</v>
@@ -11021,7 +11021,7 @@
         <v>2468200</v>
       </c>
       <c r="I352" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J352" t="n">
         <v>118.9</v>
@@ -11103,7 +11103,7 @@
         <v>2494800</v>
       </c>
       <c r="I354" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J354" t="n">
         <v>119.8</v>
@@ -11144,7 +11144,7 @@
         <v>2513700</v>
       </c>
       <c r="I355" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J355" t="n">
         <v>120.2</v>
@@ -11185,7 +11185,7 @@
         <v>2502600</v>
       </c>
       <c r="I356" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J356" t="n">
         <v>120.4</v>
@@ -11267,7 +11267,7 @@
         <v>2498500</v>
       </c>
       <c r="I358" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J358" t="n">
         <v>119.3</v>
@@ -11431,7 +11431,7 @@
         <v>2512700</v>
       </c>
       <c r="I362" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J362" t="n">
         <v>119.2</v>
@@ -11468,7 +11468,7 @@
         <v>2486900</v>
       </c>
       <c r="I363" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="J363" t="n">
         <v>120.2</v>
@@ -11499,7 +11499,7 @@
       <c r="G364"/>
       <c r="H364"/>
       <c r="I364" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="J364" t="n">
         <v>121</v>
@@ -11509,6 +11509,25 @@
       </c>
       <c r="L364"/>
       <c r="M364"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B365"/>
+      <c r="C365"/>
+      <c r="D365"/>
+      <c r="E365"/>
+      <c r="F365"/>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J365"/>
+      <c r="K365"/>
+      <c r="L365"/>
+      <c r="M365"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11524,7 +11524,9 @@
       <c r="I365" t="n">
         <v>4.1</v>
       </c>
-      <c r="J365"/>
+      <c r="J365" t="n">
+        <v>121.5</v>
+      </c>
       <c r="K365"/>
       <c r="L365"/>
       <c r="M365"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11494,7 +11494,9 @@
       <c r="D364" t="n">
         <v>2886000</v>
       </c>
-      <c r="E364"/>
+      <c r="E364" t="n">
+        <v>7709425430</v>
+      </c>
       <c r="F364"/>
       <c r="G364"/>
       <c r="H364"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -10948,7 +10948,7 @@
         <v>113.8</v>
       </c>
       <c r="L350" t="n">
-        <v>259.231</v>
+        <v>251.795</v>
       </c>
       <c r="M350" t="n">
         <v>18912858</v>
@@ -10989,7 +10989,7 @@
         <v>115.1</v>
       </c>
       <c r="L351" t="n">
-        <v>211.605</v>
+        <v>206.042</v>
       </c>
       <c r="M351" t="n">
         <v>15937076</v>
@@ -11030,7 +11030,7 @@
         <v>116</v>
       </c>
       <c r="L352" t="n">
-        <v>261.118</v>
+        <v>254.254</v>
       </c>
       <c r="M352" t="n">
         <v>19176653</v>
@@ -11071,7 +11071,7 @@
         <v>116.1</v>
       </c>
       <c r="L353" t="n">
-        <v>260.67</v>
+        <v>253.817</v>
       </c>
       <c r="M353" t="n">
         <v>19413652</v>
@@ -11112,7 +11112,7 @@
         <v>116.9</v>
       </c>
       <c r="L354" t="n">
-        <v>244.744</v>
+        <v>238.139</v>
       </c>
       <c r="M354" t="n">
         <v>18038905</v>
@@ -11153,7 +11153,7 @@
         <v>117.5</v>
       </c>
       <c r="L355" t="n">
-        <v>224.272</v>
+        <v>218.375</v>
       </c>
       <c r="M355" t="n">
         <v>16727247</v>
@@ -11194,7 +11194,7 @@
         <v>117.7</v>
       </c>
       <c r="L356" t="n">
-        <v>243.504</v>
+        <v>237.102</v>
       </c>
       <c r="M356" t="n">
         <v>18153055</v>
@@ -11235,7 +11235,7 @@
         <v>118</v>
       </c>
       <c r="L357" t="n">
-        <v>236.247</v>
+        <v>230.036</v>
       </c>
       <c r="M357" t="n">
         <v>17360636</v>
@@ -11276,10 +11276,10 @@
         <v>116.8</v>
       </c>
       <c r="L358" t="n">
-        <v>299.573</v>
+        <v>287.928</v>
       </c>
       <c r="M358" t="n">
-        <v>22479770</v>
+        <v>22189330</v>
       </c>
     </row>
     <row r="359">
@@ -11317,7 +11317,7 @@
         <v>117.1</v>
       </c>
       <c r="L359" t="n">
-        <v>284.675</v>
+        <v>277.191</v>
       </c>
       <c r="M359" t="n">
         <v>21275826</v>
@@ -11358,7 +11358,7 @@
         <v>116.4</v>
       </c>
       <c r="L360" t="n">
-        <v>278.983</v>
+        <v>271.649</v>
       </c>
       <c r="M360" t="n">
         <v>21114418</v>
@@ -11399,7 +11399,7 @@
         <v>117.5</v>
       </c>
       <c r="L361" t="n">
-        <v>211.481</v>
+        <v>205.921</v>
       </c>
       <c r="M361" t="n">
         <v>16147556</v>
@@ -11439,9 +11439,11 @@
       <c r="K362" t="n">
         <v>116.3</v>
       </c>
-      <c r="L362"/>
+      <c r="L362" t="n">
+        <v>351.638</v>
+      </c>
       <c r="M362" t="n">
-        <v>25772356</v>
+        <v>25880468</v>
       </c>
     </row>
     <row r="363">
@@ -11476,9 +11478,11 @@
       <c r="K363" t="n">
         <v>117.4</v>
       </c>
-      <c r="L363"/>
+      <c r="L363" t="n">
+        <v>343.825</v>
+      </c>
       <c r="M363" t="n">
-        <v>24594572</v>
+        <v>25224366</v>
       </c>
     </row>
     <row r="364">
@@ -11492,13 +11496,15 @@
         <v>106.9</v>
       </c>
       <c r="D364" t="n">
-        <v>2886000</v>
+        <v>3074026</v>
       </c>
       <c r="E364" t="n">
         <v>7709425430</v>
       </c>
       <c r="F364"/>
-      <c r="G364"/>
+      <c r="G364" t="n">
+        <v>164380</v>
+      </c>
       <c r="H364"/>
       <c r="I364" t="n">
         <v>4.4</v>
@@ -11509,8 +11515,12 @@
       <c r="K364" t="n">
         <v>118.4</v>
       </c>
-      <c r="L364"/>
-      <c r="M364"/>
+      <c r="L364" t="n">
+        <v>513.043</v>
+      </c>
+      <c r="M364" t="n">
+        <v>37269799</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11518,7 +11528,9 @@
       </c>
       <c r="B365"/>
       <c r="C365"/>
-      <c r="D365"/>
+      <c r="D365" t="n">
+        <v>266528</v>
+      </c>
       <c r="E365"/>
       <c r="F365"/>
       <c r="G365"/>
@@ -11529,7 +11541,9 @@
       <c r="J365" t="n">
         <v>121.5</v>
       </c>
-      <c r="K365"/>
+      <c r="K365" t="n">
+        <v>119</v>
+      </c>
       <c r="L365"/>
       <c r="M365"/>
     </row>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7066,7 +7066,7 @@
       </c>
       <c r="E242"/>
       <c r="F242" t="n">
-        <v>89.8</v>
+        <v>83.7</v>
       </c>
       <c r="G242" t="n">
         <v>92104</v>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="E243"/>
       <c r="F243" t="n">
-        <v>87</v>
+        <v>84.1</v>
       </c>
       <c r="G243" t="n">
         <v>92529</v>
@@ -7132,7 +7132,7 @@
       </c>
       <c r="E244"/>
       <c r="F244" t="n">
-        <v>100.4</v>
+        <v>93.9</v>
       </c>
       <c r="G244" t="n">
         <v>92479</v>
@@ -7165,7 +7165,7 @@
       </c>
       <c r="E245"/>
       <c r="F245" t="n">
-        <v>95.8</v>
+        <v>92.3</v>
       </c>
       <c r="G245" t="n">
         <v>93277</v>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="E246"/>
       <c r="F246" t="n">
-        <v>93.4</v>
+        <v>90.8</v>
       </c>
       <c r="G246" t="n">
         <v>93629</v>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="E247"/>
       <c r="F247" t="n">
-        <v>102.3</v>
+        <v>104.1</v>
       </c>
       <c r="G247" t="n">
         <v>93370</v>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="E248"/>
       <c r="F248" t="n">
-        <v>102.6</v>
+        <v>105.5</v>
       </c>
       <c r="G248" t="n">
         <v>94082</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="E249"/>
       <c r="F249" t="n">
-        <v>97.9</v>
+        <v>99.4</v>
       </c>
       <c r="G249" t="n">
         <v>93911</v>
@@ -7330,7 +7330,7 @@
       </c>
       <c r="E250"/>
       <c r="F250" t="n">
-        <v>106</v>
+        <v>108.6</v>
       </c>
       <c r="G250" t="n">
         <v>94130</v>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="E251"/>
       <c r="F251" t="n">
-        <v>103.9</v>
+        <v>110.2</v>
       </c>
       <c r="G251" t="n">
         <v>95197</v>
@@ -7396,7 +7396,7 @@
       </c>
       <c r="E252"/>
       <c r="F252" t="n">
-        <v>105.1</v>
+        <v>110.6</v>
       </c>
       <c r="G252" t="n">
         <v>94564</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="E253"/>
       <c r="F253" t="n">
-        <v>115.8</v>
+        <v>116.9</v>
       </c>
       <c r="G253" t="n">
         <v>95025</v>
@@ -7462,7 +7462,7 @@
       </c>
       <c r="E254"/>
       <c r="F254" t="n">
-        <v>95.2</v>
+        <v>98.8</v>
       </c>
       <c r="G254" t="n">
         <v>95658</v>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E255"/>
       <c r="F255" t="n">
-        <v>94.2</v>
+        <v>103.4</v>
       </c>
       <c r="G255" t="n">
         <v>95248</v>
@@ -7528,7 +7528,7 @@
       </c>
       <c r="E256"/>
       <c r="F256" t="n">
-        <v>109.2</v>
+        <v>111.4</v>
       </c>
       <c r="G256" t="n">
         <v>95441</v>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="E257"/>
       <c r="F257" t="n">
-        <v>98.4</v>
+        <v>101.2</v>
       </c>
       <c r="G257" t="n">
         <v>96079</v>
@@ -7594,7 +7594,7 @@
       </c>
       <c r="E258"/>
       <c r="F258" t="n">
-        <v>101.8</v>
+        <v>107.9</v>
       </c>
       <c r="G258" t="n">
         <v>95884</v>
@@ -7627,7 +7627,7 @@
       </c>
       <c r="E259"/>
       <c r="F259" t="n">
-        <v>107.2</v>
+        <v>112.2</v>
       </c>
       <c r="G259" t="n">
         <v>96345</v>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="E260"/>
       <c r="F260" t="n">
-        <v>102</v>
+        <v>108.1</v>
       </c>
       <c r="G260" t="n">
         <v>96862</v>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="E261"/>
       <c r="F261" t="n">
-        <v>100.3</v>
+        <v>109.5</v>
       </c>
       <c r="G261" t="n">
         <v>96357</v>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="E262"/>
       <c r="F262" t="n">
-        <v>106.8</v>
+        <v>118.6</v>
       </c>
       <c r="G262" t="n">
         <v>96994</v>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="E263"/>
       <c r="F263" t="n">
-        <v>104.4</v>
+        <v>106</v>
       </c>
       <c r="G263" t="n">
         <v>97636</v>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="E264"/>
       <c r="F264" t="n">
-        <v>108.9</v>
+        <v>110.9</v>
       </c>
       <c r="G264" t="n">
         <v>96609</v>
@@ -7825,7 +7825,7 @@
       </c>
       <c r="E265"/>
       <c r="F265" t="n">
-        <v>121.9</v>
+        <v>118.8</v>
       </c>
       <c r="G265" t="n">
         <v>97454</v>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="E266"/>
       <c r="F266" t="n">
-        <v>97</v>
+        <v>104.2</v>
       </c>
       <c r="G266" t="n">
         <v>97618</v>
@@ -7891,7 +7891,7 @@
       </c>
       <c r="E267"/>
       <c r="F267" t="n">
-        <v>96.8</v>
+        <v>105.9</v>
       </c>
       <c r="G267" t="n">
         <v>97846</v>
@@ -7924,7 +7924,7 @@
       </c>
       <c r="E268"/>
       <c r="F268" t="n">
-        <v>107</v>
+        <v>113.5</v>
       </c>
       <c r="G268" t="n">
         <v>98415</v>
@@ -7957,7 +7957,7 @@
       </c>
       <c r="E269"/>
       <c r="F269" t="n">
-        <v>103.1</v>
+        <v>104.7</v>
       </c>
       <c r="G269" t="n">
         <v>99413</v>
@@ -7990,7 +7990,7 @@
       </c>
       <c r="E270"/>
       <c r="F270" t="n">
-        <v>106</v>
+        <v>111.9</v>
       </c>
       <c r="G270" t="n">
         <v>98882</v>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E271"/>
       <c r="F271" t="n">
-        <v>110.2</v>
+        <v>114.2</v>
       </c>
       <c r="G271" t="n">
         <v>99847</v>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="E272"/>
       <c r="F272" t="n">
-        <v>106.6</v>
+        <v>108.7</v>
       </c>
       <c r="G272" t="n">
         <v>99890</v>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="E273"/>
       <c r="F273" t="n">
-        <v>104.3</v>
+        <v>111.6</v>
       </c>
       <c r="G273" t="n">
         <v>100250</v>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="E274"/>
       <c r="F274" t="n">
-        <v>105.2</v>
+        <v>108.7</v>
       </c>
       <c r="G274" t="n">
         <v>101142</v>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="E275"/>
       <c r="F275" t="n">
-        <v>106.5</v>
+        <v>109.5</v>
       </c>
       <c r="G275" t="n">
         <v>101156</v>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="E276"/>
       <c r="F276" t="n">
-        <v>110.5</v>
+        <v>111.6</v>
       </c>
       <c r="G276" t="n">
         <v>100672</v>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="E277"/>
       <c r="F277" t="n">
-        <v>122.1</v>
+        <v>118.4</v>
       </c>
       <c r="G277" t="n">
         <v>100318</v>
@@ -8254,7 +8254,7 @@
       </c>
       <c r="E278"/>
       <c r="F278" t="n">
-        <v>103</v>
+        <v>105.1</v>
       </c>
       <c r="G278" t="n">
         <v>100380</v>
@@ -8287,7 +8287,7 @@
       </c>
       <c r="E279"/>
       <c r="F279" t="n">
-        <v>95.8</v>
+        <v>106.1</v>
       </c>
       <c r="G279" t="n">
         <v>100502</v>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="E280"/>
       <c r="F280" t="n">
-        <v>108.1</v>
+        <v>113</v>
       </c>
       <c r="G280" t="n">
         <v>101486</v>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="E281"/>
       <c r="F281" t="n">
-        <v>109.5</v>
+        <v>109.8</v>
       </c>
       <c r="G281" t="n">
         <v>101876</v>
@@ -8386,7 +8386,7 @@
       </c>
       <c r="E282"/>
       <c r="F282" t="n">
-        <v>112.9</v>
+        <v>115.3</v>
       </c>
       <c r="G282" t="n">
         <v>101967</v>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="E283"/>
       <c r="F283" t="n">
-        <v>113.9</v>
+        <v>117.4</v>
       </c>
       <c r="G283" t="n">
         <v>102749</v>
@@ -8452,7 +8452,7 @@
       </c>
       <c r="E284"/>
       <c r="F284" t="n">
-        <v>111.8</v>
+        <v>112.1</v>
       </c>
       <c r="G284" t="n">
         <v>102683</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="E285"/>
       <c r="F285" t="n">
-        <v>107.6</v>
+        <v>106.8</v>
       </c>
       <c r="G285" t="n">
         <v>103131</v>
@@ -8518,7 +8518,7 @@
       </c>
       <c r="E286"/>
       <c r="F286" t="n">
-        <v>117.7</v>
+        <v>114.8</v>
       </c>
       <c r="G286" t="n">
         <v>103855</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="E287"/>
       <c r="F287" t="n">
-        <v>119.6</v>
+        <v>113.5</v>
       </c>
       <c r="G287" t="n">
         <v>104085</v>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="E288"/>
       <c r="F288" t="n">
-        <v>122</v>
+        <v>113.6</v>
       </c>
       <c r="G288" t="n">
         <v>104127</v>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="E289"/>
       <c r="F289" t="n">
-        <v>127.7</v>
+        <v>121.9</v>
       </c>
       <c r="G289" t="n">
         <v>104689</v>
@@ -8650,7 +8650,7 @@
       </c>
       <c r="E290"/>
       <c r="F290" t="n">
-        <v>110.8</v>
+        <v>103.2</v>
       </c>
       <c r="G290" t="n">
         <v>105050</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="E291"/>
       <c r="F291" t="n">
-        <v>105.5</v>
+        <v>105.9</v>
       </c>
       <c r="G291" t="n">
         <v>105463</v>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="E292"/>
       <c r="F292" t="n">
-        <v>115.9</v>
+        <v>108.8</v>
       </c>
       <c r="G292" t="n">
         <v>106518</v>
@@ -8754,9 +8754,7 @@
         <v>6171</v>
       </c>
       <c r="E293"/>
-      <c r="F293" t="n">
-        <v>116.3</v>
-      </c>
+      <c r="F293"/>
       <c r="G293" t="n">
         <v>106952</v>
       </c>
@@ -8789,9 +8787,7 @@
         <v>2316022</v>
       </c>
       <c r="E294"/>
-      <c r="F294" t="n">
-        <v>116.1</v>
-      </c>
+      <c r="F294"/>
       <c r="G294" t="n">
         <v>107753</v>
       </c>
@@ -8824,9 +8820,7 @@
         <v>138124</v>
       </c>
       <c r="E295"/>
-      <c r="F295" t="n">
-        <v>125.2</v>
-      </c>
+      <c r="F295"/>
       <c r="G295" t="n">
         <v>108512</v>
       </c>
@@ -8859,9 +8853,7 @@
         <v>2302655</v>
       </c>
       <c r="E296"/>
-      <c r="F296" t="n">
-        <v>120.3</v>
-      </c>
+      <c r="F296"/>
       <c r="G296" t="n">
         <v>108978</v>
       </c>
@@ -8894,9 +8886,7 @@
         <v>152903</v>
       </c>
       <c r="E297"/>
-      <c r="F297" t="n">
-        <v>113.7</v>
-      </c>
+      <c r="F297"/>
       <c r="G297" t="n">
         <v>109657</v>
       </c>
@@ -8929,9 +8919,7 @@
         <v>2411107</v>
       </c>
       <c r="E298"/>
-      <c r="F298" t="n">
-        <v>124</v>
-      </c>
+      <c r="F298"/>
       <c r="G298" t="n">
         <v>109672</v>
       </c>
@@ -8964,9 +8952,7 @@
         <v>240127</v>
       </c>
       <c r="E299"/>
-      <c r="F299" t="n">
-        <v>119.3</v>
-      </c>
+      <c r="F299"/>
       <c r="G299" t="n">
         <v>110746</v>
       </c>
@@ -8999,9 +8985,7 @@
         <v>2286933</v>
       </c>
       <c r="E300"/>
-      <c r="F300" t="n">
-        <v>117.2</v>
-      </c>
+      <c r="F300"/>
       <c r="G300" t="n">
         <v>110708</v>
       </c>
@@ -9034,9 +9018,7 @@
         <v>278030</v>
       </c>
       <c r="E301"/>
-      <c r="F301" t="n">
-        <v>136.3</v>
-      </c>
+      <c r="F301"/>
       <c r="G301" t="n">
         <v>110977</v>
       </c>
@@ -9069,9 +9051,7 @@
         <v>2701541</v>
       </c>
       <c r="E302"/>
-      <c r="F302" t="n">
-        <v>108.8</v>
-      </c>
+      <c r="F302"/>
       <c r="G302" t="n">
         <v>111901</v>
       </c>
@@ -9104,9 +9084,7 @@
         <v>355337</v>
       </c>
       <c r="E303"/>
-      <c r="F303" t="n">
-        <v>104.8</v>
-      </c>
+      <c r="F303"/>
       <c r="G303" t="n">
         <v>112485</v>
       </c>
@@ -9139,9 +9117,7 @@
         <v>1080257</v>
       </c>
       <c r="E304"/>
-      <c r="F304" t="n">
-        <v>116.1</v>
-      </c>
+      <c r="F304"/>
       <c r="G304" t="n">
         <v>113338</v>
       </c>
@@ -9174,9 +9150,7 @@
         <v>86448</v>
       </c>
       <c r="E305"/>
-      <c r="F305" t="n">
-        <v>86.8</v>
-      </c>
+      <c r="F305"/>
       <c r="G305" t="n">
         <v>116304</v>
       </c>
@@ -9209,9 +9183,7 @@
         <v>1496398</v>
       </c>
       <c r="E306"/>
-      <c r="F306" t="n">
-        <v>89.2</v>
-      </c>
+      <c r="F306"/>
       <c r="G306" t="n">
         <v>117947</v>
       </c>
@@ -9244,9 +9216,7 @@
         <v>201368</v>
       </c>
       <c r="E307"/>
-      <c r="F307" t="n">
-        <v>113.1</v>
-      </c>
+      <c r="F307"/>
       <c r="G307" t="n">
         <v>118698</v>
       </c>
@@ -9279,9 +9249,7 @@
         <v>1610916</v>
       </c>
       <c r="E308"/>
-      <c r="F308" t="n">
-        <v>103.7</v>
-      </c>
+      <c r="F308"/>
       <c r="G308" t="n">
         <v>120657</v>
       </c>
@@ -9314,9 +9282,7 @@
         <v>261493</v>
       </c>
       <c r="E309"/>
-      <c r="F309" t="n">
-        <v>99.8</v>
-      </c>
+      <c r="F309"/>
       <c r="G309" t="n">
         <v>120887</v>
       </c>
@@ -9349,9 +9315,7 @@
         <v>2074689</v>
       </c>
       <c r="E310"/>
-      <c r="F310" t="n">
-        <v>117.8</v>
-      </c>
+      <c r="F310"/>
       <c r="G310" t="n">
         <v>121572</v>
       </c>
@@ -9384,9 +9348,7 @@
         <v>274936</v>
       </c>
       <c r="E311"/>
-      <c r="F311" t="n">
-        <v>106.5</v>
-      </c>
+      <c r="F311"/>
       <c r="G311" t="n">
         <v>123306</v>
       </c>
@@ -9419,9 +9381,7 @@
         <v>2071889</v>
       </c>
       <c r="E312"/>
-      <c r="F312" t="n">
-        <v>105.4</v>
-      </c>
+      <c r="F312"/>
       <c r="G312" t="n">
         <v>123895</v>
       </c>
@@ -9454,9 +9414,7 @@
         <v>208285</v>
       </c>
       <c r="E313"/>
-      <c r="F313" t="n">
-        <v>135.7</v>
-      </c>
+      <c r="F313"/>
       <c r="G313" t="n">
         <v>129291</v>
       </c>
@@ -9493,9 +9451,7 @@
         <v>2358553</v>
       </c>
       <c r="E314"/>
-      <c r="F314" t="n">
-        <v>99</v>
-      </c>
+      <c r="F314"/>
       <c r="G314" t="n">
         <v>131232</v>
       </c>
@@ -9532,9 +9488,7 @@
         <v>298026</v>
       </c>
       <c r="E315"/>
-      <c r="F315" t="n">
-        <v>99.1</v>
-      </c>
+      <c r="F315"/>
       <c r="G315" t="n">
         <v>132634</v>
       </c>
@@ -9571,9 +9525,7 @@
         <v>1827490</v>
       </c>
       <c r="E316"/>
-      <c r="F316" t="n">
-        <v>118.4</v>
-      </c>
+      <c r="F316"/>
       <c r="G316" t="n">
         <v>133418</v>
       </c>
@@ -9610,9 +9562,7 @@
         <v>198197</v>
       </c>
       <c r="E317"/>
-      <c r="F317" t="n">
-        <v>104.8</v>
-      </c>
+      <c r="F317"/>
       <c r="G317" t="n">
         <v>135596</v>
       </c>
@@ -9649,9 +9599,7 @@
         <v>2296065</v>
       </c>
       <c r="E318"/>
-      <c r="F318" t="n">
-        <v>106.7</v>
-      </c>
+      <c r="F318"/>
       <c r="G318" t="n">
         <v>136346</v>
       </c>
@@ -9688,9 +9636,7 @@
         <v>225129</v>
       </c>
       <c r="E319"/>
-      <c r="F319" t="n">
-        <v>131.7</v>
-      </c>
+      <c r="F319"/>
       <c r="G319" t="n">
         <v>136830</v>
       </c>
@@ -9727,9 +9673,7 @@
         <v>2475515</v>
       </c>
       <c r="E320"/>
-      <c r="F320" t="n">
-        <v>114.8</v>
-      </c>
+      <c r="F320"/>
       <c r="G320" t="n">
         <v>138683</v>
       </c>
@@ -9766,9 +9710,7 @@
         <v>137238</v>
       </c>
       <c r="E321"/>
-      <c r="F321" t="n">
-        <v>115.2</v>
-      </c>
+      <c r="F321"/>
       <c r="G321" t="n">
         <v>138241</v>
       </c>
@@ -9805,9 +9747,7 @@
         <v>2622796</v>
       </c>
       <c r="E322"/>
-      <c r="F322" t="n">
-        <v>133.5</v>
-      </c>
+      <c r="F322"/>
       <c r="G322" t="n">
         <v>139350</v>
       </c>
@@ -9844,9 +9784,7 @@
         <v>168922</v>
       </c>
       <c r="E323"/>
-      <c r="F323" t="n">
-        <v>121.7</v>
-      </c>
+      <c r="F323"/>
       <c r="G323" t="n">
         <v>140499</v>
       </c>
@@ -9883,9 +9821,7 @@
         <v>2579507</v>
       </c>
       <c r="E324"/>
-      <c r="F324" t="n">
-        <v>126.7</v>
-      </c>
+      <c r="F324"/>
       <c r="G324" t="n">
         <v>139125</v>
       </c>
@@ -9922,9 +9858,7 @@
         <v>253659</v>
       </c>
       <c r="E325"/>
-      <c r="F325" t="n">
-        <v>152.1</v>
-      </c>
+      <c r="F325"/>
       <c r="G325" t="n">
         <v>140237</v>
       </c>
@@ -9961,9 +9895,7 @@
         <v>3107722</v>
       </c>
       <c r="E326"/>
-      <c r="F326" t="n">
-        <v>111.9</v>
-      </c>
+      <c r="F326"/>
       <c r="G326" t="n">
         <v>140995</v>
       </c>
@@ -10000,9 +9932,7 @@
         <v>260849</v>
       </c>
       <c r="E327"/>
-      <c r="F327" t="n">
-        <v>117.6</v>
-      </c>
+      <c r="F327"/>
       <c r="G327" t="n">
         <v>141446</v>
       </c>
@@ -10039,9 +9969,7 @@
         <v>2482287</v>
       </c>
       <c r="E328"/>
-      <c r="F328" t="n">
-        <v>146.6</v>
-      </c>
+      <c r="F328"/>
       <c r="G328" t="n">
         <v>142345</v>
       </c>
@@ -10078,9 +10006,7 @@
         <v>191664</v>
       </c>
       <c r="E329"/>
-      <c r="F329" t="n">
-        <v>125.6</v>
-      </c>
+      <c r="F329"/>
       <c r="G329" t="n">
         <v>143454</v>
       </c>
@@ -10117,9 +10043,7 @@
         <v>2929814</v>
       </c>
       <c r="E330"/>
-      <c r="F330" t="n">
-        <v>129.4</v>
-      </c>
+      <c r="F330"/>
       <c r="G330" t="n">
         <v>143306</v>
       </c>
@@ -10156,9 +10080,7 @@
         <v>115680</v>
       </c>
       <c r="E331"/>
-      <c r="F331" t="n">
-        <v>155.5</v>
-      </c>
+      <c r="F331"/>
       <c r="G331" t="n">
         <v>144646</v>
       </c>
@@ -10195,9 +10117,7 @@
         <v>2794045</v>
       </c>
       <c r="E332"/>
-      <c r="F332" t="n">
-        <v>133</v>
-      </c>
+      <c r="F332"/>
       <c r="G332" t="n">
         <v>146245</v>
       </c>
@@ -10234,9 +10154,7 @@
         <v>275943</v>
       </c>
       <c r="E333"/>
-      <c r="F333" t="n">
-        <v>133.8</v>
-      </c>
+      <c r="F333"/>
       <c r="G333" t="n">
         <v>145972</v>
       </c>
@@ -10273,9 +10191,7 @@
         <v>3124333</v>
       </c>
       <c r="E334"/>
-      <c r="F334" t="n">
-        <v>151.3</v>
-      </c>
+      <c r="F334"/>
       <c r="G334" t="n">
         <v>147174</v>
       </c>
@@ -10314,9 +10230,7 @@
       <c r="E335" t="n">
         <v>5067504043.31</v>
       </c>
-      <c r="F335" t="n">
-        <v>131.9</v>
-      </c>
+      <c r="F335"/>
       <c r="G335" t="n">
         <v>148677</v>
       </c>
@@ -10355,9 +10269,7 @@
       <c r="E336" t="n">
         <v>5453660483.67</v>
       </c>
-      <c r="F336" t="n">
-        <v>135.5</v>
-      </c>
+      <c r="F336"/>
       <c r="G336" t="n">
         <v>146914</v>
       </c>
@@ -10396,9 +10308,7 @@
       <c r="E337" t="n">
         <v>5967267487.37</v>
       </c>
-      <c r="F337" t="n">
-        <v>159.9</v>
-      </c>
+      <c r="F337"/>
       <c r="G337" t="n">
         <v>148028</v>
       </c>
@@ -10437,9 +10347,7 @@
       <c r="E338" t="n">
         <v>5096195359.69</v>
       </c>
-      <c r="F338" t="n">
-        <v>126</v>
-      </c>
+      <c r="F338"/>
       <c r="G338" t="n">
         <v>148151</v>
       </c>
@@ -10478,9 +10386,7 @@
       <c r="E339" t="n">
         <v>4829054539.04</v>
       </c>
-      <c r="F339" t="n">
-        <v>123.7</v>
-      </c>
+      <c r="F339"/>
       <c r="G339" t="n">
         <v>148350</v>
       </c>
@@ -10519,9 +10425,7 @@
       <c r="E340" t="n">
         <v>6017393674.44</v>
       </c>
-      <c r="F340" t="n">
-        <v>147.7</v>
-      </c>
+      <c r="F340"/>
       <c r="G340" t="n">
         <v>150236</v>
       </c>
@@ -10560,9 +10464,7 @@
       <c r="E341" t="n">
         <v>5806688177.2</v>
       </c>
-      <c r="F341" t="n">
-        <v>131</v>
-      </c>
+      <c r="F341"/>
       <c r="G341" t="n">
         <v>151243</v>
       </c>
@@ -10601,9 +10503,7 @@
       <c r="E342" t="n">
         <v>6373028695.03</v>
       </c>
-      <c r="F342" t="n">
-        <v>134.8</v>
-      </c>
+      <c r="F342"/>
       <c r="G342" t="n">
         <v>150560</v>
       </c>
@@ -10642,9 +10542,7 @@
       <c r="E343" t="n">
         <v>6245853801.53</v>
       </c>
-      <c r="F343" t="n">
-        <v>156.5</v>
-      </c>
+      <c r="F343"/>
       <c r="G343" t="n">
         <v>151628</v>
       </c>
@@ -10683,9 +10581,7 @@
       <c r="E344" t="n">
         <v>6301105022.91</v>
       </c>
-      <c r="F344" t="n">
-        <v>135.7</v>
-      </c>
+      <c r="F344"/>
       <c r="G344" t="n">
         <v>151583</v>
       </c>
@@ -10724,9 +10620,7 @@
       <c r="E345" t="n">
         <v>6415454857.1</v>
       </c>
-      <c r="F345" t="n">
-        <v>138.1</v>
-      </c>
+      <c r="F345"/>
       <c r="G345" t="n">
         <v>152032</v>
       </c>
@@ -10765,9 +10659,7 @@
       <c r="E346" t="n">
         <v>6177244443.65</v>
       </c>
-      <c r="F346" t="n">
-        <v>155.8</v>
-      </c>
+      <c r="F346"/>
       <c r="G346" t="n">
         <v>152773</v>
       </c>
@@ -10806,9 +10698,7 @@
       <c r="E347" t="n">
         <v>6460225934.55</v>
       </c>
-      <c r="F347" t="n">
-        <v>147.4</v>
-      </c>
+      <c r="F347"/>
       <c r="G347" t="n">
         <v>152734</v>
       </c>
@@ -10847,9 +10737,7 @@
       <c r="E348" t="n">
         <v>6880112453.17</v>
       </c>
-      <c r="F348" t="n">
-        <v>138.2</v>
-      </c>
+      <c r="F348"/>
       <c r="G348" t="n">
         <v>151468</v>
       </c>
@@ -10888,9 +10776,7 @@
       <c r="E349" t="n">
         <v>7454970335.16</v>
       </c>
-      <c r="F349" t="n">
-        <v>169.9</v>
-      </c>
+      <c r="F349"/>
       <c r="G349" t="n">
         <v>152416</v>
       </c>
@@ -10929,9 +10815,7 @@
       <c r="E350" t="n">
         <v>6427271708.66</v>
       </c>
-      <c r="F350" t="n">
-        <v>137.8</v>
-      </c>
+      <c r="F350"/>
       <c r="G350" t="n">
         <v>152283</v>
       </c>
@@ -10970,9 +10854,7 @@
       <c r="E351" t="n">
         <v>6219615696.35</v>
       </c>
-      <c r="F351" t="n">
-        <v>138.2</v>
-      </c>
+      <c r="F351"/>
       <c r="G351" t="n">
         <v>153437</v>
       </c>
@@ -11011,9 +10893,7 @@
       <c r="E352" t="n">
         <v>6712769408.83</v>
       </c>
-      <c r="F352" t="n">
-        <v>159.3</v>
-      </c>
+      <c r="F352"/>
       <c r="G352" t="n">
         <v>154487</v>
       </c>
@@ -11052,9 +10932,7 @@
       <c r="E353" t="n">
         <v>6718240114.3</v>
       </c>
-      <c r="F353" t="n">
-        <v>148.6</v>
-      </c>
+      <c r="F353"/>
       <c r="G353" t="n">
         <v>154387</v>
       </c>
@@ -11093,9 +10971,7 @@
       <c r="E354" t="n">
         <v>7041356267.01</v>
       </c>
-      <c r="F354" t="n">
-        <v>147</v>
-      </c>
+      <c r="F354"/>
       <c r="G354" t="n">
         <v>155469</v>
       </c>
@@ -11134,9 +11010,7 @@
       <c r="E355" t="n">
         <v>6720403726.55</v>
       </c>
-      <c r="F355" t="n">
-        <v>171.1</v>
-      </c>
+      <c r="F355"/>
       <c r="G355" t="n">
         <v>156520</v>
       </c>
@@ -11175,9 +11049,7 @@
       <c r="E356" t="n">
         <v>7195410907.98</v>
       </c>
-      <c r="F356" t="n">
-        <v>152</v>
-      </c>
+      <c r="F356"/>
       <c r="G356" t="n">
         <v>156314</v>
       </c>
@@ -11216,9 +11088,7 @@
       <c r="E357" t="n">
         <v>7220293001.08</v>
       </c>
-      <c r="F357" t="n">
-        <v>149.1</v>
-      </c>
+      <c r="F357"/>
       <c r="G357" t="n">
         <v>157644</v>
       </c>
@@ -11257,9 +11127,7 @@
       <c r="E358" t="n">
         <v>7053563544.44</v>
       </c>
-      <c r="F358" t="n">
-        <v>169.1</v>
-      </c>
+      <c r="F358"/>
       <c r="G358" t="n">
         <v>157622</v>
       </c>
@@ -11298,9 +11166,7 @@
       <c r="E359" t="n">
         <v>7180670898.57</v>
       </c>
-      <c r="F359" t="n">
-        <v>159.3</v>
-      </c>
+      <c r="F359"/>
       <c r="G359" t="n">
         <v>161060</v>
       </c>
@@ -11339,9 +11205,7 @@
       <c r="E360" t="n">
         <v>7610007605.46</v>
       </c>
-      <c r="F360" t="n">
-        <v>157.7</v>
-      </c>
+      <c r="F360"/>
       <c r="G360" t="n">
         <v>161527</v>
       </c>
@@ -11380,9 +11244,7 @@
       <c r="E361" t="n">
         <v>8472910204.12</v>
       </c>
-      <c r="F361" t="n">
-        <v>192.1</v>
-      </c>
+      <c r="F361"/>
       <c r="G361" t="n">
         <v>161318</v>
       </c>
@@ -11421,9 +11283,7 @@
       <c r="E362" t="n">
         <v>7050495708.44</v>
       </c>
-      <c r="F362" t="n">
-        <v>150.4</v>
-      </c>
+      <c r="F362"/>
       <c r="G362" t="n">
         <v>163155</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11093,7 +11093,7 @@
         <v>157644</v>
       </c>
       <c r="H357" t="n">
-        <v>2520000</v>
+        <v>2520100</v>
       </c>
       <c r="I357" t="n">
         <v>4.1</v>
@@ -11249,7 +11249,7 @@
         <v>161318</v>
       </c>
       <c r="H361" t="n">
-        <v>2526100</v>
+        <v>2526200</v>
       </c>
       <c r="I361" t="n">
         <v>4.4</v>
@@ -11288,7 +11288,7 @@
         <v>163155</v>
       </c>
       <c r="H362" t="n">
-        <v>2512700</v>
+        <v>2515200</v>
       </c>
       <c r="I362" t="n">
         <v>4.5</v>
@@ -11327,7 +11327,7 @@
         <v>163780</v>
       </c>
       <c r="H363" t="n">
-        <v>2486900</v>
+        <v>2494800</v>
       </c>
       <c r="I363" t="n">
         <v>4.4</v>
@@ -11365,7 +11365,9 @@
       <c r="G364" t="n">
         <v>164380</v>
       </c>
-      <c r="H364"/>
+      <c r="H364" t="n">
+        <v>2507200</v>
+      </c>
       <c r="I364" t="n">
         <v>4.4</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -7065,9 +7065,7 @@
         <v>1968753</v>
       </c>
       <c r="E242"/>
-      <c r="F242" t="n">
-        <v>83.7</v>
-      </c>
+      <c r="F242"/>
       <c r="G242" t="n">
         <v>92104</v>
       </c>
@@ -7098,9 +7096,7 @@
         <v>397267</v>
       </c>
       <c r="E243"/>
-      <c r="F243" t="n">
-        <v>84.1</v>
-      </c>
+      <c r="F243"/>
       <c r="G243" t="n">
         <v>92529</v>
       </c>
@@ -7131,9 +7127,7 @@
         <v>1431371</v>
       </c>
       <c r="E244"/>
-      <c r="F244" t="n">
-        <v>93.9</v>
-      </c>
+      <c r="F244"/>
       <c r="G244" t="n">
         <v>92479</v>
       </c>
@@ -7164,9 +7158,7 @@
         <v>232837</v>
       </c>
       <c r="E245"/>
-      <c r="F245" t="n">
-        <v>92.3</v>
-      </c>
+      <c r="F245"/>
       <c r="G245" t="n">
         <v>93277</v>
       </c>
@@ -7197,9 +7189,7 @@
         <v>1679858</v>
       </c>
       <c r="E246"/>
-      <c r="F246" t="n">
-        <v>90.8</v>
-      </c>
+      <c r="F246"/>
       <c r="G246" t="n">
         <v>93629</v>
       </c>
@@ -7230,9 +7220,7 @@
         <v>289697</v>
       </c>
       <c r="E247"/>
-      <c r="F247" t="n">
-        <v>104.1</v>
-      </c>
+      <c r="F247"/>
       <c r="G247" t="n">
         <v>93370</v>
       </c>
@@ -7263,9 +7251,7 @@
         <v>1666893</v>
       </c>
       <c r="E248"/>
-      <c r="F248" t="n">
-        <v>105.5</v>
-      </c>
+      <c r="F248"/>
       <c r="G248" t="n">
         <v>94082</v>
       </c>
@@ -7296,9 +7282,7 @@
         <v>293314</v>
       </c>
       <c r="E249"/>
-      <c r="F249" t="n">
-        <v>99.4</v>
-      </c>
+      <c r="F249"/>
       <c r="G249" t="n">
         <v>93911</v>
       </c>
@@ -7329,9 +7313,7 @@
         <v>1741402</v>
       </c>
       <c r="E250"/>
-      <c r="F250" t="n">
-        <v>108.6</v>
-      </c>
+      <c r="F250"/>
       <c r="G250" t="n">
         <v>94130</v>
       </c>
@@ -7362,9 +7344,7 @@
         <v>339597</v>
       </c>
       <c r="E251"/>
-      <c r="F251" t="n">
-        <v>110.2</v>
-      </c>
+      <c r="F251"/>
       <c r="G251" t="n">
         <v>95197</v>
       </c>
@@ -7395,9 +7375,7 @@
         <v>1715405</v>
       </c>
       <c r="E252"/>
-      <c r="F252" t="n">
-        <v>110.6</v>
-      </c>
+      <c r="F252"/>
       <c r="G252" t="n">
         <v>94564</v>
       </c>
@@ -7428,9 +7406,7 @@
         <v>187652</v>
       </c>
       <c r="E253"/>
-      <c r="F253" t="n">
-        <v>116.9</v>
-      </c>
+      <c r="F253"/>
       <c r="G253" t="n">
         <v>95025</v>
       </c>
@@ -7461,9 +7437,7 @@
         <v>2098520</v>
       </c>
       <c r="E254"/>
-      <c r="F254" t="n">
-        <v>98.8</v>
-      </c>
+      <c r="F254"/>
       <c r="G254" t="n">
         <v>95658</v>
       </c>
@@ -7494,9 +7468,7 @@
         <v>310048</v>
       </c>
       <c r="E255"/>
-      <c r="F255" t="n">
-        <v>103.4</v>
-      </c>
+      <c r="F255"/>
       <c r="G255" t="n">
         <v>95248</v>
       </c>
@@ -7527,9 +7499,7 @@
         <v>1486399</v>
       </c>
       <c r="E256"/>
-      <c r="F256" t="n">
-        <v>111.4</v>
-      </c>
+      <c r="F256"/>
       <c r="G256" t="n">
         <v>95441</v>
       </c>
@@ -7560,9 +7530,7 @@
         <v>270721</v>
       </c>
       <c r="E257"/>
-      <c r="F257" t="n">
-        <v>101.2</v>
-      </c>
+      <c r="F257"/>
       <c r="G257" t="n">
         <v>96079</v>
       </c>
@@ -7593,9 +7561,7 @@
         <v>1860215</v>
       </c>
       <c r="E258"/>
-      <c r="F258" t="n">
-        <v>107.9</v>
-      </c>
+      <c r="F258"/>
       <c r="G258" t="n">
         <v>95884</v>
       </c>
@@ -7626,9 +7592,7 @@
         <v>193146</v>
       </c>
       <c r="E259"/>
-      <c r="F259" t="n">
-        <v>112.2</v>
-      </c>
+      <c r="F259"/>
       <c r="G259" t="n">
         <v>96345</v>
       </c>
@@ -7659,9 +7623,7 @@
         <v>1768442</v>
       </c>
       <c r="E260"/>
-      <c r="F260" t="n">
-        <v>108.1</v>
-      </c>
+      <c r="F260"/>
       <c r="G260" t="n">
         <v>96862</v>
       </c>
@@ -7692,9 +7654,7 @@
         <v>286641</v>
       </c>
       <c r="E261"/>
-      <c r="F261" t="n">
-        <v>109.5</v>
-      </c>
+      <c r="F261"/>
       <c r="G261" t="n">
         <v>96357</v>
       </c>
@@ -7725,9 +7685,7 @@
         <v>1917316</v>
       </c>
       <c r="E262"/>
-      <c r="F262" t="n">
-        <v>118.6</v>
-      </c>
+      <c r="F262"/>
       <c r="G262" t="n">
         <v>96994</v>
       </c>
@@ -7758,9 +7716,7 @@
         <v>322593</v>
       </c>
       <c r="E263"/>
-      <c r="F263" t="n">
-        <v>106</v>
-      </c>
+      <c r="F263"/>
       <c r="G263" t="n">
         <v>97636</v>
       </c>
@@ -7791,9 +7747,7 @@
         <v>1797916</v>
       </c>
       <c r="E264"/>
-      <c r="F264" t="n">
-        <v>110.9</v>
-      </c>
+      <c r="F264"/>
       <c r="G264" t="n">
         <v>96609</v>
       </c>
@@ -7824,9 +7778,7 @@
         <v>108523</v>
       </c>
       <c r="E265"/>
-      <c r="F265" t="n">
-        <v>118.8</v>
-      </c>
+      <c r="F265"/>
       <c r="G265" t="n">
         <v>97454</v>
       </c>
@@ -7857,9 +7809,7 @@
         <v>2312784</v>
       </c>
       <c r="E266"/>
-      <c r="F266" t="n">
-        <v>104.2</v>
-      </c>
+      <c r="F266"/>
       <c r="G266" t="n">
         <v>97618</v>
       </c>
@@ -7890,9 +7840,7 @@
         <v>503081</v>
       </c>
       <c r="E267"/>
-      <c r="F267" t="n">
-        <v>105.9</v>
-      </c>
+      <c r="F267"/>
       <c r="G267" t="n">
         <v>97846</v>
       </c>
@@ -7923,9 +7871,7 @@
         <v>1751979</v>
       </c>
       <c r="E268"/>
-      <c r="F268" t="n">
-        <v>113.5</v>
-      </c>
+      <c r="F268"/>
       <c r="G268" t="n">
         <v>98415</v>
       </c>
@@ -7956,9 +7902,7 @@
         <v>200317</v>
       </c>
       <c r="E269"/>
-      <c r="F269" t="n">
-        <v>104.7</v>
-      </c>
+      <c r="F269"/>
       <c r="G269" t="n">
         <v>99413</v>
       </c>
@@ -7989,9 +7933,7 @@
         <v>2059455</v>
       </c>
       <c r="E270"/>
-      <c r="F270" t="n">
-        <v>111.9</v>
-      </c>
+      <c r="F270"/>
       <c r="G270" t="n">
         <v>98882</v>
       </c>
@@ -8022,9 +7964,7 @@
         <v>78049</v>
       </c>
       <c r="E271"/>
-      <c r="F271" t="n">
-        <v>114.2</v>
-      </c>
+      <c r="F271"/>
       <c r="G271" t="n">
         <v>99847</v>
       </c>
@@ -8055,9 +7995,7 @@
         <v>1887231</v>
       </c>
       <c r="E272"/>
-      <c r="F272" t="n">
-        <v>108.7</v>
-      </c>
+      <c r="F272"/>
       <c r="G272" t="n">
         <v>99890</v>
       </c>
@@ -8088,9 +8026,7 @@
         <v>233500</v>
       </c>
       <c r="E273"/>
-      <c r="F273" t="n">
-        <v>111.6</v>
-      </c>
+      <c r="F273"/>
       <c r="G273" t="n">
         <v>100250</v>
       </c>
@@ -8121,9 +8057,7 @@
         <v>1991911</v>
       </c>
       <c r="E274"/>
-      <c r="F274" t="n">
-        <v>108.7</v>
-      </c>
+      <c r="F274"/>
       <c r="G274" t="n">
         <v>101142</v>
       </c>
@@ -8154,9 +8088,7 @@
         <v>200821</v>
       </c>
       <c r="E275"/>
-      <c r="F275" t="n">
-        <v>109.5</v>
-      </c>
+      <c r="F275"/>
       <c r="G275" t="n">
         <v>101156</v>
       </c>
@@ -8187,9 +8119,7 @@
         <v>2004229</v>
       </c>
       <c r="E276"/>
-      <c r="F276" t="n">
-        <v>111.6</v>
-      </c>
+      <c r="F276"/>
       <c r="G276" t="n">
         <v>100672</v>
       </c>
@@ -8220,9 +8150,7 @@
         <v>79741</v>
       </c>
       <c r="E277"/>
-      <c r="F277" t="n">
-        <v>118.4</v>
-      </c>
+      <c r="F277"/>
       <c r="G277" t="n">
         <v>100318</v>
       </c>
@@ -8253,9 +8181,7 @@
         <v>2445116</v>
       </c>
       <c r="E278"/>
-      <c r="F278" t="n">
-        <v>105.1</v>
-      </c>
+      <c r="F278"/>
       <c r="G278" t="n">
         <v>100380</v>
       </c>
@@ -8286,9 +8212,7 @@
         <v>320538</v>
       </c>
       <c r="E279"/>
-      <c r="F279" t="n">
-        <v>106.1</v>
-      </c>
+      <c r="F279"/>
       <c r="G279" t="n">
         <v>100502</v>
       </c>
@@ -8319,9 +8243,7 @@
         <v>1910321</v>
       </c>
       <c r="E280"/>
-      <c r="F280" t="n">
-        <v>113</v>
-      </c>
+      <c r="F280"/>
       <c r="G280" t="n">
         <v>101486</v>
       </c>
@@ -8352,9 +8274,7 @@
         <v>168242</v>
       </c>
       <c r="E281"/>
-      <c r="F281" t="n">
-        <v>109.8</v>
-      </c>
+      <c r="F281"/>
       <c r="G281" t="n">
         <v>101876</v>
       </c>
@@ -8385,9 +8305,7 @@
         <v>2071797</v>
       </c>
       <c r="E282"/>
-      <c r="F282" t="n">
-        <v>115.3</v>
-      </c>
+      <c r="F282"/>
       <c r="G282" t="n">
         <v>101967</v>
       </c>
@@ -8418,9 +8336,7 @@
         <v>184681</v>
       </c>
       <c r="E283"/>
-      <c r="F283" t="n">
-        <v>117.4</v>
-      </c>
+      <c r="F283"/>
       <c r="G283" t="n">
         <v>102749</v>
       </c>
@@ -8451,9 +8367,7 @@
         <v>2086326</v>
       </c>
       <c r="E284"/>
-      <c r="F284" t="n">
-        <v>112.1</v>
-      </c>
+      <c r="F284"/>
       <c r="G284" t="n">
         <v>102683</v>
       </c>
@@ -8484,9 +8398,7 @@
         <v>194620</v>
       </c>
       <c r="E285"/>
-      <c r="F285" t="n">
-        <v>106.8</v>
-      </c>
+      <c r="F285"/>
       <c r="G285" t="n">
         <v>103131</v>
       </c>
@@ -8517,9 +8429,7 @@
         <v>2188989</v>
       </c>
       <c r="E286"/>
-      <c r="F286" t="n">
-        <v>114.8</v>
-      </c>
+      <c r="F286"/>
       <c r="G286" t="n">
         <v>103855</v>
       </c>
@@ -8550,9 +8460,7 @@
         <v>240677</v>
       </c>
       <c r="E287"/>
-      <c r="F287" t="n">
-        <v>113.5</v>
-      </c>
+      <c r="F287"/>
       <c r="G287" t="n">
         <v>104085</v>
       </c>
@@ -8583,9 +8491,7 @@
         <v>2269139</v>
       </c>
       <c r="E288"/>
-      <c r="F288" t="n">
-        <v>113.6</v>
-      </c>
+      <c r="F288"/>
       <c r="G288" t="n">
         <v>104127</v>
       </c>
@@ -8616,9 +8522,7 @@
         <v>153882</v>
       </c>
       <c r="E289"/>
-      <c r="F289" t="n">
-        <v>121.9</v>
-      </c>
+      <c r="F289"/>
       <c r="G289" t="n">
         <v>104689</v>
       </c>
@@ -8649,9 +8553,7 @@
         <v>2729975</v>
       </c>
       <c r="E290"/>
-      <c r="F290" t="n">
-        <v>103.2</v>
-      </c>
+      <c r="F290"/>
       <c r="G290" t="n">
         <v>105050</v>
       </c>
@@ -8684,9 +8586,7 @@
         <v>172388</v>
       </c>
       <c r="E291"/>
-      <c r="F291" t="n">
-        <v>105.9</v>
-      </c>
+      <c r="F291"/>
       <c r="G291" t="n">
         <v>105463</v>
       </c>
@@ -8719,9 +8619,7 @@
         <v>2083169</v>
       </c>
       <c r="E292"/>
-      <c r="F292" t="n">
-        <v>108.8</v>
-      </c>
+      <c r="F292"/>
       <c r="G292" t="n">
         <v>106518</v>
       </c>
@@ -9451,7 +9349,9 @@
         <v>2358553</v>
       </c>
       <c r="E314"/>
-      <c r="F314"/>
+      <c r="F314" t="n">
+        <v>83.7</v>
+      </c>
       <c r="G314" t="n">
         <v>131232</v>
       </c>
@@ -9488,7 +9388,9 @@
         <v>298026</v>
       </c>
       <c r="E315"/>
-      <c r="F315"/>
+      <c r="F315" t="n">
+        <v>84.1</v>
+      </c>
       <c r="G315" t="n">
         <v>132634</v>
       </c>
@@ -9525,7 +9427,9 @@
         <v>1827490</v>
       </c>
       <c r="E316"/>
-      <c r="F316"/>
+      <c r="F316" t="n">
+        <v>93.9</v>
+      </c>
       <c r="G316" t="n">
         <v>133418</v>
       </c>
@@ -9562,7 +9466,9 @@
         <v>198197</v>
       </c>
       <c r="E317"/>
-      <c r="F317"/>
+      <c r="F317" t="n">
+        <v>92.3</v>
+      </c>
       <c r="G317" t="n">
         <v>135596</v>
       </c>
@@ -9599,7 +9505,9 @@
         <v>2296065</v>
       </c>
       <c r="E318"/>
-      <c r="F318"/>
+      <c r="F318" t="n">
+        <v>90.8</v>
+      </c>
       <c r="G318" t="n">
         <v>136346</v>
       </c>
@@ -9636,7 +9544,9 @@
         <v>225129</v>
       </c>
       <c r="E319"/>
-      <c r="F319"/>
+      <c r="F319" t="n">
+        <v>104.1</v>
+      </c>
       <c r="G319" t="n">
         <v>136830</v>
       </c>
@@ -9673,7 +9583,9 @@
         <v>2475515</v>
       </c>
       <c r="E320"/>
-      <c r="F320"/>
+      <c r="F320" t="n">
+        <v>105.5</v>
+      </c>
       <c r="G320" t="n">
         <v>138683</v>
       </c>
@@ -9710,7 +9622,9 @@
         <v>137238</v>
       </c>
       <c r="E321"/>
-      <c r="F321"/>
+      <c r="F321" t="n">
+        <v>99.4</v>
+      </c>
       <c r="G321" t="n">
         <v>138241</v>
       </c>
@@ -9747,7 +9661,9 @@
         <v>2622796</v>
       </c>
       <c r="E322"/>
-      <c r="F322"/>
+      <c r="F322" t="n">
+        <v>108.6</v>
+      </c>
       <c r="G322" t="n">
         <v>139350</v>
       </c>
@@ -9784,7 +9700,9 @@
         <v>168922</v>
       </c>
       <c r="E323"/>
-      <c r="F323"/>
+      <c r="F323" t="n">
+        <v>110.2</v>
+      </c>
       <c r="G323" t="n">
         <v>140499</v>
       </c>
@@ -9821,7 +9739,9 @@
         <v>2579507</v>
       </c>
       <c r="E324"/>
-      <c r="F324"/>
+      <c r="F324" t="n">
+        <v>110.6</v>
+      </c>
       <c r="G324" t="n">
         <v>139125</v>
       </c>
@@ -9858,7 +9778,9 @@
         <v>253659</v>
       </c>
       <c r="E325"/>
-      <c r="F325"/>
+      <c r="F325" t="n">
+        <v>116.9</v>
+      </c>
       <c r="G325" t="n">
         <v>140237</v>
       </c>
@@ -9895,7 +9817,9 @@
         <v>3107722</v>
       </c>
       <c r="E326"/>
-      <c r="F326"/>
+      <c r="F326" t="n">
+        <v>98.8</v>
+      </c>
       <c r="G326" t="n">
         <v>140995</v>
       </c>
@@ -9932,7 +9856,9 @@
         <v>260849</v>
       </c>
       <c r="E327"/>
-      <c r="F327"/>
+      <c r="F327" t="n">
+        <v>103.4</v>
+      </c>
       <c r="G327" t="n">
         <v>141446</v>
       </c>
@@ -9969,7 +9895,9 @@
         <v>2482287</v>
       </c>
       <c r="E328"/>
-      <c r="F328"/>
+      <c r="F328" t="n">
+        <v>111.4</v>
+      </c>
       <c r="G328" t="n">
         <v>142345</v>
       </c>
@@ -10006,7 +9934,9 @@
         <v>191664</v>
       </c>
       <c r="E329"/>
-      <c r="F329"/>
+      <c r="F329" t="n">
+        <v>101.2</v>
+      </c>
       <c r="G329" t="n">
         <v>143454</v>
       </c>
@@ -10043,7 +9973,9 @@
         <v>2929814</v>
       </c>
       <c r="E330"/>
-      <c r="F330"/>
+      <c r="F330" t="n">
+        <v>107.9</v>
+      </c>
       <c r="G330" t="n">
         <v>143306</v>
       </c>
@@ -10080,7 +10012,9 @@
         <v>115680</v>
       </c>
       <c r="E331"/>
-      <c r="F331"/>
+      <c r="F331" t="n">
+        <v>112.2</v>
+      </c>
       <c r="G331" t="n">
         <v>144646</v>
       </c>
@@ -10117,7 +10051,9 @@
         <v>2794045</v>
       </c>
       <c r="E332"/>
-      <c r="F332"/>
+      <c r="F332" t="n">
+        <v>108.1</v>
+      </c>
       <c r="G332" t="n">
         <v>146245</v>
       </c>
@@ -10154,7 +10090,9 @@
         <v>275943</v>
       </c>
       <c r="E333"/>
-      <c r="F333"/>
+      <c r="F333" t="n">
+        <v>109.5</v>
+      </c>
       <c r="G333" t="n">
         <v>145972</v>
       </c>
@@ -10191,7 +10129,9 @@
         <v>3124333</v>
       </c>
       <c r="E334"/>
-      <c r="F334"/>
+      <c r="F334" t="n">
+        <v>118.6</v>
+      </c>
       <c r="G334" t="n">
         <v>147174</v>
       </c>
@@ -10230,7 +10170,9 @@
       <c r="E335" t="n">
         <v>5067504043.31</v>
       </c>
-      <c r="F335"/>
+      <c r="F335" t="n">
+        <v>106</v>
+      </c>
       <c r="G335" t="n">
         <v>148677</v>
       </c>
@@ -10269,7 +10211,9 @@
       <c r="E336" t="n">
         <v>5453660483.67</v>
       </c>
-      <c r="F336"/>
+      <c r="F336" t="n">
+        <v>110.9</v>
+      </c>
       <c r="G336" t="n">
         <v>146914</v>
       </c>
@@ -10308,7 +10252,9 @@
       <c r="E337" t="n">
         <v>5967267487.37</v>
       </c>
-      <c r="F337"/>
+      <c r="F337" t="n">
+        <v>118.8</v>
+      </c>
       <c r="G337" t="n">
         <v>148028</v>
       </c>
@@ -10347,7 +10293,9 @@
       <c r="E338" t="n">
         <v>5096195359.69</v>
       </c>
-      <c r="F338"/>
+      <c r="F338" t="n">
+        <v>104.2</v>
+      </c>
       <c r="G338" t="n">
         <v>148151</v>
       </c>
@@ -10386,7 +10334,9 @@
       <c r="E339" t="n">
         <v>4829054539.04</v>
       </c>
-      <c r="F339"/>
+      <c r="F339" t="n">
+        <v>105.9</v>
+      </c>
       <c r="G339" t="n">
         <v>148350</v>
       </c>
@@ -10425,7 +10375,9 @@
       <c r="E340" t="n">
         <v>6017393674.44</v>
       </c>
-      <c r="F340"/>
+      <c r="F340" t="n">
+        <v>113.5</v>
+      </c>
       <c r="G340" t="n">
         <v>150236</v>
       </c>
@@ -10464,7 +10416,9 @@
       <c r="E341" t="n">
         <v>5806688177.2</v>
       </c>
-      <c r="F341"/>
+      <c r="F341" t="n">
+        <v>104.7</v>
+      </c>
       <c r="G341" t="n">
         <v>151243</v>
       </c>
@@ -10503,7 +10457,9 @@
       <c r="E342" t="n">
         <v>6373028695.03</v>
       </c>
-      <c r="F342"/>
+      <c r="F342" t="n">
+        <v>111.9</v>
+      </c>
       <c r="G342" t="n">
         <v>150560</v>
       </c>
@@ -10542,7 +10498,9 @@
       <c r="E343" t="n">
         <v>6245853801.53</v>
       </c>
-      <c r="F343"/>
+      <c r="F343" t="n">
+        <v>114.2</v>
+      </c>
       <c r="G343" t="n">
         <v>151628</v>
       </c>
@@ -10581,7 +10539,9 @@
       <c r="E344" t="n">
         <v>6301105022.91</v>
       </c>
-      <c r="F344"/>
+      <c r="F344" t="n">
+        <v>108.7</v>
+      </c>
       <c r="G344" t="n">
         <v>151583</v>
       </c>
@@ -10620,7 +10580,9 @@
       <c r="E345" t="n">
         <v>6415454857.1</v>
       </c>
-      <c r="F345"/>
+      <c r="F345" t="n">
+        <v>111.6</v>
+      </c>
       <c r="G345" t="n">
         <v>152032</v>
       </c>
@@ -10659,7 +10621,9 @@
       <c r="E346" t="n">
         <v>6177244443.65</v>
       </c>
-      <c r="F346"/>
+      <c r="F346" t="n">
+        <v>108.7</v>
+      </c>
       <c r="G346" t="n">
         <v>152773</v>
       </c>
@@ -10698,7 +10662,9 @@
       <c r="E347" t="n">
         <v>6460225934.55</v>
       </c>
-      <c r="F347"/>
+      <c r="F347" t="n">
+        <v>109.5</v>
+      </c>
       <c r="G347" t="n">
         <v>152734</v>
       </c>
@@ -10737,7 +10703,9 @@
       <c r="E348" t="n">
         <v>6880112453.17</v>
       </c>
-      <c r="F348"/>
+      <c r="F348" t="n">
+        <v>111.6</v>
+      </c>
       <c r="G348" t="n">
         <v>151468</v>
       </c>
@@ -10776,7 +10744,9 @@
       <c r="E349" t="n">
         <v>7454970335.16</v>
       </c>
-      <c r="F349"/>
+      <c r="F349" t="n">
+        <v>118.4</v>
+      </c>
       <c r="G349" t="n">
         <v>152416</v>
       </c>
@@ -10815,7 +10785,9 @@
       <c r="E350" t="n">
         <v>6427271708.66</v>
       </c>
-      <c r="F350"/>
+      <c r="F350" t="n">
+        <v>105.1</v>
+      </c>
       <c r="G350" t="n">
         <v>152283</v>
       </c>
@@ -10854,7 +10826,9 @@
       <c r="E351" t="n">
         <v>6219615696.35</v>
       </c>
-      <c r="F351"/>
+      <c r="F351" t="n">
+        <v>106.1</v>
+      </c>
       <c r="G351" t="n">
         <v>153437</v>
       </c>
@@ -10893,7 +10867,9 @@
       <c r="E352" t="n">
         <v>6712769408.83</v>
       </c>
-      <c r="F352"/>
+      <c r="F352" t="n">
+        <v>113</v>
+      </c>
       <c r="G352" t="n">
         <v>154487</v>
       </c>
@@ -10932,7 +10908,9 @@
       <c r="E353" t="n">
         <v>6718240114.3</v>
       </c>
-      <c r="F353"/>
+      <c r="F353" t="n">
+        <v>109.8</v>
+      </c>
       <c r="G353" t="n">
         <v>154387</v>
       </c>
@@ -10971,7 +10949,9 @@
       <c r="E354" t="n">
         <v>7041356267.01</v>
       </c>
-      <c r="F354"/>
+      <c r="F354" t="n">
+        <v>115.3</v>
+      </c>
       <c r="G354" t="n">
         <v>155469</v>
       </c>
@@ -11010,7 +10990,9 @@
       <c r="E355" t="n">
         <v>6720403726.55</v>
       </c>
-      <c r="F355"/>
+      <c r="F355" t="n">
+        <v>117.4</v>
+      </c>
       <c r="G355" t="n">
         <v>156520</v>
       </c>
@@ -11049,7 +11031,9 @@
       <c r="E356" t="n">
         <v>7195410907.98</v>
       </c>
-      <c r="F356"/>
+      <c r="F356" t="n">
+        <v>112.1</v>
+      </c>
       <c r="G356" t="n">
         <v>156314</v>
       </c>
@@ -11088,7 +11072,9 @@
       <c r="E357" t="n">
         <v>7220293001.08</v>
       </c>
-      <c r="F357"/>
+      <c r="F357" t="n">
+        <v>106.8</v>
+      </c>
       <c r="G357" t="n">
         <v>157644</v>
       </c>
@@ -11127,7 +11113,9 @@
       <c r="E358" t="n">
         <v>7053563544.44</v>
       </c>
-      <c r="F358"/>
+      <c r="F358" t="n">
+        <v>114.8</v>
+      </c>
       <c r="G358" t="n">
         <v>157622</v>
       </c>
@@ -11166,7 +11154,9 @@
       <c r="E359" t="n">
         <v>7180670898.57</v>
       </c>
-      <c r="F359"/>
+      <c r="F359" t="n">
+        <v>113.5</v>
+      </c>
       <c r="G359" t="n">
         <v>161060</v>
       </c>
@@ -11205,7 +11195,9 @@
       <c r="E360" t="n">
         <v>7610007605.46</v>
       </c>
-      <c r="F360"/>
+      <c r="F360" t="n">
+        <v>113.6</v>
+      </c>
       <c r="G360" t="n">
         <v>161527</v>
       </c>
@@ -11244,7 +11236,9 @@
       <c r="E361" t="n">
         <v>8472910204.12</v>
       </c>
-      <c r="F361"/>
+      <c r="F361" t="n">
+        <v>121.9</v>
+      </c>
       <c r="G361" t="n">
         <v>161318</v>
       </c>
@@ -11283,7 +11277,9 @@
       <c r="E362" t="n">
         <v>7050495708.44</v>
       </c>
-      <c r="F362"/>
+      <c r="F362" t="n">
+        <v>103.2</v>
+      </c>
       <c r="G362" t="n">
         <v>163155</v>
       </c>
@@ -11322,7 +11318,9 @@
       <c r="E363" t="n">
         <v>6741686430.91</v>
       </c>
-      <c r="F363"/>
+      <c r="F363" t="n">
+        <v>105.9</v>
+      </c>
       <c r="G363" t="n">
         <v>163780</v>
       </c>
@@ -11361,7 +11359,9 @@
       <c r="E364" t="n">
         <v>7709425430</v>
       </c>
-      <c r="F364"/>
+      <c r="F364" t="n">
+        <v>108.8</v>
+      </c>
       <c r="G364" t="n">
         <v>164380</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -29,7 +29,7 @@
     <t xml:space="preserve">Central Bank Card Payment</t>
   </si>
   <si>
-    <t xml:space="preserve">Service Index</t>
+    <t xml:space="preserve">Modified Service Index</t>
   </si>
   <si>
     <t xml:space="preserve">Household Deposits</t>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11348,10 +11348,10 @@
         <v>-693576</v>
       </c>
       <c r="B364" t="n">
-        <v>117.2</v>
+        <v>116.9</v>
       </c>
       <c r="C364" t="n">
-        <v>106.9</v>
+        <v>106.5</v>
       </c>
       <c r="D364" t="n">
         <v>3074026</v>
@@ -11388,8 +11388,12 @@
       <c r="A365" s="1" t="n">
         <v>-693576</v>
       </c>
-      <c r="B365"/>
-      <c r="C365"/>
+      <c r="B365" t="n">
+        <v>110</v>
+      </c>
+      <c r="C365" t="n">
+        <v>104.3</v>
+      </c>
       <c r="D365" t="n">
         <v>266528</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11413,6 +11413,25 @@
       <c r="L365"/>
       <c r="M365"/>
     </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B366"/>
+      <c r="C366"/>
+      <c r="D366"/>
+      <c r="E366"/>
+      <c r="F366"/>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="K366"/>
+      <c r="L366"/>
+      <c r="M366"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11397,7 +11397,9 @@
       <c r="D365" t="n">
         <v>266528</v>
       </c>
-      <c r="E365"/>
+      <c r="E365" t="n">
+        <v>7470032657.73</v>
+      </c>
       <c r="F365"/>
       <c r="G365"/>
       <c r="H365"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -1720,7 +1720,7 @@
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J57" t="n">
         <v>73.6</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="J189" t="n">
         <v>96.4</v>
@@ -11123,7 +11123,7 @@
         <v>2498500</v>
       </c>
       <c r="I358" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J358" t="n">
         <v>119.3</v>
@@ -11426,7 +11426,9 @@
       <c r="F366"/>
       <c r="G366"/>
       <c r="H366"/>
-      <c r="I366"/>
+      <c r="I366" t="n">
+        <v>4</v>
+      </c>
       <c r="J366" t="n">
         <v>121.5</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11421,7 +11421,9 @@
       </c>
       <c r="B366"/>
       <c r="C366"/>
-      <c r="D366"/>
+      <c r="D366" t="n">
+        <v>3522000</v>
+      </c>
       <c r="E366"/>
       <c r="F366"/>
       <c r="G366"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11360,7 +11360,7 @@
         <v>7709425430</v>
       </c>
       <c r="F364" t="n">
-        <v>108.8</v>
+        <v>112.7</v>
       </c>
       <c r="G364" t="n">
         <v>164380</v>
@@ -11400,7 +11400,9 @@
       <c r="E365" t="n">
         <v>7470032657.73</v>
       </c>
-      <c r="F365"/>
+      <c r="F365" t="n">
+        <v>108.7</v>
+      </c>
       <c r="G365"/>
       <c r="H365"/>
       <c r="I365" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11403,7 +11403,9 @@
       <c r="F365" t="n">
         <v>108.7</v>
       </c>
-      <c r="G365"/>
+      <c r="G365" t="n">
+        <v>165967</v>
+      </c>
       <c r="H365"/>
       <c r="I365" t="n">
         <v>4.1</v>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11438,7 +11438,9 @@
       <c r="J366" t="n">
         <v>121.5</v>
       </c>
-      <c r="K366"/>
+      <c r="K366" t="n">
+        <v>119</v>
+      </c>
       <c r="L366"/>
       <c r="M366"/>
     </row>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11176,7 +11176,7 @@
         <v>277.191</v>
       </c>
       <c r="M359" t="n">
-        <v>21275826</v>
+        <v>21168426</v>
       </c>
     </row>
     <row r="360">
@@ -11378,10 +11378,10 @@
         <v>118.4</v>
       </c>
       <c r="L364" t="n">
-        <v>513.043</v>
+        <v>520.924</v>
       </c>
       <c r="M364" t="n">
-        <v>37269799</v>
+        <v>38106607</v>
       </c>
     </row>
     <row r="365">
@@ -11416,8 +11416,12 @@
       <c r="K365" t="n">
         <v>119</v>
       </c>
-      <c r="L365"/>
-      <c r="M365"/>
+      <c r="L365" t="n">
+        <v>298.927</v>
+      </c>
+      <c r="M365" t="n">
+        <v>21871552</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11325,7 +11325,7 @@
         <v>163780</v>
       </c>
       <c r="H363" t="n">
-        <v>2494800</v>
+        <v>2496300</v>
       </c>
       <c r="I363" t="n">
         <v>4.4</v>
@@ -11366,7 +11366,7 @@
         <v>164380</v>
       </c>
       <c r="H364" t="n">
-        <v>2507200</v>
+        <v>2516400</v>
       </c>
       <c r="I364" t="n">
         <v>4.4</v>
@@ -11406,7 +11406,9 @@
       <c r="G365" t="n">
         <v>165967</v>
       </c>
-      <c r="H365"/>
+      <c r="H365" t="n">
+        <v>2521700</v>
+      </c>
       <c r="I365" t="n">
         <v>4.1</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H196"/>
       <c r="I196" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="J196" t="n">
         <v>97.3</v>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="H218"/>
       <c r="I218" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="J218" t="n">
         <v>98.8</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="H265"/>
       <c r="I265" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="J265" t="n">
         <v>99.4</v>
@@ -8032,7 +8032,7 @@
       </c>
       <c r="H273"/>
       <c r="I273" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J273" t="n">
         <v>100.8</v>
@@ -8891,7 +8891,7 @@
         <v>2183800</v>
       </c>
       <c r="I300" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J300" t="n">
         <v>101.6</v>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="E315"/>
       <c r="F315" t="n">
-        <v>84.1</v>
+        <v>84</v>
       </c>
       <c r="G315" t="n">
         <v>132634</v>
@@ -9632,7 +9632,7 @@
         <v>2211000</v>
       </c>
       <c r="I321" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J321" t="n">
         <v>104.2</v>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E326"/>
       <c r="F326" t="n">
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="G326" t="n">
         <v>140995</v>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="E332"/>
       <c r="F332" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="G332" t="n">
         <v>146245</v>
@@ -10262,7 +10262,7 @@
         <v>2406400</v>
       </c>
       <c r="I337" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J337" t="n">
         <v>115.2</v>
@@ -10499,7 +10499,7 @@
         <v>6245853801.53</v>
       </c>
       <c r="F343" t="n">
-        <v>114.2</v>
+        <v>114.3</v>
       </c>
       <c r="G343" t="n">
         <v>151628</v>
@@ -10786,7 +10786,7 @@
         <v>6427271708.66</v>
       </c>
       <c r="F350" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="G350" t="n">
         <v>152283</v>
@@ -10991,7 +10991,7 @@
         <v>6720403726.55</v>
       </c>
       <c r="F355" t="n">
-        <v>117.4</v>
+        <v>117.5</v>
       </c>
       <c r="G355" t="n">
         <v>156520</v>
@@ -11032,7 +11032,7 @@
         <v>7195410907.98</v>
       </c>
       <c r="F356" t="n">
-        <v>112.1</v>
+        <v>112.2</v>
       </c>
       <c r="G356" t="n">
         <v>156314</v>
@@ -11155,7 +11155,7 @@
         <v>7180670898.57</v>
       </c>
       <c r="F359" t="n">
-        <v>113.5</v>
+        <v>113.3</v>
       </c>
       <c r="G359" t="n">
         <v>161060</v>
@@ -11196,7 +11196,7 @@
         <v>7610007605.46</v>
       </c>
       <c r="F360" t="n">
-        <v>113.6</v>
+        <v>113.5</v>
       </c>
       <c r="G360" t="n">
         <v>161527</v>
@@ -11237,7 +11237,7 @@
         <v>8472910204.12</v>
       </c>
       <c r="F361" t="n">
-        <v>121.9</v>
+        <v>122.1</v>
       </c>
       <c r="G361" t="n">
         <v>161318</v>
@@ -11278,7 +11278,7 @@
         <v>7050495708.44</v>
       </c>
       <c r="F362" t="n">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="G362" t="n">
         <v>163155</v>
@@ -11319,7 +11319,7 @@
         <v>6741686430.91</v>
       </c>
       <c r="F363" t="n">
-        <v>105.9</v>
+        <v>106.7</v>
       </c>
       <c r="G363" t="n">
         <v>163780</v>
@@ -11360,7 +11360,7 @@
         <v>7709425430</v>
       </c>
       <c r="F364" t="n">
-        <v>112.7</v>
+        <v>113.8</v>
       </c>
       <c r="G364" t="n">
         <v>164380</v>
@@ -11389,7 +11389,7 @@
         <v>-693576</v>
       </c>
       <c r="B365" t="n">
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="C365" t="n">
         <v>104.3</v>
@@ -11401,7 +11401,7 @@
         <v>7470032657.73</v>
       </c>
       <c r="F365" t="n">
-        <v>108.7</v>
+        <v>110</v>
       </c>
       <c r="G365" t="n">
         <v>165967</v>
@@ -11429,13 +11429,21 @@
       <c r="A366" s="1" t="n">
         <v>-693576</v>
       </c>
-      <c r="B366"/>
-      <c r="C366"/>
+      <c r="B366" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="C366" t="n">
+        <v>114.2</v>
+      </c>
       <c r="D366" t="n">
         <v>3522000</v>
       </c>
-      <c r="E366"/>
-      <c r="F366"/>
+      <c r="E366" t="n">
+        <v>7731616169.91</v>
+      </c>
+      <c r="F366" t="n">
+        <v>117.7</v>
+      </c>
       <c r="G366"/>
       <c r="H366"/>
       <c r="I366" t="n">
@@ -11449,6 +11457,31 @@
       </c>
       <c r="L366"/>
       <c r="M366"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>-693576</v>
+      </c>
+      <c r="B367"/>
+      <c r="C367"/>
+      <c r="D367" t="n">
+        <v>168000</v>
+      </c>
+      <c r="E367"/>
+      <c r="F367"/>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367" t="n">
+        <v>4</v>
+      </c>
+      <c r="J367" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="K367" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="L367"/>
+      <c r="M367"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11444,7 +11444,9 @@
       <c r="F366" t="n">
         <v>117.7</v>
       </c>
-      <c r="G366"/>
+      <c r="G366" t="n">
+        <v>167342</v>
+      </c>
       <c r="H366"/>
       <c r="I366" t="n">
         <v>4</v>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11217,7 +11217,7 @@
         <v>271.649</v>
       </c>
       <c r="M360" t="n">
-        <v>21114418</v>
+        <v>20595694</v>
       </c>
     </row>
     <row r="361">
@@ -11419,10 +11419,10 @@
         <v>119</v>
       </c>
       <c r="L365" t="n">
-        <v>298.927</v>
+        <v>300.369</v>
       </c>
       <c r="M365" t="n">
-        <v>21871552</v>
+        <v>21876661</v>
       </c>
     </row>
     <row r="366">
@@ -11457,8 +11457,12 @@
       <c r="K366" t="n">
         <v>119</v>
       </c>
-      <c r="L366"/>
-      <c r="M366"/>
+      <c r="L366" t="n">
+        <v>320.666</v>
+      </c>
+      <c r="M366" t="n">
+        <v>23332657</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -11366,7 +11366,7 @@
         <v>164380</v>
       </c>
       <c r="H364" t="n">
-        <v>2516400</v>
+        <v>2518900</v>
       </c>
       <c r="I364" t="n">
         <v>4.4</v>
@@ -11407,7 +11407,7 @@
         <v>165967</v>
       </c>
       <c r="H365" t="n">
-        <v>2521700</v>
+        <v>2528900</v>
       </c>
       <c r="I365" t="n">
         <v>4.1</v>
@@ -11447,7 +11447,9 @@
       <c r="G366" t="n">
         <v>167342</v>
       </c>
-      <c r="H366"/>
+      <c r="H366" t="n">
+        <v>2548500</v>
+      </c>
       <c r="I366" t="n">
         <v>4</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="1840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="1841">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -5489,10 +5489,7 @@
     <t xml:space="preserve"> 18.1</t>
   </si>
   <si>
-    <t xml:space="preserve">112.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.2</t>
+    <t xml:space="preserve">114.4</t>
   </si>
   <si>
     <t xml:space="preserve">3522000</t>
@@ -5523,6 +5520,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.5</t>
   </si>
   <si>
     <t xml:space="preserve"> 168000</t>
@@ -18497,25 +18500,25 @@
         <v>17</v>
       </c>
       <c r="B366" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C366" t="s">
         <v>1825</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>1826</v>
       </c>
-      <c r="D366" t="s">
+      <c r="E366" t="s">
         <v>1827</v>
-      </c>
-      <c r="E366" t="s">
-        <v>1828</v>
       </c>
       <c r="F366" t="s">
         <v>1719</v>
       </c>
       <c r="G366" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H366" t="s">
         <v>1829</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1830</v>
       </c>
       <c r="I366" t="s">
         <v>244</v>
@@ -18527,32 +18530,36 @@
         <v>1764</v>
       </c>
       <c r="L366" t="s">
+        <v>1830</v>
+      </c>
+      <c r="M366" t="s">
         <v>1831</v>
       </c>
-      <c r="M366" t="s">
+      <c r="N366" t="s">
         <v>1832</v>
       </c>
-      <c r="N366" t="s">
+      <c r="O366" t="s">
         <v>1833</v>
       </c>
-      <c r="O366" t="s">
+      <c r="P366" t="s">
         <v>1834</v>
       </c>
-      <c r="P366" t="s">
+      <c r="Q366" t="s">
         <v>1835</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
         <v>17</v>
       </c>
-      <c r="B367"/>
-      <c r="C367"/>
+      <c r="B367" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1837</v>
+      </c>
       <c r="D367" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="E367"/>
       <c r="F367"/>
@@ -18573,13 +18580,13 @@
         <v>1061</v>
       </c>
       <c r="O367" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="P367" t="s">
         <v>1146</v>
       </c>
       <c r="Q367" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1847">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -524,18 +524,21 @@
     <t xml:space="preserve"> 5759151</t>
   </si>
   <si>
+    <t xml:space="preserve"> 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4958962</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5.4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 73.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4958962</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 73.9</t>
   </si>
   <si>
@@ -554,9 +557,6 @@
     <t xml:space="preserve"> 6124582</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 74.1</t>
   </si>
   <si>
@@ -2714,24 +2714,27 @@
     <t xml:space="preserve"> 92339</t>
   </si>
   <si>
+    <t xml:space="preserve">14.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6914200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 237227</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92351</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 98.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6914200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 237227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92351</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 99.6</t>
   </si>
   <si>
@@ -4073,6 +4076,9 @@
     <t xml:space="preserve">2010800</t>
   </si>
   <si>
+    <t xml:space="preserve"> 7.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">198.600</t>
   </si>
   <si>
@@ -4169,9 +4175,6 @@
     <t xml:space="preserve">2072100</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">103.0</t>
   </si>
   <si>
@@ -5531,10 +5534,25 @@
     <t xml:space="preserve"> 168000</t>
   </si>
   <si>
+    <t xml:space="preserve">7715527650</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 238</t>
   </si>
   <si>
     <t xml:space="preserve">  7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 205</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.1</t>
   </si>
 </sst>
 </file>
@@ -7459,17 +7477,17 @@
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K58"/>
       <c r="L58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -7488,17 +7506,17 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K59"/>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -7517,7 +7535,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J60" t="s">
         <v>181</v>
@@ -8631,7 +8649,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J96" t="s">
         <v>327</v>
@@ -8662,7 +8680,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J97" t="s">
         <v>334</v>
@@ -8794,7 +8812,7 @@
       </c>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J101" t="s">
         <v>355</v>
@@ -9619,7 +9637,7 @@
       </c>
       <c r="H126"/>
       <c r="I126" t="s">
-        <v>189</v>
+        <v>339</v>
       </c>
       <c r="J126" t="s">
         <v>472</v>
@@ -10180,7 +10198,7 @@
       </c>
       <c r="H143"/>
       <c r="I143" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J143" t="s">
         <v>547</v>
@@ -10609,7 +10627,7 @@
       </c>
       <c r="H156"/>
       <c r="I156" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J156" t="s">
         <v>614</v>
@@ -10642,7 +10660,7 @@
       </c>
       <c r="H157"/>
       <c r="I157" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J157" t="s">
         <v>619</v>
@@ -10675,7 +10693,7 @@
       </c>
       <c r="H158"/>
       <c r="I158" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J158" t="s">
         <v>604</v>
@@ -10708,7 +10726,7 @@
       </c>
       <c r="H159"/>
       <c r="I159" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J159" t="s">
         <v>628</v>
@@ -11698,7 +11716,7 @@
       </c>
       <c r="H189"/>
       <c r="I189" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="J189" t="s">
         <v>584</v>
@@ -12471,7 +12489,7 @@
       </c>
       <c r="H212"/>
       <c r="I212" t="s">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="J212" t="s">
         <v>675</v>
@@ -12716,19 +12734,19 @@
       </c>
       <c r="H219"/>
       <c r="I219" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="J219" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K219" t="s">
         <v>614</v>
       </c>
       <c r="L219" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M219" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="N219"/>
       <c r="O219"/>
@@ -12742,12 +12760,12 @@
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H220"/>
       <c r="I220" t="s">
@@ -12757,13 +12775,13 @@
         <v>645</v>
       </c>
       <c r="K220" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L220" t="s">
         <v>506</v>
       </c>
       <c r="M220" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N220"/>
       <c r="O220"/>
@@ -12777,12 +12795,12 @@
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E221"/>
       <c r="F221"/>
       <c r="G221" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="H221"/>
       <c r="I221" t="s">
@@ -12798,7 +12816,7 @@
         <v>270</v>
       </c>
       <c r="M221" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="N221"/>
       <c r="O221"/>
@@ -12812,12 +12830,12 @@
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="H222"/>
       <c r="I222" t="s">
@@ -12827,13 +12845,13 @@
         <v>671</v>
       </c>
       <c r="K222" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L222" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M222" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N222"/>
       <c r="O222"/>
@@ -12847,16 +12865,16 @@
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E223"/>
       <c r="F223"/>
       <c r="G223" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="H223"/>
       <c r="I223" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="J223" t="s">
         <v>654</v>
@@ -12868,7 +12886,7 @@
         <v>805</v>
       </c>
       <c r="M223" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N223"/>
       <c r="O223"/>
@@ -12882,28 +12900,28 @@
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H224"/>
       <c r="I224" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="J224" t="s">
         <v>654</v>
       </c>
       <c r="K224" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L224" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M224" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="N224"/>
       <c r="O224"/>
@@ -12917,16 +12935,16 @@
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E225"/>
       <c r="F225"/>
       <c r="G225" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H225"/>
       <c r="I225" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="J225" t="s">
         <v>645</v>
@@ -12935,10 +12953,10 @@
         <v>628</v>
       </c>
       <c r="L225" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M225" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="N225"/>
       <c r="O225"/>
@@ -12952,28 +12970,28 @@
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H226"/>
       <c r="I226" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="J226" t="s">
         <v>654</v>
       </c>
       <c r="K226" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L226" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M226" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="N226"/>
       <c r="O226"/>
@@ -12987,28 +13005,28 @@
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E227"/>
       <c r="F227"/>
       <c r="G227" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H227"/>
       <c r="I227" t="s">
         <v>707</v>
       </c>
       <c r="J227" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K227" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L227" t="s">
         <v>590</v>
       </c>
       <c r="M227" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="N227"/>
       <c r="O227"/>
@@ -13022,28 +13040,28 @@
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H228"/>
       <c r="I228" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J228" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K228" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="L228" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M228" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="N228"/>
       <c r="O228"/>
@@ -13057,28 +13075,28 @@
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E229"/>
       <c r="F229"/>
       <c r="G229" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H229"/>
       <c r="I229" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="J229" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K229" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="L229" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M229" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N229"/>
       <c r="O229"/>
@@ -13092,12 +13110,12 @@
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E230"/>
       <c r="F230"/>
       <c r="G230" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H230"/>
       <c r="I230" t="s">
@@ -13113,7 +13131,7 @@
         <v>351</v>
       </c>
       <c r="M230" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="N230"/>
       <c r="O230"/>
@@ -13127,28 +13145,28 @@
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E231"/>
       <c r="F231"/>
       <c r="G231" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H231"/>
       <c r="I231" t="s">
         <v>707</v>
       </c>
       <c r="J231" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K231" t="s">
         <v>628</v>
       </c>
       <c r="L231" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="M231" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="N231"/>
       <c r="O231"/>
@@ -13162,12 +13180,12 @@
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E232"/>
       <c r="F232"/>
       <c r="G232" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="H232"/>
       <c r="I232" t="s">
@@ -13177,13 +13195,13 @@
         <v>662</v>
       </c>
       <c r="K232" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L232" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="M232" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="N232"/>
       <c r="O232"/>
@@ -13197,28 +13215,28 @@
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E233"/>
       <c r="F233"/>
       <c r="G233" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="H233"/>
       <c r="I233" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="J233" t="s">
         <v>662</v>
       </c>
       <c r="K233" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L233" t="s">
         <v>753</v>
       </c>
       <c r="M233" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="N233"/>
       <c r="O233"/>
@@ -13232,12 +13250,12 @@
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="H234"/>
       <c r="I234" t="s">
@@ -13247,13 +13265,13 @@
         <v>662</v>
       </c>
       <c r="K234" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L234" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M234" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="N234"/>
       <c r="O234"/>
@@ -13267,16 +13285,16 @@
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E235"/>
       <c r="F235"/>
       <c r="G235" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="H235"/>
       <c r="I235" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="J235" t="s">
         <v>650</v>
@@ -13288,7 +13306,7 @@
         <v>556</v>
       </c>
       <c r="M235" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="N235"/>
       <c r="O235"/>
@@ -13302,28 +13320,28 @@
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="H236"/>
       <c r="I236" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="J236" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K236" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L236" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="M236" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="N236"/>
       <c r="O236"/>
@@ -13337,28 +13355,28 @@
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E237"/>
       <c r="F237"/>
       <c r="G237" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="H237"/>
       <c r="I237" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="J237" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K237" t="s">
         <v>639</v>
       </c>
       <c r="L237" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M237" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="N237"/>
       <c r="O237"/>
@@ -13372,16 +13390,16 @@
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E238"/>
       <c r="F238"/>
       <c r="G238" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="H238"/>
       <c r="I238" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="J238" t="s">
         <v>650</v>
@@ -13390,10 +13408,10 @@
         <v>675</v>
       </c>
       <c r="L238" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="M238" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="N238"/>
       <c r="O238"/>
@@ -13407,28 +13425,28 @@
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E239"/>
       <c r="F239"/>
       <c r="G239" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="H239"/>
       <c r="I239" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="J239" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K239" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="L239" t="s">
         <v>753</v>
       </c>
       <c r="M239" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="N239"/>
       <c r="O239"/>
@@ -13442,16 +13460,16 @@
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E240"/>
       <c r="F240"/>
       <c r="G240" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="H240"/>
       <c r="I240" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J240" t="s">
         <v>671</v>
@@ -13460,10 +13478,10 @@
         <v>901</v>
       </c>
       <c r="L240" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="M240" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="N240"/>
       <c r="O240"/>
@@ -13477,16 +13495,16 @@
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E241"/>
       <c r="F241"/>
       <c r="G241" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H241"/>
       <c r="I241" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="J241" t="s">
         <v>639</v>
@@ -13495,10 +13513,10 @@
         <v>901</v>
       </c>
       <c r="L241" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="M241" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="N241"/>
       <c r="O241"/>
@@ -13512,28 +13530,28 @@
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="E242"/>
       <c r="F242"/>
       <c r="G242" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="H242"/>
       <c r="I242" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J242" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K242" t="s">
         <v>697</v>
       </c>
       <c r="L242" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M242" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="N242"/>
       <c r="O242"/>
@@ -13547,16 +13565,16 @@
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E243"/>
       <c r="F243"/>
       <c r="G243" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H243"/>
       <c r="I243" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J243" t="s">
         <v>634</v>
@@ -13565,10 +13583,10 @@
         <v>634</v>
       </c>
       <c r="L243" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="M243" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="N243"/>
       <c r="O243"/>
@@ -13582,16 +13600,16 @@
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E244"/>
       <c r="F244"/>
       <c r="G244" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="H244"/>
       <c r="I244" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="J244" t="s">
         <v>645</v>
@@ -13600,10 +13618,10 @@
         <v>671</v>
       </c>
       <c r="L244" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="M244" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="N244"/>
       <c r="O244"/>
@@ -13617,28 +13635,28 @@
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="E245"/>
       <c r="F245"/>
       <c r="G245" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="H245"/>
       <c r="I245" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="J245" t="s">
         <v>654</v>
       </c>
       <c r="K245" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L245" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M245" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N245"/>
       <c r="O245"/>
@@ -13652,12 +13670,12 @@
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E246"/>
       <c r="F246"/>
       <c r="G246" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="H246"/>
       <c r="I246" t="s">
@@ -13673,7 +13691,7 @@
         <v>708</v>
       </c>
       <c r="M246" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="N246"/>
       <c r="O246"/>
@@ -13687,28 +13705,28 @@
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="E247"/>
       <c r="F247"/>
       <c r="G247" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="H247"/>
       <c r="I247" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="J247" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K247" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L247" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M247" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="N247"/>
       <c r="O247"/>
@@ -13722,19 +13740,19 @@
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E248"/>
       <c r="F248"/>
       <c r="G248" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="H248"/>
       <c r="I248" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J248" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="K248" t="s">
         <v>662</v>
@@ -13743,7 +13761,7 @@
         <v>383</v>
       </c>
       <c r="M248" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="N248"/>
       <c r="O248"/>
@@ -13757,28 +13775,28 @@
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E249"/>
       <c r="F249"/>
       <c r="G249" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="H249"/>
       <c r="I249" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="J249" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K249" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L249" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="M249" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="N249"/>
       <c r="O249"/>
@@ -13792,28 +13810,28 @@
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E250"/>
       <c r="F250"/>
       <c r="G250" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="H250"/>
       <c r="I250" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="J250" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K250" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L250" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M250" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="N250"/>
       <c r="O250"/>
@@ -13827,16 +13845,16 @@
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E251"/>
       <c r="F251"/>
       <c r="G251" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H251"/>
       <c r="I251" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J251" t="s">
         <v>645</v>
@@ -13845,10 +13863,10 @@
         <v>650</v>
       </c>
       <c r="L251" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M251" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="N251"/>
       <c r="O251"/>
@@ -13862,28 +13880,28 @@
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E252"/>
       <c r="F252"/>
       <c r="G252" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H252"/>
       <c r="I252" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="J252" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K252" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L252" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M252" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N252"/>
       <c r="O252"/>
@@ -13897,28 +13915,28 @@
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E253"/>
       <c r="F253"/>
       <c r="G253" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="H253"/>
       <c r="I253" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="J253" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K253" t="s">
         <v>645</v>
       </c>
       <c r="L253" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="M253" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="N253"/>
       <c r="O253"/>
@@ -13932,28 +13950,28 @@
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="E254"/>
       <c r="F254"/>
       <c r="G254" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="H254"/>
       <c r="I254" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="J254" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K254" t="s">
         <v>634</v>
       </c>
       <c r="L254" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="M254" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="N254"/>
       <c r="O254"/>
@@ -13967,28 +13985,28 @@
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E255"/>
       <c r="F255"/>
       <c r="G255" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H255"/>
       <c r="I255" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J255" t="s">
         <v>675</v>
       </c>
       <c r="K255" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L255" t="s">
         <v>774</v>
       </c>
       <c r="M255" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="N255"/>
       <c r="O255"/>
@@ -14002,12 +14020,12 @@
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="E256"/>
       <c r="F256"/>
       <c r="G256" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="H256"/>
       <c r="I256" t="s">
@@ -14020,10 +14038,10 @@
         <v>650</v>
       </c>
       <c r="L256" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="M256" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="N256"/>
       <c r="O256"/>
@@ -14037,28 +14055,28 @@
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E257"/>
       <c r="F257"/>
       <c r="G257" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="H257"/>
       <c r="I257" t="s">
-        <v>1070</v>
+        <v>103</v>
       </c>
       <c r="J257" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="K257" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L257" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M257" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="N257"/>
       <c r="O257"/>
@@ -14072,12 +14090,12 @@
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E258"/>
       <c r="F258"/>
       <c r="G258" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="H258"/>
       <c r="I258" t="s">
@@ -14087,13 +14105,13 @@
         <v>662</v>
       </c>
       <c r="K258" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L258" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M258" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="N258"/>
       <c r="O258"/>
@@ -14107,28 +14125,28 @@
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E259"/>
       <c r="F259"/>
       <c r="G259" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H259"/>
       <c r="I259" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="J259" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K259" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L259" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M259" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="N259"/>
       <c r="O259"/>
@@ -14142,28 +14160,28 @@
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E260"/>
       <c r="F260"/>
       <c r="G260" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H260"/>
       <c r="I260" t="s">
         <v>670</v>
       </c>
       <c r="J260" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K260" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L260" t="s">
         <v>502</v>
       </c>
       <c r="M260" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="N260"/>
       <c r="O260"/>
@@ -14177,28 +14195,28 @@
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E261"/>
       <c r="F261"/>
       <c r="G261" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="H261"/>
       <c r="I261" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="J261" t="s">
         <v>650</v>
       </c>
       <c r="K261" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L261" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M261" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="N261"/>
       <c r="O261"/>
@@ -14212,12 +14230,12 @@
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E262"/>
       <c r="F262"/>
       <c r="G262" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="H262"/>
       <c r="I262" t="s">
@@ -14227,13 +14245,13 @@
         <v>645</v>
       </c>
       <c r="K262" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="L262" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M262" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N262"/>
       <c r="O262"/>
@@ -14247,28 +14265,28 @@
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E263"/>
       <c r="F263"/>
       <c r="G263" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="H263"/>
       <c r="I263" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="J263" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="K263" t="s">
         <v>662</v>
       </c>
       <c r="L263" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M263" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="N263"/>
       <c r="O263"/>
@@ -14282,28 +14300,28 @@
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="E264"/>
       <c r="F264"/>
       <c r="G264" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="H264"/>
       <c r="I264" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J264" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="K264" t="s">
         <v>645</v>
       </c>
       <c r="L264" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M264" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="N264"/>
       <c r="O264"/>
@@ -14317,16 +14335,16 @@
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="E265"/>
       <c r="F265"/>
       <c r="G265" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="H265"/>
       <c r="I265" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J265" t="s">
         <v>639</v>
@@ -14335,10 +14353,10 @@
         <v>671</v>
       </c>
       <c r="L265" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M265" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="N265"/>
       <c r="O265"/>
@@ -14352,28 +14370,28 @@
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E266"/>
       <c r="F266"/>
       <c r="G266" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="H266"/>
       <c r="I266" t="s">
         <v>122</v>
       </c>
       <c r="J266" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="K266" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="L266" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M266" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="N266"/>
       <c r="O266"/>
@@ -14387,28 +14405,28 @@
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="E267"/>
       <c r="F267"/>
       <c r="G267" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="H267"/>
       <c r="I267" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="J267" t="s">
         <v>639</v>
       </c>
       <c r="K267" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L267" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M267" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="N267"/>
       <c r="O267"/>
@@ -14422,16 +14440,16 @@
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E268"/>
       <c r="F268"/>
       <c r="G268" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="H268"/>
       <c r="I268" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="J268" t="s">
         <v>645</v>
@@ -14440,10 +14458,10 @@
         <v>650</v>
       </c>
       <c r="L268" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="M268" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="N268"/>
       <c r="O268"/>
@@ -14457,28 +14475,28 @@
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E269"/>
       <c r="F269"/>
       <c r="G269" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H269"/>
       <c r="I269" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="J269" t="s">
         <v>650</v>
       </c>
       <c r="K269" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L269" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="M269" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="N269"/>
       <c r="O269"/>
@@ -14492,12 +14510,12 @@
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E270"/>
       <c r="F270"/>
       <c r="G270" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="H270"/>
       <c r="I270" t="s">
@@ -14507,13 +14525,13 @@
         <v>662</v>
       </c>
       <c r="K270" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="L270" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="M270" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="N270"/>
       <c r="O270"/>
@@ -14527,28 +14545,28 @@
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E271"/>
       <c r="F271"/>
       <c r="G271" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="H271"/>
       <c r="I271" t="s">
         <v>136</v>
       </c>
       <c r="J271" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K271" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L271" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M271" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="N271"/>
       <c r="O271"/>
@@ -14562,28 +14580,28 @@
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E272"/>
       <c r="F272"/>
       <c r="G272" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="H272"/>
       <c r="I272" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J272" t="s">
         <v>650</v>
       </c>
       <c r="K272" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="L272" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M272" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="N272"/>
       <c r="O272"/>
@@ -14597,28 +14615,28 @@
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E273"/>
       <c r="F273"/>
       <c r="G273" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="H273"/>
       <c r="I273" t="s">
-        <v>1146</v>
+        <v>136</v>
       </c>
       <c r="J273" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K273" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L273" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M273" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="N273"/>
       <c r="O273"/>
@@ -14632,28 +14650,28 @@
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E274"/>
       <c r="F274"/>
       <c r="G274" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="H274"/>
       <c r="I274" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="J274" t="s">
         <v>662</v>
       </c>
       <c r="K274" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="L274" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="M274" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="N274"/>
       <c r="O274"/>
@@ -14667,28 +14685,28 @@
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E275"/>
       <c r="F275"/>
       <c r="G275" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="H275"/>
       <c r="I275" t="s">
         <v>136</v>
       </c>
       <c r="J275" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K275" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L275" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M275" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="N275"/>
       <c r="O275"/>
@@ -14702,12 +14720,12 @@
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E276"/>
       <c r="F276"/>
       <c r="G276" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="H276"/>
       <c r="I276" t="s">
@@ -14720,10 +14738,10 @@
         <v>662</v>
       </c>
       <c r="L276" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M276" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="N276"/>
       <c r="O276"/>
@@ -14737,12 +14755,12 @@
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E277"/>
       <c r="F277"/>
       <c r="G277" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="H277"/>
       <c r="I277" t="s">
@@ -14752,13 +14770,13 @@
         <v>654</v>
       </c>
       <c r="K277" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L277" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="M277" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="N277"/>
       <c r="O277"/>
@@ -14772,12 +14790,12 @@
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E278"/>
       <c r="F278"/>
       <c r="G278" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H278"/>
       <c r="I278" t="s">
@@ -14790,10 +14808,10 @@
         <v>872</v>
       </c>
       <c r="L278" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="M278" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="N278"/>
       <c r="O278"/>
@@ -14807,28 +14825,28 @@
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E279"/>
       <c r="F279"/>
       <c r="G279" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="H279"/>
       <c r="I279" t="s">
         <v>644</v>
       </c>
       <c r="J279" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K279" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="L279" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="M279" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="N279"/>
       <c r="O279"/>
@@ -14842,28 +14860,28 @@
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E280"/>
       <c r="F280"/>
       <c r="G280" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="H280"/>
       <c r="I280" t="s">
         <v>162</v>
       </c>
       <c r="J280" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K280" t="s">
         <v>1034</v>
       </c>
-      <c r="K280" t="s">
-        <v>1033</v>
-      </c>
       <c r="L280" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="M280" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="N280"/>
       <c r="O280"/>
@@ -14877,28 +14895,28 @@
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E281"/>
       <c r="F281"/>
       <c r="G281" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="H281"/>
       <c r="I281" t="s">
         <v>644</v>
       </c>
       <c r="J281" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K281" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L281" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M281" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="N281"/>
       <c r="O281"/>
@@ -14912,28 +14930,28 @@
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E282"/>
       <c r="F282"/>
       <c r="G282" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="H282"/>
       <c r="I282" t="s">
         <v>644</v>
       </c>
       <c r="J282" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K282" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L282" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M282" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="N282"/>
       <c r="O282"/>
@@ -14947,28 +14965,28 @@
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E283"/>
       <c r="F283"/>
       <c r="G283" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="H283"/>
       <c r="I283" t="s">
         <v>162</v>
       </c>
       <c r="J283" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="K283" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L283" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M283" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="N283"/>
       <c r="O283"/>
@@ -14982,28 +15000,28 @@
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E284"/>
       <c r="F284"/>
       <c r="G284" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="H284"/>
       <c r="I284" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J284" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K284" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L284" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="M284" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="N284"/>
       <c r="O284"/>
@@ -15017,28 +15035,28 @@
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E285"/>
       <c r="F285"/>
       <c r="G285" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="H285"/>
       <c r="I285" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J285" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="K285" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L285" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="M285" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="N285"/>
       <c r="O285"/>
@@ -15052,28 +15070,28 @@
       <c r="B286"/>
       <c r="C286"/>
       <c r="D286" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E286"/>
       <c r="F286"/>
       <c r="G286" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="H286"/>
       <c r="I286" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J286" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K286" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="L286" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="M286" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="N286"/>
       <c r="O286"/>
@@ -15087,28 +15105,28 @@
       <c r="B287"/>
       <c r="C287"/>
       <c r="D287" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E287"/>
       <c r="F287"/>
       <c r="G287" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="H287"/>
       <c r="I287" t="s">
         <v>644</v>
       </c>
       <c r="J287" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="K287" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="L287" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="M287" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="N287"/>
       <c r="O287"/>
@@ -15122,28 +15140,28 @@
       <c r="B288"/>
       <c r="C288"/>
       <c r="D288" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E288"/>
       <c r="F288"/>
       <c r="G288" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H288"/>
       <c r="I288" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J288" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K288" t="s">
         <v>650</v>
       </c>
       <c r="L288" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="M288" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="N288"/>
       <c r="O288"/>
@@ -15157,28 +15175,28 @@
       <c r="B289"/>
       <c r="C289"/>
       <c r="D289" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E289"/>
       <c r="F289"/>
       <c r="G289" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H289"/>
       <c r="I289" t="s">
-        <v>633</v>
+        <v>166</v>
       </c>
       <c r="J289" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="K289" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="L289" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="M289" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="N289"/>
       <c r="O289"/>
@@ -15192,15 +15210,15 @@
       <c r="B290"/>
       <c r="C290"/>
       <c r="D290" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E290"/>
       <c r="F290"/>
       <c r="G290" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="H290" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I290" t="s">
         <v>326</v>
@@ -15209,13 +15227,13 @@
         <v>645</v>
       </c>
       <c r="K290" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="L290" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="M290" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="N290"/>
       <c r="O290"/>
@@ -15229,30 +15247,30 @@
       <c r="B291"/>
       <c r="C291"/>
       <c r="D291" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E291"/>
       <c r="F291"/>
       <c r="G291" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="H291" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="I291" t="s">
         <v>189</v>
       </c>
       <c r="J291" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K291" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L291" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="M291" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="N291"/>
       <c r="O291"/>
@@ -15266,30 +15284,30 @@
       <c r="B292"/>
       <c r="C292"/>
       <c r="D292" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E292"/>
       <c r="F292"/>
       <c r="G292" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="H292" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="I292" t="s">
         <v>339</v>
       </c>
       <c r="J292" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="K292" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L292" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="M292" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="N292"/>
       <c r="O292"/>
@@ -15303,30 +15321,30 @@
       <c r="B293"/>
       <c r="C293"/>
       <c r="D293" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E293"/>
       <c r="F293"/>
       <c r="G293" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="H293" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="I293" t="s">
         <v>326</v>
       </c>
       <c r="J293" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="K293" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="L293" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="M293" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="N293"/>
       <c r="O293"/>
@@ -15340,30 +15358,30 @@
       <c r="B294"/>
       <c r="C294"/>
       <c r="D294" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E294"/>
       <c r="F294"/>
       <c r="G294" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H294" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="I294" t="s">
         <v>184</v>
       </c>
       <c r="J294" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="K294" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L294" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="M294" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="N294"/>
       <c r="O294"/>
@@ -15377,30 +15395,30 @@
       <c r="B295"/>
       <c r="C295"/>
       <c r="D295" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E295"/>
       <c r="F295"/>
       <c r="G295" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H295" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="I295" t="s">
         <v>184</v>
       </c>
       <c r="J295" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K295" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="L295" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M295" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N295"/>
       <c r="O295"/>
@@ -15414,30 +15432,30 @@
       <c r="B296"/>
       <c r="C296"/>
       <c r="D296" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E296"/>
       <c r="F296"/>
       <c r="G296" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="H296" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="I296" t="s">
         <v>326</v>
       </c>
       <c r="J296" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="K296" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="L296" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="M296" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="N296"/>
       <c r="O296"/>
@@ -15451,30 +15469,30 @@
       <c r="B297"/>
       <c r="C297"/>
       <c r="D297" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E297"/>
       <c r="F297"/>
       <c r="G297" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="H297" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="I297" t="s">
         <v>339</v>
       </c>
       <c r="J297" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="K297" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="L297" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="M297" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="N297"/>
       <c r="O297"/>
@@ -15488,30 +15506,30 @@
       <c r="B298"/>
       <c r="C298"/>
       <c r="D298" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="E298"/>
       <c r="F298"/>
       <c r="G298" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H298" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="I298" t="s">
         <v>189</v>
       </c>
       <c r="J298" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="K298" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="L298" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="M298" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="N298"/>
       <c r="O298"/>
@@ -15525,30 +15543,30 @@
       <c r="B299"/>
       <c r="C299"/>
       <c r="D299" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E299"/>
       <c r="F299"/>
       <c r="G299" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="H299" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="I299" t="s">
         <v>194</v>
       </c>
       <c r="J299" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="K299" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L299" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="M299" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="N299"/>
       <c r="O299"/>
@@ -15562,30 +15580,30 @@
       <c r="B300"/>
       <c r="C300"/>
       <c r="D300" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E300"/>
       <c r="F300"/>
       <c r="G300" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H300" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="I300" t="s">
         <v>199</v>
       </c>
       <c r="J300" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="K300" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L300" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="M300" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="N300"/>
       <c r="O300"/>
@@ -15599,30 +15617,30 @@
       <c r="B301"/>
       <c r="C301"/>
       <c r="D301" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E301"/>
       <c r="F301"/>
       <c r="G301" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H301" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I301" t="s">
         <v>194</v>
       </c>
       <c r="J301" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="K301" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L301" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="M301" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="N301"/>
       <c r="O301"/>
@@ -15636,30 +15654,30 @@
       <c r="B302"/>
       <c r="C302"/>
       <c r="D302" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E302"/>
       <c r="F302"/>
       <c r="G302" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="H302" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="I302" t="s">
         <v>189</v>
       </c>
       <c r="J302" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="K302" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="L302" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M302" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N302"/>
       <c r="O302"/>
@@ -15673,30 +15691,30 @@
       <c r="B303"/>
       <c r="C303"/>
       <c r="D303" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E303"/>
       <c r="F303"/>
       <c r="G303" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="H303" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="I303" t="s">
         <v>194</v>
       </c>
       <c r="J303" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="K303" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L303" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="M303" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="N303"/>
       <c r="O303"/>
@@ -15710,30 +15728,30 @@
       <c r="B304"/>
       <c r="C304"/>
       <c r="D304" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E304"/>
       <c r="F304"/>
       <c r="G304" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="H304" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I304" t="s">
         <v>189</v>
       </c>
       <c r="J304" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K304" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="L304" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="M304" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="N304"/>
       <c r="O304"/>
@@ -15747,30 +15765,30 @@
       <c r="B305"/>
       <c r="C305"/>
       <c r="D305" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E305"/>
       <c r="F305"/>
       <c r="G305" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="H305" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="I305" t="s">
         <v>199</v>
       </c>
       <c r="J305" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="K305" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="L305" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="M305" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="N305"/>
       <c r="O305"/>
@@ -15784,30 +15802,30 @@
       <c r="B306"/>
       <c r="C306"/>
       <c r="D306" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E306"/>
       <c r="F306"/>
       <c r="G306" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="H306" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="I306" t="s">
         <v>339</v>
       </c>
       <c r="J306" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="K306" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="L306" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="M306" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="N306"/>
       <c r="O306"/>
@@ -15821,30 +15839,30 @@
       <c r="B307"/>
       <c r="C307"/>
       <c r="D307" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E307"/>
       <c r="F307"/>
       <c r="G307" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="H307" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="I307" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J307" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="K307" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="L307" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="M307" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="N307"/>
       <c r="O307"/>
@@ -15858,30 +15876,30 @@
       <c r="B308"/>
       <c r="C308"/>
       <c r="D308" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E308"/>
       <c r="F308"/>
       <c r="G308" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="H308" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="I308" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="J308" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="K308" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="L308" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="M308" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N308"/>
       <c r="O308"/>
@@ -15895,30 +15913,30 @@
       <c r="B309"/>
       <c r="C309"/>
       <c r="D309" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E309"/>
       <c r="F309"/>
       <c r="G309" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="H309" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="I309" t="s">
         <v>126</v>
       </c>
       <c r="J309" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="K309" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L309" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="M309" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="N309"/>
       <c r="O309"/>
@@ -15932,30 +15950,30 @@
       <c r="B310"/>
       <c r="C310"/>
       <c r="D310" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E310"/>
       <c r="F310"/>
       <c r="G310" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H310" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="I310" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="J310" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K310" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L310" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="M310" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="N310"/>
       <c r="O310"/>
@@ -15969,30 +15987,30 @@
       <c r="B311"/>
       <c r="C311"/>
       <c r="D311" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E311"/>
       <c r="F311"/>
       <c r="G311" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H311" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="I311" t="s">
         <v>143</v>
       </c>
       <c r="J311" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K311" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L311" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="M311" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="N311"/>
       <c r="O311"/>
@@ -16006,30 +16024,30 @@
       <c r="B312"/>
       <c r="C312"/>
       <c r="D312" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E312"/>
       <c r="F312"/>
       <c r="G312" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="H312" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="I312" t="s">
         <v>151</v>
       </c>
       <c r="J312" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K312" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="L312" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="M312" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="N312"/>
       <c r="O312"/>
@@ -16043,30 +16061,30 @@
       <c r="B313"/>
       <c r="C313"/>
       <c r="D313" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E313"/>
       <c r="F313"/>
       <c r="G313" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="H313" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="I313" t="s">
         <v>151</v>
       </c>
       <c r="J313" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="K313" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="L313" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="M313" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="N313"/>
       <c r="O313"/>
@@ -16078,38 +16096,38 @@
         <v>17</v>
       </c>
       <c r="B314" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C314" t="s">
         <v>127</v>
       </c>
       <c r="D314" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E314"/>
       <c r="F314" t="s">
         <v>304</v>
       </c>
       <c r="G314" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="H314" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="I314" t="s">
-        <v>133</v>
+        <v>1354</v>
       </c>
       <c r="J314" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="K314" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="L314" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="M314" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="N314"/>
       <c r="O314"/>
@@ -16121,38 +16139,38 @@
         <v>17</v>
       </c>
       <c r="B315" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="C315" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="D315" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="E315"/>
       <c r="F315" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G315" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="H315" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="I315" t="s">
-        <v>1124</v>
+        <v>122</v>
       </c>
       <c r="J315" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="K315" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="L315" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="M315" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="N315"/>
       <c r="O315"/>
@@ -16164,38 +16182,38 @@
         <v>17</v>
       </c>
       <c r="B316" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C316" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="D316" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="E316"/>
       <c r="F316" t="s">
         <v>530</v>
       </c>
       <c r="G316" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="H316" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="I316" t="s">
         <v>118</v>
       </c>
       <c r="J316" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="K316" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="L316" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="M316" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
       <c r="N316"/>
       <c r="O316"/>
@@ -16207,38 +16225,38 @@
         <v>17</v>
       </c>
       <c r="B317" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C317" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D317" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E317"/>
       <c r="F317" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="G317" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="H317" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="I317" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="J317" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="K317" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="L317" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="M317" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="N317"/>
       <c r="O317"/>
@@ -16250,38 +16268,38 @@
         <v>17</v>
       </c>
       <c r="B318" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="C318" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="D318" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="E318"/>
       <c r="F318" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G318" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="H318" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="I318" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="J318" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="K318" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="L318" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="M318" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="N318"/>
       <c r="O318"/>
@@ -16296,35 +16314,35 @@
         <v>872</v>
       </c>
       <c r="C319" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D319" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E319"/>
       <c r="F319" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G319" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H319" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="I319" t="s">
         <v>143</v>
       </c>
       <c r="J319" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="K319" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="L319" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="M319" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="N319"/>
       <c r="O319"/>
@@ -16336,38 +16354,38 @@
         <v>17</v>
       </c>
       <c r="B320" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C320" t="s">
         <v>724</v>
       </c>
       <c r="D320" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E320"/>
       <c r="F320" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G320" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="H320" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="I320" t="s">
         <v>162</v>
       </c>
       <c r="J320" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="K320" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="L320" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="M320" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="N320"/>
       <c r="O320"/>
@@ -16379,38 +16397,38 @@
         <v>17</v>
       </c>
       <c r="B321" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C321" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D321" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E321"/>
       <c r="F321" t="s">
         <v>639</v>
       </c>
       <c r="G321" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="H321" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="I321" t="s">
-        <v>633</v>
+        <v>174</v>
       </c>
       <c r="J321" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="K321" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="L321" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="M321" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="N321"/>
       <c r="O321"/>
@@ -16422,38 +16440,38 @@
         <v>17</v>
       </c>
       <c r="B322" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C322" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D322" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E322"/>
       <c r="F322" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="G322" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="H322" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="I322" t="s">
         <v>184</v>
       </c>
       <c r="J322" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="K322" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="L322" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="M322" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="N322"/>
       <c r="O322"/>
@@ -16468,35 +16486,35 @@
         <v>654</v>
       </c>
       <c r="C323" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="D323" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E323"/>
       <c r="F323" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G323" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="H323" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="I323" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J323" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="K323" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="L323" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="M323" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="N323"/>
       <c r="O323"/>
@@ -16508,38 +16526,38 @@
         <v>17</v>
       </c>
       <c r="B324" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C324" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D324" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="G324" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="H324" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="I324" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J324" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="K324" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="L324" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="M324" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="N324"/>
       <c r="O324"/>
@@ -16551,38 +16569,38 @@
         <v>17</v>
       </c>
       <c r="B325" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C325" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D325" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="E325"/>
       <c r="F325" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="G325" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="H325" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="I325" t="s">
         <v>326</v>
       </c>
       <c r="J325" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="K325" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="L325" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="M325" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="N325"/>
       <c r="O325"/>
@@ -16594,38 +16612,38 @@
         <v>17</v>
       </c>
       <c r="B326" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="C326" t="s">
         <v>439</v>
       </c>
       <c r="D326" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="E326"/>
       <c r="F326" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G326" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="H326" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="I326" t="s">
         <v>339</v>
       </c>
       <c r="J326" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="K326" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="L326" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="M326" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="N326"/>
       <c r="O326"/>
@@ -16637,38 +16655,38 @@
         <v>17</v>
       </c>
       <c r="B327" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C327" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="D327" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="E327"/>
       <c r="F327" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G327" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="H327" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="I327" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J327" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="K327" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="L327" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="M327" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="N327"/>
       <c r="O327"/>
@@ -16680,38 +16698,38 @@
         <v>17</v>
       </c>
       <c r="B328" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C328" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="D328" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="E328"/>
       <c r="F328" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G328" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="H328" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="I328" t="s">
         <v>189</v>
       </c>
       <c r="J328" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="K328" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="L328" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="M328" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="N328"/>
       <c r="O328"/>
@@ -16723,38 +16741,38 @@
         <v>17</v>
       </c>
       <c r="B329" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C329" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D329" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="E329"/>
       <c r="F329" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="G329" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="H329" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="I329" t="s">
         <v>213</v>
       </c>
       <c r="J329" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="K329" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="L329" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="M329" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="N329"/>
       <c r="O329"/>
@@ -16766,38 +16784,38 @@
         <v>17</v>
       </c>
       <c r="B330" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C330" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D330" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="E330"/>
       <c r="F330" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G330" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="H330" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="I330" t="s">
         <v>222</v>
       </c>
       <c r="J330" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="K330" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="L330" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="M330" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="N330"/>
       <c r="O330"/>
@@ -16809,38 +16827,38 @@
         <v>17</v>
       </c>
       <c r="B331" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C331" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D331" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="E331"/>
       <c r="F331" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G331" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="H331" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="I331" t="s">
         <v>222</v>
       </c>
       <c r="J331" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="K331" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="L331" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="M331" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="N331"/>
       <c r="O331"/>
@@ -16852,38 +16870,38 @@
         <v>17</v>
       </c>
       <c r="B332" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C332" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D332" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="E332"/>
       <c r="F332" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G332" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="H332" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="I332" t="s">
         <v>222</v>
       </c>
       <c r="J332" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="K332" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="L332" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="M332" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="N332"/>
       <c r="O332"/>
@@ -16895,38 +16913,38 @@
         <v>17</v>
       </c>
       <c r="B333" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C333" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D333" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="E333"/>
       <c r="F333" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G333" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="H333" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="I333" t="s">
         <v>268</v>
       </c>
       <c r="J333" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="K333" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L333" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="M333" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="N333"/>
       <c r="O333"/>
@@ -16938,38 +16956,38 @@
         <v>17</v>
       </c>
       <c r="B334" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C334" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="D334" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="E334"/>
       <c r="F334" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G334" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="H334" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="I334" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="J334" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="K334" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L334" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="M334" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="N334"/>
       <c r="O334"/>
@@ -16981,40 +16999,40 @@
         <v>17</v>
       </c>
       <c r="B335" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C335" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D335" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="E335" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F335" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G335" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="H335" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="I335" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="J335" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="K335" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="L335" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="M335" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="N335"/>
       <c r="O335"/>
@@ -17026,40 +17044,40 @@
         <v>17</v>
       </c>
       <c r="B336" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C336" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="D336" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="E336" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="F336" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="G336" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="H336" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="I336" t="s">
         <v>213</v>
       </c>
       <c r="J336" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="K336" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="L336" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="M336" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="N336"/>
       <c r="O336"/>
@@ -17071,40 +17089,40 @@
         <v>17</v>
       </c>
       <c r="B337" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C337" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="D337" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="E337" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F337" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G337" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H337" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="I337" t="s">
         <v>218</v>
       </c>
       <c r="J337" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="K337" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="L337" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="M337" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="N337"/>
       <c r="O337"/>
@@ -17116,40 +17134,40 @@
         <v>17</v>
       </c>
       <c r="B338" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C338" t="s">
         <v>547</v>
       </c>
       <c r="D338" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="E338" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F338" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G338" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="H338" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="I338" t="s">
         <v>268</v>
       </c>
       <c r="J338" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="K338" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="L338" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="M338" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="N338"/>
       <c r="O338"/>
@@ -17161,40 +17179,40 @@
         <v>17</v>
       </c>
       <c r="B339" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="C339" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D339" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="E339" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F339" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G339" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="H339" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="I339" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J339" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="K339" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="L339" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="M339" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="N339"/>
       <c r="O339"/>
@@ -17206,40 +17224,40 @@
         <v>17</v>
       </c>
       <c r="B340" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="C340" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F340" t="s">
         <v>1561</v>
       </c>
-      <c r="D340" t="s">
-        <v>1562</v>
-      </c>
-      <c r="E340" t="s">
-        <v>1563</v>
-      </c>
-      <c r="F340" t="s">
-        <v>1560</v>
-      </c>
       <c r="G340" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="H340" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="I340" t="s">
         <v>227</v>
       </c>
       <c r="J340" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="K340" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="L340" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="M340" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="N340"/>
       <c r="O340"/>
@@ -17251,40 +17269,40 @@
         <v>17</v>
       </c>
       <c r="B341" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C341" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D341" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="E341" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="F341" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G341" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="H341" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="I341" t="s">
         <v>227</v>
       </c>
       <c r="J341" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="K341" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="L341" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="M341" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="N341"/>
       <c r="O341"/>
@@ -17296,40 +17314,40 @@
         <v>17</v>
       </c>
       <c r="B342" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="C342" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="D342" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="E342" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F342" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="G342" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="H342" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="I342" t="s">
         <v>227</v>
       </c>
       <c r="J342" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="K342" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="L342" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="M342" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="N342"/>
       <c r="O342"/>
@@ -17341,40 +17359,40 @@
         <v>17</v>
       </c>
       <c r="B343" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C343" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D343" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F343" t="s">
         <v>1590</v>
       </c>
-      <c r="E343" t="s">
-        <v>1591</v>
-      </c>
-      <c r="F343" t="s">
-        <v>1589</v>
-      </c>
       <c r="G343" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="H343" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="I343" t="s">
         <v>268</v>
       </c>
       <c r="J343" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="K343" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="L343" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="M343" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="N343"/>
       <c r="O343"/>
@@ -17386,40 +17404,40 @@
         <v>17</v>
       </c>
       <c r="B344" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C344" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D344" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="E344" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="F344" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G344" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="H344" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="I344" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="J344" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="K344" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="L344" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="M344" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="N344"/>
       <c r="O344"/>
@@ -17431,40 +17449,40 @@
         <v>17</v>
       </c>
       <c r="B345" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C345" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D345" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="E345" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="F345" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="G345" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="H345" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="I345" t="s">
         <v>218</v>
       </c>
       <c r="J345" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K345" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="L345" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="M345" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="N345"/>
       <c r="O345"/>
@@ -17476,40 +17494,40 @@
         <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C346" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D346" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="E346" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="F346" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="G346" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="H346" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="I346" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J346" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="K346" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="L346" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="M346" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="N346"/>
       <c r="O346"/>
@@ -17524,37 +17542,37 @@
         <v>604</v>
       </c>
       <c r="C347" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D347" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E347" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="F347" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G347" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="H347" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="I347" t="s">
         <v>213</v>
       </c>
       <c r="J347" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="K347" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="L347" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="M347" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="N347"/>
       <c r="O347"/>
@@ -17566,40 +17584,40 @@
         <v>17</v>
       </c>
       <c r="B348" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="C348" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D348" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="E348" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="F348" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="G348" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="H348" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="I348" t="s">
         <v>218</v>
       </c>
       <c r="J348" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="K348" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="L348" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="M348" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="N348"/>
       <c r="O348"/>
@@ -17611,40 +17629,40 @@
         <v>17</v>
       </c>
       <c r="B349" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C349" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="D349" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="E349" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F349" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="G349" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="H349" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="I349" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J349" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="K349" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="L349" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="M349" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="N349"/>
       <c r="O349"/>
@@ -17656,50 +17674,50 @@
         <v>17</v>
       </c>
       <c r="B350" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="C350" t="s">
         <v>525</v>
       </c>
       <c r="D350" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="E350" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F350" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="G350" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="H350" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="I350" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J350" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="K350" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="L350" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="M350" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="N350" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="O350"/>
       <c r="P350" t="s">
         <v>194</v>
       </c>
       <c r="Q350" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="351">
@@ -17707,52 +17725,52 @@
         <v>17</v>
       </c>
       <c r="B351" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C351" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="D351" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="E351" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="F351" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G351" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="H351" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="I351" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J351" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="K351" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="L351" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="M351" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="N351" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="O351" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="P351" t="s">
         <v>633</v>
       </c>
       <c r="Q351" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="352">
@@ -17760,52 +17778,52 @@
         <v>17</v>
       </c>
       <c r="B352" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C352" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D352" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="E352" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="F352" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G352" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="H352" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="I352" t="s">
         <v>222</v>
       </c>
       <c r="J352" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="K352" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="L352" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="M352" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="N352" t="s">
         <v>800</v>
       </c>
       <c r="O352" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="P352" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="Q352" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="353">
@@ -17813,52 +17831,52 @@
         <v>17</v>
       </c>
       <c r="B353" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C353" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="D353" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="E353" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="F353" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="G353" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H353" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="I353" t="s">
         <v>218</v>
       </c>
       <c r="J353" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="K353" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="L353" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="M353" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="N353" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O353" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="P353" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="Q353" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="354">
@@ -17866,52 +17884,52 @@
         <v>17</v>
       </c>
       <c r="B354" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="C354" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D354" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E354" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="F354" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G354" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="H354" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="I354" t="s">
         <v>218</v>
       </c>
       <c r="J354" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="K354" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="L354" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="M354" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="N354" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="O354" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="P354" t="s">
         <v>151</v>
       </c>
       <c r="Q354" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="355">
@@ -17919,52 +17937,52 @@
         <v>17</v>
       </c>
       <c r="B355" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="C355" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D355" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="E355" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="F355" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="G355" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H355" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="I355" t="s">
         <v>218</v>
       </c>
       <c r="J355" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="K355" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="L355" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="M355" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="N355" t="s">
         <v>718</v>
       </c>
       <c r="O355" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="P355" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="Q355" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="356">
@@ -17972,52 +17990,52 @@
         <v>17</v>
       </c>
       <c r="B356" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C356" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D356" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="E356" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F356" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="G356" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H356" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="I356" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J356" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="K356" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="L356" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="M356" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="N356" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="O356" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="P356" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Q356" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="357">
@@ -18025,52 +18043,52 @@
         <v>17</v>
       </c>
       <c r="B357" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="C357" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="D357" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E357" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="F357" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="G357" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H357" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="I357" t="s">
         <v>227</v>
       </c>
       <c r="J357" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="K357" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="L357" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="M357" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="N357" t="s">
         <v>723</v>
       </c>
       <c r="O357" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="P357" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="Q357" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="358">
@@ -18078,52 +18096,52 @@
         <v>17</v>
       </c>
       <c r="B358" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="C358" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D358" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="E358" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="F358" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="G358" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H358" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="I358" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J358" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="K358" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="L358" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="M358" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="N358" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="O358" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="P358" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q358" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="359">
@@ -18134,49 +18152,49 @@
         <v>724</v>
       </c>
       <c r="C359" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D359" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="E359" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="F359" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G359" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H359" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="I359" t="s">
         <v>222</v>
       </c>
       <c r="J359" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="K359" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="L359" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="M359" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="N359" t="s">
         <v>702</v>
       </c>
       <c r="O359" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="P359" t="s">
         <v>814</v>
       </c>
       <c r="Q359" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="360">
@@ -18184,52 +18202,52 @@
         <v>17</v>
       </c>
       <c r="B360" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C360" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="D360" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="E360" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="F360" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G360" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H360" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="I360" t="s">
         <v>222</v>
       </c>
       <c r="J360" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="K360" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="L360" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="M360" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="N360" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="O360" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="P360" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="Q360" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="361">
@@ -18237,52 +18255,52 @@
         <v>17</v>
       </c>
       <c r="B361" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C361" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D361" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="E361" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F361" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="G361" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H361" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="I361" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J361" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="K361" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="L361" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="M361" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="N361" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="O361" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="P361" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="Q361" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="362">
@@ -18290,50 +18308,50 @@
         <v>17</v>
       </c>
       <c r="B362" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="C362" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D362" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="E362" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F362" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="G362" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H362" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="I362" t="s">
         <v>213</v>
       </c>
       <c r="J362" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="K362" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="L362" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="M362" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="N362" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="O362"/>
       <c r="P362" t="s">
         <v>126</v>
       </c>
       <c r="Q362" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="363">
@@ -18341,49 +18359,49 @@
         <v>17</v>
       </c>
       <c r="B363" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C363" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D363" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="E363" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="F363" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="G363" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H363" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="I363" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J363" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="K363" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="L363" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="M363" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="N363" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="O363" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="P363" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="Q363" t="s">
         <v>416</v>
@@ -18394,52 +18412,52 @@
         <v>17</v>
       </c>
       <c r="B364" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C364" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D364" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="E364" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="F364" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="G364" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H364" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="I364" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="J364" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="K364" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="L364" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="M364" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="N364" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="O364" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="P364" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="Q364" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="365">
@@ -18447,52 +18465,52 @@
         <v>17</v>
       </c>
       <c r="B365" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C365" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="D365" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="E365" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F365" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G365" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="H365" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="I365" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="J365" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="K365" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="L365" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="M365" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="N365" t="s">
         <v>691</v>
       </c>
       <c r="O365" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="P365" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Q365" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="366">
@@ -18500,52 +18518,52 @@
         <v>17</v>
       </c>
       <c r="B366" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="C366" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="D366" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E366" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="F366" t="s">
-        <v>1719</v>
+        <v>1801</v>
       </c>
       <c r="G366" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="H366" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="I366" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="J366" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="K366" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="L366" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="M366" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="N366" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="O366" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="P366" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="Q366" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="367">
@@ -18553,40 +18571,79 @@
         <v>17</v>
       </c>
       <c r="B367" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C367" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="D367" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E367"/>
-      <c r="F367"/>
+        <v>1839</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1714</v>
+      </c>
       <c r="G367"/>
       <c r="H367"/>
       <c r="I367" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="J367" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="K367" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="L367"/>
       <c r="M367"/>
       <c r="N367" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O367" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="P367" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="Q367" t="s">
-        <v>1840</v>
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>17</v>
+      </c>
+      <c r="B368"/>
+      <c r="C368"/>
+      <c r="D368"/>
+      <c r="E368"/>
+      <c r="F368"/>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368" t="s">
+        <v>189</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1843</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1844</v>
+      </c>
+      <c r="L368"/>
+      <c r="M368"/>
+      <c r="N368" t="s">
+        <v>1044</v>
+      </c>
+      <c r="O368" t="s">
+        <v>1845</v>
+      </c>
+      <c r="P368" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>1846</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="1851">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -5357,7 +5357,7 @@
     <t xml:space="preserve">205.921</t>
   </si>
   <si>
-    <t xml:space="preserve">16147556</t>
+    <t xml:space="preserve">15724179</t>
   </si>
   <si>
     <t xml:space="preserve">-809</t>
@@ -5474,7 +5474,7 @@
     <t xml:space="preserve">165967</t>
   </si>
   <si>
-    <t xml:space="preserve">2528900</t>
+    <t xml:space="preserve">2531300</t>
   </si>
   <si>
     <t xml:space="preserve">121.5</t>
@@ -5504,13 +5504,13 @@
     <t xml:space="preserve">167342</t>
   </si>
   <si>
-    <t xml:space="preserve">2548500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320.666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23332657</t>
+    <t xml:space="preserve">2559400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23734869</t>
   </si>
   <si>
     <t xml:space="preserve"> 9.2</t>
@@ -5535,6 +5535,18 @@
   </si>
   <si>
     <t xml:space="preserve">7715527650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17527957</t>
   </si>
   <si>
     <t xml:space="preserve"> 238</t>
@@ -18585,8 +18597,12 @@
       <c r="F367" t="s">
         <v>1714</v>
       </c>
-      <c r="G367"/>
-      <c r="H367"/>
+      <c r="G367" t="s">
+        <v>1841</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1842</v>
+      </c>
       <c r="I367" t="s">
         <v>208</v>
       </c>
@@ -18596,19 +18612,23 @@
       <c r="K367" t="s">
         <v>1697</v>
       </c>
-      <c r="L367"/>
-      <c r="M367"/>
+      <c r="L367" t="s">
+        <v>1843</v>
+      </c>
+      <c r="M367" t="s">
+        <v>1844</v>
+      </c>
       <c r="N367" t="s">
         <v>1062</v>
       </c>
       <c r="O367" t="s">
-        <v>1841</v>
+        <v>1845</v>
       </c>
       <c r="P367" t="s">
         <v>1147</v>
       </c>
       <c r="Q367" t="s">
-        <v>1842</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="368">
@@ -18626,10 +18646,10 @@
         <v>189</v>
       </c>
       <c r="J368" t="s">
-        <v>1843</v>
+        <v>1847</v>
       </c>
       <c r="K368" t="s">
-        <v>1844</v>
+        <v>1848</v>
       </c>
       <c r="L368"/>
       <c r="M368"/>
@@ -18637,13 +18657,13 @@
         <v>1044</v>
       </c>
       <c r="O368" t="s">
-        <v>1845</v>
+        <v>1849</v>
       </c>
       <c r="P368" t="s">
         <v>1111</v>
       </c>
       <c r="Q368" t="s">
-        <v>1846</v>
+        <v>1850</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="1851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="1849">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -4985,586 +4985,580 @@
     <t xml:space="preserve">20.0</t>
   </si>
   <si>
+    <t xml:space="preserve"> -9.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 428410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6219615696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2441400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15937076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2886341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6712769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19176653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 304605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6718240114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19413652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3372684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7041356267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2494800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18038905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6720403727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16727247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3213730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7195410908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2502600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18153055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 361129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7220293001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17360636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3413659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7053563544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2498500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287.928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22189330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2619</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 380458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7180670899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21168426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3095005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7610007605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2527200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20595694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 419228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8472910204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2526200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205.921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15724179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4051134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7050495708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351.638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25880468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 507747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6741686431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2496300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343.825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25224366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3074026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7709425430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2518900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520.924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38106607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 266528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7470032658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2531300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300.369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21876661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3522000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7731616170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2559400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23734869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 168000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7715527650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">244.931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17527957</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 238</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 205</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 13.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 428410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6219615696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2441400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15937076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  73</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2886341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6712769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2468200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19176653</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 304605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6718240114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2468400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19413652</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 320</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3372684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7041356267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2494800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18038905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 803</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6720403727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2513700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16727247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1327</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3213730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7195410908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2502600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18153055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 361129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7220293001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2520100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17360636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3413659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7053563544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2498500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287.928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22189330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2619</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 380458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7180670899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2505700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21168426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3095005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7610007605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2527200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20595694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 419228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8472910204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2526200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15724179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4051134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7050495708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2515200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">351.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25880468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 507747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6741686431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2496300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25224366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3074026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7709425430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2518900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38106607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 266528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7470032658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2531300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21876661</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3522000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7731616170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2559400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326.348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23734869</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -79</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 168000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7715527650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2560000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">244.931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17527957</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 205</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 14.1</t>
   </si>
 </sst>
 </file>
@@ -18363,7 +18357,7 @@
         <v>126</v>
       </c>
       <c r="Q362" t="s">
-        <v>1794</v>
+        <v>416</v>
       </c>
     </row>
     <row r="363">
@@ -18371,25 +18365,25 @@
         <v>17</v>
       </c>
       <c r="B363" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="C363" t="s">
         <v>1727</v>
       </c>
       <c r="D363" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E363" t="s">
         <v>1796</v>
       </c>
-      <c r="E363" t="s">
+      <c r="F363" t="s">
         <v>1797</v>
       </c>
-      <c r="F363" t="s">
+      <c r="G363" t="s">
         <v>1798</v>
       </c>
-      <c r="G363" t="s">
+      <c r="H363" t="s">
         <v>1799</v>
-      </c>
-      <c r="H363" t="s">
-        <v>1800</v>
       </c>
       <c r="I363" t="s">
         <v>213</v>
@@ -18398,25 +18392,21 @@
         <v>1708</v>
       </c>
       <c r="K363" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L363" t="s">
         <v>1801</v>
       </c>
-      <c r="L363" t="s">
+      <c r="M363" t="s">
         <v>1802</v>
       </c>
-      <c r="M363" t="s">
+      <c r="N363"/>
+      <c r="O363"/>
+      <c r="P363" t="s">
         <v>1803</v>
       </c>
-      <c r="N363" t="s">
+      <c r="Q363" t="s">
         <v>1804</v>
-      </c>
-      <c r="O363" t="s">
-        <v>1805</v>
-      </c>
-      <c r="P363" t="s">
-        <v>1806</v>
-      </c>
-      <c r="Q363" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="364">
@@ -18430,46 +18420,46 @@
         <v>1442</v>
       </c>
       <c r="D364" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="E364" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="F364" t="s">
         <v>1653</v>
       </c>
       <c r="G364" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="H364" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="I364" t="s">
         <v>213</v>
       </c>
       <c r="J364" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="K364" t="s">
         <v>1595</v>
       </c>
       <c r="L364" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="M364" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="N364" t="s">
         <v>1002</v>
       </c>
       <c r="O364" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="P364" t="s">
         <v>1071</v>
       </c>
       <c r="Q364" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="365">
@@ -18480,49 +18470,49 @@
         <v>1503</v>
       </c>
       <c r="C365" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E365" t="s">
         <v>1816</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1817</v>
-      </c>
-      <c r="E365" t="s">
-        <v>1818</v>
       </c>
       <c r="F365" t="s">
         <v>1497</v>
       </c>
       <c r="G365" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="H365" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="I365" t="s">
         <v>208</v>
       </c>
       <c r="J365" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="K365" t="s">
         <v>1765</v>
       </c>
       <c r="L365" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="M365" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="N365" t="s">
         <v>691</v>
       </c>
       <c r="O365" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="P365" t="s">
         <v>1097</v>
       </c>
       <c r="Q365" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="366">
@@ -18533,49 +18523,49 @@
         <v>1580</v>
       </c>
       <c r="C366" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E366" t="s">
         <v>1826</v>
       </c>
-      <c r="D366" t="s">
+      <c r="F366" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G366" t="s">
         <v>1827</v>
       </c>
-      <c r="E366" t="s">
+      <c r="H366" t="s">
         <v>1828</v>
-      </c>
-      <c r="F366" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G366" t="s">
-        <v>1829</v>
-      </c>
-      <c r="H366" t="s">
-        <v>1830</v>
       </c>
       <c r="I366" t="s">
         <v>208</v>
       </c>
       <c r="J366" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="K366" t="s">
         <v>1765</v>
       </c>
       <c r="L366" t="s">
+        <v>1829</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1830</v>
+      </c>
+      <c r="N366" t="s">
         <v>1831</v>
       </c>
-      <c r="M366" t="s">
+      <c r="O366" t="s">
         <v>1832</v>
       </c>
-      <c r="N366" t="s">
+      <c r="P366" t="s">
         <v>1833</v>
       </c>
-      <c r="O366" t="s">
+      <c r="Q366" t="s">
         <v>1834</v>
-      </c>
-      <c r="P366" t="s">
-        <v>1835</v>
-      </c>
-      <c r="Q366" t="s">
-        <v>1836</v>
       </c>
     </row>
     <row r="367">
@@ -18583,25 +18573,25 @@
         <v>17</v>
       </c>
       <c r="B367" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D367" t="s">
         <v>1837</v>
       </c>
-      <c r="C367" t="s">
+      <c r="E367" t="s">
         <v>1838</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1839</v>
-      </c>
-      <c r="E367" t="s">
-        <v>1840</v>
       </c>
       <c r="F367" t="s">
         <v>1714</v>
       </c>
       <c r="G367" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="H367" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="I367" t="s">
         <v>208</v>
@@ -18613,22 +18603,22 @@
         <v>1697</v>
       </c>
       <c r="L367" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="M367" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="N367" t="s">
         <v>1062</v>
       </c>
       <c r="O367" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="P367" t="s">
         <v>1147</v>
       </c>
       <c r="Q367" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="368">
@@ -18646,10 +18636,10 @@
         <v>189</v>
       </c>
       <c r="J368" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="K368" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="L368"/>
       <c r="M368"/>
@@ -18657,13 +18647,13 @@
         <v>1044</v>
       </c>
       <c r="O368" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="P368" t="s">
         <v>1111</v>
       </c>
       <c r="Q368" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6614,12 +6614,6 @@
     <t xml:space="preserve">2025-06-01</t>
   </si>
   <si>
-    <t xml:space="preserve">110.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 168000</t>
   </si>
   <si>
@@ -6645,6 +6639,12 @@
   </si>
   <si>
     <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.8</t>
   </si>
   <si>
     <t xml:space="preserve">3260000</t>
@@ -19674,25 +19674,25 @@
         <v>2199</v>
       </c>
       <c r="B367" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D367" t="s">
         <v>2200</v>
       </c>
-      <c r="C367" t="s">
+      <c r="E367" t="s">
         <v>2201</v>
-      </c>
-      <c r="D367" t="s">
-        <v>2202</v>
-      </c>
-      <c r="E367" t="s">
-        <v>2203</v>
       </c>
       <c r="F367" t="s">
         <v>2068</v>
       </c>
       <c r="G367" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="H367" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="I367" t="s">
         <v>272</v>
@@ -19704,30 +19704,34 @@
         <v>2049</v>
       </c>
       <c r="L367" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="M367" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N367" t="s">
         <v>1313</v>
       </c>
       <c r="O367" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="P367" t="s">
         <v>1417</v>
       </c>
       <c r="Q367" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B368" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C368" t="s">
         <v>2210</v>
       </c>
-      <c r="B368"/>
-      <c r="C368"/>
       <c r="D368" t="s">
         <v>2211</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="2223">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -422,2124 +422,2130 @@
     <t xml:space="preserve">1998-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4066082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4206769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-03-01</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 8.8</t>
   </si>
   <si>
-    <t xml:space="preserve"> 51.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4066082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-02-01</t>
+    <t xml:space="preserve"> 70.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4979913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4581088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4531822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5180023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4910966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 53.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4269748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5332900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4898776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5470540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4893190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4680128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4877191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5420131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5118187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5393593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5713694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5759151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4958962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6412050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6124582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6014622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6483917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 958313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5053000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 328500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6005800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 839274</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7461300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 263186</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6021200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 967608</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6655000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 298627</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7714800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 931211</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6530200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 325461</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6496800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 884810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7888900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 313217</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7889400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1071418</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8307100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 288586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7962600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1138525</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7431300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 335986</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7160400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 907584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8855000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 277126</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 79.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7051500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1007009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6962100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 288162</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9043300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 982011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7764700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 317807</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6958900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 930670</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8288100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 314220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8206800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7881700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 388394</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7126600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1156144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8299600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 396175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7701200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 919379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">128.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9138500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 436179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7796600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1117309</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9203200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 316097</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7623500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1114500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7964900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 308937</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6427700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1170220</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7916600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 345332</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7392900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1229223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7694800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 375407</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6899400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1507241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 46951</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6412200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 328153</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47991</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6484100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1175359</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 47910</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7142200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 256382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48492</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6773800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234709</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49085</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6642700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 298355</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7127200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1288791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 49648</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6649400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 240259</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5862300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1272536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50835</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7652600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 304048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7476600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1426646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7390300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 388065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 51851</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6971500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1608214</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 52676</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 87.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6203600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 321053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6848100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1249142</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 54327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8199300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 301055</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55229</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7241700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1441982</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6461500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 329443</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56173</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7687600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1486293</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7014100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 310794</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58836</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6259000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1455593</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7272200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 285232</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 57138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6844400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1541468</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 56781</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7657300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 363022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58546</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7260400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1672738</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58674</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6552200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 510549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59489</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6583800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1391326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 58791</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7664900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 376993</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59875</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7549800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1582415</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7140300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 356631</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61612</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7560700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1660132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 62760</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6936600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 338815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63822</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 86.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6563200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1688398</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64683</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7842200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 413108</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 66134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7161900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1749043</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 65505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 348922</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68112</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7418000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 88.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7033500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 422611</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 68460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6450700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1632914</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69212</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 92.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8047600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 317923</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6562200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1842946</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 69998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7816400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 323391</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 71599</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7349300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1861888</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72442</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7211000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 376679</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6985800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1896172</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75852</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7618700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 393696</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7602400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1962536</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 76580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7647000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 381660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78857</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7172100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2331507</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77399</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7285500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 431968</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 78286</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6947200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1750908</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 77833</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8419800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 392949</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80350</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7788100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2035905</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81110</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7737700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 335801</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8146300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2169119</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81592</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7450500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 321751</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6920000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82268</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7429400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 442303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81901</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7915600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1875341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 81057</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8241900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 409346</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82213</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 97.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6297800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2335014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82380</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7260000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 363700</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82582</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 98.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7450000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1827988</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82813</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7182500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 351226</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7424400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1855918</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83626</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7463500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 344059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83762</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7353100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1853324</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84144</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7467300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 252614</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84754</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6656400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1814642</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 82637</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7612400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 315932</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84806</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7795500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1720065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 83289</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 99.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7844900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 395120</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84868</t>
   </si>
   <si>
     <t xml:space="preserve"> 9.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 70.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4206769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4979913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4581088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4531822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5180023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4910966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 53.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4269748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5332900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4898776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5470540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4893190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4680128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4877191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5420131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5118187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5393593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5713694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5759151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4958962</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 73.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6412050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6124582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6014622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6483917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 958313</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5053000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 328500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6005800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 839274</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7461300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 263186</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6021200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 967608</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6655000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 298627</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7714800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 931211</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6530200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 325461</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6496800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 884810</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7888900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 313217</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7889400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1071418</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8307100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 288586</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7962600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1138525</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7431300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 335986</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7160400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 907584</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8855000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 277126</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 79.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7051500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1007009</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6962100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 288162</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9043300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 982011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7764700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 317807</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6958900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 930670</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8288100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 314220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8206800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1032967</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7881700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 388394</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7126600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1156144</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8299600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 396175</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7701200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 919379</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9138500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 436179</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7796600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1117309</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9203200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 316097</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7623500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1114500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7964900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 308937</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6427700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1170220</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7916600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 345332</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7392900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1229223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7694800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 375407</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6899400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1507241</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 46951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6412200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 328153</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47991</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6484100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1175359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 47910</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7142200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 256382</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48492</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6773800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234709</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49085</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6642700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 298355</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7127200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1288791</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 49648</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6649400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 240259</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50504</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5862300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1272536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 50835</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7652600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 304048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7476600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1426646</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7390300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 388065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 51851</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6971500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1608214</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 52676</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 87.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6203600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 321053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54138</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6848100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1249142</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 54327</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8199300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 301055</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55229</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7241700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1441982</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 55725</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6461500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 329443</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56173</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7687600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1486293</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57499</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7014100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 310794</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58836</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6259000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1455593</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7272200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 285232</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 57138</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6844400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1541468</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 56781</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7657300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 363022</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58546</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7260400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1672738</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58674</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6552200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 510549</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59489</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6583800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1391326</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 58791</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7664900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 376993</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59875</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7549800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1582415</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 60190</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7140300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 356631</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 61612</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7560700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1660132</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 62760</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6936600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 338815</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63822</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 86.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6563200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1688398</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64683</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7842200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 413108</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 66134</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7161900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1749043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 65505</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 348922</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68112</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7418000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2035575</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 67564</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 88.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7033500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 422611</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 68460</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6450700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1632914</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69212</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 92.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8047600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 317923</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70560</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 85.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6562200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1842946</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 69998</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7816400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 323391</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71599</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7349300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1861888</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72442</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7211000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 376679</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 74253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6985800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1896172</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 75852</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7618700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 393696</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7602400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1962536</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 76580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7647000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 381660</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78857</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7172100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2331507</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77399</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7285500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 431968</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 78286</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6947200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1750908</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77833</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8419800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 392949</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80350</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7788100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2035905</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7737700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 335801</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8146300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2169119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81592</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7450500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 321751</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82337</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 96.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 90.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6920000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999690</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82268</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7429400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 442303</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81901</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7915600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1875341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 81057</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8241900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 409346</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82213</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 97.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6297800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2335014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82380</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7260000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 363700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82582</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 98.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 89.300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7450000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1827988</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82813</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7182500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 351226</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83431</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7424400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1855918</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83626</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7463500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 344059</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7353100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1853324</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84144</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7467300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 252614</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84754</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6656400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1814642</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82637</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7612400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 315932</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84806</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7795500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1720065</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83289</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7844900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 395120</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 84868</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 99.1</t>
   </si>
   <si>
@@ -3023,42 +3029,42 @@
     <t xml:space="preserve"> 94022</t>
   </si>
   <si>
+    <t xml:space="preserve">14.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8772900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 277011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 94024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7901900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 93264</t>
+  </si>
+  <si>
     <t xml:space="preserve">15.0</t>
   </si>
   <si>
-    <t xml:space="preserve">124.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8772900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 277011</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 94024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7901900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 93264</t>
-  </si>
-  <si>
     <t xml:space="preserve">105.200</t>
   </si>
   <si>
@@ -3986,9 +3992,6 @@
     <t xml:space="preserve"> 95248</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8566040</t>
   </si>
   <si>
@@ -4046,9 +4049,6 @@
     <t xml:space="preserve"> 96345</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">101.5</t>
   </si>
   <si>
@@ -6620,6 +6620,9 @@
     <t xml:space="preserve">7715527650</t>
   </si>
   <si>
+    <t xml:space="preserve">118.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">167855</t>
   </si>
   <si>
@@ -6650,6 +6653,9 @@
     <t xml:space="preserve">3260000</t>
   </si>
   <si>
+    <t xml:space="preserve">7864731460</t>
+  </si>
+  <si>
     <t xml:space="preserve">122.3</t>
   </si>
   <si>
@@ -6660,6 +6666,21 @@
   </si>
   <si>
     <t xml:space="preserve"> 13.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.1</t>
   </si>
 </sst>
 </file>
@@ -8062,17 +8083,17 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K40"/>
       <c r="L40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N40"/>
       <c r="O40"/>
@@ -8081,7 +8102,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
@@ -8091,17 +8112,17 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K41"/>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N41"/>
       <c r="O41"/>
@@ -8110,7 +8131,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -8120,17 +8141,17 @@
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K42"/>
       <c r="L42" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
@@ -8139,7 +8160,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -8149,17 +8170,17 @@
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N43"/>
       <c r="O43"/>
@@ -8168,7 +8189,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
@@ -8178,17 +8199,17 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -8197,7 +8218,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
@@ -8207,17 +8228,17 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K45"/>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N45"/>
       <c r="O45"/>
@@ -8226,7 +8247,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
@@ -8236,17 +8257,17 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K46"/>
       <c r="L46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N46"/>
       <c r="O46"/>
@@ -8255,7 +8276,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -8265,17 +8286,17 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N47"/>
       <c r="O47"/>
@@ -8284,7 +8305,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
@@ -8294,17 +8315,17 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N48"/>
       <c r="O48"/>
@@ -8313,7 +8334,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -8323,17 +8344,17 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N49"/>
       <c r="O49"/>
@@ -8342,7 +8363,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -8352,17 +8373,17 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K50"/>
       <c r="L50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N50"/>
       <c r="O50"/>
@@ -8371,7 +8392,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -8381,17 +8402,17 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N51"/>
       <c r="O51"/>
@@ -8400,7 +8421,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -8410,7 +8431,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J52" t="s">
         <v>202</v>
@@ -10117,7 +10138,7 @@
       </c>
       <c r="H107"/>
       <c r="I107" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="J107" t="s">
         <v>482</v>
@@ -11305,7 +11326,7 @@
       </c>
       <c r="H143"/>
       <c r="I143" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J143" t="s">
         <v>687</v>
@@ -11965,17 +11986,17 @@
       </c>
       <c r="H163"/>
       <c r="I163" t="s">
-        <v>196</v>
+        <v>811</v>
       </c>
       <c r="J163" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K163"/>
       <c r="L163" t="s">
         <v>372</v>
       </c>
       <c r="M163" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="N163"/>
       <c r="O163"/>
@@ -11984,31 +12005,31 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E164"/>
       <c r="F164"/>
       <c r="G164" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H164"/>
       <c r="I164" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J164" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K164"/>
       <c r="L164" t="s">
         <v>540</v>
       </c>
       <c r="M164" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="N164"/>
       <c r="O164"/>
@@ -12017,21 +12038,21 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E165"/>
       <c r="F165"/>
       <c r="G165" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H165"/>
       <c r="I165" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J165" t="s">
         <v>805</v>
@@ -12041,7 +12062,7 @@
         <v>477</v>
       </c>
       <c r="M165" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N165"/>
       <c r="O165"/>
@@ -12050,31 +12071,31 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="E166"/>
       <c r="F166"/>
       <c r="G166" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H166"/>
       <c r="I166" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J166" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K166"/>
       <c r="L166" t="s">
         <v>322</v>
       </c>
       <c r="M166" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="N166"/>
       <c r="O166"/>
@@ -12083,31 +12104,31 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E167"/>
       <c r="F167"/>
       <c r="G167" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H167"/>
       <c r="I167" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="J167" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K167"/>
       <c r="L167" t="s">
         <v>677</v>
       </c>
       <c r="M167" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="N167"/>
       <c r="O167"/>
@@ -12116,31 +12137,31 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E168"/>
       <c r="F168"/>
       <c r="G168" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H168"/>
       <c r="I168" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J168" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K168"/>
       <c r="L168" t="s">
         <v>352</v>
       </c>
       <c r="M168" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="N168"/>
       <c r="O168"/>
@@ -12149,31 +12170,31 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E169"/>
       <c r="F169"/>
       <c r="G169" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H169"/>
       <c r="I169" t="s">
-        <v>140</v>
+        <v>843</v>
       </c>
       <c r="J169" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K169"/>
       <c r="L169" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="M169" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="N169"/>
       <c r="O169"/>
@@ -12182,31 +12203,31 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E170"/>
       <c r="F170"/>
       <c r="G170" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H170"/>
       <c r="I170" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J170" t="s">
         <v>785</v>
       </c>
       <c r="K170"/>
       <c r="L170" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="M170" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="N170"/>
       <c r="O170"/>
@@ -12215,31 +12236,31 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E171"/>
       <c r="F171"/>
       <c r="G171" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H171"/>
       <c r="I171" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J171" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K171"/>
       <c r="L171" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="M171" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N171"/>
       <c r="O171"/>
@@ -12248,31 +12269,31 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E172"/>
       <c r="F172"/>
       <c r="G172" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H172"/>
       <c r="I172" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J172" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="K172"/>
       <c r="L172" t="s">
         <v>769</v>
       </c>
       <c r="M172" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="N172"/>
       <c r="O172"/>
@@ -12281,31 +12302,31 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E173"/>
       <c r="F173"/>
       <c r="G173" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="H173"/>
       <c r="I173" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="J173" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="K173"/>
       <c r="L173" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="M173" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="N173"/>
       <c r="O173"/>
@@ -12314,31 +12335,31 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E174"/>
       <c r="F174"/>
       <c r="G174" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H174"/>
       <c r="I174" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J174" t="s">
         <v>785</v>
       </c>
       <c r="K174"/>
       <c r="L174" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M174" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N174"/>
       <c r="O174"/>
@@ -12347,31 +12368,31 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E175"/>
       <c r="F175"/>
       <c r="G175" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H175"/>
       <c r="I175" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J175" t="s">
         <v>785</v>
       </c>
       <c r="K175"/>
       <c r="L175" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M175" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="N175"/>
       <c r="O175"/>
@@ -12380,31 +12401,31 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H176"/>
       <c r="I176" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="J176" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K176"/>
       <c r="L176" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="M176" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N176"/>
       <c r="O176"/>
@@ -12413,31 +12434,31 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="H177"/>
       <c r="I177" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J177" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K177"/>
       <c r="L177" t="s">
         <v>793</v>
       </c>
       <c r="M177" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N177"/>
       <c r="O177"/>
@@ -12446,31 +12467,31 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E178"/>
       <c r="F178"/>
       <c r="G178" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="H178"/>
       <c r="I178" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="J178" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K178"/>
       <c r="L178" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="M178" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N178"/>
       <c r="O178"/>
@@ -12479,31 +12500,31 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="H179"/>
       <c r="I179" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J179" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K179"/>
       <c r="L179" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="M179" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N179"/>
       <c r="O179"/>
@@ -12512,31 +12533,31 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E180"/>
       <c r="F180"/>
       <c r="G180" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H180"/>
       <c r="I180" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J180" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K180"/>
       <c r="L180" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="M180" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="N180"/>
       <c r="O180"/>
@@ -12545,31 +12566,31 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E181"/>
       <c r="F181"/>
       <c r="G181" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="H181"/>
       <c r="I181" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J181" t="s">
         <v>744</v>
       </c>
       <c r="K181"/>
       <c r="L181" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="M181" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="N181"/>
       <c r="O181"/>
@@ -12578,31 +12599,31 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E182"/>
       <c r="F182"/>
       <c r="G182" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="H182"/>
       <c r="I182" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J182" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="K182"/>
       <c r="L182" t="s">
         <v>410</v>
       </c>
       <c r="M182" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="N182"/>
       <c r="O182"/>
@@ -12611,31 +12632,31 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="E183"/>
       <c r="F183"/>
       <c r="G183" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H183"/>
       <c r="I183" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="J183" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="K183"/>
       <c r="L183" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="M183" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="N183"/>
       <c r="O183"/>
@@ -12644,31 +12665,31 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E184"/>
       <c r="F184"/>
       <c r="G184" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="H184"/>
       <c r="I184" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="J184" t="s">
         <v>726</v>
       </c>
       <c r="K184"/>
       <c r="L184" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M184" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N184"/>
       <c r="O184"/>
@@ -12677,31 +12698,31 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E185"/>
       <c r="F185"/>
       <c r="G185" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="H185"/>
       <c r="I185" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J185" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K185"/>
       <c r="L185" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="M185" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="N185"/>
       <c r="O185"/>
@@ -12710,21 +12731,21 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E186"/>
       <c r="F186"/>
       <c r="G186" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="H186"/>
       <c r="I186" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J186" t="s">
         <v>732</v>
@@ -12734,7 +12755,7 @@
         <v>318</v>
       </c>
       <c r="M186" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="N186"/>
       <c r="O186"/>
@@ -12743,31 +12764,31 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E187"/>
       <c r="F187"/>
       <c r="G187" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H187"/>
       <c r="I187" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J187" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K187"/>
       <c r="L187" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M187" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="N187"/>
       <c r="O187"/>
@@ -12776,31 +12797,31 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E188"/>
       <c r="F188"/>
       <c r="G188" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H188"/>
       <c r="I188" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="J188" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K188"/>
       <c r="L188" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="M188" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="N188"/>
       <c r="O188"/>
@@ -12809,31 +12830,31 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E189"/>
       <c r="F189"/>
       <c r="G189" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H189"/>
       <c r="I189" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J189" t="s">
         <v>732</v>
       </c>
       <c r="K189"/>
       <c r="L189" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="M189" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="N189"/>
       <c r="O189"/>
@@ -12842,31 +12863,31 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E190"/>
       <c r="F190"/>
       <c r="G190" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="H190"/>
       <c r="I190" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J190" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="K190"/>
       <c r="L190" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="M190" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="N190"/>
       <c r="O190"/>
@@ -12875,31 +12896,31 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E191"/>
       <c r="F191"/>
       <c r="G191" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H191"/>
       <c r="I191" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J191" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K191"/>
       <c r="L191" t="s">
         <v>693</v>
       </c>
       <c r="M191" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="N191"/>
       <c r="O191"/>
@@ -12908,31 +12929,31 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E192"/>
       <c r="F192"/>
       <c r="G192" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="H192"/>
       <c r="I192" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J192" t="s">
         <v>726</v>
       </c>
       <c r="K192"/>
       <c r="L192" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="M192" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="N192"/>
       <c r="O192"/>
@@ -12941,31 +12962,31 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E193"/>
       <c r="F193"/>
       <c r="G193" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="H193"/>
       <c r="I193" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J193" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="K193"/>
       <c r="L193" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="M193" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="N193"/>
       <c r="O193"/>
@@ -12974,31 +12995,31 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E194"/>
       <c r="F194"/>
       <c r="G194" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H194"/>
       <c r="I194" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J194" t="s">
         <v>726</v>
       </c>
       <c r="K194"/>
       <c r="L194" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M194" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="N194"/>
       <c r="O194"/>
@@ -13007,31 +13028,31 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="E195"/>
       <c r="F195"/>
       <c r="G195" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="H195"/>
       <c r="I195" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="J195" t="s">
         <v>750</v>
       </c>
       <c r="K195"/>
       <c r="L195" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M195" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="N195"/>
       <c r="O195"/>
@@ -13040,31 +13061,31 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E196"/>
       <c r="F196"/>
       <c r="G196" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="H196"/>
       <c r="I196" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="J196" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K196"/>
       <c r="L196" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="M196" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="N196"/>
       <c r="O196"/>
@@ -13073,31 +13094,31 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="E197"/>
       <c r="F197"/>
       <c r="G197" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H197"/>
       <c r="I197" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J197" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K197"/>
       <c r="L197" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="M197" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="N197"/>
       <c r="O197"/>
@@ -13106,31 +13127,31 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E198"/>
       <c r="F198"/>
       <c r="G198" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="H198"/>
       <c r="I198" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="J198" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K198"/>
       <c r="L198" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="M198" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="N198"/>
       <c r="O198"/>
@@ -13139,31 +13160,31 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E199"/>
       <c r="F199"/>
       <c r="G199" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="H199"/>
       <c r="I199" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="J199" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K199"/>
       <c r="L199" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="M199" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="N199"/>
       <c r="O199"/>
@@ -13172,21 +13193,21 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E200"/>
       <c r="F200"/>
       <c r="G200" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="H200"/>
       <c r="I200" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J200" t="s">
         <v>762</v>
@@ -13196,7 +13217,7 @@
         <v>786</v>
       </c>
       <c r="M200" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="N200"/>
       <c r="O200"/>
@@ -13205,31 +13226,31 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="E201"/>
       <c r="F201"/>
       <c r="G201" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="H201"/>
       <c r="I201" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J201" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K201"/>
       <c r="L201" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="M201" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="N201"/>
       <c r="O201"/>
@@ -13238,31 +13259,31 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="E202"/>
       <c r="F202"/>
       <c r="G202" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="H202"/>
       <c r="I202" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J202" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="K202"/>
       <c r="L202" t="s">
         <v>517</v>
       </c>
       <c r="M202" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="N202"/>
       <c r="O202"/>
@@ -13271,31 +13292,31 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H203"/>
       <c r="I203" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J203" t="s">
         <v>774</v>
       </c>
       <c r="K203"/>
       <c r="L203" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="M203" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="N203"/>
       <c r="O203"/>
@@ -13304,31 +13325,31 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E204"/>
       <c r="F204"/>
       <c r="G204" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="H204"/>
       <c r="I204" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="J204" t="s">
         <v>774</v>
       </c>
       <c r="K204"/>
       <c r="L204" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="M204" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="N204"/>
       <c r="O204"/>
@@ -13337,33 +13358,33 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E205"/>
       <c r="F205"/>
       <c r="G205" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="H205"/>
       <c r="I205" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="J205" t="s">
         <v>768</v>
       </c>
       <c r="K205" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="L205" t="s">
         <v>786</v>
       </c>
       <c r="M205" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="N205"/>
       <c r="O205"/>
@@ -13372,33 +13393,33 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H206"/>
       <c r="I206" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J206" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="K206" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="L206" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M206" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="N206"/>
       <c r="O206"/>
@@ -13407,33 +13428,33 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E207"/>
       <c r="F207"/>
       <c r="G207" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="H207"/>
       <c r="I207" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="J207" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="K207" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="L207" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="M207" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="N207"/>
       <c r="O207"/>
@@ -13442,33 +13463,33 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="E208"/>
       <c r="F208"/>
       <c r="G208" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="H208"/>
       <c r="I208" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="J208" t="s">
         <v>798</v>
       </c>
       <c r="K208" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="L208" t="s">
         <v>585</v>
       </c>
       <c r="M208" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="N208"/>
       <c r="O208"/>
@@ -13477,33 +13498,33 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E209"/>
       <c r="F209"/>
       <c r="G209" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="H209"/>
       <c r="I209" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="J209" t="s">
         <v>798</v>
       </c>
       <c r="K209" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L209" t="s">
         <v>303</v>
       </c>
       <c r="M209" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="N209"/>
       <c r="O209"/>
@@ -13512,21 +13533,21 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E210"/>
       <c r="F210"/>
       <c r="G210" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H210"/>
       <c r="I210" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J210" t="s">
         <v>798</v>
@@ -13535,10 +13556,10 @@
         <v>768</v>
       </c>
       <c r="L210" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="M210" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="N210"/>
       <c r="O210"/>
@@ -13547,33 +13568,33 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E211"/>
       <c r="F211"/>
       <c r="G211" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H211"/>
       <c r="I211" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J211" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="K211" t="s">
         <v>774</v>
       </c>
       <c r="L211" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="M211" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="N211"/>
       <c r="O211"/>
@@ -13582,33 +13603,33 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E212"/>
       <c r="F212"/>
       <c r="G212" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="H212"/>
       <c r="I212" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J212" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K212" t="s">
         <v>774</v>
       </c>
       <c r="L212" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="M212" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="N212"/>
       <c r="O212"/>
@@ -13617,33 +13638,33 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E213"/>
       <c r="F213"/>
       <c r="G213" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="H213"/>
       <c r="I213" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="J213" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K213" t="s">
         <v>785</v>
       </c>
       <c r="L213" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="M213" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="N213"/>
       <c r="O213"/>
@@ -13652,33 +13673,33 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E214"/>
       <c r="F214"/>
       <c r="G214" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="H214"/>
       <c r="I214" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J214" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K214" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="L214" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="M214" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="N214"/>
       <c r="O214"/>
@@ -13687,33 +13708,33 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E215"/>
       <c r="F215"/>
       <c r="G215" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="H215"/>
       <c r="I215" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="J215" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K215" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="L215" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="M215" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="N215"/>
       <c r="O215"/>
@@ -13722,33 +13743,33 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E216"/>
       <c r="F216"/>
       <c r="G216" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H216"/>
       <c r="I216" t="s">
-        <v>1003</v>
+        <v>1016</v>
       </c>
       <c r="J216" t="s">
         <v>792</v>
       </c>
       <c r="K216" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="L216" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="M216" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="N216"/>
       <c r="O216"/>
@@ -13757,33 +13778,33 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E217"/>
       <c r="F217"/>
       <c r="G217" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="H217"/>
       <c r="I217" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="J217" t="s">
         <v>798</v>
       </c>
       <c r="K217" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L217" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="M217" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="N217"/>
       <c r="O217"/>
@@ -13792,33 +13813,33 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="E218"/>
       <c r="F218"/>
       <c r="G218" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="H218"/>
       <c r="I218" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="J218" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="K218" t="s">
         <v>750</v>
       </c>
       <c r="L218" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="M218" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="N218"/>
       <c r="O218"/>
@@ -13827,33 +13848,33 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="E219"/>
       <c r="F219"/>
       <c r="G219" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="H219"/>
       <c r="I219" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="J219" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K219" t="s">
         <v>768</v>
       </c>
       <c r="L219" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="M219" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="N219"/>
       <c r="O219"/>
@@ -13862,33 +13883,33 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E220"/>
       <c r="F220"/>
       <c r="G220" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H220"/>
       <c r="I220" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J220" t="s">
         <v>805</v>
       </c>
       <c r="K220" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L220" t="s">
         <v>637</v>
       </c>
       <c r="M220" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="N220"/>
       <c r="O220"/>
@@ -13897,33 +13918,33 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="E221"/>
       <c r="F221"/>
       <c r="G221" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="H221"/>
       <c r="I221" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J221" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K221" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="L221" t="s">
         <v>348</v>
       </c>
       <c r="M221" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="N221"/>
       <c r="O221"/>
@@ -13932,33 +13953,33 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E222"/>
       <c r="F222"/>
       <c r="G222" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="H222"/>
       <c r="I222" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="J222" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K222" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L222" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="M222" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="N222"/>
       <c r="O222"/>
@@ -13967,33 +13988,33 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E223"/>
       <c r="F223"/>
       <c r="G223" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="H223"/>
       <c r="I223" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="J223" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K223" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="L223" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="M223" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="N223"/>
       <c r="O223"/>
@@ -14002,33 +14023,33 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="E224"/>
       <c r="F224"/>
       <c r="G224" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="H224"/>
       <c r="I224" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="J224" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K224" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L224" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="M224" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="N224"/>
       <c r="O224"/>
@@ -14037,21 +14058,21 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E225"/>
       <c r="F225"/>
       <c r="G225" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H225"/>
       <c r="I225" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="J225" t="s">
         <v>805</v>
@@ -14060,10 +14081,10 @@
         <v>785</v>
       </c>
       <c r="L225" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="M225" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="N225"/>
       <c r="O225"/>
@@ -14072,33 +14093,33 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="E226"/>
       <c r="F226"/>
       <c r="G226" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="H226"/>
       <c r="I226" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="J226" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K226" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L226" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="M226" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="N226"/>
       <c r="O226"/>
@@ -14107,33 +14128,33 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E227"/>
       <c r="F227"/>
       <c r="G227" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H227"/>
       <c r="I227" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J227" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K227" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L227" t="s">
         <v>739</v>
       </c>
       <c r="M227" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="N227"/>
       <c r="O227"/>
@@ -14142,33 +14163,33 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E228"/>
       <c r="F228"/>
       <c r="G228" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="H228"/>
       <c r="I228" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="J228" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K228" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="L228" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="M228" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="N228"/>
       <c r="O228"/>
@@ -14177,33 +14198,33 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="E229"/>
       <c r="F229"/>
       <c r="G229" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="H229"/>
       <c r="I229" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="J229" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K229" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="L229" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="M229" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="N229"/>
       <c r="O229"/>
@@ -14212,33 +14233,33 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="E230"/>
       <c r="F230"/>
       <c r="G230" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="H230"/>
       <c r="I230" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J230" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K230" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="L230" t="s">
         <v>449</v>
       </c>
       <c r="M230" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="N230"/>
       <c r="O230"/>
@@ -14247,33 +14268,33 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E231"/>
       <c r="F231"/>
       <c r="G231" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="H231"/>
       <c r="I231" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J231" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K231" t="s">
         <v>785</v>
       </c>
       <c r="L231" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="M231" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="N231"/>
       <c r="O231"/>
@@ -14282,33 +14303,33 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="E232"/>
       <c r="F232"/>
       <c r="G232" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="H232"/>
       <c r="I232" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J232" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K232" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L232" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="M232" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="N232"/>
       <c r="O232"/>
@@ -14317,33 +14338,33 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="E233"/>
       <c r="F233"/>
       <c r="G233" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="H233"/>
       <c r="I233" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="J233" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K233" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="L233" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M233" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="N233"/>
       <c r="O233"/>
@@ -14352,33 +14373,33 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E234"/>
       <c r="F234"/>
       <c r="G234" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="H234"/>
       <c r="I234" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="J234" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K234" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L234" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="M234" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="N234"/>
       <c r="O234"/>
@@ -14387,33 +14408,33 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="E235"/>
       <c r="F235"/>
       <c r="G235" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="H235"/>
       <c r="I235" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="J235" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K235" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L235" t="s">
         <v>698</v>
       </c>
       <c r="M235" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="N235"/>
       <c r="O235"/>
@@ -14422,33 +14443,33 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E236"/>
       <c r="F236"/>
       <c r="G236" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="H236"/>
       <c r="I236" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="J236" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K236" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L236" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="M236" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="N236"/>
       <c r="O236"/>
@@ -14457,33 +14478,33 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="E237"/>
       <c r="F237"/>
       <c r="G237" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="H237"/>
       <c r="I237" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="J237" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K237" t="s">
         <v>798</v>
       </c>
       <c r="L237" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="M237" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="N237"/>
       <c r="O237"/>
@@ -14492,33 +14513,33 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="E238"/>
       <c r="F238"/>
       <c r="G238" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="H238"/>
       <c r="I238" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="J238" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K238" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="L238" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="M238" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="N238"/>
       <c r="O238"/>
@@ -14527,33 +14548,33 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="E239"/>
       <c r="F239"/>
       <c r="G239" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="H239"/>
       <c r="I239" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="J239" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="K239" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="L239" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M239" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="N239"/>
       <c r="O239"/>
@@ -14562,33 +14583,33 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="E240"/>
       <c r="F240"/>
       <c r="G240" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="H240"/>
       <c r="I240" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J240" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="K240" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="L240" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="M240" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="N240"/>
       <c r="O240"/>
@@ -14597,33 +14618,33 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="E241"/>
       <c r="F241"/>
       <c r="G241" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="H241"/>
       <c r="I241" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J241" t="s">
         <v>798</v>
       </c>
       <c r="K241" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="L241" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="M241" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="N241"/>
       <c r="O241"/>
@@ -14632,33 +14653,33 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E242"/>
       <c r="F242"/>
       <c r="G242" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="H242"/>
       <c r="I242" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="J242" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K242" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="L242" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="M242" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="N242"/>
       <c r="O242"/>
@@ -14667,21 +14688,21 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="E243"/>
       <c r="F243"/>
       <c r="G243" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="H243"/>
       <c r="I243" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="J243" t="s">
         <v>792</v>
@@ -14690,10 +14711,10 @@
         <v>792</v>
       </c>
       <c r="L243" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="M243" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="N243"/>
       <c r="O243"/>
@@ -14702,33 +14723,33 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E244"/>
       <c r="F244"/>
       <c r="G244" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="H244"/>
       <c r="I244" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="J244" t="s">
         <v>805</v>
       </c>
       <c r="K244" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L244" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="M244" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="N244"/>
       <c r="O244"/>
@@ -14737,33 +14758,33 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="E245"/>
       <c r="F245"/>
       <c r="G245" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="H245"/>
       <c r="I245" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="J245" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K245" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="L245" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="M245" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="N245"/>
       <c r="O245"/>
@@ -14772,33 +14793,33 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E246"/>
       <c r="F246"/>
       <c r="G246" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="H246"/>
       <c r="I246" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J246" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K246" t="s">
         <v>805</v>
       </c>
       <c r="L246" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="M246" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="N246"/>
       <c r="O246"/>
@@ -14807,33 +14828,33 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E247"/>
       <c r="F247"/>
       <c r="G247" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="H247"/>
       <c r="I247" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="J247" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K247" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L247" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="M247" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="N247"/>
       <c r="O247"/>
@@ -14842,33 +14863,33 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="E248"/>
       <c r="F248"/>
       <c r="G248" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="H248"/>
       <c r="I248" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="J248" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="K248" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L248" t="s">
         <v>488</v>
       </c>
       <c r="M248" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="N248"/>
       <c r="O248"/>
@@ -14877,33 +14898,33 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E249"/>
       <c r="F249"/>
       <c r="G249" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="H249"/>
       <c r="I249" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="J249" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K249" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L249" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="M249" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="N249"/>
       <c r="O249"/>
@@ -14912,33 +14933,33 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E250"/>
       <c r="F250"/>
       <c r="G250" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="H250"/>
       <c r="I250" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="J250" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K250" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="L250" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="M250" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="N250"/>
       <c r="O250"/>
@@ -14947,33 +14968,33 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="E251"/>
       <c r="F251"/>
       <c r="G251" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="H251"/>
       <c r="I251" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="J251" t="s">
         <v>805</v>
       </c>
       <c r="K251" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L251" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="M251" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="N251"/>
       <c r="O251"/>
@@ -14982,33 +15003,33 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="E252"/>
       <c r="F252"/>
       <c r="G252" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="H252"/>
       <c r="I252" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="J252" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K252" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L252" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="M252" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="N252"/>
       <c r="O252"/>
@@ -15017,33 +15038,33 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E253"/>
       <c r="F253"/>
       <c r="G253" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="H253"/>
       <c r="I253" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="J253" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K253" t="s">
         <v>805</v>
       </c>
       <c r="L253" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="M253" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="N253"/>
       <c r="O253"/>
@@ -15052,33 +15073,33 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="E254"/>
       <c r="F254"/>
       <c r="G254" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="H254"/>
       <c r="I254" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="J254" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="K254" t="s">
         <v>792</v>
       </c>
       <c r="L254" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="M254" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="N254"/>
       <c r="O254"/>
@@ -15087,33 +15108,33 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="E255"/>
       <c r="F255"/>
       <c r="G255" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="H255"/>
       <c r="I255" t="s">
-        <v>1324</v>
+        <v>140</v>
       </c>
       <c r="J255" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="K255" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L255" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="M255" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="N255"/>
       <c r="O255"/>
@@ -15122,33 +15143,33 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E256"/>
       <c r="F256"/>
       <c r="G256" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H256"/>
       <c r="I256" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J256" t="s">
         <v>798</v>
       </c>
       <c r="K256" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L256" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="M256" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="N256"/>
       <c r="O256"/>
@@ -15157,33 +15178,33 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E257"/>
       <c r="F257"/>
       <c r="G257" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H257"/>
       <c r="I257" t="s">
         <v>140</v>
       </c>
       <c r="J257" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="K257" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L257" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="M257" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="N257"/>
       <c r="O257"/>
@@ -15192,33 +15213,33 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E258"/>
       <c r="F258"/>
       <c r="G258" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="H258"/>
       <c r="I258" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J258" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K258" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L258" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M258" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="N258"/>
       <c r="O258"/>
@@ -15227,24 +15248,24 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E259"/>
       <c r="F259"/>
       <c r="G259" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H259"/>
       <c r="I259" t="s">
-        <v>1344</v>
+        <v>136</v>
       </c>
       <c r="J259" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="K259" t="s">
         <v>1345</v>
@@ -15276,10 +15297,10 @@
       </c>
       <c r="H260"/>
       <c r="I260" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="J260" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K260" t="s">
         <v>1351</v>
@@ -15314,7 +15335,7 @@
         <v>1356</v>
       </c>
       <c r="J261" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K261" t="s">
         <v>1351</v>
@@ -15346,7 +15367,7 @@
       </c>
       <c r="H262"/>
       <c r="I262" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J262" t="s">
         <v>805</v>
@@ -15355,7 +15376,7 @@
         <v>1362</v>
       </c>
       <c r="L262" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="M262" t="s">
         <v>1363</v>
@@ -15384,10 +15405,10 @@
         <v>1367</v>
       </c>
       <c r="J263" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="K263" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L263" t="s">
         <v>1368</v>
@@ -15457,7 +15478,7 @@
         <v>798</v>
       </c>
       <c r="K265" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="L265" t="s">
         <v>1380</v>
@@ -15486,13 +15507,13 @@
       </c>
       <c r="H266"/>
       <c r="I266" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J266" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="K266" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="L266" t="s">
         <v>1385</v>
@@ -15527,7 +15548,7 @@
         <v>798</v>
       </c>
       <c r="K267" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="L267" t="s">
         <v>1391</v>
@@ -15562,7 +15583,7 @@
         <v>805</v>
       </c>
       <c r="K268" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L268" t="s">
         <v>1397</v>
@@ -15594,10 +15615,10 @@
         <v>1402</v>
       </c>
       <c r="J269" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K269" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L269" t="s">
         <v>1403</v>
@@ -15626,10 +15647,10 @@
       </c>
       <c r="H270"/>
       <c r="I270" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J270" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K270" t="s">
         <v>1362</v>
@@ -15661,13 +15682,13 @@
       </c>
       <c r="H271"/>
       <c r="I271" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J271" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K271" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L271" t="s">
         <v>1375</v>
@@ -15699,7 +15720,7 @@
         <v>1417</v>
       </c>
       <c r="J272" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K272" t="s">
         <v>1418</v>
@@ -15731,10 +15752,10 @@
       </c>
       <c r="H273"/>
       <c r="I273" t="s">
-        <v>182</v>
+        <v>1417</v>
       </c>
       <c r="J273" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K273" t="s">
         <v>1424</v>
@@ -15769,7 +15790,7 @@
         <v>1417</v>
       </c>
       <c r="J274" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="K274" t="s">
         <v>1362</v>
@@ -15801,13 +15822,13 @@
       </c>
       <c r="H275"/>
       <c r="I275" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J275" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="K275" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L275" t="s">
         <v>1435</v>
@@ -15836,13 +15857,13 @@
       </c>
       <c r="H276"/>
       <c r="I276" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J276" t="s">
         <v>805</v>
       </c>
       <c r="K276" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="L276" t="s">
         <v>1440</v>
@@ -15871,13 +15892,13 @@
       </c>
       <c r="H277"/>
       <c r="I277" t="s">
-        <v>196</v>
+        <v>811</v>
       </c>
       <c r="J277" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="K277" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L277" t="s">
         <v>1445</v>
@@ -15909,10 +15930,10 @@
         <v>206</v>
       </c>
       <c r="J278" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="K278" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="L278" t="s">
         <v>1450</v>
@@ -15944,10 +15965,10 @@
         <v>804</v>
       </c>
       <c r="J279" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="K279" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="L279" t="s">
         <v>1455</v>
@@ -15979,10 +16000,10 @@
         <v>215</v>
       </c>
       <c r="J280" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="K280" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="L280" t="s">
         <v>1460</v>
@@ -16014,10 +16035,10 @@
         <v>804</v>
       </c>
       <c r="J281" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K281" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L281" t="s">
         <v>1465</v>
@@ -16049,7 +16070,7 @@
         <v>804</v>
       </c>
       <c r="J282" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="K282" t="s">
         <v>1470</v>
@@ -16087,7 +16108,7 @@
         <v>1470</v>
       </c>
       <c r="K283" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L283" t="s">
         <v>1476</v>
@@ -16227,7 +16248,7 @@
         <v>1494</v>
       </c>
       <c r="K287" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="L287" t="s">
         <v>1500</v>
@@ -16259,10 +16280,10 @@
         <v>1481</v>
       </c>
       <c r="J288" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K288" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L288" t="s">
         <v>1505</v>
@@ -16297,7 +16318,7 @@
         <v>1362</v>
       </c>
       <c r="K289" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="L289" t="s">
         <v>1510</v>
@@ -16334,7 +16355,7 @@
         <v>805</v>
       </c>
       <c r="K290" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="L290" t="s">
         <v>1516</v>
@@ -16368,7 +16389,7 @@
         <v>249</v>
       </c>
       <c r="J291" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K291" t="s">
         <v>1470</v>
@@ -16698,7 +16719,7 @@
         <v>1579</v>
       </c>
       <c r="I300" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J300" t="s">
         <v>1424</v>
@@ -16778,7 +16799,7 @@
         <v>1418</v>
       </c>
       <c r="K302" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="L302" t="s">
         <v>1592</v>
@@ -17031,7 +17052,7 @@
         <v>1634</v>
       </c>
       <c r="I309" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J309" t="s">
         <v>1494</v>
@@ -17071,7 +17092,7 @@
         <v>1390</v>
       </c>
       <c r="J310" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K310" t="s">
         <v>1482</v>
@@ -17105,13 +17126,13 @@
         <v>1646</v>
       </c>
       <c r="I311" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J311" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="K311" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="L311" t="s">
         <v>1647</v>
@@ -17142,10 +17163,10 @@
         <v>1652</v>
       </c>
       <c r="I312" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J312" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="K312" t="s">
         <v>1470</v>
@@ -17179,10 +17200,10 @@
         <v>1658</v>
       </c>
       <c r="I313" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J313" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="K313" t="s">
         <v>1482</v>
@@ -17206,7 +17227,7 @@
         <v>1662</v>
       </c>
       <c r="C314" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D314" t="s">
         <v>1663</v>
@@ -17265,7 +17286,7 @@
         <v>1675</v>
       </c>
       <c r="I315" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J315" t="s">
         <v>1351</v>
@@ -17308,7 +17329,7 @@
         <v>1683</v>
       </c>
       <c r="I316" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J316" t="s">
         <v>1622</v>
@@ -17418,7 +17439,7 @@
         <v>1706</v>
       </c>
       <c r="B319" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C319" t="s">
         <v>1707</v>
@@ -17437,7 +17458,7 @@
         <v>1711</v>
       </c>
       <c r="I319" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J319" t="s">
         <v>1712</v>
@@ -17464,7 +17485,7 @@
         <v>1716</v>
       </c>
       <c r="C320" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="D320" t="s">
         <v>1717</v>
@@ -17504,10 +17525,10 @@
         <v>1724</v>
       </c>
       <c r="B321" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="C321" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="D321" t="s">
         <v>1725</v>
@@ -17547,7 +17568,7 @@
         <v>1732</v>
       </c>
       <c r="B322" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C322" t="s">
         <v>1534</v>
@@ -17590,7 +17611,7 @@
         <v>1741</v>
       </c>
       <c r="B323" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C323" t="s">
         <v>1742</v>
@@ -17729,7 +17750,7 @@
       </c>
       <c r="E326"/>
       <c r="F326" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="G326" t="s">
         <v>1772</v>
@@ -17910,7 +17931,7 @@
         <v>1811</v>
       </c>
       <c r="I330" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J330" t="s">
         <v>1812</v>
@@ -17980,7 +18001,7 @@
         <v>1827</v>
       </c>
       <c r="C332" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="D332" t="s">
         <v>1828</v>
@@ -18082,7 +18103,7 @@
         <v>1847</v>
       </c>
       <c r="I334" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="J334" t="s">
         <v>1840</v>
@@ -18106,7 +18127,7 @@
         <v>1850</v>
       </c>
       <c r="B335" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="C335" t="s">
         <v>1755</v>
@@ -18127,7 +18148,7 @@
         <v>1854</v>
       </c>
       <c r="I335" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J335" t="s">
         <v>1855</v>
@@ -18514,7 +18535,7 @@
         <v>1937</v>
       </c>
       <c r="C344" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D344" t="s">
         <v>1941</v>
@@ -18622,7 +18643,7 @@
         <v>1961</v>
       </c>
       <c r="I346" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J346" t="s">
         <v>1962</v>
@@ -18667,7 +18688,7 @@
         <v>1969</v>
       </c>
       <c r="I347" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J347" t="s">
         <v>1970</v>
@@ -18712,7 +18733,7 @@
         <v>1980</v>
       </c>
       <c r="I348" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J348" t="s">
         <v>1936</v>
@@ -18757,7 +18778,7 @@
         <v>1990</v>
       </c>
       <c r="I349" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J349" t="s">
         <v>1991</v>
@@ -18802,7 +18823,7 @@
         <v>2000</v>
       </c>
       <c r="I350" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J350" t="s">
         <v>1914</v>
@@ -18921,7 +18942,7 @@
         <v>2026</v>
       </c>
       <c r="N352" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="O352" t="s">
         <v>2027</v>
@@ -18974,7 +18995,7 @@
         <v>2039</v>
       </c>
       <c r="N353" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="O353" t="s">
         <v>2040</v>
@@ -19033,7 +19054,7 @@
         <v>2053</v>
       </c>
       <c r="P354" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q354" t="s">
         <v>2054</v>
@@ -19080,7 +19101,7 @@
         <v>2063</v>
       </c>
       <c r="N355" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="O355" t="s">
         <v>2064</v>
@@ -19100,7 +19121,7 @@
         <v>2068</v>
       </c>
       <c r="C356" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="D356" t="s">
         <v>2069</v>
@@ -19133,13 +19154,13 @@
         <v>2076</v>
       </c>
       <c r="N356" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="O356" t="s">
         <v>2077</v>
       </c>
       <c r="P356" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="Q356" t="s">
         <v>2078</v>
@@ -19186,7 +19207,7 @@
         <v>2088</v>
       </c>
       <c r="N357" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="O357" t="s">
         <v>2089</v>
@@ -19224,7 +19245,7 @@
         <v>2098</v>
       </c>
       <c r="I358" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J358" t="s">
         <v>1962</v>
@@ -19239,13 +19260,13 @@
         <v>2101</v>
       </c>
       <c r="N358" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="O358" t="s">
         <v>2102</v>
       </c>
       <c r="P358" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="Q358" t="s">
         <v>2103</v>
@@ -19256,7 +19277,7 @@
         <v>2104</v>
       </c>
       <c r="B359" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C359" t="s">
         <v>2105</v>
@@ -19277,7 +19298,7 @@
         <v>2110</v>
       </c>
       <c r="I359" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="J359" t="s">
         <v>2111</v>
@@ -19292,13 +19313,13 @@
         <v>2114</v>
       </c>
       <c r="N359" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="O359" t="s">
         <v>2115</v>
       </c>
       <c r="P359" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="Q359" t="s">
         <v>2116</v>
@@ -19330,7 +19351,7 @@
         <v>2122</v>
       </c>
       <c r="I360" t="s">
-        <v>289</v>
+        <v>346</v>
       </c>
       <c r="J360" t="s">
         <v>2123</v>
@@ -19436,7 +19457,7 @@
         <v>2149</v>
       </c>
       <c r="I362" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J362" t="s">
         <v>1954</v>
@@ -19455,7 +19476,7 @@
       </c>
       <c r="O362"/>
       <c r="P362" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q362" t="s">
         <v>528</v>
@@ -19487,7 +19508,7 @@
         <v>2160</v>
       </c>
       <c r="I363" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J363" t="s">
         <v>2061</v>
@@ -19551,13 +19572,13 @@
         <v>2173</v>
       </c>
       <c r="N364" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="O364" t="s">
         <v>2174</v>
       </c>
       <c r="P364" t="s">
-        <v>1324</v>
+        <v>140</v>
       </c>
       <c r="Q364" t="s">
         <v>2175</v>
@@ -19604,7 +19625,7 @@
         <v>2184</v>
       </c>
       <c r="N365" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="O365" t="s">
         <v>2185</v>
@@ -19686,13 +19707,13 @@
         <v>2201</v>
       </c>
       <c r="F367" t="s">
-        <v>2068</v>
+        <v>2202</v>
       </c>
       <c r="G367" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="H367" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="I367" t="s">
         <v>272</v>
@@ -19704,63 +19725,102 @@
         <v>2049</v>
       </c>
       <c r="L367" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="M367" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="N367" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="O367" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="P367" t="s">
         <v>1417</v>
       </c>
       <c r="Q367" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B368" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="C368" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D368" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E368"/>
-      <c r="F368"/>
+        <v>2212</v>
+      </c>
+      <c r="E368" t="s">
+        <v>2213</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1945</v>
+      </c>
       <c r="G368"/>
       <c r="H368"/>
       <c r="I368" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="J368" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="K368" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="L368"/>
       <c r="M368"/>
       <c r="N368" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2215</v>
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B369"/>
+      <c r="C369"/>
+      <c r="D369"/>
+      <c r="E369"/>
+      <c r="F369"/>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369" t="s">
+        <v>261</v>
+      </c>
+      <c r="J369" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K369" t="s">
+        <v>2220</v>
+      </c>
+      <c r="L369"/>
+      <c r="M369"/>
+      <c r="N369" t="s">
+        <v>826</v>
+      </c>
+      <c r="O369" t="s">
+        <v>2221</v>
+      </c>
+      <c r="P369" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="2225">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -5609,7 +5609,7 @@
     <t xml:space="preserve">146914</t>
   </si>
   <si>
-    <t xml:space="preserve">2405800</t>
+    <t xml:space="preserve">2405900</t>
   </si>
   <si>
     <t xml:space="preserve">115.5</t>
@@ -6344,7 +6344,7 @@
     <t xml:space="preserve">161060</t>
   </si>
   <si>
-    <t xml:space="preserve">2505700</t>
+    <t xml:space="preserve">2505800</t>
   </si>
   <si>
     <t xml:space="preserve">119.6</t>
@@ -6590,7 +6590,7 @@
     <t xml:space="preserve">167342</t>
   </si>
   <si>
-    <t xml:space="preserve">2559400</t>
+    <t xml:space="preserve">2561900</t>
   </si>
   <si>
     <t xml:space="preserve">326.348</t>
@@ -6626,7 +6626,7 @@
     <t xml:space="preserve">167855</t>
   </si>
   <si>
-    <t xml:space="preserve">2560000</t>
+    <t xml:space="preserve">2567400</t>
   </si>
   <si>
     <t xml:space="preserve">244.931</t>
@@ -6656,6 +6656,9 @@
     <t xml:space="preserve">7864731460</t>
   </si>
   <si>
+    <t xml:space="preserve">2551500</t>
+  </si>
+  <si>
     <t xml:space="preserve">122.3</t>
   </si>
   <si>
@@ -6669,6 +6672,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 381000</t>
   </si>
   <si>
     <t xml:space="preserve">122.8</t>
@@ -19763,15 +19769,17 @@
         <v>1945</v>
       </c>
       <c r="G368"/>
-      <c r="H368"/>
+      <c r="H368" t="s">
+        <v>2214</v>
+      </c>
       <c r="I368" t="s">
         <v>255</v>
       </c>
       <c r="J368" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="K368" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="L368"/>
       <c r="M368"/>
@@ -19779,22 +19787,24 @@
         <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B369"/>
       <c r="C369"/>
-      <c r="D369"/>
+      <c r="D369" t="s">
+        <v>2220</v>
+      </c>
       <c r="E369"/>
       <c r="F369"/>
       <c r="G369"/>
@@ -19803,10 +19813,10 @@
         <v>261</v>
       </c>
       <c r="J369" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="K369" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -19814,13 +19824,13 @@
         <v>826</v>
       </c>
       <c r="O369" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="P369" t="s">
         <v>284</v>
       </c>
       <c r="Q369" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="2225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="2227">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6467,10 +6467,10 @@
     <t xml:space="preserve">116.3</t>
   </si>
   <si>
-    <t xml:space="preserve">351.638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25880468</t>
+    <t xml:space="preserve">338.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24901940</t>
   </si>
   <si>
     <t xml:space="preserve">21.3</t>
@@ -6629,10 +6629,10 @@
     <t xml:space="preserve">2567400</t>
   </si>
   <si>
-    <t xml:space="preserve">244.931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17527957</t>
+    <t xml:space="preserve">241.693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17297946</t>
   </si>
   <si>
     <t xml:space="preserve"> 238</t>
@@ -6663,6 +6663,12 @@
   </si>
   <si>
     <t xml:space="preserve">119.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241.410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17233902</t>
   </si>
   <si>
     <t xml:space="preserve"> 205</t>
@@ -19781,29 +19787,33 @@
       <c r="K368" t="s">
         <v>2216</v>
       </c>
-      <c r="L368"/>
-      <c r="M368"/>
+      <c r="L368" t="s">
+        <v>2217</v>
+      </c>
+      <c r="M368" t="s">
+        <v>2218</v>
+      </c>
       <c r="N368" t="s">
         <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="E369"/>
       <c r="F369"/>
@@ -19813,10 +19823,10 @@
         <v>261</v>
       </c>
       <c r="J369" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="K369" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -19824,13 +19834,13 @@
         <v>826</v>
       </c>
       <c r="O369" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="P369" t="s">
         <v>284</v>
       </c>
       <c r="Q369" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="2228">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6654,6 +6654,9 @@
   </si>
   <si>
     <t xml:space="preserve">7864731460</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168918</t>
   </si>
   <si>
     <t xml:space="preserve">2551500</t>
@@ -19774,46 +19777,48 @@
       <c r="F368" t="s">
         <v>1945</v>
       </c>
-      <c r="G368"/>
+      <c r="G368" t="s">
+        <v>2214</v>
+      </c>
       <c r="H368" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="I368" t="s">
         <v>255</v>
       </c>
       <c r="J368" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="K368" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="L368" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="M368" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="N368" t="s">
         <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="B369"/>
       <c r="C369"/>
       <c r="D369" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E369"/>
       <c r="F369"/>
@@ -19823,10 +19828,10 @@
         <v>261</v>
       </c>
       <c r="J369" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="K369" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="L369"/>
       <c r="M369"/>
@@ -19834,13 +19839,13 @@
         <v>826</v>
       </c>
       <c r="O369" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="P369" t="s">
         <v>284</v>
       </c>
       <c r="Q369" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6647,9 +6647,6 @@
     <t xml:space="preserve">122.0</t>
   </si>
   <si>
-    <t xml:space="preserve">103.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">3260000</t>
   </si>
   <si>
@@ -6681,6 +6678,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.9</t>
   </si>
   <si>
     <t xml:space="preserve"> 381000</t>
@@ -19766,57 +19766,61 @@
         <v>2210</v>
       </c>
       <c r="C368" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D368" t="s">
         <v>2211</v>
       </c>
-      <c r="D368" t="s">
+      <c r="E368" t="s">
         <v>2212</v>
-      </c>
-      <c r="E368" t="s">
-        <v>2213</v>
       </c>
       <c r="F368" t="s">
         <v>1945</v>
       </c>
       <c r="G368" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H368" t="s">
         <v>2214</v>
-      </c>
-      <c r="H368" t="s">
-        <v>2215</v>
       </c>
       <c r="I368" t="s">
         <v>255</v>
       </c>
       <c r="J368" t="s">
+        <v>2215</v>
+      </c>
+      <c r="K368" t="s">
         <v>2216</v>
       </c>
-      <c r="K368" t="s">
+      <c r="L368" t="s">
         <v>2217</v>
       </c>
-      <c r="L368" t="s">
+      <c r="M368" t="s">
         <v>2218</v>
-      </c>
-      <c r="M368" t="s">
-        <v>2219</v>
       </c>
       <c r="N368" t="s">
         <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B369" t="s">
         <v>2222</v>
       </c>
-      <c r="B369"/>
-      <c r="C369"/>
+      <c r="C369" t="s">
+        <v>1787</v>
+      </c>
       <c r="D369" t="s">
         <v>2223</v>
       </c>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="2228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="2243">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -5006,6 +5006,9 @@
     <t xml:space="preserve">2358553</t>
   </si>
   <si>
+    <t xml:space="preserve"> 83.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">131232</t>
   </si>
   <si>
@@ -5084,33 +5087,36 @@
     <t xml:space="preserve"> 198197</t>
   </si>
   <si>
+    <t xml:space="preserve"> 92.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1979800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">176.800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12289084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 95.5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 92.3</t>
   </si>
   <si>
-    <t xml:space="preserve">135596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1979800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">176.800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12289084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 95.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">2296065</t>
   </si>
   <si>
@@ -5141,7 +5147,7 @@
     <t xml:space="preserve"> 225129</t>
   </si>
   <si>
-    <t xml:space="preserve">104.1</t>
+    <t xml:space="preserve">103.9</t>
   </si>
   <si>
     <t xml:space="preserve">136830</t>
@@ -5216,7 +5222,7 @@
     <t xml:space="preserve">2622796</t>
   </si>
   <si>
-    <t xml:space="preserve">108.6</t>
+    <t xml:space="preserve">108.5</t>
   </si>
   <si>
     <t xml:space="preserve">139350</t>
@@ -5246,1389 +5252,1401 @@
     <t xml:space="preserve"> 168922</t>
   </si>
   <si>
+    <t xml:space="preserve">110.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2249200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14958220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2579507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2262000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208.200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15623833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2270800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">175.600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13053517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3107722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2271900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16065483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 260849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2274800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214.516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15867496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2482287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">142345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2305800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">284.070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20266837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 191664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2328300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235.030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17207883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17914293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 115680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2380300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">241.495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17712065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2794045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2376900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201.585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14906751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 275943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2381100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19386995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3124333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">147174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2396000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">257.820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19433972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 177730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5067504043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2386800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17565534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3078177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5453660484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2405900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">110.2</t>
   </si>
   <si>
-    <t xml:space="preserve">140499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2249200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14958220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2579507</t>
+    <t xml:space="preserve">218.120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17131231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  62707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5967267487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2406400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15304101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3683166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5096195360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2388600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15497459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 379541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4829054539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2382400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16713820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2718490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6017393674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2408900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">260.983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18738092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 229375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5806688177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2412300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">207.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15171277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3008004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6373028695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16601045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 298122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6245853802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2451700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">247.241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18372640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2929626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6301105023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2438800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212.425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15627593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 270935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6415454857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2446600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215.971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16106280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3251583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6177244444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2457100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15846705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 243210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6460225935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2449000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17512333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3120131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6880112453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2459300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214.127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16072581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 214589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7454970335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2459700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178.644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13769924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3830766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6427271709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2448300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">251.795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18884626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 428410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6219615696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">153437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2441400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">206.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15937076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-24.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2886341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6712769409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">254.254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19176653</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-23.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 304605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6718240114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">154387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">253.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19413652</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3372684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7041356267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2494800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">238.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18038905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 129206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6720403727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16766090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3213730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7195410908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2502600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237.102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18222542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 361129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7220293001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2520100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230.036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17388786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3413659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7053563544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">157622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2498500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">287.928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22298324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2619</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 380458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7180670899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">277.191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21212741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3094</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">131.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3095005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7610007605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2527200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">271.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20670393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 63.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 419228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8472910204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">161318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2526200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">205.921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15724179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 91.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4051134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7050495708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">116.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24901940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 507747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6741686431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2496300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342.295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24988232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3074026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7709425430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">164380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2518900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520.924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38106607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-239</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 266528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7470032658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2531300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300.369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21876661</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -92</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3522000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7731616170</t>
   </si>
   <si>
     <t xml:space="preserve">110.6</t>
   </si>
   <si>
-    <t xml:space="preserve">139125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2262000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208.200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15623833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 253659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2270800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">175.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13053517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3107722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2271900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219.555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16065483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 260849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141446</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2274800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15867496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2482287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2305800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">284.070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20266837</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 191664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2328300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235.030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17207883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2352500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240.994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17914293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 115680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2380300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">241.495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17712065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2794045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2376900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201.585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14906751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 275943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">145972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2381100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255.570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19386995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3124333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">147174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2396000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257.820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19433972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 177730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5067504043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2386800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17565534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3078177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5453660484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">146914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2405900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218.120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17131231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  62707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5967267487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2406400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195.459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15304101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3683166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5096195360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2388600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211.161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15497459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 379541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4829054539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">148350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2382400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16713820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2718490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6017393674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2408900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260.983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18738092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 229375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5806688177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2412300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207.106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15171277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3008004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6373028695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2426200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16601045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 298122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6245853802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2451700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">247.241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18372640</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2929626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6301105023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2438800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">212.425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15627593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 270935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6415454857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2446600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215.971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16106280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3251583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6177244444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2457100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">211.926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15846705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 243210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6460225935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2449000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227.702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17512333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3120131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6880112453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2459300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214.127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16072581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 214589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7454970335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2459700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">115.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">178.644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13769924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3830766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6427271709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2448300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">251.795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18912858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 428410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6219615696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">153437</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2441400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206.042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15937076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-24.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2886341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6712769409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2468200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254.254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19176653</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -78</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-23.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 304605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6718240114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">154387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2468400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">253.817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19413652</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 320</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3372684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7041356267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">155469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2494800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18038905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 803</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">107.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 129206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6720403727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2513700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16727247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1327</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 15.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3213730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7195410908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2502600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237.102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18153055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2331</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 28.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 361129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7220293001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2520100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">230.036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17360636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 23.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3413659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7053563544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">157622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2498500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287.928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22189330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2619</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 380458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7180670899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">113.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2505800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">277.191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21168426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3094</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3095005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7610007605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">161527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2527200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">119.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">271.649</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20595694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 63.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 419228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8472910204</t>
+    <t xml:space="preserve">167342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2561900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326.348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23734869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -79</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 168000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7715527650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">167855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2569600</t>
   </si>
   <si>
     <t xml:space="preserve">122.1</t>
   </si>
   <si>
-    <t xml:space="preserve">161318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2526200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">205.921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15724179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 91.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4051134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7050495708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2515200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">116.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">338.707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24901940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 507747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6741686431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">163780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2496300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343.825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25224366</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 24.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3074026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7709425430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">164380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2518900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">520.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38106607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-239</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 18.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">104.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 266528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7470032658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">165967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2531300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300.369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21876661</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -92</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -9.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3522000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7731616170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2561900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">326.348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23734869</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -79</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  7.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 168000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7715527650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">167855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2567400</t>
-  </si>
-  <si>
     <t xml:space="preserve">241.693</t>
   </si>
   <si>
@@ -6656,7 +6674,7 @@
     <t xml:space="preserve">168918</t>
   </si>
   <si>
-    <t xml:space="preserve">2551500</t>
+    <t xml:space="preserve">2559700</t>
   </si>
   <si>
     <t xml:space="preserve">122.3</t>
@@ -6665,10 +6683,10 @@
     <t xml:space="preserve">119.7</t>
   </si>
   <si>
-    <t xml:space="preserve">241.410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17233902</t>
+    <t xml:space="preserve">241.361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17195554</t>
   </si>
   <si>
     <t xml:space="preserve"> 205</t>
@@ -6686,16 +6704,43 @@
     <t xml:space="preserve"> 381000</t>
   </si>
   <si>
+    <t xml:space="preserve">7779497962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2563100</t>
+  </si>
+  <si>
     <t xml:space="preserve">122.8</t>
   </si>
   <si>
     <t xml:space="preserve">120.3</t>
   </si>
   <si>
+    <t xml:space="preserve">229.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16223346</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 490</t>
   </si>
   <si>
     <t xml:space="preserve">  1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.5</t>
   </si>
 </sst>
 </file>
@@ -15207,7 +15252,7 @@
       </c>
       <c r="H257"/>
       <c r="I257" t="s">
-        <v>140</v>
+        <v>843</v>
       </c>
       <c r="J257" t="s">
         <v>1170</v>
@@ -16438,7 +16483,7 @@
         <v>1527</v>
       </c>
       <c r="I292" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="J292" t="s">
         <v>1424</v>
@@ -17249,16 +17294,16 @@
       </c>
       <c r="E314"/>
       <c r="F314" t="s">
-        <v>391</v>
+        <v>1664</v>
       </c>
       <c r="G314" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="H314" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="I314" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="J314" t="s">
         <v>1470</v>
@@ -17267,10 +17312,10 @@
         <v>1345</v>
       </c>
       <c r="L314" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="M314" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="N314"/>
       <c r="O314"/>
@@ -17279,26 +17324,26 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B315" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C315" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="D315" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="E315"/>
       <c r="F315" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="G315" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="H315" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="I315" t="s">
         <v>165</v>
@@ -17310,10 +17355,10 @@
         <v>1488</v>
       </c>
       <c r="L315" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="M315" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="N315"/>
       <c r="O315"/>
@@ -17322,26 +17367,26 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B316" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C316" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="D316" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="E316"/>
       <c r="F316" t="s">
-        <v>666</v>
+        <v>709</v>
       </c>
       <c r="G316" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="H316" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="I316" t="s">
         <v>160</v>
@@ -17353,10 +17398,10 @@
         <v>1560</v>
       </c>
       <c r="L316" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="M316" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="N316"/>
       <c r="O316"/>
@@ -17365,41 +17410,41 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B317" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="C317" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D317" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E317"/>
       <c r="F317" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="G317" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H317" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="I317" t="s">
         <v>1373</v>
       </c>
       <c r="J317" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="K317" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="L317" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="M317" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="N317"/>
       <c r="O317"/>
@@ -17408,41 +17453,41 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B318" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C318" t="s">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="D318" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="E318"/>
       <c r="F318" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="G318" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="H318" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="I318" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="J318" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="K318" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="L318" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="M318" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="N318"/>
       <c r="O318"/>
@@ -17451,41 +17496,41 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B319" t="s">
         <v>1083</v>
       </c>
       <c r="C319" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D319" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="E319"/>
       <c r="F319" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="G319" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="H319" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="I319" t="s">
         <v>192</v>
       </c>
       <c r="J319" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="K319" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="L319" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="M319" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="N319"/>
       <c r="O319"/>
@@ -17494,41 +17539,41 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B320" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="C320" t="s">
         <v>902</v>
       </c>
       <c r="D320" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="E320"/>
       <c r="F320" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="G320" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="H320" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="I320" t="s">
         <v>215</v>
       </c>
       <c r="J320" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="K320" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="L320" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="M320" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="N320"/>
       <c r="O320"/>
@@ -17537,7 +17582,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="B321" t="s">
         <v>1126</v>
@@ -17546,32 +17591,32 @@
         <v>1202</v>
       </c>
       <c r="D321" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="E321"/>
       <c r="F321" t="s">
-        <v>798</v>
+        <v>1374</v>
       </c>
       <c r="G321" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="H321" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="I321" t="s">
         <v>230</v>
       </c>
       <c r="J321" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="K321" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="L321" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="M321" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="N321"/>
       <c r="O321"/>
@@ -17580,7 +17625,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="B322" t="s">
         <v>1202</v>
@@ -17589,32 +17634,32 @@
         <v>1534</v>
       </c>
       <c r="D322" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="E322"/>
       <c r="F322" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="G322" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="H322" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="I322" t="s">
         <v>243</v>
       </c>
       <c r="J322" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="K322" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="L322" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="M322" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="N322"/>
       <c r="O322"/>
@@ -17623,41 +17668,41 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="B323" t="s">
         <v>817</v>
       </c>
       <c r="C323" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="D323" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="E323"/>
       <c r="F323" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="G323" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
       <c r="H323" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="I323" t="s">
         <v>225</v>
       </c>
       <c r="J323" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="K323" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="L323" t="s">
         <v>1629</v>
       </c>
       <c r="M323" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="N323"/>
       <c r="O323"/>
@@ -17666,41 +17711,41 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="B324" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C324" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
       <c r="D324" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E324"/>
       <c r="F324" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="G324" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="H324" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="I324" t="s">
         <v>225</v>
       </c>
       <c r="J324" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="K324" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="L324" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="M324" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="N324"/>
       <c r="O324"/>
@@ -17709,41 +17754,41 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="B325" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="C325" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="D325" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
       <c r="E325"/>
       <c r="F325" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="G325" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="H325" t="s">
-        <v>1764</v>
+        <v>1766</v>
       </c>
       <c r="I325" t="s">
         <v>419</v>
       </c>
       <c r="J325" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="K325" t="s">
-        <v>1766</v>
+        <v>1768</v>
       </c>
       <c r="L325" t="s">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="M325" t="s">
-        <v>1768</v>
+        <v>1770</v>
       </c>
       <c r="N325"/>
       <c r="O325"/>
@@ -17752,41 +17797,41 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1769</v>
+        <v>1771</v>
       </c>
       <c r="B326" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="C326" t="s">
         <v>556</v>
       </c>
       <c r="D326" t="s">
-        <v>1771</v>
+        <v>1773</v>
       </c>
       <c r="E326"/>
       <c r="F326" t="s">
         <v>1195</v>
       </c>
       <c r="G326" t="s">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="H326" t="s">
-        <v>1773</v>
+        <v>1775</v>
       </c>
       <c r="I326" t="s">
         <v>435</v>
       </c>
       <c r="J326" t="s">
-        <v>1774</v>
+        <v>1776</v>
       </c>
       <c r="K326" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="L326" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="M326" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="N326"/>
       <c r="O326"/>
@@ -17795,41 +17840,41 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="B327" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="C327" t="s">
         <v>1482</v>
       </c>
       <c r="D327" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="E327"/>
       <c r="F327" t="s">
-        <v>1780</v>
+        <v>1714</v>
       </c>
       <c r="G327" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H327" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="I327" t="s">
         <v>261</v>
       </c>
       <c r="J327" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="K327" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="L327" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="M327" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="N327"/>
       <c r="O327"/>
@@ -17838,41 +17883,41 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B328" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C328" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="D328" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="E328"/>
       <c r="F328" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="G328" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H328" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="I328" t="s">
         <v>249</v>
       </c>
       <c r="J328" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="K328" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="L328" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="M328" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="N328"/>
       <c r="O328"/>
@@ -17881,7 +17926,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B329" t="s">
         <v>1488</v>
@@ -17890,23 +17935,23 @@
         <v>1622</v>
       </c>
       <c r="D329" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="E329"/>
       <c r="F329" t="s">
-        <v>1494</v>
+        <v>1351</v>
       </c>
       <c r="G329" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H329" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="I329" t="s">
         <v>278</v>
       </c>
       <c r="J329" t="s">
-        <v>1801</v>
+        <v>1746</v>
       </c>
       <c r="K329" t="s">
         <v>1802</v>
@@ -17946,7 +17991,7 @@
         <v>1811</v>
       </c>
       <c r="I330" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J330" t="s">
         <v>1812</v>
@@ -18059,7 +18104,7 @@
         <v>1622</v>
       </c>
       <c r="C333" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D333" t="s">
         <v>1837</v>
@@ -18102,7 +18147,7 @@
         <v>1351</v>
       </c>
       <c r="C334" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D334" t="s">
         <v>1844</v>
@@ -18145,7 +18190,7 @@
         <v>1132</v>
       </c>
       <c r="C335" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="D335" t="s">
         <v>1851</v>
@@ -18154,7 +18199,7 @@
         <v>1852</v>
       </c>
       <c r="F335" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="G335" t="s">
         <v>1853</v>
@@ -18214,13 +18259,13 @@
         <v>1866</v>
       </c>
       <c r="K336" t="s">
-        <v>1744</v>
+        <v>1867</v>
       </c>
       <c r="L336" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="M336" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="N336"/>
       <c r="O336"/>
@@ -18229,43 +18274,43 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B337" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C337" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D337" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E337" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="F337" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G337" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H337" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="I337" t="s">
         <v>284</v>
       </c>
       <c r="J337" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="K337" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="L337" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="M337" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="N337"/>
       <c r="O337"/>
@@ -18274,7 +18319,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B338" t="s">
         <v>1859</v>
@@ -18283,34 +18328,34 @@
         <v>687</v>
       </c>
       <c r="D338" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="E338" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="F338" t="s">
-        <v>1728</v>
+        <v>1740</v>
       </c>
       <c r="G338" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H338" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="I338" t="s">
         <v>346</v>
       </c>
       <c r="J338" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="K338" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="L338" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="M338" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="N338"/>
       <c r="O338"/>
@@ -18319,43 +18364,43 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B339" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C339" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="D339" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="E339" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="F339" t="s">
-        <v>1770</v>
+        <v>1772</v>
       </c>
       <c r="G339" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="H339" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="I339" t="s">
         <v>289</v>
       </c>
       <c r="J339" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="K339" t="s">
         <v>1812</v>
       </c>
       <c r="L339" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="M339" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="N339"/>
       <c r="O339"/>
@@ -18364,43 +18409,43 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="B340" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C340" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D340" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="E340" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="F340" t="s">
-        <v>1899</v>
+        <v>1840</v>
       </c>
       <c r="G340" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H340" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="I340" t="s">
         <v>295</v>
       </c>
       <c r="J340" t="s">
-        <v>1762</v>
+        <v>1906</v>
       </c>
       <c r="K340" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="L340" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="M340" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="N340"/>
       <c r="O340"/>
@@ -18409,43 +18454,43 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="B341" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="C341" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="D341" t="s">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="E341" t="s">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="F341" t="s">
         <v>1806</v>
       </c>
       <c r="G341" t="s">
-        <v>1912</v>
+        <v>1914</v>
       </c>
       <c r="H341" t="s">
-        <v>1913</v>
+        <v>1915</v>
       </c>
       <c r="I341" t="s">
         <v>295</v>
       </c>
       <c r="J341" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="K341" t="s">
-        <v>1915</v>
+        <v>1917</v>
       </c>
       <c r="L341" t="s">
-        <v>1916</v>
+        <v>1918</v>
       </c>
       <c r="M341" t="s">
-        <v>1917</v>
+        <v>1919</v>
       </c>
       <c r="N341"/>
       <c r="O341"/>
@@ -18454,43 +18499,43 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="B342" t="s">
-        <v>1919</v>
+        <v>1791</v>
       </c>
       <c r="C342" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D342" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="E342" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="F342" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="G342" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H342" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="I342" t="s">
         <v>295</v>
       </c>
       <c r="J342" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="K342" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="L342" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="M342" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="N342"/>
       <c r="O342"/>
@@ -18499,43 +18544,43 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B343" t="s">
-        <v>1829</v>
+        <v>1932</v>
       </c>
       <c r="C343" t="s">
-        <v>1931</v>
+        <v>1933</v>
       </c>
       <c r="D343" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="E343" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="F343" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
       <c r="G343" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="H343" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="I343" t="s">
         <v>346</v>
       </c>
       <c r="J343" t="s">
-        <v>1936</v>
+        <v>1845</v>
       </c>
       <c r="K343" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="L343" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="M343" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="N343"/>
       <c r="O343"/>
@@ -18544,43 +18589,43 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="B344" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="C344" t="s">
         <v>1282</v>
       </c>
       <c r="D344" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
       <c r="E344" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="F344" t="s">
-        <v>1823</v>
+        <v>1945</v>
       </c>
       <c r="G344" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="H344" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="I344" t="s">
         <v>346</v>
       </c>
       <c r="J344" t="s">
-        <v>1845</v>
+        <v>1948</v>
       </c>
       <c r="K344" t="s">
-        <v>1945</v>
+        <v>1949</v>
       </c>
       <c r="L344" t="s">
-        <v>1946</v>
+        <v>1950</v>
       </c>
       <c r="M344" t="s">
-        <v>1947</v>
+        <v>1951</v>
       </c>
       <c r="N344"/>
       <c r="O344"/>
@@ -18589,43 +18634,43 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>1948</v>
+        <v>1952</v>
       </c>
       <c r="B345" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="C345" t="s">
-        <v>1949</v>
+        <v>1953</v>
       </c>
       <c r="D345" t="s">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="E345" t="s">
-        <v>1951</v>
+        <v>1955</v>
       </c>
       <c r="F345" t="s">
-        <v>1919</v>
+        <v>1812</v>
       </c>
       <c r="G345" t="s">
-        <v>1952</v>
+        <v>1956</v>
       </c>
       <c r="H345" t="s">
-        <v>1953</v>
+        <v>1957</v>
       </c>
       <c r="I345" t="s">
         <v>284</v>
       </c>
       <c r="J345" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="K345" t="s">
         <v>1855</v>
       </c>
       <c r="L345" t="s">
-        <v>1955</v>
+        <v>1959</v>
       </c>
       <c r="M345" t="s">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="N345"/>
       <c r="O345"/>
@@ -18634,43 +18679,43 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>1957</v>
+        <v>1961</v>
       </c>
       <c r="B346" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="C346" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D346" t="s">
-        <v>1958</v>
+        <v>1962</v>
       </c>
       <c r="E346" t="s">
-        <v>1959</v>
+        <v>1963</v>
       </c>
       <c r="F346" t="s">
-        <v>1823</v>
+        <v>1945</v>
       </c>
       <c r="G346" t="s">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="H346" t="s">
-        <v>1961</v>
+        <v>1965</v>
       </c>
       <c r="I346" t="s">
         <v>272</v>
       </c>
       <c r="J346" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="K346" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="L346" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="M346" t="s">
-        <v>1964</v>
+        <v>1968</v>
       </c>
       <c r="N346"/>
       <c r="O346"/>
@@ -18679,7 +18724,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="B347" t="s">
         <v>756</v>
@@ -18688,34 +18733,34 @@
         <v>1806</v>
       </c>
       <c r="D347" t="s">
-        <v>1966</v>
+        <v>1970</v>
       </c>
       <c r="E347" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="F347" t="s">
-        <v>1833</v>
+        <v>1887</v>
       </c>
       <c r="G347" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="H347" t="s">
-        <v>1969</v>
+        <v>1973</v>
       </c>
       <c r="I347" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J347" t="s">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="K347" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="L347" t="s">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="M347" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="N347"/>
       <c r="O347"/>
@@ -18724,43 +18769,43 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="B348" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="C348" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="D348" t="s">
-        <v>1977</v>
+        <v>1981</v>
       </c>
       <c r="E348" t="s">
-        <v>1978</v>
+        <v>1982</v>
       </c>
       <c r="F348" t="s">
-        <v>1919</v>
+        <v>1812</v>
       </c>
       <c r="G348" t="s">
-        <v>1979</v>
+        <v>1983</v>
       </c>
       <c r="H348" t="s">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="I348" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J348" t="s">
-        <v>1936</v>
+        <v>1845</v>
       </c>
       <c r="K348" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="L348" t="s">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="M348" t="s">
-        <v>1983</v>
+        <v>1987</v>
       </c>
       <c r="N348"/>
       <c r="O348"/>
@@ -18769,43 +18814,43 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="B349" t="s">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C349" t="s">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D349" t="s">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E349" t="s">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="F349" t="s">
-        <v>1936</v>
+        <v>1845</v>
       </c>
       <c r="G349" t="s">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="H349" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="I349" t="s">
         <v>284</v>
       </c>
       <c r="J349" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="K349" t="s">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="L349" t="s">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="M349" t="s">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="N349"/>
       <c r="O349"/>
@@ -18814,680 +18859,680 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="B350" t="s">
-        <v>1845</v>
+        <v>1948</v>
       </c>
       <c r="C350" t="s">
         <v>660</v>
       </c>
       <c r="D350" t="s">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E350" t="s">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="F350" t="s">
-        <v>1998</v>
+        <v>1789</v>
       </c>
       <c r="G350" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="H350" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="I350" t="s">
         <v>284</v>
       </c>
       <c r="J350" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="K350" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="L350" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="M350" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="N350" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="O350"/>
       <c r="P350" t="s">
         <v>255</v>
       </c>
       <c r="Q350" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B351" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="C351" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="D351" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="E351" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F351" t="s">
-        <v>1774</v>
+        <v>1795</v>
       </c>
       <c r="G351" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="H351" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="I351" t="s">
         <v>289</v>
       </c>
       <c r="J351" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="K351" t="s">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="L351" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="M351" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="N351" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="O351" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="P351" t="s">
         <v>791</v>
       </c>
       <c r="Q351" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="B352" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C352" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D352" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E352" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="F352" t="s">
         <v>1822</v>
       </c>
       <c r="G352" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="H352" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="I352" t="s">
         <v>289</v>
       </c>
       <c r="J352" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="K352" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="L352" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="M352" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="N352" t="s">
         <v>994</v>
       </c>
       <c r="O352" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="P352" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="Q352" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="B353" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="C353" t="s">
         <v>1622</v>
       </c>
       <c r="D353" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="E353" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="F353" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="G353" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="H353" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="I353" t="s">
         <v>284</v>
       </c>
       <c r="J353" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="K353" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="L353" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="M353" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="N353" t="s">
         <v>1175</v>
       </c>
       <c r="O353" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="P353" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="Q353" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="B354" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="C354" t="s">
         <v>1822</v>
       </c>
       <c r="D354" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="E354" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="F354" t="s">
         <v>1855</v>
       </c>
       <c r="G354" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="H354" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="I354" t="s">
         <v>284</v>
       </c>
       <c r="J354" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="K354" t="s">
-        <v>1762</v>
+        <v>1906</v>
       </c>
       <c r="L354" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="M354" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="N354" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="O354" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="P354" t="s">
         <v>197</v>
       </c>
       <c r="Q354" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="B355" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="C355" t="s">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="D355" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="E355" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="F355" t="s">
-        <v>1926</v>
+        <v>2062</v>
       </c>
       <c r="G355" t="s">
-        <v>2059</v>
+        <v>2063</v>
       </c>
       <c r="H355" t="s">
-        <v>2060</v>
+        <v>2064</v>
       </c>
       <c r="I355" t="s">
         <v>284</v>
       </c>
       <c r="J355" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="K355" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="L355" t="s">
-        <v>2062</v>
+        <v>2066</v>
       </c>
       <c r="M355" t="s">
-        <v>2063</v>
+        <v>2067</v>
       </c>
       <c r="N355" t="s">
         <v>895</v>
       </c>
       <c r="O355" t="s">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="P355" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="Q355" t="s">
-        <v>2066</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>2067</v>
+        <v>2071</v>
       </c>
       <c r="B356" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="C356" t="s">
         <v>1225</v>
       </c>
       <c r="D356" t="s">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="E356" t="s">
-        <v>2070</v>
+        <v>2074</v>
       </c>
       <c r="F356" t="s">
-        <v>1819</v>
+        <v>2075</v>
       </c>
       <c r="G356" t="s">
-        <v>2071</v>
+        <v>2076</v>
       </c>
       <c r="H356" t="s">
-        <v>2072</v>
+        <v>2077</v>
       </c>
       <c r="I356" t="s">
         <v>278</v>
       </c>
       <c r="J356" t="s">
-        <v>2073</v>
+        <v>2078</v>
       </c>
       <c r="K356" t="s">
-        <v>2074</v>
+        <v>2079</v>
       </c>
       <c r="L356" t="s">
-        <v>2075</v>
+        <v>2080</v>
       </c>
       <c r="M356" t="s">
-        <v>2076</v>
+        <v>2081</v>
       </c>
       <c r="N356" t="s">
         <v>1146</v>
       </c>
       <c r="O356" t="s">
-        <v>2077</v>
+        <v>2082</v>
       </c>
       <c r="P356" t="s">
         <v>1293</v>
       </c>
       <c r="Q356" t="s">
-        <v>2078</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>2079</v>
+        <v>2084</v>
       </c>
       <c r="B357" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C357" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D357" t="s">
-        <v>2080</v>
+        <v>2085</v>
       </c>
       <c r="E357" t="s">
-        <v>2081</v>
+        <v>2086</v>
       </c>
       <c r="F357" t="s">
-        <v>2082</v>
+        <v>2087</v>
       </c>
       <c r="G357" t="s">
-        <v>2083</v>
+        <v>2088</v>
       </c>
       <c r="H357" t="s">
-        <v>2084</v>
+        <v>2089</v>
       </c>
       <c r="I357" t="s">
         <v>295</v>
       </c>
       <c r="J357" t="s">
-        <v>2085</v>
+        <v>2090</v>
       </c>
       <c r="K357" t="s">
-        <v>2086</v>
+        <v>2091</v>
       </c>
       <c r="L357" t="s">
-        <v>2087</v>
+        <v>2092</v>
       </c>
       <c r="M357" t="s">
-        <v>2088</v>
+        <v>2093</v>
       </c>
       <c r="N357" t="s">
         <v>901</v>
       </c>
       <c r="O357" t="s">
-        <v>2089</v>
+        <v>2094</v>
       </c>
       <c r="P357" t="s">
-        <v>2090</v>
+        <v>2095</v>
       </c>
       <c r="Q357" t="s">
-        <v>2091</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>2092</v>
+        <v>2097</v>
       </c>
       <c r="B358" t="s">
-        <v>2093</v>
+        <v>2098</v>
       </c>
       <c r="C358" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D358" t="s">
-        <v>2094</v>
+        <v>2099</v>
       </c>
       <c r="E358" t="s">
-        <v>2095</v>
+        <v>2100</v>
       </c>
       <c r="F358" t="s">
-        <v>2096</v>
+        <v>2101</v>
       </c>
       <c r="G358" t="s">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="H358" t="s">
-        <v>2098</v>
+        <v>2103</v>
       </c>
       <c r="I358" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J358" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="K358" t="s">
-        <v>2099</v>
+        <v>2104</v>
       </c>
       <c r="L358" t="s">
-        <v>2100</v>
+        <v>2105</v>
       </c>
       <c r="M358" t="s">
-        <v>2101</v>
+        <v>2106</v>
       </c>
       <c r="N358" t="s">
         <v>1175</v>
       </c>
       <c r="O358" t="s">
-        <v>2102</v>
+        <v>2107</v>
       </c>
       <c r="P358" t="s">
         <v>1236</v>
       </c>
       <c r="Q358" t="s">
-        <v>2103</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>2104</v>
+        <v>2109</v>
       </c>
       <c r="B359" t="s">
         <v>902</v>
       </c>
       <c r="C359" t="s">
-        <v>2105</v>
+        <v>2110</v>
       </c>
       <c r="D359" t="s">
-        <v>2106</v>
+        <v>2111</v>
       </c>
       <c r="E359" t="s">
-        <v>2107</v>
+        <v>2112</v>
       </c>
       <c r="F359" t="s">
-        <v>2108</v>
+        <v>2113</v>
       </c>
       <c r="G359" t="s">
-        <v>2109</v>
+        <v>2114</v>
       </c>
       <c r="H359" t="s">
-        <v>2110</v>
+        <v>2115</v>
       </c>
       <c r="I359" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="J359" t="s">
-        <v>2111</v>
+        <v>2116</v>
       </c>
       <c r="K359" t="s">
-        <v>2112</v>
+        <v>2117</v>
       </c>
       <c r="L359" t="s">
-        <v>2113</v>
+        <v>2118</v>
       </c>
       <c r="M359" t="s">
-        <v>2114</v>
+        <v>2119</v>
       </c>
       <c r="N359" t="s">
         <v>876</v>
       </c>
       <c r="O359" t="s">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="P359" t="s">
         <v>1005</v>
       </c>
       <c r="Q359" t="s">
-        <v>2116</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>2117</v>
+        <v>2122</v>
       </c>
       <c r="B360" t="s">
-        <v>2099</v>
+        <v>2104</v>
       </c>
       <c r="C360" t="s">
-        <v>2118</v>
+        <v>2123</v>
       </c>
       <c r="D360" t="s">
-        <v>2119</v>
+        <v>2124</v>
       </c>
       <c r="E360" t="s">
-        <v>2120</v>
+        <v>2125</v>
       </c>
       <c r="F360" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="G360" t="s">
-        <v>2121</v>
+        <v>2126</v>
       </c>
       <c r="H360" t="s">
-        <v>2122</v>
+        <v>2127</v>
       </c>
       <c r="I360" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="J360" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="K360" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="L360" t="s">
-        <v>2124</v>
+        <v>2129</v>
       </c>
       <c r="M360" t="s">
-        <v>2125</v>
+        <v>2130</v>
       </c>
       <c r="N360" t="s">
-        <v>2126</v>
+        <v>2131</v>
       </c>
       <c r="O360" t="s">
-        <v>2127</v>
+        <v>2132</v>
       </c>
       <c r="P360" t="s">
-        <v>2128</v>
+        <v>2133</v>
       </c>
       <c r="Q360" t="s">
-        <v>2129</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>2130</v>
+        <v>2135</v>
       </c>
       <c r="B361" t="s">
-        <v>2131</v>
+        <v>2136</v>
       </c>
       <c r="C361" t="s">
-        <v>2132</v>
+        <v>2137</v>
       </c>
       <c r="D361" t="s">
-        <v>2133</v>
+        <v>2138</v>
       </c>
       <c r="E361" t="s">
-        <v>2134</v>
+        <v>2139</v>
       </c>
       <c r="F361" t="s">
-        <v>2135</v>
+        <v>2140</v>
       </c>
       <c r="G361" t="s">
-        <v>2136</v>
+        <v>2141</v>
       </c>
       <c r="H361" t="s">
-        <v>2137</v>
+        <v>2142</v>
       </c>
       <c r="I361" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J361" t="s">
-        <v>2138</v>
+        <v>2143</v>
       </c>
       <c r="K361" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="L361" t="s">
-        <v>2139</v>
+        <v>2144</v>
       </c>
       <c r="M361" t="s">
-        <v>2140</v>
+        <v>2145</v>
       </c>
       <c r="N361" t="s">
-        <v>2065</v>
+        <v>2069</v>
       </c>
       <c r="O361" t="s">
-        <v>2141</v>
+        <v>2146</v>
       </c>
       <c r="P361" t="s">
-        <v>2142</v>
+        <v>2147</v>
       </c>
       <c r="Q361" t="s">
-        <v>2143</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>2144</v>
+        <v>2149</v>
       </c>
       <c r="B362" t="s">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C362" t="s">
-        <v>2145</v>
+        <v>2150</v>
       </c>
       <c r="D362" t="s">
-        <v>2146</v>
+        <v>2151</v>
       </c>
       <c r="E362" t="s">
-        <v>2147</v>
+        <v>2152</v>
       </c>
       <c r="F362" t="s">
-        <v>1729</v>
+        <v>1806</v>
       </c>
       <c r="G362" t="s">
-        <v>2148</v>
+        <v>2153</v>
       </c>
       <c r="H362" t="s">
-        <v>2149</v>
+        <v>2154</v>
       </c>
       <c r="I362" t="s">
         <v>284</v>
       </c>
       <c r="J362" t="s">
-        <v>1954</v>
+        <v>1958</v>
       </c>
       <c r="K362" t="s">
-        <v>2150</v>
+        <v>2155</v>
       </c>
       <c r="L362" t="s">
-        <v>2151</v>
+        <v>2156</v>
       </c>
       <c r="M362" t="s">
-        <v>2152</v>
+        <v>2157</v>
       </c>
       <c r="N362" t="s">
-        <v>2153</v>
+        <v>2158</v>
       </c>
       <c r="O362"/>
       <c r="P362" t="s">
@@ -19499,357 +19544,404 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>2154</v>
+        <v>2159</v>
       </c>
       <c r="B363" t="s">
-        <v>2155</v>
+        <v>2062</v>
       </c>
       <c r="C363" t="s">
-        <v>2082</v>
+        <v>2087</v>
       </c>
       <c r="D363" t="s">
-        <v>2156</v>
+        <v>2160</v>
       </c>
       <c r="E363" t="s">
-        <v>2157</v>
+        <v>2161</v>
       </c>
       <c r="F363" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="G363" t="s">
-        <v>2159</v>
+        <v>2163</v>
       </c>
       <c r="H363" t="s">
-        <v>2160</v>
+        <v>2164</v>
       </c>
       <c r="I363" t="s">
         <v>284</v>
       </c>
       <c r="J363" t="s">
-        <v>2061</v>
+        <v>2065</v>
       </c>
       <c r="K363" t="s">
-        <v>2161</v>
+        <v>2165</v>
       </c>
       <c r="L363" t="s">
-        <v>2162</v>
+        <v>2166</v>
       </c>
       <c r="M363" t="s">
-        <v>2163</v>
+        <v>2167</v>
       </c>
       <c r="N363"/>
       <c r="O363"/>
       <c r="P363" t="s">
-        <v>2164</v>
+        <v>2168</v>
       </c>
       <c r="Q363" t="s">
-        <v>2165</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>2166</v>
+        <v>2170</v>
       </c>
       <c r="B364" t="s">
-        <v>1762</v>
+        <v>1906</v>
       </c>
       <c r="C364" t="s">
-        <v>1765</v>
+        <v>1767</v>
       </c>
       <c r="D364" t="s">
-        <v>2167</v>
+        <v>2171</v>
       </c>
       <c r="E364" t="s">
-        <v>2168</v>
+        <v>2172</v>
       </c>
       <c r="F364" t="s">
-        <v>2001</v>
+        <v>1817</v>
       </c>
       <c r="G364" t="s">
-        <v>2169</v>
+        <v>2173</v>
       </c>
       <c r="H364" t="s">
-        <v>2170</v>
+        <v>2174</v>
       </c>
       <c r="I364" t="s">
         <v>278</v>
       </c>
       <c r="J364" t="s">
-        <v>2171</v>
+        <v>2175</v>
       </c>
       <c r="K364" t="s">
-        <v>1936</v>
+        <v>1845</v>
       </c>
       <c r="L364" t="s">
-        <v>2172</v>
+        <v>2176</v>
       </c>
       <c r="M364" t="s">
-        <v>2173</v>
+        <v>2177</v>
       </c>
       <c r="N364" t="s">
         <v>1242</v>
       </c>
       <c r="O364" t="s">
-        <v>2174</v>
+        <v>2178</v>
       </c>
       <c r="P364" t="s">
         <v>140</v>
       </c>
       <c r="Q364" t="s">
-        <v>2175</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>2176</v>
+        <v>2180</v>
       </c>
       <c r="B365" t="s">
         <v>1833</v>
       </c>
       <c r="C365" t="s">
-        <v>2177</v>
+        <v>2181</v>
       </c>
       <c r="D365" t="s">
-        <v>2178</v>
+        <v>2182</v>
       </c>
       <c r="E365" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="F365" t="s">
-        <v>1827</v>
+        <v>2184</v>
       </c>
       <c r="G365" t="s">
-        <v>2180</v>
+        <v>2185</v>
       </c>
       <c r="H365" t="s">
-        <v>2181</v>
+        <v>2186</v>
       </c>
       <c r="I365" t="s">
         <v>272</v>
       </c>
       <c r="J365" t="s">
-        <v>2182</v>
+        <v>2187</v>
       </c>
       <c r="K365" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="L365" t="s">
-        <v>2183</v>
+        <v>2188</v>
       </c>
       <c r="M365" t="s">
-        <v>2184</v>
+        <v>2189</v>
       </c>
       <c r="N365" t="s">
         <v>863</v>
       </c>
       <c r="O365" t="s">
-        <v>2185</v>
+        <v>2190</v>
       </c>
       <c r="P365" t="s">
         <v>1356</v>
       </c>
       <c r="Q365" t="s">
-        <v>2186</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>2187</v>
+        <v>2192</v>
       </c>
       <c r="B366" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C366" t="s">
-        <v>2188</v>
+        <v>1936</v>
       </c>
       <c r="D366" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="E366" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="F366" t="s">
-        <v>2161</v>
+        <v>2195</v>
       </c>
       <c r="G366" t="s">
-        <v>2191</v>
+        <v>2196</v>
       </c>
       <c r="H366" t="s">
-        <v>2192</v>
+        <v>2197</v>
       </c>
       <c r="I366" t="s">
         <v>272</v>
       </c>
       <c r="J366" t="s">
-        <v>2182</v>
+        <v>2187</v>
       </c>
       <c r="K366" t="s">
-        <v>2123</v>
+        <v>2128</v>
       </c>
       <c r="L366" t="s">
-        <v>2193</v>
+        <v>2198</v>
       </c>
       <c r="M366" t="s">
-        <v>2194</v>
+        <v>2199</v>
       </c>
       <c r="N366" t="s">
-        <v>2195</v>
+        <v>2200</v>
       </c>
       <c r="O366" t="s">
-        <v>2196</v>
+        <v>2201</v>
       </c>
       <c r="P366" t="s">
-        <v>2197</v>
+        <v>2202</v>
       </c>
       <c r="Q366" t="s">
-        <v>2198</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>2199</v>
+        <v>2204</v>
       </c>
       <c r="B367" t="s">
         <v>1863</v>
       </c>
       <c r="C367" t="s">
-        <v>2099</v>
+        <v>2104</v>
       </c>
       <c r="D367" t="s">
-        <v>2200</v>
+        <v>2205</v>
       </c>
       <c r="E367" t="s">
-        <v>2201</v>
+        <v>2206</v>
       </c>
       <c r="F367" t="s">
-        <v>2202</v>
+        <v>2207</v>
       </c>
       <c r="G367" t="s">
-        <v>2203</v>
+        <v>2208</v>
       </c>
       <c r="H367" t="s">
-        <v>2204</v>
+        <v>2209</v>
       </c>
       <c r="I367" t="s">
         <v>272</v>
       </c>
       <c r="J367" t="s">
-        <v>2135</v>
+        <v>2210</v>
       </c>
       <c r="K367" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="L367" t="s">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="M367" t="s">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="N367" t="s">
         <v>1315</v>
       </c>
       <c r="O367" t="s">
-        <v>2207</v>
+        <v>2213</v>
       </c>
       <c r="P367" t="s">
         <v>1417</v>
       </c>
       <c r="Q367" t="s">
-        <v>2208</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>2209</v>
+        <v>2215</v>
       </c>
       <c r="B368" t="s">
-        <v>2210</v>
+        <v>2216</v>
       </c>
       <c r="C368" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D368" t="s">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="E368" t="s">
-        <v>2212</v>
+        <v>2218</v>
       </c>
       <c r="F368" t="s">
-        <v>1945</v>
+        <v>1833</v>
       </c>
       <c r="G368" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
       <c r="H368" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="I368" t="s">
         <v>255</v>
       </c>
       <c r="J368" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="K368" t="s">
-        <v>2216</v>
+        <v>2222</v>
       </c>
       <c r="L368" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="M368" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="N368" t="s">
         <v>1293</v>
       </c>
       <c r="O368" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
       <c r="P368" t="s">
         <v>1373</v>
       </c>
       <c r="Q368" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>2221</v>
+        <v>2227</v>
       </c>
       <c r="B369" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
       <c r="C369" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="D369" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E369"/>
-      <c r="F369"/>
-      <c r="G369"/>
-      <c r="H369"/>
+        <v>2229</v>
+      </c>
+      <c r="E369" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G369" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H369" t="s">
+        <v>2232</v>
+      </c>
       <c r="I369" t="s">
         <v>261</v>
       </c>
       <c r="J369" t="s">
-        <v>2224</v>
+        <v>2233</v>
       </c>
       <c r="K369" t="s">
-        <v>2225</v>
-      </c>
-      <c r="L369"/>
-      <c r="M369"/>
+        <v>2234</v>
+      </c>
+      <c r="L369" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M369" t="s">
+        <v>2236</v>
+      </c>
       <c r="N369" t="s">
         <v>826</v>
       </c>
       <c r="O369" t="s">
-        <v>2226</v>
+        <v>2237</v>
       </c>
       <c r="P369" t="s">
         <v>284</v>
       </c>
       <c r="Q369" t="s">
-        <v>2227</v>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B370"/>
+      <c r="C370"/>
+      <c r="D370"/>
+      <c r="E370"/>
+      <c r="F370"/>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370" t="s">
+        <v>261</v>
+      </c>
+      <c r="J370" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K370" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L370"/>
+      <c r="M370"/>
+      <c r="N370" t="s">
+        <v>1373</v>
+      </c>
+      <c r="O370" t="s">
+        <v>2241</v>
+      </c>
+      <c r="P370" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>2242</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="2244">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6732,6 +6732,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3574000</t>
   </si>
   <si>
     <t xml:space="preserve">120.0</t>
@@ -19915,7 +19918,9 @@
       </c>
       <c r="B370"/>
       <c r="C370"/>
-      <c r="D370"/>
+      <c r="D370" t="s">
+        <v>2240</v>
+      </c>
       <c r="E370"/>
       <c r="F370"/>
       <c r="G370"/>
@@ -19927,7 +19932,7 @@
         <v>2140</v>
       </c>
       <c r="K370" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="L370"/>
       <c r="M370"/>
@@ -19935,13 +19940,13 @@
         <v>1373</v>
       </c>
       <c r="O370" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="P370" t="s">
         <v>272</v>
       </c>
       <c r="Q370" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="2244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2245">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6732,6 +6732,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105.7</t>
   </si>
   <si>
     <t xml:space="preserve">3574000</t>
@@ -19867,7 +19870,7 @@
         <v>2228</v>
       </c>
       <c r="C369" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="D369" t="s">
         <v>2229</v>
@@ -19916,10 +19919,14 @@
       <c r="A370" t="s">
         <v>2239</v>
       </c>
-      <c r="B370"/>
-      <c r="C370"/>
+      <c r="B370" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2022</v>
+      </c>
       <c r="D370" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="E370"/>
       <c r="F370"/>
@@ -19932,7 +19939,7 @@
         <v>2140</v>
       </c>
       <c r="K370" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="L370"/>
       <c r="M370"/>
@@ -19940,13 +19947,13 @@
         <v>1373</v>
       </c>
       <c r="O370" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="P370" t="s">
         <v>272</v>
       </c>
       <c r="Q370" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="2245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="2246">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6747,6 +6747,9 @@
   </si>
   <si>
     <t xml:space="preserve">  2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
   </si>
 </sst>
 </file>
@@ -19956,6 +19959,29 @@
         <v>2244</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B371"/>
+      <c r="C371"/>
+      <c r="D371"/>
+      <c r="E371"/>
+      <c r="F371"/>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371"/>
+      <c r="J371" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K371"/>
+      <c r="L371"/>
+      <c r="M371"/>
+      <c r="N371"/>
+      <c r="O371"/>
+      <c r="P371"/>
+      <c r="Q371"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="2251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="2253">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6710,6 +6710,9 @@
     <t xml:space="preserve">7779497962</t>
   </si>
   <si>
+    <t xml:space="preserve">108.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">169944</t>
   </si>
   <si>
@@ -6744,6 +6747,9 @@
   </si>
   <si>
     <t xml:space="preserve">7814832017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.0</t>
   </si>
   <si>
     <t xml:space="preserve">120.0</t>
@@ -19897,59 +19903,61 @@
         <v>2231</v>
       </c>
       <c r="F369" t="s">
-        <v>1824</v>
+        <v>2232</v>
       </c>
       <c r="G369" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="H369" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="I369" t="s">
         <v>434</v>
       </c>
       <c r="J369" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="K369" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="L369" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="M369" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="N369" t="s">
         <v>825</v>
       </c>
       <c r="O369" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="P369" t="s">
         <v>283</v>
       </c>
       <c r="Q369" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B370" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C370" t="s">
         <v>2023</v>
       </c>
       <c r="D370" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E370" t="s">
-        <v>2243</v>
-      </c>
-      <c r="F370"/>
+        <v>2244</v>
+      </c>
+      <c r="F370" t="s">
+        <v>2245</v>
+      </c>
       <c r="G370"/>
       <c r="H370"/>
       <c r="I370" t="s">
@@ -19959,7 +19967,7 @@
         <v>2141</v>
       </c>
       <c r="K370" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="L370"/>
       <c r="M370"/>
@@ -19967,18 +19975,18 @@
         <v>1374</v>
       </c>
       <c r="O370" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="P370" t="s">
         <v>271</v>
       </c>
       <c r="Q370" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="B371"/>
       <c r="C371"/>
@@ -19991,7 +19999,7 @@
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="K371"/>
       <c r="L371"/>
@@ -20000,13 +20008,13 @@
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="P371" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="Q371" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2253" uniqueCount="2253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="2255">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6677,7 +6677,7 @@
     <t xml:space="preserve">168918</t>
   </si>
   <si>
-    <t xml:space="preserve">2559700</t>
+    <t xml:space="preserve">2561800</t>
   </si>
   <si>
     <t xml:space="preserve">122.3</t>
@@ -6716,7 +6716,7 @@
     <t xml:space="preserve">169944</t>
   </si>
   <si>
-    <t xml:space="preserve">2563100</t>
+    <t xml:space="preserve">2573000</t>
   </si>
   <si>
     <t xml:space="preserve">122.8</t>
@@ -6752,6 +6752,9 @@
     <t xml:space="preserve">111.0</t>
   </si>
   <si>
+    <t xml:space="preserve">2560700</t>
+  </si>
+  <si>
     <t xml:space="preserve">120.0</t>
   </si>
   <si>
@@ -6762,6 +6765,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.0</t>
   </si>
   <si>
     <t xml:space="preserve"> -33</t>
@@ -19959,7 +19965,9 @@
         <v>2245</v>
       </c>
       <c r="G370"/>
-      <c r="H370"/>
+      <c r="H370" t="s">
+        <v>2246</v>
+      </c>
       <c r="I370" t="s">
         <v>418</v>
       </c>
@@ -19967,7 +19975,7 @@
         <v>2141</v>
       </c>
       <c r="K370" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="L370"/>
       <c r="M370"/>
@@ -19975,18 +19983,18 @@
         <v>1374</v>
       </c>
       <c r="O370" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="P370" t="s">
         <v>271</v>
       </c>
       <c r="Q370" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B371"/>
       <c r="C371"/>
@@ -19999,22 +20007,24 @@
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2235</v>
-      </c>
-      <c r="K371"/>
+        <v>2251</v>
+      </c>
+      <c r="K371" t="s">
+        <v>2066</v>
+      </c>
       <c r="L371"/>
       <c r="M371"/>
       <c r="N371" t="s">
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="P371" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="Q371" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="2255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="2257">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6545,10 +6545,10 @@
     <t xml:space="preserve">121.0</t>
   </si>
   <si>
-    <t xml:space="preserve">520.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38106607</t>
+    <t xml:space="preserve">514.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37577107</t>
   </si>
   <si>
     <t xml:space="preserve">-239</t>
@@ -6689,7 +6689,7 @@
     <t xml:space="preserve">241.361</t>
   </si>
   <si>
-    <t xml:space="preserve">17195554</t>
+    <t xml:space="preserve">17146670</t>
   </si>
   <si>
     <t xml:space="preserve"> 205</t>
@@ -6725,10 +6725,10 @@
     <t xml:space="preserve">120.3</t>
   </si>
   <si>
-    <t xml:space="preserve">229.534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16223346</t>
+    <t xml:space="preserve">228.935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16182537</t>
   </si>
   <si>
     <t xml:space="preserve"> 490</t>
@@ -6756,6 +6756,12 @@
   </si>
   <si>
     <t xml:space="preserve">120.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401.187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28498767</t>
   </si>
   <si>
     <t xml:space="preserve"> 139</t>
@@ -19977,24 +19983,28 @@
       <c r="K370" t="s">
         <v>2247</v>
       </c>
-      <c r="L370"/>
-      <c r="M370"/>
+      <c r="L370" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M370" t="s">
+        <v>2249</v>
+      </c>
       <c r="N370" t="s">
         <v>1374</v>
       </c>
       <c r="O370" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="P370" t="s">
         <v>271</v>
       </c>
       <c r="Q370" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="B371"/>
       <c r="C371"/>
@@ -20007,7 +20017,7 @@
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="K371" t="s">
         <v>2066</v>
@@ -20018,13 +20028,13 @@
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="P371" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="Q371" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -6740,9 +6740,6 @@
     <t xml:space="preserve">2025-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">105.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">3574000</t>
   </si>
   <si>
@@ -6771,6 +6768,9 @@
   </si>
   <si>
     <t xml:space="preserve">2025-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.4</t>
   </si>
   <si>
     <t xml:space="preserve">123.0</t>
@@ -19956,23 +19956,23 @@
         <v>2241</v>
       </c>
       <c r="B370" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D370" t="s">
         <v>2242</v>
       </c>
-      <c r="C370" t="s">
-        <v>2023</v>
-      </c>
-      <c r="D370" t="s">
+      <c r="E370" t="s">
         <v>2243</v>
       </c>
-      <c r="E370" t="s">
+      <c r="F370" t="s">
         <v>2244</v>
-      </c>
-      <c r="F370" t="s">
-        <v>2245</v>
       </c>
       <c r="G370"/>
       <c r="H370" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="I370" t="s">
         <v>418</v>
@@ -19981,33 +19981,37 @@
         <v>2141</v>
       </c>
       <c r="K370" t="s">
+        <v>2246</v>
+      </c>
+      <c r="L370" t="s">
         <v>2247</v>
       </c>
-      <c r="L370" t="s">
+      <c r="M370" t="s">
         <v>2248</v>
-      </c>
-      <c r="M370" t="s">
-        <v>2249</v>
       </c>
       <c r="N370" t="s">
         <v>1374</v>
       </c>
       <c r="O370" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="P370" t="s">
         <v>271</v>
       </c>
       <c r="Q370" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B371" t="s">
+        <v>863</v>
+      </c>
+      <c r="C371" t="s">
         <v>2252</v>
       </c>
-      <c r="B371"/>
-      <c r="C371"/>
       <c r="D371"/>
       <c r="E371"/>
       <c r="F371"/>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="2257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2262">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6773,6 +6773,9 @@
     <t xml:space="preserve">106.4</t>
   </si>
   <si>
+    <t xml:space="preserve">8174348838</t>
+  </si>
+  <si>
     <t xml:space="preserve">123.0</t>
   </si>
   <si>
@@ -6783,6 +6786,18 @@
   </si>
   <si>
     <t xml:space="preserve">  6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14.9</t>
   </si>
 </sst>
 </file>
@@ -18925,7 +18940,7 @@
         <v>2004</v>
       </c>
       <c r="I350" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J350" t="s">
         <v>1917</v>
@@ -19559,7 +19574,7 @@
         <v>2155</v>
       </c>
       <c r="I362" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J362" t="s">
         <v>1959</v>
@@ -20013,7 +20028,9 @@
         <v>2252</v>
       </c>
       <c r="D371"/>
-      <c r="E371"/>
+      <c r="E371" t="s">
+        <v>2253</v>
+      </c>
       <c r="F371"/>
       <c r="G371"/>
       <c r="H371"/>
@@ -20021,7 +20038,7 @@
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="K371" t="s">
         <v>2066</v>
@@ -20032,13 +20049,46 @@
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="P371" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="Q371" t="s">
-        <v>2256</v>
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B372"/>
+      <c r="C372"/>
+      <c r="D372"/>
+      <c r="E372"/>
+      <c r="F372"/>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372" t="s">
+        <v>248</v>
+      </c>
+      <c r="J372" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K372"/>
+      <c r="L372"/>
+      <c r="M372"/>
+      <c r="N372" t="s">
+        <v>1482</v>
+      </c>
+      <c r="O372" t="s">
+        <v>2259</v>
+      </c>
+      <c r="P372" t="s">
+        <v>2260</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>2261</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="2262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="2264">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6746,7 +6746,7 @@
     <t xml:space="preserve">7814832017</t>
   </si>
   <si>
-    <t xml:space="preserve">111.0</t>
+    <t xml:space="preserve">170090</t>
   </si>
   <si>
     <t xml:space="preserve">2560700</t>
@@ -6774,6 +6774,12 @@
   </si>
   <si>
     <t xml:space="preserve">8174348838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172187</t>
   </si>
   <si>
     <t xml:space="preserve">123.0</t>
@@ -19983,9 +19989,11 @@
         <v>2243</v>
       </c>
       <c r="F370" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G370" t="s">
         <v>2244</v>
       </c>
-      <c r="G370"/>
       <c r="H370" t="s">
         <v>2245</v>
       </c>
@@ -20031,14 +20039,18 @@
       <c r="E371" t="s">
         <v>2253</v>
       </c>
-      <c r="F371"/>
-      <c r="G371"/>
+      <c r="F371" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G371" t="s">
+        <v>2255</v>
+      </c>
       <c r="H371"/>
       <c r="I371" t="s">
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="K371" t="s">
         <v>2066</v>
@@ -20049,18 +20061,18 @@
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="P371" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="Q371" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="B372"/>
       <c r="C372"/>
@@ -20082,13 +20094,13 @@
         <v>1482</v>
       </c>
       <c r="O372" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="P372" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="Q372" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="2264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="2266">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6795,6 +6795,12 @@
   </si>
   <si>
     <t xml:space="preserve">2025-11-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.9</t>
   </si>
   <si>
     <t xml:space="preserve"> 374</t>
@@ -20085,22 +20091,24 @@
         <v>248</v>
       </c>
       <c r="J372" t="s">
-        <v>2235</v>
-      </c>
-      <c r="K372"/>
+        <v>2261</v>
+      </c>
+      <c r="K372" t="s">
+        <v>2262</v>
+      </c>
       <c r="L372"/>
       <c r="M372"/>
       <c r="N372" t="s">
         <v>1482</v>
       </c>
       <c r="O372" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="P372" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="Q372" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="2266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="2267">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6479,7 +6479,7 @@
     <t xml:space="preserve">163155</t>
   </si>
   <si>
-    <t xml:space="preserve">2515200</t>
+    <t xml:space="preserve">2515300</t>
   </si>
   <si>
     <t xml:space="preserve">116.3</t>
@@ -6716,7 +6716,7 @@
     <t xml:space="preserve">169944</t>
   </si>
   <si>
-    <t xml:space="preserve">2573000</t>
+    <t xml:space="preserve">2575300</t>
   </si>
   <si>
     <t xml:space="preserve">122.8</t>
@@ -6749,7 +6749,7 @@
     <t xml:space="preserve">170090</t>
   </si>
   <si>
-    <t xml:space="preserve">2560700</t>
+    <t xml:space="preserve">2566700</t>
   </si>
   <si>
     <t xml:space="preserve">120.0</t>
@@ -6780,6 +6780,9 @@
   </si>
   <si>
     <t xml:space="preserve">172187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2550700</t>
   </si>
   <si>
     <t xml:space="preserve">123.0</t>
@@ -20051,12 +20054,14 @@
       <c r="G371" t="s">
         <v>2255</v>
       </c>
-      <c r="H371"/>
+      <c r="H371" t="s">
+        <v>2256</v>
+      </c>
       <c r="I371" t="s">
         <v>434</v>
       </c>
       <c r="J371" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="K371" t="s">
         <v>2066</v>
@@ -20067,18 +20072,18 @@
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="P371" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="Q371" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B372"/>
       <c r="C372"/>
@@ -20091,10 +20096,10 @@
         <v>248</v>
       </c>
       <c r="J372" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="K372" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="L372"/>
       <c r="M372"/>
@@ -20102,13 +20107,13 @@
         <v>1482</v>
       </c>
       <c r="O372" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="P372" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="Q372" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
   </sheetData>

--- a/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
+++ b/MONTHLY_DATA_DOWNLOAD_ALL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="2267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="2269">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -6488,7 +6488,7 @@
     <t xml:space="preserve">338.707</t>
   </si>
   <si>
-    <t xml:space="preserve">24901940</t>
+    <t xml:space="preserve">24890011</t>
   </si>
   <si>
     <t xml:space="preserve">21.3</t>
@@ -6518,7 +6518,7 @@
     <t xml:space="preserve">342.295</t>
   </si>
   <si>
-    <t xml:space="preserve">24988232</t>
+    <t xml:space="preserve">24978090</t>
   </si>
   <si>
     <t xml:space="preserve">12.1</t>
@@ -6581,10 +6581,10 @@
     <t xml:space="preserve">121.5</t>
   </si>
   <si>
-    <t xml:space="preserve">300.369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21876661</t>
+    <t xml:space="preserve">293.106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21323668</t>
   </si>
   <si>
     <t xml:space="preserve"> -92</t>
@@ -6614,7 +6614,7 @@
     <t xml:space="preserve">326.348</t>
   </si>
   <si>
-    <t xml:space="preserve">23734869</t>
+    <t xml:space="preserve">23713263</t>
   </si>
   <si>
     <t xml:space="preserve"> 9.2</t>
@@ -6653,7 +6653,7 @@
     <t xml:space="preserve">241.693</t>
   </si>
   <si>
-    <t xml:space="preserve">17297946</t>
+    <t xml:space="preserve">17275998</t>
   </si>
   <si>
     <t xml:space="preserve"> 238</t>
@@ -6689,7 +6689,7 @@
     <t xml:space="preserve">241.361</t>
   </si>
   <si>
-    <t xml:space="preserve">17146670</t>
+    <t xml:space="preserve">17136396</t>
   </si>
   <si>
     <t xml:space="preserve"> 205</t>
@@ -6755,10 +6755,10 @@
     <t xml:space="preserve">120.0</t>
   </si>
   <si>
-    <t xml:space="preserve">401.187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28498767</t>
+    <t xml:space="preserve">402.890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28761167</t>
   </si>
   <si>
     <t xml:space="preserve"> 139</t>
@@ -6786,6 +6786,12 @@
   </si>
   <si>
     <t xml:space="preserve">123.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228.942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16622599</t>
   </si>
   <si>
     <t xml:space="preserve"> -33</t>
@@ -20066,24 +20072,28 @@
       <c r="K371" t="s">
         <v>2066</v>
       </c>
-      <c r="L371"/>
-      <c r="M371"/>
+      <c r="L371" t="s">
+        <v>2258</v>
+      </c>
+      <c r="M371" t="s">
+        <v>2259</v>
+      </c>
       <c r="N371" t="s">
         <v>1368</v>
       </c>
       <c r="O371" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="P371" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="Q371" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="B372"/>
       <c r="C372"/>
@@ -20096,10 +20106,10 @@
         <v>248</v>
       </c>
       <c r="J372" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="K372" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="L372"/>
       <c r="M372"/>
@@ -20107,13 +20117,13 @@
         <v>1482</v>
       </c>
       <c r="O372" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="P372" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="Q372" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
     </row>
   </sheetData>
